--- a/doc/RiscyInstSet32Bit.xlsx
+++ b/doc/RiscyInstSet32Bit.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="201">
   <si>
     <t>Description</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Push and Pop</t>
   </si>
   <si>
-    <t>IntOffset (address = 4 * offset) (only for PUSHINT, POPINT)</t>
-  </si>
-  <si>
     <t>Cond: 0-Un, 1-m1 == zero, 2-m1 != nonzero, 3-m1 &gt; 0, 4-m1 &lt; 0, 5-fwd, 6-bwd</t>
   </si>
   <si>
@@ -320,15 +317,9 @@
     <t>C: 0-Read, 1-Write</t>
   </si>
   <si>
-    <t>C: 0-Read, 1-Write; IntOffset: set to 0 if not used</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>Rd/Rs</t>
-  </si>
-  <si>
     <t>Memory copy</t>
   </si>
   <si>
@@ -371,6 +362,9 @@
     <t>Rd -= 1</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>Rd = allocated memory pointer; Rs = size in bytes</t>
   </si>
   <si>
@@ -431,9 +425,6 @@
     <t>Rd = Int(Rs)</t>
   </si>
   <si>
-    <t>Rd = Rnd(Rs)</t>
-  </si>
-  <si>
     <t>Rd = Sgn(Rs)</t>
   </si>
   <si>
@@ -464,15 +455,6 @@
     <t>Load and Store to memory</t>
   </si>
   <si>
-    <t>Rlen: length</t>
-  </si>
-  <si>
-    <t>Rperi: register to peripheral # (Store 0 at Rperi to MEMCPY to main mem); C: 0-Read, 1-Write</t>
-  </si>
-  <si>
-    <t>memory[Rd] = Rs</t>
-  </si>
-  <si>
     <t>Standardised Graphics Adapter Call</t>
   </si>
   <si>
@@ -530,9 +512,6 @@
     <t>Compare</t>
   </si>
   <si>
-    <t>m1 = if(Rd == Rs) 0 else if (Rd &gt; Rs) 1 else -1</t>
-  </si>
-  <si>
     <t>Rd: destination memAddr; M: 0-Load, 1-Store</t>
   </si>
   <si>
@@ -578,15 +557,6 @@
     <t>M: 0-GOSUB, 1-RETURN</t>
   </si>
   <si>
-    <t>Mallocf</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Rd = allocated memory pointer; Rs = size in floats</t>
-  </si>
-  <si>
     <t>Rsize must contain size of memory, in T: 0-Int32, 1-Float</t>
   </si>
   <si>
@@ -596,7 +566,70 @@
     <t>NOP = MOV r1, r1; XCHG r4, r4; etc.</t>
   </si>
   <si>
-    <t>Memory size of the peripheral; IRQ 0 for the main memory</t>
+    <t>Data type</t>
+  </si>
+  <si>
+    <t>Int32</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Rd = Rnd()</t>
+  </si>
+  <si>
+    <t>FTOI</t>
+  </si>
+  <si>
+    <t>ITOF</t>
+  </si>
+  <si>
+    <t>Rd = Rs.toInt</t>
+  </si>
+  <si>
+    <t>Rd = Rs.</t>
+  </si>
+  <si>
+    <t>Float to Int</t>
+  </si>
+  <si>
+    <t>Int to Float</t>
+  </si>
+  <si>
+    <t>Rd = Rs.toFloat</t>
+  </si>
+  <si>
+    <t>memory[Rd] = Rs, only the low 8 bits of Rs are used</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Rperi: register to peripheral # (Store 0 at Rperi to MEMCPY to main mem); C: 0-Read, 1-Write; Mode: 0-Byte, 1-Halfword, 2-Word</t>
+  </si>
+  <si>
+    <t>Rs/Rd: device (see Rperi); Rlen: length</t>
+  </si>
+  <si>
+    <t>RfromAddr</t>
+  </si>
+  <si>
+    <t>RtoAddr</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>m1 = if(Rd == Rs) 0 else if (Rd &gt; Rs) 1 else -1; L/R-1 if either hand (Rd is left) is Float</t>
+  </si>
+  <si>
+    <t>IntOffset (address = 4 * offset) (only for PUSHWORDI, POPWORDI)</t>
+  </si>
+  <si>
+    <t>C: 0-Read, 1-Write; IntOffset: set to 0 if not used; popped value will go to LR register</t>
+  </si>
+  <si>
+    <t>Memory size of the peripheral, returned in Int32; IRQ 0 for the main memory</t>
   </si>
 </sst>
 </file>
@@ -791,7 +824,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="5" applyFont="1"/>
@@ -847,7 +880,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1148,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ22" sqref="AJ22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AJ25" sqref="AJ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,7 +1190,7 @@
     <col min="2" max="2" width="2.5703125" customWidth="1"/>
     <col min="3" max="34" width="3.42578125" customWidth="1"/>
     <col min="35" max="35" width="2.5703125" customWidth="1"/>
-    <col min="36" max="36" width="91.42578125" customWidth="1"/>
+    <col min="36" max="36" width="116.85546875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1203,7 +1235,7 @@
     <row r="2" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
@@ -1246,7 +1278,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="12">
@@ -1289,7 +1321,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
@@ -1327,7 +1359,7 @@
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
       <c r="AJ5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1434,7 +1466,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="13">
         <v>0</v>
@@ -1463,12 +1495,12 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -1503,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD8" s="11"/>
       <c r="AE8" s="11"/>
@@ -1511,12 +1543,12 @@
       <c r="AG8" s="11"/>
       <c r="AH8" s="11"/>
       <c r="AJ8" s="12" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="20">
         <v>0</v>
@@ -1545,12 +1577,12 @@
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="22" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
@@ -1600,15 +1632,15 @@
         <v>0</v>
       </c>
       <c r="AH9" s="20" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AJ9" s="12" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C10" s="20">
         <v>0</v>
@@ -1632,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
@@ -1688,15 +1720,15 @@
         <v>1</v>
       </c>
       <c r="AH10" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ10" s="12" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
@@ -1725,12 +1757,12 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
@@ -1773,25 +1805,23 @@
       <c r="AE11" s="6">
         <v>0</v>
       </c>
-      <c r="AF11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="6">
-        <v>0</v>
-      </c>
+      <c r="AF11" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG11" s="10"/>
       <c r="AH11" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AJ11" s="12" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -1820,29 +1850,25 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
-      <c r="V12" s="6">
-        <v>0</v>
-      </c>
-      <c r="W12" s="6">
-        <v>0</v>
-      </c>
-      <c r="X12" s="6">
-        <v>0</v>
-      </c>
+      <c r="V12" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
       <c r="Y12" s="6">
         <v>0</v>
       </c>
@@ -1862,24 +1888,24 @@
         <v>0</v>
       </c>
       <c r="AE12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12" s="6">
         <v>0</v>
       </c>
       <c r="AG12" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="6">
         <v>0</v>
       </c>
       <c r="AJ12" s="12" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
@@ -1908,7 +1934,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -1963,19 +1989,19 @@
       <c r="AF13" s="6">
         <v>0</v>
       </c>
-      <c r="AG13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="6">
-        <v>0</v>
+      <c r="AG13" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH13" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="AJ13" s="12" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
@@ -2019,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S14" s="6">
         <v>0</v>
@@ -2046,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="10" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
@@ -2056,12 +2082,12 @@
       <c r="AG14" s="10"/>
       <c r="AH14" s="10"/>
       <c r="AJ14" s="12" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C15" s="6">
         <v>0</v>
@@ -2105,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
@@ -2126,12 +2152,12 @@
       <c r="AG15" s="10"/>
       <c r="AH15" s="10"/>
       <c r="AJ15" s="12" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C16" s="6">
         <v>0</v>
@@ -2178,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
@@ -2196,12 +2222,12 @@
       <c r="AG16" s="10"/>
       <c r="AH16" s="10"/>
       <c r="AJ16" s="12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
@@ -2222,10 +2248,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -2254,7 +2280,7 @@
       <c r="AG17" s="10"/>
       <c r="AH17" s="10"/>
       <c r="AJ17" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
@@ -2280,15 +2306,15 @@
         <v>0</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
@@ -2312,7 +2338,7 @@
       <c r="AG18" s="10"/>
       <c r="AH18" s="10"/>
       <c r="AJ18" s="12" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
@@ -2370,12 +2396,12 @@
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
       <c r="AJ19" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
@@ -2446,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
@@ -2456,12 +2482,12 @@
       <c r="AG20" s="10"/>
       <c r="AH20" s="10"/>
       <c r="AJ20" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -2532,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="AA21" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
@@ -2542,12 +2568,12 @@
       <c r="AG21" s="10"/>
       <c r="AH21" s="10"/>
       <c r="AJ21" s="12" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
@@ -2645,7 +2671,7 @@
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="6">
         <v>1</v>
@@ -2720,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="AA23" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
@@ -3349,11 +3375,13 @@
       <c r="A46" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="37">
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="P9:R9"/>
     <mergeCell ref="J10:R10"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="V12:X12"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="AA21:AH21"/>
     <mergeCell ref="J22:L22"/>
@@ -3393,10 +3421,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3408,9 +3436,9 @@
     <col min="11" max="11" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -3423,24 +3451,24 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -3465,15 +3493,18 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6">
@@ -3495,15 +3526,18 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="L4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6">
@@ -3525,15 +3559,18 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="L5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6">
@@ -3555,15 +3592,18 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="L6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6">
@@ -3585,15 +3625,18 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="L7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6">
@@ -3615,15 +3658,15 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6">
@@ -3644,26 +3687,29 @@
       <c r="H9" s="6">
         <v>1</v>
       </c>
-      <c r="J9" s="23" t="s">
-        <v>184</v>
+      <c r="J9" t="s">
+        <v>183</v>
       </c>
       <c r="K9" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6">
         <v>1</v>
       </c>
       <c r="D10" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="6">
         <v>1</v>
@@ -3675,12 +3721,18 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="K10" t="s">
+        <v>189</v>
+      </c>
+      <c r="L10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6">
@@ -3699,45 +3751,42 @@
         <v>1</v>
       </c>
       <c r="H11" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="6">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6">
@@ -3753,21 +3802,24 @@
         <v>0</v>
       </c>
       <c r="G13" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="L13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6">
@@ -3786,18 +3838,21 @@
         <v>1</v>
       </c>
       <c r="H14" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="L14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6">
@@ -3810,24 +3865,27 @@
         <v>0</v>
       </c>
       <c r="F15" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="L15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6">
@@ -3846,18 +3904,21 @@
         <v>0</v>
       </c>
       <c r="H16" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="L16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6">
@@ -3873,21 +3934,24 @@
         <v>1</v>
       </c>
       <c r="G17" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="L17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6">
@@ -3906,18 +3970,21 @@
         <v>1</v>
       </c>
       <c r="H18" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="L18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6">
@@ -3927,27 +3994,30 @@
         <v>0</v>
       </c>
       <c r="E19" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="L19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6">
@@ -3966,18 +4036,21 @@
         <v>0</v>
       </c>
       <c r="H20" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="L20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6">
@@ -3993,21 +4066,24 @@
         <v>0</v>
       </c>
       <c r="G21" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="L21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6">
@@ -4026,18 +4102,21 @@
         <v>1</v>
       </c>
       <c r="H22" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="L22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6">
@@ -4050,37 +4129,40 @@
         <v>1</v>
       </c>
       <c r="F23" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="L23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6">
         <v>0</v>
       </c>
       <c r="D24" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="6">
         <v>0</v>
@@ -4089,15 +4171,18 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="L24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6">
@@ -4116,18 +4201,21 @@
         <v>0</v>
       </c>
       <c r="H25" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="L25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6">
@@ -4143,21 +4231,24 @@
         <v>0</v>
       </c>
       <c r="G26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K26" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="L26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6">
@@ -4176,18 +4267,21 @@
         <v>1</v>
       </c>
       <c r="H27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="L27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6">
@@ -4200,24 +4294,27 @@
         <v>0</v>
       </c>
       <c r="F28" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="L28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6">
@@ -4236,18 +4333,21 @@
         <v>0</v>
       </c>
       <c r="H29" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="L29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6">
@@ -4263,21 +4363,24 @@
         <v>1</v>
       </c>
       <c r="G30" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="L30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6">
@@ -4296,18 +4399,21 @@
         <v>1</v>
       </c>
       <c r="H31" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="L31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6">
@@ -4317,27 +4423,30 @@
         <v>1</v>
       </c>
       <c r="E32" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K32" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="L32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6">
@@ -4356,18 +4465,21 @@
         <v>0</v>
       </c>
       <c r="H33" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="L33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6">
@@ -4383,21 +4495,24 @@
         <v>0</v>
       </c>
       <c r="G34" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="L34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6">
@@ -4416,18 +4531,21 @@
         <v>1</v>
       </c>
       <c r="H35" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="L35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6">
@@ -4440,24 +4558,27 @@
         <v>1</v>
       </c>
       <c r="F36" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="L36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6">
@@ -4476,18 +4597,21 @@
         <v>0</v>
       </c>
       <c r="H37" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="L37" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6">
@@ -4503,21 +4627,24 @@
         <v>1</v>
       </c>
       <c r="G38" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="L38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6">
@@ -4536,52 +4663,91 @@
         <v>1</v>
       </c>
       <c r="H39" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
+      <c r="G40" s="6">
+        <v>1</v>
+      </c>
+      <c r="H40" s="6">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>80</v>
+      </c>
+      <c r="K40" t="s">
+        <v>138</v>
+      </c>
+      <c r="L40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15">
+        <v>0</v>
+      </c>
+      <c r="D41" s="15">
+        <v>0</v>
+      </c>
+      <c r="E41" s="15">
+        <v>0</v>
+      </c>
+      <c r="F41" s="15">
+        <v>0</v>
+      </c>
+      <c r="G41" s="15">
+        <v>0</v>
+      </c>
+      <c r="H41" s="15">
+        <v>0</v>
+      </c>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15">
-        <v>0</v>
-      </c>
-      <c r="D40" s="15">
-        <v>0</v>
-      </c>
-      <c r="E40" s="15">
-        <v>0</v>
-      </c>
-      <c r="F40" s="15">
-        <v>0</v>
-      </c>
-      <c r="G40" s="15">
-        <v>0</v>
-      </c>
-      <c r="H40" s="15">
-        <v>0</v>
-      </c>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="K41" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4611,7 +4777,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -4788,7 +4954,7 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
@@ -4815,7 +4981,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
@@ -4844,7 +5010,7 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
@@ -4871,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
@@ -4881,7 +5047,7 @@
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
       <c r="S6" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
@@ -4891,7 +5057,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="10"/>
@@ -6065,7 +6231,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6140,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -6162,12 +6328,12 @@
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="T4" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
@@ -6215,15 +6381,15 @@
         <v>0</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
@@ -6250,7 +6416,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
@@ -6263,7 +6429,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
@@ -6287,10 +6453,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -6303,7 +6469,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -6327,10 +6493,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -6343,7 +6509,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -6367,10 +6533,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>

--- a/doc/RiscyInstSet32Bit.xlsx
+++ b/doc/RiscyInstSet32Bit.xlsx
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="200">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>16 MB</t>
   </si>
   <si>
@@ -314,9 +311,6 @@
     <t>Destination register must contain the argument (stored as Int32)</t>
   </si>
   <si>
-    <t>C: 0-Read, 1-Write</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -527,9 +521,6 @@
     <t>Load word immediate</t>
   </si>
   <si>
-    <t>H: 0-Low, 1-High</t>
-  </si>
-  <si>
     <t>Halfword</t>
   </si>
   <si>
@@ -605,9 +596,6 @@
     <t>Mode</t>
   </si>
   <si>
-    <t>Rperi: register to peripheral # (Store 0 at Rperi to MEMCPY to main mem); C: 0-Read, 1-Write; Mode: 0-Byte, 1-Halfword, 2-Word</t>
-  </si>
-  <si>
     <t>Rs/Rd: device (see Rperi); Rlen: length</t>
   </si>
   <si>
@@ -626,10 +614,19 @@
     <t>IntOffset (address = 4 * offset) (only for PUSHWORDI, POPWORDI)</t>
   </si>
   <si>
-    <t>C: 0-Read, 1-Write; IntOffset: set to 0 if not used; popped value will go to LR register</t>
-  </si>
-  <si>
     <t>Memory size of the peripheral, returned in Int32; IRQ 0 for the main memory</t>
+  </si>
+  <si>
+    <t>Rperi: register to peripheral # (Store 0 at Rperi to MEMCPY to main mem); C: 0-Load, 1-Store; Mode: 0-Byte, 1-Halfword, 2-Word</t>
+  </si>
+  <si>
+    <t>M: 0-Low, 1-High</t>
+  </si>
+  <si>
+    <t>C: 0-Load, 1-Store</t>
+  </si>
+  <si>
+    <t>C: 0-Push 1-Pop; IntOffset: set to 0 if not used; popped value will go to LR register if IntOffset is non-zero</t>
   </si>
 </sst>
 </file>
@@ -824,7 +821,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="5" applyFont="1"/>
@@ -860,6 +857,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -890,6 +890,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1181,7 +1184,7 @@
   <dimension ref="A1:AK46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AJ25" sqref="AJ25"/>
+      <selection activeCell="AJ19" sqref="AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,7 +1199,7 @@
   <sheetData>
     <row r="1" spans="1:37" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1235,11 +1238,11 @@
     <row r="2" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1273,12 +1276,12 @@
       <c r="AG3" s="5"/>
       <c r="AH3" s="5"/>
       <c r="AJ3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="12">
@@ -1316,16 +1319,16 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
       <c r="AJ4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1359,7 +1362,7 @@
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
       <c r="AJ5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1466,7 +1469,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="13">
         <v>0</v>
@@ -1490,17 +1493,17 @@
         <v>0</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -1535,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD8" s="11"/>
       <c r="AE8" s="11"/>
@@ -1543,49 +1546,49 @@
       <c r="AG8" s="11"/>
       <c r="AH8" s="11"/>
       <c r="AJ8" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="20">
-        <v>0</v>
-      </c>
-      <c r="D9" s="20">
-        <v>0</v>
-      </c>
-      <c r="E9" s="20">
-        <v>0</v>
-      </c>
-      <c r="F9" s="20">
-        <v>0</v>
-      </c>
-      <c r="G9" s="20">
-        <v>0</v>
-      </c>
-      <c r="H9" s="20">
-        <v>0</v>
-      </c>
-      <c r="I9" s="20">
-        <v>0</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
+        <v>97</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0</v>
+      </c>
+      <c r="H9" s="21">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
       <c r="S9" s="14">
         <v>0</v>
       </c>
@@ -1616,119 +1619,121 @@
       <c r="AB9" s="6">
         <v>0</v>
       </c>
-      <c r="AC9" s="20">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="20">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="20">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="20" t="s">
-        <v>149</v>
+      <c r="AC9" s="21">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="21">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="21" t="s">
+        <v>147</v>
       </c>
       <c r="AJ9" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="20">
-        <v>0</v>
-      </c>
-      <c r="D10" s="20">
-        <v>0</v>
-      </c>
-      <c r="E10" s="20">
-        <v>0</v>
-      </c>
-      <c r="F10" s="20">
-        <v>0</v>
-      </c>
-      <c r="G10" s="20">
-        <v>0</v>
-      </c>
-      <c r="H10" s="20">
-        <v>0</v>
-      </c>
-      <c r="I10" s="20">
-        <v>0</v>
-      </c>
-      <c r="J10" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0</v>
+      </c>
+      <c r="H10" s="21">
+        <v>0</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="6">
+        <v>0</v>
+      </c>
+      <c r="U10" s="6">
+        <v>0</v>
+      </c>
+      <c r="V10" s="6">
+        <v>0</v>
+      </c>
+      <c r="W10" s="6">
+        <v>0</v>
+      </c>
+      <c r="X10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="21">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="21">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="21">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ10" s="12" t="s">
         <v>172</v>
-      </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="14">
-        <v>0</v>
-      </c>
-      <c r="T10" s="6">
-        <v>0</v>
-      </c>
-      <c r="U10" s="6">
-        <v>0</v>
-      </c>
-      <c r="V10" s="6">
-        <v>0</v>
-      </c>
-      <c r="W10" s="6">
-        <v>0</v>
-      </c>
-      <c r="X10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="20">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="20">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="20">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="20">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="20">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ10" s="12" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
@@ -1752,17 +1757,17 @@
         <v>0</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
@@ -1806,22 +1811,22 @@
         <v>0</v>
       </c>
       <c r="AF11" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AG11" s="10"/>
       <c r="AH11" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ11" s="12" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -1845,27 +1850,27 @@
         <v>0</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
@@ -1900,12 +1905,12 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
@@ -1929,12 +1934,12 @@
         <v>1</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -1990,18 +1995,18 @@
         <v>0</v>
       </c>
       <c r="AG13" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AH13" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AJ13" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
@@ -2025,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -2045,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S14" s="6">
         <v>0</v>
@@ -2072,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
@@ -2082,12 +2087,12 @@
       <c r="AG14" s="10"/>
       <c r="AH14" s="10"/>
       <c r="AJ14" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C15" s="6">
         <v>0</v>
@@ -2111,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -2131,10 +2136,10 @@
         <v>0</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
@@ -2152,12 +2157,12 @@
       <c r="AG15" s="10"/>
       <c r="AH15" s="10"/>
       <c r="AJ15" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C16" s="6">
         <v>0</v>
@@ -2181,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -2201,10 +2206,10 @@
         <v>1</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
@@ -2222,12 +2227,12 @@
       <c r="AG16" s="10"/>
       <c r="AH16" s="10"/>
       <c r="AJ16" s="12" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
@@ -2248,15 +2253,15 @@
         <v>1</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -2280,12 +2285,12 @@
       <c r="AG17" s="10"/>
       <c r="AH17" s="10"/>
       <c r="AJ17" s="12" t="s">
-        <v>95</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -2306,15 +2311,15 @@
         <v>0</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
@@ -2343,36 +2348,36 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1</v>
+      </c>
+      <c r="H19" s="14">
+        <v>1</v>
+      </c>
+      <c r="I19" s="14">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="14">
-        <v>1</v>
-      </c>
-      <c r="H19" s="14">
-        <v>1</v>
-      </c>
-      <c r="I19" s="14">
-        <v>0</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>7</v>
       </c>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -2396,12 +2401,12 @@
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
       <c r="AJ19" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
@@ -2425,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -2472,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
@@ -2482,12 +2487,12 @@
       <c r="AG20" s="10"/>
       <c r="AH20" s="10"/>
       <c r="AJ20" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -2511,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -2558,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="AA21" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
@@ -2568,12 +2573,12 @@
       <c r="AG21" s="10"/>
       <c r="AH21" s="10"/>
       <c r="AJ21" s="12" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
@@ -2597,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -2671,7 +2676,7 @@
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="6">
         <v>1</v>
@@ -2746,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="AA23" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
@@ -3375,13 +3380,14 @@
       <c r="A46" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="38">
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="P9:R9"/>
-    <mergeCell ref="J10:R10"/>
     <mergeCell ref="AF11:AG11"/>
     <mergeCell ref="V12:X12"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="AA21:AH21"/>
     <mergeCell ref="J22:L22"/>
@@ -3437,12 +3443,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="A1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -3452,20 +3458,20 @@
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="23" t="s">
-        <v>177</v>
+      <c r="A2" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="24" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3493,18 +3499,18 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6">
@@ -3526,18 +3532,18 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6">
@@ -3559,18 +3565,18 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6">
@@ -3592,18 +3598,18 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6">
@@ -3625,18 +3631,18 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6">
@@ -3658,15 +3664,15 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6">
@@ -3688,18 +3694,18 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6">
@@ -3721,18 +3727,18 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6">
@@ -3754,12 +3760,12 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6">
@@ -3781,12 +3787,12 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6">
@@ -3808,18 +3814,18 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6">
@@ -3841,18 +3847,18 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6">
@@ -3874,18 +3880,18 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6">
@@ -3907,18 +3913,18 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6">
@@ -3940,18 +3946,18 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6">
@@ -3973,18 +3979,18 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6">
@@ -4006,18 +4012,18 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6">
@@ -4039,18 +4045,18 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6">
@@ -4072,18 +4078,18 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L21" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6">
@@ -4105,18 +4111,18 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6">
@@ -4138,18 +4144,18 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6">
@@ -4171,18 +4177,18 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6">
@@ -4204,18 +4210,18 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6">
@@ -4237,18 +4243,18 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6">
@@ -4270,18 +4276,18 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6">
@@ -4303,18 +4309,18 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L28" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6">
@@ -4336,18 +4342,18 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L29" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6">
@@ -4369,18 +4375,18 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6">
@@ -4402,18 +4408,18 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6">
@@ -4435,18 +4441,18 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6">
@@ -4468,18 +4474,18 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L33" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6">
@@ -4501,18 +4507,18 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K34" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L34" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6">
@@ -4534,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L35" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6">
@@ -4567,18 +4573,18 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6">
@@ -4600,18 +4606,18 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6">
@@ -4633,18 +4639,18 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6">
@@ -4666,18 +4672,18 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L39" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6">
@@ -4699,44 +4705,44 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L40" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16">
+        <v>0</v>
+      </c>
+      <c r="D41" s="16">
+        <v>0</v>
+      </c>
+      <c r="E41" s="16">
+        <v>0</v>
+      </c>
+      <c r="F41" s="16">
+        <v>0</v>
+      </c>
+      <c r="G41" s="16">
+        <v>0</v>
+      </c>
+      <c r="H41" s="16">
+        <v>0</v>
+      </c>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15">
-        <v>0</v>
-      </c>
-      <c r="D41" s="15">
-        <v>0</v>
-      </c>
-      <c r="E41" s="15">
-        <v>0</v>
-      </c>
-      <c r="F41" s="15">
-        <v>0</v>
-      </c>
-      <c r="G41" s="15">
-        <v>0</v>
-      </c>
-      <c r="H41" s="15">
-        <v>0</v>
-      </c>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19" t="s">
-        <v>90</v>
-      </c>
       <c r="K41" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -4777,7 +4783,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -4954,7 +4960,7 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
@@ -4981,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
@@ -5010,7 +5016,7 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
@@ -5037,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
@@ -5047,7 +5053,7 @@
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
       <c r="S6" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
@@ -5057,7 +5063,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="10"/>
@@ -5220,8 +5226,8 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="6"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -6231,7 +6237,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6306,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -6328,68 +6334,68 @@
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="T4" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>0</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="T5" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
@@ -6416,7 +6422,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
@@ -6429,7 +6435,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
@@ -6453,10 +6459,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -6469,7 +6475,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -6493,10 +6499,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -6509,7 +6515,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -6533,10 +6539,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>

--- a/doc/RiscyInstSet32Bit.xlsx
+++ b/doc/RiscyInstSet32Bit.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="215">
   <si>
     <t>Description</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Registers key:</t>
   </si>
   <si>
-    <t>Jump</t>
-  </si>
-  <si>
     <t>Cond</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>Push and Pop</t>
   </si>
   <si>
-    <t>Cond: 0-Un, 1-m1 == zero, 2-m1 != nonzero, 3-m1 &gt; 0, 4-m1 &lt; 0, 5-fwd, 6-bwd</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -627,13 +621,64 @@
   </si>
   <si>
     <t>C: 0-Push 1-Pop; IntOffset: set to 0 if not used; popped value will go to LR register if IntOffset is non-zero</t>
+  </si>
+  <si>
+    <t>Conditional jump</t>
+  </si>
+  <si>
+    <t>Conditional suffix</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>m1 == 0</t>
+  </si>
+  <si>
+    <t>m1 != 0</t>
+  </si>
+  <si>
+    <t>m1 &gt; 0</t>
+  </si>
+  <si>
+    <t>m1 &lt; 0</t>
+  </si>
+  <si>
+    <t>e.g. RETURNGT</t>
+  </si>
+  <si>
+    <t>e.g. XORLS</t>
+  </si>
+  <si>
+    <t>Cond: 0-Un, 1-m1==zero, 2-m1 != zero, 3-m1 &gt; 0, 4-m1 &lt; 0</t>
+  </si>
+  <si>
+    <t>Cond: 5-fwd, 6-bwd</t>
+  </si>
+  <si>
+    <t>e.g. MOVZ</t>
+  </si>
+  <si>
+    <t>e.g. GOSUBNZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,6 +719,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -696,12 +748,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -812,19 +869,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -860,50 +918,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Explanatory Text" xfId="6" builtinId="53" customBuiltin="1"/>
+  <cellStyles count="8">
+    <cellStyle name="Explanatory Text" xfId="7" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
     <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="5" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="4" builtinId="11"/>
+    <cellStyle name="Note" xfId="6" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="5" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1183,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AJ19" sqref="AJ19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,7 +1314,7 @@
     <row r="2" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
@@ -1281,7 +1357,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="12">
@@ -1319,12 +1395,12 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
       <c r="AJ4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
@@ -1362,7 +1438,12 @@
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
       <c r="AJ5" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ6" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1469,17 +1550,13 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="13">
         <v>0</v>
       </c>
@@ -1493,17 +1570,17 @@
         <v>0</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -1538,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD8" s="11"/>
       <c r="AE8" s="11"/>
@@ -1546,22 +1623,18 @@
       <c r="AG8" s="11"/>
       <c r="AH8" s="11"/>
       <c r="AJ8" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="21">
-        <v>0</v>
-      </c>
-      <c r="D9" s="21">
-        <v>0</v>
-      </c>
-      <c r="E9" s="21">
-        <v>0</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="21">
         <v>0</v>
       </c>
@@ -1574,21 +1647,19 @@
       <c r="I9" s="21">
         <v>0</v>
       </c>
-      <c r="J9" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
       <c r="S9" s="14">
         <v>0</v>
       </c>
@@ -1623,127 +1694,121 @@
         <v>1</v>
       </c>
       <c r="AD9" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="21">
         <v>1</v>
       </c>
       <c r="AG9" s="21">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="21" t="s">
-        <v>147</v>
+        <v>1</v>
+      </c>
+      <c r="AH9" s="32" t="s">
+        <v>10</v>
       </c>
       <c r="AJ9" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="21">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0</v>
+      </c>
+      <c r="H10" s="21">
+        <v>0</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="6">
+        <v>0</v>
+      </c>
+      <c r="U10" s="6">
+        <v>0</v>
+      </c>
+      <c r="V10" s="6">
+        <v>0</v>
+      </c>
+      <c r="W10" s="6">
+        <v>0</v>
+      </c>
+      <c r="X10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="21">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="21">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ10" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="C10" s="21">
-        <v>0</v>
-      </c>
-      <c r="D10" s="21">
-        <v>0</v>
-      </c>
-      <c r="E10" s="21">
-        <v>0</v>
-      </c>
-      <c r="F10" s="21">
-        <v>0</v>
-      </c>
-      <c r="G10" s="21">
-        <v>0</v>
-      </c>
-      <c r="H10" s="21">
-        <v>0</v>
-      </c>
-      <c r="I10" s="21">
-        <v>0</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="14">
-        <v>0</v>
-      </c>
-      <c r="T10" s="6">
-        <v>0</v>
-      </c>
-      <c r="U10" s="6">
-        <v>0</v>
-      </c>
-      <c r="V10" s="6">
-        <v>0</v>
-      </c>
-      <c r="W10" s="6">
-        <v>0</v>
-      </c>
-      <c r="X10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="21">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="21">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ10" s="12" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="6">
         <v>0</v>
       </c>
@@ -1757,17 +1822,17 @@
         <v>0</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
@@ -1810,33 +1875,29 @@
       <c r="AE11" s="6">
         <v>0</v>
       </c>
-      <c r="AF11" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="6" t="s">
-        <v>94</v>
+      <c r="AF11" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="33" t="s">
+        <v>92</v>
       </c>
       <c r="AJ11" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="6">
         <v>0</v>
       </c>
@@ -1850,27 +1911,27 @@
         <v>0</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
@@ -1905,22 +1966,18 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
       <c r="F13" s="6">
         <v>0</v>
       </c>
@@ -1934,12 +1991,12 @@
         <v>1</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -1994,29 +2051,25 @@
       <c r="AF13" s="6">
         <v>0</v>
       </c>
-      <c r="AG13" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH13" s="6" t="s">
-        <v>109</v>
+      <c r="AG13" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH13" s="33" t="s">
+        <v>107</v>
       </c>
       <c r="AJ13" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="6">
         <v>0</v>
       </c>
@@ -2030,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -2049,8 +2102,8 @@
       <c r="Q14" s="6">
         <v>1</v>
       </c>
-      <c r="R14" s="6" t="s">
-        <v>12</v>
+      <c r="R14" s="33" t="s">
+        <v>10</v>
       </c>
       <c r="S14" s="6">
         <v>0</v>
@@ -2077,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
@@ -2087,22 +2140,18 @@
       <c r="AG14" s="10"/>
       <c r="AH14" s="10"/>
       <c r="AJ14" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="6">
         <v>0</v>
       </c>
@@ -2116,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -2135,11 +2184,11 @@
       <c r="Q15" s="6">
         <v>0</v>
       </c>
-      <c r="R15" s="6" t="s">
-        <v>12</v>
+      <c r="R15" s="33" t="s">
+        <v>10</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
@@ -2157,22 +2206,18 @@
       <c r="AG15" s="10"/>
       <c r="AH15" s="10"/>
       <c r="AJ15" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="6">
         <v>0</v>
       </c>
@@ -2186,7 +2231,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -2205,11 +2250,11 @@
       <c r="Q16" s="6">
         <v>1</v>
       </c>
-      <c r="R16" s="6" t="s">
-        <v>12</v>
+      <c r="R16" s="33" t="s">
+        <v>10</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
@@ -2227,22 +2272,18 @@
       <c r="AG16" s="10"/>
       <c r="AH16" s="10"/>
       <c r="AJ16" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="6">
         <v>0</v>
       </c>
@@ -2253,15 +2294,15 @@
         <v>1</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -2285,22 +2326,18 @@
       <c r="AG17" s="10"/>
       <c r="AH17" s="10"/>
       <c r="AJ17" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="6">
         <v>0</v>
       </c>
@@ -2311,15 +2348,15 @@
         <v>0</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
@@ -2343,22 +2380,18 @@
       <c r="AG18" s="10"/>
       <c r="AH18" s="10"/>
       <c r="AJ18" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="6">
         <v>0</v>
       </c>
@@ -2371,13 +2404,13 @@
       <c r="I19" s="14">
         <v>0</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10" t="s">
-        <v>7</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -2401,22 +2434,18 @@
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
       <c r="AJ19" s="12" t="s">
-        <v>11</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="6">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="6">
         <v>1</v>
       </c>
@@ -2430,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -2477,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
@@ -2487,22 +2516,18 @@
       <c r="AG20" s="10"/>
       <c r="AH20" s="10"/>
       <c r="AJ20" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="6">
         <v>1</v>
       </c>
@@ -2516,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -2563,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="AA21" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
@@ -2573,22 +2598,18 @@
       <c r="AG21" s="10"/>
       <c r="AH21" s="10"/>
       <c r="AJ21" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="6">
         <v>1</v>
       </c>
@@ -2602,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -2676,17 +2697,13 @@
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="6">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="6">
         <v>1</v>
       </c>
@@ -2751,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="AA23" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
@@ -2760,42 +2777,6 @@
       <c r="AF23" s="10"/>
       <c r="AG23" s="10"/>
       <c r="AH23" s="10"/>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="6"/>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="6"/>
-      <c r="AH25" s="6"/>
-      <c r="AJ25" s="12"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
@@ -3380,14 +3361,29 @@
       <c r="A46" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:R9"/>
+  <mergeCells count="54">
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:R10"/>
     <mergeCell ref="AF11:AG11"/>
     <mergeCell ref="V12:X12"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="AA21:AH21"/>
     <mergeCell ref="J22:L22"/>
@@ -3400,7 +3396,7 @@
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="P12:R12"/>
     <mergeCell ref="S12:U12"/>
-    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="C19:E19"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="S15:AH15"/>
     <mergeCell ref="AA23:AH23"/>
@@ -3414,6 +3410,7 @@
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="S16:AH16"/>
+    <mergeCell ref="J19:L19"/>
     <mergeCell ref="AC8:AH8"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="M8:O8"/>
@@ -3427,10 +3424,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3440,11 +3437,14 @@
     <col min="3" max="8" width="3.42578125" customWidth="1"/>
     <col min="9" max="9" width="2.5703125" customWidth="1"/>
     <col min="11" max="11" width="45.7109375" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -3457,24 +3457,24 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -3499,18 +3499,24 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6">
@@ -3532,18 +3538,24 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" t="s">
+        <v>175</v>
+      </c>
+      <c r="N4" t="s">
+        <v>201</v>
+      </c>
+      <c r="O4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>105</v>
-      </c>
-      <c r="L4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6">
@@ -3565,18 +3577,24 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="N5" t="s">
+        <v>202</v>
+      </c>
+      <c r="O5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6">
@@ -3598,18 +3616,24 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="N6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6">
@@ -3631,18 +3655,24 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="N7" t="s">
+        <v>204</v>
+      </c>
+      <c r="O7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6">
@@ -3664,15 +3694,15 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6">
@@ -3694,18 +3724,21 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
+        <v>178</v>
+      </c>
+      <c r="K9" t="s">
         <v>180</v>
       </c>
-      <c r="K9" t="s">
-        <v>182</v>
-      </c>
       <c r="L9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6">
@@ -3727,18 +3760,21 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6">
@@ -3760,12 +3796,15 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6">
@@ -3787,12 +3826,15 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6">
@@ -3814,18 +3856,18 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6">
@@ -3847,18 +3889,18 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6">
@@ -3880,18 +3922,18 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6">
@@ -3913,18 +3955,18 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6">
@@ -3946,18 +3988,18 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6">
@@ -3979,18 +4021,18 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6">
@@ -4012,18 +4054,18 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6">
@@ -4045,18 +4087,18 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6">
@@ -4078,18 +4120,18 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6">
@@ -4111,18 +4153,18 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6">
@@ -4144,18 +4186,18 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6">
@@ -4177,18 +4219,18 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6">
@@ -4210,18 +4252,18 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6">
@@ -4243,18 +4285,18 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6">
@@ -4276,18 +4318,18 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6">
@@ -4309,18 +4351,18 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6">
@@ -4342,18 +4384,18 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6">
@@ -4375,18 +4417,18 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6">
@@ -4408,18 +4450,18 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6">
@@ -4441,18 +4483,18 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L32" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6">
@@ -4474,18 +4516,18 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6">
@@ -4507,18 +4549,18 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6">
@@ -4540,18 +4582,18 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6">
@@ -4573,18 +4615,18 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K36" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L36" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6">
@@ -4606,18 +4648,18 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6">
@@ -4639,18 +4681,18 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6">
@@ -4672,18 +4714,18 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6">
@@ -4705,18 +4747,18 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="16">
@@ -4739,10 +4781,10 @@
       </c>
       <c r="I41" s="20"/>
       <c r="J41" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -4783,7 +4825,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -4960,7 +5002,7 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
@@ -4987,7 +5029,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
@@ -5016,7 +5058,7 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
@@ -5043,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
@@ -5053,7 +5095,7 @@
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
       <c r="S6" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
@@ -5063,7 +5105,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="10"/>
@@ -6237,7 +6279,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6312,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -6334,68 +6376,68 @@
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="T4" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>0</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>147</v>
-      </c>
       <c r="T5" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
@@ -6422,7 +6464,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
@@ -6435,7 +6477,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
@@ -6459,10 +6501,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -6475,7 +6517,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -6499,10 +6541,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -6515,7 +6557,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -6539,10 +6581,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>

--- a/doc/RiscyInstSet32Bit.xlsx
+++ b/doc/RiscyInstSet32Bit.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="214">
   <si>
     <t>Description</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Log</t>
   </si>
   <si>
-    <t>Int-ify</t>
-  </si>
-  <si>
     <t>Random</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>LOG</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>RND</t>
   </si>
   <si>
@@ -410,9 +404,6 @@
     <t>Rd = Log(Rs)</t>
   </si>
   <si>
-    <t>Rd = Int(Rs)</t>
-  </si>
-  <si>
     <t>Rd = Sgn(Rs)</t>
   </si>
   <si>
@@ -542,9 +533,6 @@
     <t>M: 0-GOSUB, 1-RETURN</t>
   </si>
   <si>
-    <t>Rsize must contain size of memory, in T: 0-Int32, 1-Float</t>
-  </si>
-  <si>
     <t>Unused registers are ignored</t>
   </si>
   <si>
@@ -569,21 +557,12 @@
     <t>ITOF</t>
   </si>
   <si>
-    <t>Rd = Rs.toInt</t>
-  </si>
-  <si>
-    <t>Rd = Rs.</t>
-  </si>
-  <si>
     <t>Float to Int</t>
   </si>
   <si>
     <t>Int to Float</t>
   </si>
   <si>
-    <t>Rd = Rs.toFloat</t>
-  </si>
-  <si>
     <t>memory[Rd] = Rs, only the low 8 bits of Rs are used</t>
   </si>
   <si>
@@ -620,9 +599,6 @@
     <t>C: 0-Load, 1-Store</t>
   </si>
   <si>
-    <t>C: 0-Push 1-Pop; IntOffset: set to 0 if not used; popped value will go to LR register if IntOffset is non-zero</t>
-  </si>
-  <si>
     <t>Conditional jump</t>
   </si>
   <si>
@@ -672,6 +648,27 @@
   </si>
   <si>
     <t>e.g. GOSUBNZ</t>
+  </si>
+  <si>
+    <t>Rd = (int) Rs</t>
+  </si>
+  <si>
+    <t>Rd = (float) Rs</t>
+  </si>
+  <si>
+    <t>RNDI</t>
+  </si>
+  <si>
+    <t>Rd = Rndint()</t>
+  </si>
+  <si>
+    <t>Random integer</t>
+  </si>
+  <si>
+    <t>Rsize must contain size of memory, in Int32</t>
+  </si>
+  <si>
+    <t>M: 0-push reg, 1-pushword; C: 0-Push 1-Pop; IntOffset: set to 0 if not used; popped value will go to LR register if IntOffset is non-zero</t>
   </si>
 </sst>
 </file>
@@ -879,7 +876,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="6" applyFont="1"/>
@@ -901,12 +898,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -921,9 +912,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -932,15 +920,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -950,25 +969,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1259,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20:L20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AJ19" sqref="AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,7 +1314,7 @@
     <row r="2" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
@@ -1360,7 +1360,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>8</v>
       </c>
       <c r="D4" s="5"/>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
@@ -1438,12 +1438,12 @@
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
       <c r="AJ5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AJ6" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1552,39 +1552,39 @@
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11" t="s">
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11" t="s">
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="14">
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="12">
         <v>0</v>
       </c>
       <c r="T8" s="6">
@@ -1614,141 +1614,141 @@
       <c r="AB8" s="6">
         <v>0</v>
       </c>
-      <c r="AC8" s="11" t="s">
+      <c r="AC8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AJ8" s="12" t="s">
-        <v>168</v>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AJ8" s="10" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="21">
-        <v>0</v>
-      </c>
-      <c r="G9" s="21">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21">
-        <v>0</v>
-      </c>
-      <c r="I9" s="21">
-        <v>0</v>
-      </c>
-      <c r="J9" s="15" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0</v>
+      </c>
+      <c r="I9" s="18">
+        <v>0</v>
+      </c>
+      <c r="J9" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="29" t="s">
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="12">
+        <v>0</v>
+      </c>
+      <c r="T9" s="6">
+        <v>0</v>
+      </c>
+      <c r="U9" s="6">
+        <v>0</v>
+      </c>
+      <c r="V9" s="6">
+        <v>0</v>
+      </c>
+      <c r="W9" s="6">
+        <v>0</v>
+      </c>
+      <c r="X9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ9" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="14">
-        <v>0</v>
-      </c>
-      <c r="T9" s="6">
-        <v>0</v>
-      </c>
-      <c r="U9" s="6">
-        <v>0</v>
-      </c>
-      <c r="V9" s="6">
-        <v>0</v>
-      </c>
-      <c r="W9" s="6">
-        <v>0</v>
-      </c>
-      <c r="X9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="21">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="21">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ9" s="12" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="21">
-        <v>0</v>
-      </c>
-      <c r="G10" s="21">
-        <v>0</v>
-      </c>
-      <c r="H10" s="21">
-        <v>0</v>
-      </c>
-      <c r="I10" s="21">
-        <v>0</v>
-      </c>
-      <c r="J10" s="22" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
+      <c r="J10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="14">
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="12">
         <v>0</v>
       </c>
       <c r="T10" s="6">
@@ -1778,64 +1778,64 @@
       <c r="AB10" s="6">
         <v>0</v>
       </c>
-      <c r="AC10" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="21">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="21">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ10" s="12" t="s">
-        <v>171</v>
+      <c r="AC10" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="6">
         <v>0</v>
       </c>
-      <c r="G11" s="14">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10" t="s">
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10" t="s">
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
       <c r="S11" s="6">
         <v>0</v>
       </c>
@@ -1875,66 +1875,66 @@
       <c r="AE11" s="6">
         <v>0</v>
       </c>
-      <c r="AF11" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ11" s="12" t="s">
-        <v>194</v>
+      <c r="AF11" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ11" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="6">
         <v>0</v>
       </c>
-      <c r="G12" s="14">
-        <v>0</v>
-      </c>
-      <c r="H12" s="14">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10" t="s">
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10" t="s">
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
       <c r="Y12" s="6">
         <v>0</v>
       </c>
@@ -1965,41 +1965,41 @@
       <c r="AH12" s="6">
         <v>0</v>
       </c>
-      <c r="AJ12" s="12" t="s">
-        <v>187</v>
+      <c r="AJ12" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
+        <v>153</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="6">
         <v>0</v>
       </c>
-      <c r="G13" s="14">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
-        <v>1</v>
-      </c>
-      <c r="J13" s="10" t="s">
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1</v>
+      </c>
+      <c r="J13" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10" t="s">
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
       <c r="P13" s="6">
         <v>0</v>
       </c>
@@ -2051,42 +2051,42 @@
       <c r="AF13" s="6">
         <v>0</v>
       </c>
-      <c r="AG13" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH13" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ13" s="12" t="s">
-        <v>191</v>
+      <c r="AG13" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH13" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ13" s="10" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="6">
         <v>0</v>
       </c>
-      <c r="G14" s="14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14">
-        <v>1</v>
-      </c>
-      <c r="J14" s="10" t="s">
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1</v>
+      </c>
+      <c r="J14" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
       <c r="M14" s="6">
         <v>0</v>
       </c>
@@ -2102,7 +2102,7 @@
       <c r="Q14" s="6">
         <v>1</v>
       </c>
-      <c r="R14" s="33" t="s">
+      <c r="R14" s="22" t="s">
         <v>10</v>
       </c>
       <c r="S14" s="6">
@@ -2129,46 +2129,46 @@
       <c r="Z14" s="6">
         <v>0</v>
       </c>
-      <c r="AA14" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AJ14" s="12" t="s">
-        <v>157</v>
+      <c r="AA14" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="29"/>
+      <c r="AJ14" s="10" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="6">
         <v>0</v>
       </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>1</v>
-      </c>
-      <c r="J15" s="10" t="s">
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>1</v>
+      </c>
+      <c r="J15" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
       <c r="M15" s="6">
         <v>0</v>
       </c>
@@ -2184,57 +2184,57 @@
       <c r="Q15" s="6">
         <v>0</v>
       </c>
-      <c r="R15" s="33" t="s">
+      <c r="R15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="S15" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
-      <c r="AJ15" s="12" t="s">
-        <v>157</v>
+      <c r="S15" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
+      <c r="AJ15" s="10" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="6">
         <v>0</v>
       </c>
-      <c r="G16" s="14">
-        <v>0</v>
-      </c>
-      <c r="H16" s="14">
-        <v>0</v>
-      </c>
-      <c r="I16" s="14">
-        <v>1</v>
-      </c>
-      <c r="J16" s="10" t="s">
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>1</v>
+      </c>
+      <c r="J16" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
       <c r="M16" s="6">
         <v>0</v>
       </c>
@@ -2250,202 +2250,202 @@
       <c r="Q16" s="6">
         <v>1</v>
       </c>
-      <c r="R16" s="33" t="s">
+      <c r="R16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="S16" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AJ16" s="12" t="s">
-        <v>195</v>
+      <c r="S16" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AJ16" s="10" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="6">
         <v>0</v>
       </c>
-      <c r="G17" s="14">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14">
-        <v>1</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="J17" s="10" t="s">
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10" t="s">
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AJ17" s="12" t="s">
-        <v>196</v>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
+      <c r="AJ17" s="10" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="6">
         <v>0</v>
       </c>
-      <c r="G18" s="14">
-        <v>1</v>
-      </c>
-      <c r="H18" s="14">
-        <v>0</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="J18" s="10" t="s">
+      <c r="G18" s="12">
+        <v>1</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AJ18" s="12" t="s">
-        <v>197</v>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AJ18" s="10" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C19" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="14">
-        <v>1</v>
-      </c>
-      <c r="H19" s="14">
-        <v>1</v>
-      </c>
-      <c r="I19" s="14">
-        <v>0</v>
-      </c>
-      <c r="J19" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
-      <c r="AJ19" s="12" t="s">
-        <v>212</v>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AJ19" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="6">
         <v>1</v>
       </c>
@@ -2458,11 +2458,11 @@
       <c r="I20" s="6">
         <v>1</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
       <c r="M20" s="6">
         <v>0</v>
       </c>
@@ -2505,29 +2505,29 @@
       <c r="Z20" s="6">
         <v>0</v>
       </c>
-      <c r="AA20" s="10" t="s">
+      <c r="AA20" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AJ20" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AJ20" s="12" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="6">
         <v>1</v>
       </c>
@@ -2540,11 +2540,11 @@
       <c r="I21" s="6">
         <v>1</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
       <c r="M21" s="6">
         <v>0</v>
       </c>
@@ -2587,29 +2587,29 @@
       <c r="Z21" s="6">
         <v>1</v>
       </c>
-      <c r="AA21" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
-      <c r="AJ21" s="12" t="s">
-        <v>193</v>
+      <c r="AA21" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
+      <c r="AJ21" s="10" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="6">
         <v>1</v>
       </c>
@@ -2622,11 +2622,11 @@
       <c r="I22" s="6">
         <v>1</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
       <c r="M22" s="6">
         <v>0</v>
       </c>
@@ -2693,17 +2693,17 @@
       <c r="AH22" s="6">
         <v>1</v>
       </c>
-      <c r="AJ22" s="12"/>
+      <c r="AJ22" s="10"/>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="6">
         <v>1</v>
       </c>
@@ -2767,16 +2767,16 @@
       <c r="Z23" s="6">
         <v>1</v>
       </c>
-      <c r="AA23" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
+      <c r="AA23" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
@@ -2813,7 +2813,7 @@
       <c r="AF30" s="6"/>
       <c r="AG30" s="6"/>
       <c r="AH30" s="6"/>
-      <c r="AJ30" s="12"/>
+      <c r="AJ30" s="10"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -2850,7 +2850,7 @@
       <c r="AF31" s="6"/>
       <c r="AG31" s="6"/>
       <c r="AH31" s="6"/>
-      <c r="AJ31" s="12"/>
+      <c r="AJ31" s="10"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
@@ -2887,7 +2887,7 @@
       <c r="AF32" s="6"/>
       <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
-      <c r="AJ32" s="12"/>
+      <c r="AJ32" s="10"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
@@ -2924,7 +2924,7 @@
       <c r="AF33" s="6"/>
       <c r="AG33" s="6"/>
       <c r="AH33" s="6"/>
-      <c r="AJ33" s="12"/>
+      <c r="AJ33" s="10"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
@@ -2960,7 +2960,7 @@
       <c r="AF34" s="6"/>
       <c r="AG34" s="6"/>
       <c r="AH34" s="6"/>
-      <c r="AJ34" s="12"/>
+      <c r="AJ34" s="10"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -2996,7 +2996,7 @@
       <c r="AF35" s="6"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
-      <c r="AJ35" s="12"/>
+      <c r="AJ35" s="10"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
@@ -3032,7 +3032,7 @@
       <c r="AF36" s="6"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
-      <c r="AJ36" s="12"/>
+      <c r="AJ36" s="10"/>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
@@ -3068,7 +3068,7 @@
       <c r="AF37" s="6"/>
       <c r="AG37" s="6"/>
       <c r="AH37" s="6"/>
-      <c r="AJ37" s="12"/>
+      <c r="AJ37" s="10"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
@@ -3104,7 +3104,7 @@
       <c r="AF38" s="6"/>
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
-      <c r="AJ38" s="12"/>
+      <c r="AJ38" s="10"/>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
@@ -3140,7 +3140,7 @@
       <c r="AF39" s="6"/>
       <c r="AG39" s="6"/>
       <c r="AH39" s="6"/>
-      <c r="AJ39" s="12"/>
+      <c r="AJ39" s="10"/>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
@@ -3176,7 +3176,7 @@
       <c r="AF40" s="6"/>
       <c r="AG40" s="6"/>
       <c r="AH40" s="6"/>
-      <c r="AJ40" s="12"/>
+      <c r="AJ40" s="10"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
@@ -3212,7 +3212,7 @@
       <c r="AF41" s="6"/>
       <c r="AG41" s="6"/>
       <c r="AH41" s="6"/>
-      <c r="AJ41" s="12"/>
+      <c r="AJ41" s="10"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
@@ -3248,7 +3248,7 @@
       <c r="AF42" s="6"/>
       <c r="AG42" s="6"/>
       <c r="AH42" s="6"/>
-      <c r="AJ42" s="12"/>
+      <c r="AJ42" s="10"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
@@ -3284,7 +3284,7 @@
       <c r="AF43" s="6"/>
       <c r="AG43" s="6"/>
       <c r="AH43" s="6"/>
-      <c r="AJ43" s="12"/>
+      <c r="AJ43" s="10"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
@@ -3320,7 +3320,7 @@
       <c r="AF44" s="6"/>
       <c r="AG44" s="6"/>
       <c r="AH44" s="6"/>
-      <c r="AJ44" s="12"/>
+      <c r="AJ44" s="10"/>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
@@ -3362,26 +3362,23 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="AC8:AH8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AA20:AH20"/>
+    <mergeCell ref="AA23:AH23"/>
+    <mergeCell ref="M17:AH17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="M19:AH19"/>
+    <mergeCell ref="M18:AH18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="S16:AH16"/>
+    <mergeCell ref="J19:L19"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="M9:R9"/>
     <mergeCell ref="J21:L21"/>
@@ -3396,26 +3393,29 @@
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="P12:R12"/>
     <mergeCell ref="S12:U12"/>
-    <mergeCell ref="C19:E19"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="S15:AH15"/>
-    <mergeCell ref="AA23:AH23"/>
-    <mergeCell ref="M17:AH17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="M19:AH19"/>
-    <mergeCell ref="M18:AH18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="S16:AH16"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="AC8:AH8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AA20:AH20"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3427,7 +3427,7 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3443,12 +3443,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -3458,20 +3458,20 @@
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="25" t="s">
-        <v>172</v>
+      <c r="A2" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="20" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3502,16 +3502,16 @@
         <v>14</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>200</v>
+        <v>191</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -3541,16 +3541,16 @@
         <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N4" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="O4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -3577,24 +3577,24 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N5" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="O5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6">
@@ -3616,24 +3616,24 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N6" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="O6" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6">
@@ -3655,24 +3655,24 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="O7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6">
@@ -3694,15 +3694,15 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6">
@@ -3724,21 +3724,21 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K9" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="L9" t="s">
-        <v>176</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>213</v>
+        <v>172</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6">
@@ -3760,21 +3760,21 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K10" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="L10" t="s">
-        <v>175</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>214</v>
+        <v>171</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6">
@@ -3796,15 +3796,15 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>209</v>
+        <v>81</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6">
@@ -3826,10 +3826,10 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>210</v>
+        <v>83</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -3856,13 +3856,13 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -3889,13 +3889,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L14" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -3922,13 +3922,13 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L15" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -3955,13 +3955,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -3988,13 +3988,13 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -4021,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -4054,13 +4054,13 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -4087,13 +4087,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -4120,13 +4120,13 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -4153,13 +4153,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -4186,13 +4186,13 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L23" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -4219,13 +4219,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -4252,13 +4252,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L25" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -4285,13 +4285,13 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -4318,13 +4318,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L28" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -4384,13 +4384,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L29" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -4417,13 +4417,13 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L30" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -4450,13 +4450,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -4483,18 +4483,18 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L32" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6">
@@ -4516,18 +4516,18 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="K33" t="s">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="L33" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6">
@@ -4549,18 +4549,18 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K34" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L34" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6">
@@ -4582,18 +4582,18 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K35" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L35" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6">
@@ -4615,18 +4615,18 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K36" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L36" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6">
@@ -4648,18 +4648,18 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6">
@@ -4681,18 +4681,18 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K38" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L38" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6">
@@ -4714,18 +4714,18 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L39" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6">
@@ -4747,44 +4747,41 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K40" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L40" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16">
-        <v>0</v>
-      </c>
-      <c r="D41" s="16">
-        <v>0</v>
-      </c>
-      <c r="E41" s="16">
-        <v>0</v>
-      </c>
-      <c r="F41" s="16">
-        <v>0</v>
-      </c>
-      <c r="G41" s="16">
-        <v>0</v>
-      </c>
-      <c r="H41" s="16">
-        <v>0</v>
-      </c>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="K41" t="s">
-        <v>181</v>
+      <c r="A41" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14">
+        <v>0</v>
+      </c>
+      <c r="D41" s="14">
+        <v>0</v>
+      </c>
+      <c r="E41" s="14">
+        <v>0</v>
+      </c>
+      <c r="F41" s="14">
+        <v>0</v>
+      </c>
+      <c r="G41" s="14">
+        <v>0</v>
+      </c>
+      <c r="H41" s="14">
+        <v>0</v>
+      </c>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -4825,7 +4822,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -4966,43 +4963,43 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AJ4" s="12"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AJ4" s="10"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
@@ -5016,106 +5013,106 @@
       <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" s="14">
-        <v>0</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14">
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
         <v>0</v>
       </c>
       <c r="J5" s="6">
         <v>1</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AJ5" s="12"/>
+      <c r="K5" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="29"/>
+      <c r="AJ5" s="10"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0</v>
-      </c>
-      <c r="I6" s="14">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
       <c r="AI6" s="6"/>
-      <c r="AJ6" s="12"/>
+      <c r="AJ6" s="10"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
@@ -5123,9 +5120,9 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="6"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -5151,7 +5148,7 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
-      <c r="AJ7" s="12"/>
+      <c r="AJ7" s="10"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -5159,9 +5156,9 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="6"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -5187,7 +5184,7 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
-      <c r="AJ8" s="12"/>
+      <c r="AJ8" s="10"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -5195,9 +5192,9 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="6"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -5223,7 +5220,7 @@
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
-      <c r="AJ9" s="12"/>
+      <c r="AJ9" s="10"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
@@ -5231,9 +5228,9 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="6"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -5259,7 +5256,7 @@
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
-      <c r="AJ10" s="12"/>
+      <c r="AJ10" s="10"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -5267,9 +5264,9 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="6"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -5295,7 +5292,7 @@
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
-      <c r="AJ11" s="12"/>
+      <c r="AJ11" s="10"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
@@ -5303,9 +5300,9 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -5331,7 +5328,7 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
-      <c r="AJ12" s="12"/>
+      <c r="AJ12" s="10"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -5339,9 +5336,9 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -5367,7 +5364,7 @@
       <c r="AF13" s="6"/>
       <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
-      <c r="AJ13" s="12"/>
+      <c r="AJ13" s="10"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -5403,7 +5400,7 @@
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
-      <c r="AJ14" s="12"/>
+      <c r="AJ14" s="10"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
@@ -5439,7 +5436,7 @@
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
-      <c r="AJ15" s="12"/>
+      <c r="AJ15" s="10"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -5475,7 +5472,7 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
-      <c r="AJ16" s="12"/>
+      <c r="AJ16" s="10"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -5549,7 +5546,7 @@
       <c r="AF19" s="6"/>
       <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
-      <c r="AJ19" s="12"/>
+      <c r="AJ19" s="10"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="J20" s="6"/>
@@ -5589,7 +5586,7 @@
       <c r="AF21" s="6"/>
       <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
-      <c r="AJ21" s="12"/>
+      <c r="AJ21" s="10"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -5626,7 +5623,7 @@
       <c r="AF22" s="6"/>
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
-      <c r="AJ22" s="12"/>
+      <c r="AJ22" s="10"/>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
@@ -5663,7 +5660,7 @@
       <c r="AF23" s="6"/>
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
-      <c r="AJ23" s="12"/>
+      <c r="AJ23" s="10"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
@@ -5700,7 +5697,7 @@
       <c r="AF24" s="6"/>
       <c r="AG24" s="6"/>
       <c r="AH24" s="6"/>
-      <c r="AJ24" s="12"/>
+      <c r="AJ24" s="10"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
@@ -5737,7 +5734,7 @@
       <c r="AF25" s="6"/>
       <c r="AG25" s="6"/>
       <c r="AH25" s="6"/>
-      <c r="AJ25" s="12"/>
+      <c r="AJ25" s="10"/>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
@@ -5774,7 +5771,7 @@
       <c r="AF26" s="6"/>
       <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
-      <c r="AJ26" s="12"/>
+      <c r="AJ26" s="10"/>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
@@ -5811,7 +5808,7 @@
       <c r="AF27" s="6"/>
       <c r="AG27" s="6"/>
       <c r="AH27" s="6"/>
-      <c r="AJ27" s="12"/>
+      <c r="AJ27" s="10"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -5847,7 +5844,7 @@
       <c r="AF28" s="6"/>
       <c r="AG28" s="6"/>
       <c r="AH28" s="6"/>
-      <c r="AJ28" s="12"/>
+      <c r="AJ28" s="10"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
@@ -5883,7 +5880,7 @@
       <c r="AF29" s="6"/>
       <c r="AG29" s="6"/>
       <c r="AH29" s="6"/>
-      <c r="AJ29" s="12"/>
+      <c r="AJ29" s="10"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
@@ -5919,7 +5916,7 @@
       <c r="AF30" s="6"/>
       <c r="AG30" s="6"/>
       <c r="AH30" s="6"/>
-      <c r="AJ30" s="12"/>
+      <c r="AJ30" s="10"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -5955,7 +5952,7 @@
       <c r="AF31" s="6"/>
       <c r="AG31" s="6"/>
       <c r="AH31" s="6"/>
-      <c r="AJ31" s="12"/>
+      <c r="AJ31" s="10"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
@@ -5991,7 +5988,7 @@
       <c r="AF32" s="6"/>
       <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
-      <c r="AJ32" s="12"/>
+      <c r="AJ32" s="10"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
@@ -6027,7 +6024,7 @@
       <c r="AF33" s="6"/>
       <c r="AG33" s="6"/>
       <c r="AH33" s="6"/>
-      <c r="AJ33" s="12"/>
+      <c r="AJ33" s="10"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
@@ -6063,7 +6060,7 @@
       <c r="AF34" s="6"/>
       <c r="AG34" s="6"/>
       <c r="AH34" s="6"/>
-      <c r="AJ34" s="12"/>
+      <c r="AJ34" s="10"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -6099,7 +6096,7 @@
       <c r="AF35" s="6"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
-      <c r="AJ35" s="12"/>
+      <c r="AJ35" s="10"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
@@ -6135,7 +6132,7 @@
       <c r="AF36" s="6"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
-      <c r="AJ36" s="12"/>
+      <c r="AJ36" s="10"/>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
@@ -6171,7 +6168,7 @@
       <c r="AF37" s="6"/>
       <c r="AG37" s="6"/>
       <c r="AH37" s="6"/>
-      <c r="AJ37" s="12"/>
+      <c r="AJ37" s="10"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
@@ -6207,7 +6204,7 @@
       <c r="AF38" s="6"/>
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
-      <c r="AJ38" s="12"/>
+      <c r="AJ38" s="10"/>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
@@ -6279,7 +6276,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6354,34 +6351,34 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="T4" s="12" t="s">
-        <v>146</v>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="T4" s="10" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
@@ -6429,15 +6426,15 @@
         <v>0</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>153</v>
+        <v>142</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
@@ -6463,21 +6460,21 @@
       <c r="J6" s="6">
         <v>1</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="T6" s="12"/>
+      <c r="K6" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
@@ -6501,23 +6498,23 @@
         <v>1</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="T7" s="12"/>
+        <v>145</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -6541,23 +6538,23 @@
         <v>0</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="T8" s="12"/>
+        <v>145</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -6581,19 +6578,19 @@
         <v>1</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="T9" s="12"/>
+        <v>145</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
@@ -6613,7 +6610,7 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="T10" s="12"/>
+      <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -6633,7 +6630,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="T11" s="12"/>
+      <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
@@ -6653,7 +6650,7 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
-      <c r="T12" s="12"/>
+      <c r="T12" s="10"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -6673,7 +6670,7 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="T13" s="12"/>
+      <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -6693,7 +6690,7 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
-      <c r="T14" s="12"/>
+      <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
@@ -6713,7 +6710,7 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
-      <c r="T15" s="12"/>
+      <c r="T15" s="10"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -6733,7 +6730,7 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
-      <c r="T16" s="12"/>
+      <c r="T16" s="10"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -6753,7 +6750,7 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="T17" s="12"/>
+      <c r="T17" s="10"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -6775,22 +6772,22 @@
       <c r="R18" s="6"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
@@ -6810,25 +6807,25 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
-      <c r="T20" s="12"/>
+      <c r="T20" s="10"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -6849,7 +6846,7 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
-      <c r="T22" s="12"/>
+      <c r="T22" s="10"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
@@ -6870,7 +6867,7 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
-      <c r="T23" s="12"/>
+      <c r="T23" s="10"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
@@ -6891,7 +6888,7 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
-      <c r="T24" s="12"/>
+      <c r="T24" s="10"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
@@ -6912,7 +6909,7 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
-      <c r="T25" s="12"/>
+      <c r="T25" s="10"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
@@ -6933,7 +6930,7 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
-      <c r="T26" s="12"/>
+      <c r="T26" s="10"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
@@ -6954,7 +6951,7 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
-      <c r="T27" s="12"/>
+      <c r="T27" s="10"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -6975,7 +6972,7 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
-      <c r="T28" s="12"/>
+      <c r="T28" s="10"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
@@ -6995,7 +6992,7 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
-      <c r="T29" s="12"/>
+      <c r="T29" s="10"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
@@ -7015,7 +7012,7 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
-      <c r="T30" s="12"/>
+      <c r="T30" s="10"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -7035,7 +7032,7 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
-      <c r="T31" s="12"/>
+      <c r="T31" s="10"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
@@ -7055,7 +7052,7 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
-      <c r="T32" s="12"/>
+      <c r="T32" s="10"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
@@ -7075,7 +7072,7 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
-      <c r="T33" s="12"/>
+      <c r="T33" s="10"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
@@ -7095,7 +7092,7 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
-      <c r="T34" s="12"/>
+      <c r="T34" s="10"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -7115,7 +7112,7 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
-      <c r="T35" s="12"/>
+      <c r="T35" s="10"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
@@ -7135,7 +7132,7 @@
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
-      <c r="T36" s="12"/>
+      <c r="T36" s="10"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
@@ -7155,7 +7152,7 @@
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
-      <c r="T37" s="12"/>
+      <c r="T37" s="10"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
@@ -7175,7 +7172,7 @@
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
-      <c r="T38" s="12"/>
+      <c r="T38" s="10"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
@@ -7195,7 +7192,7 @@
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
-      <c r="T39" s="12"/>
+      <c r="T39" s="10"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>

--- a/doc/RiscyInstSet32Bit.xlsx
+++ b/doc/RiscyInstSet32Bit.xlsx
@@ -876,7 +876,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="6" applyFont="1"/>
@@ -932,9 +932,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
@@ -1259,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AJ19" sqref="AJ19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,11 +1549,11 @@
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="11">
         <v>0</v>
       </c>
@@ -1569,21 +1566,21 @@
       <c r="I8" s="11">
         <v>0</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32" t="s">
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32" t="s">
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
       <c r="S8" s="12">
         <v>0</v>
       </c>
@@ -1614,14 +1611,14 @@
       <c r="AB8" s="6">
         <v>0</v>
       </c>
-      <c r="AC8" s="32" t="s">
+      <c r="AC8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="32"/>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="32"/>
-      <c r="AH8" s="32"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="31"/>
+      <c r="AH8" s="31"/>
       <c r="AJ8" s="10" t="s">
         <v>165</v>
       </c>
@@ -1647,19 +1644,19 @@
       <c r="I9" s="18">
         <v>0</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="31" t="s">
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
       <c r="S9" s="12">
         <v>0</v>
       </c>
@@ -1733,21 +1730,21 @@
       <c r="I10" s="18">
         <v>0</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27" t="s">
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="28" t="s">
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
       <c r="S10" s="12">
         <v>0</v>
       </c>
@@ -1821,21 +1818,21 @@
       <c r="I11" s="12">
         <v>0</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29" t="s">
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29" t="s">
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
       <c r="S11" s="6">
         <v>0</v>
       </c>
@@ -1910,31 +1907,31 @@
       <c r="I12" s="12">
         <v>0</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29" t="s">
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29" t="s">
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29" t="s">
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29" t="s">
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
       <c r="Y12" s="6">
         <v>0</v>
       </c>
@@ -1973,11 +1970,11 @@
       <c r="A13" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="C13" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="6">
         <v>0</v>
       </c>
@@ -1990,16 +1987,16 @@
       <c r="I13" s="12">
         <v>1</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29" t="s">
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
       <c r="P13" s="6">
         <v>0</v>
       </c>
@@ -2082,11 +2079,11 @@
       <c r="I14" s="12">
         <v>1</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
       <c r="M14" s="6">
         <v>0</v>
       </c>
@@ -2129,16 +2126,16 @@
       <c r="Z14" s="6">
         <v>0</v>
       </c>
-      <c r="AA14" s="29" t="s">
+      <c r="AA14" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="29"/>
-      <c r="AH14" s="29"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
       <c r="AJ14" s="10" t="s">
         <v>154</v>
       </c>
@@ -2164,11 +2161,11 @@
       <c r="I15" s="12">
         <v>1</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
       <c r="M15" s="6">
         <v>0</v>
       </c>
@@ -2187,24 +2184,24 @@
       <c r="R15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="S15" s="29" t="s">
+      <c r="S15" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="29"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
       <c r="AJ15" s="10" t="s">
         <v>154</v>
       </c>
@@ -2230,11 +2227,11 @@
       <c r="I16" s="12">
         <v>1</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
       <c r="M16" s="6">
         <v>0</v>
       </c>
@@ -2253,24 +2250,24 @@
       <c r="R16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="S16" s="29" t="s">
+      <c r="S16" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="29"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
       <c r="AJ16" s="10" t="s">
         <v>188</v>
       </c>
@@ -2296,35 +2293,35 @@
       <c r="I17" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29" t="s">
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="29"/>
-      <c r="AG17" s="29"/>
-      <c r="AH17" s="29"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
       <c r="AJ17" s="10" t="s">
         <v>189</v>
       </c>
@@ -2350,35 +2347,35 @@
       <c r="I18" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29" t="s">
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="29"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
       <c r="AJ18" s="10" t="s">
         <v>213</v>
       </c>
@@ -2404,35 +2401,35 @@
       <c r="I19" s="12">
         <v>0</v>
       </c>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="29" t="s">
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="29"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
       <c r="AJ19" s="10" t="s">
         <v>204</v>
       </c>
@@ -2458,11 +2455,11 @@
       <c r="I20" s="6">
         <v>1</v>
       </c>
-      <c r="J20" s="29" t="s">
+      <c r="J20" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
       <c r="M20" s="6">
         <v>0</v>
       </c>
@@ -2505,16 +2502,16 @@
       <c r="Z20" s="6">
         <v>0</v>
       </c>
-      <c r="AA20" s="29" t="s">
+      <c r="AA20" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="29"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
       <c r="AJ20" s="10" t="s">
         <v>89</v>
       </c>
@@ -2540,11 +2537,11 @@
       <c r="I21" s="6">
         <v>1</v>
       </c>
-      <c r="J21" s="29" t="s">
+      <c r="J21" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
       <c r="M21" s="6">
         <v>0</v>
       </c>
@@ -2587,16 +2584,16 @@
       <c r="Z21" s="6">
         <v>1</v>
       </c>
-      <c r="AA21" s="29" t="s">
+      <c r="AA21" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="29"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="28"/>
       <c r="AJ21" s="10" t="s">
         <v>186</v>
       </c>
@@ -2622,11 +2619,11 @@
       <c r="I22" s="6">
         <v>1</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="J22" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
       <c r="M22" s="6">
         <v>0</v>
       </c>
@@ -2767,16 +2764,16 @@
       <c r="Z23" s="6">
         <v>1</v>
       </c>
-      <c r="AA23" s="29" t="s">
+      <c r="AA23" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="29"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
@@ -3427,7 +3424,7 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection activeCell="Z38" sqref="Z38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3443,12 +3440,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -3458,18 +3455,18 @@
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="20" t="s">
         <v>168</v>
       </c>
@@ -4808,7 +4805,7 @@
   <dimension ref="A1:AJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4971,30 +4968,30 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
       <c r="AJ4" s="10"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
@@ -5025,32 +5022,32 @@
       <c r="J5" s="6">
         <v>1</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="29"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
       <c r="AJ5" s="10"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -5081,36 +5078,36 @@
       <c r="J6" s="6">
         <v>0</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29" t="s">
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29" t="s">
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="29"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="10"/>
     </row>
@@ -6356,22 +6353,22 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
       <c r="T4" s="10" t="s">
         <v>143</v>
       </c>
@@ -6460,16 +6457,16 @@
       <c r="J6" s="6">
         <v>1</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -6500,16 +6497,16 @@
       <c r="J7" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -6540,16 +6537,16 @@
       <c r="J8" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -6580,16 +6577,16 @@
       <c r="J9" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">

--- a/doc/RiscyInstSet32Bit.xlsx
+++ b/doc/RiscyInstSet32Bit.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Math Opcodes" sheetId="2" r:id="rId2"/>
-    <sheet name="BIOS Call" sheetId="4" r:id="rId3"/>
-    <sheet name="StdGrAd Call" sheetId="5" r:id="rId4"/>
+    <sheet name="Instructions" sheetId="6" r:id="rId2"/>
+    <sheet name="Math Opcodes" sheetId="2" r:id="rId3"/>
+    <sheet name="BIOS Call" sheetId="4" r:id="rId4"/>
+    <sheet name="StdGrAd Call" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="268">
   <si>
     <t>Description</t>
   </si>
@@ -482,9 +483,6 @@
     <t>P: 0-X, 1-Y; 0-Fore, 1-Back</t>
   </si>
   <si>
-    <t>Maximum memory size</t>
-  </si>
-  <si>
     <t>Instruction size</t>
   </si>
   <si>
@@ -669,6 +667,171 @@
   </si>
   <si>
     <t>M: 0-push reg, 1-pushword; C: 0-Push 1-Pop; IntOffset: set to 0 if not used; popped value will go to LR register if IntOffset is non-zero</t>
+  </si>
+  <si>
+    <t>LOADBYTE</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>LOADHWORD</t>
+  </si>
+  <si>
+    <t>LOADWORD</t>
+  </si>
+  <si>
+    <t>Arguments</t>
+  </si>
+  <si>
+    <t>LOADBYTEI</t>
+  </si>
+  <si>
+    <t>LOADHWORDI</t>
+  </si>
+  <si>
+    <t>LOADWORDI</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>STOREBYTE</t>
+  </si>
+  <si>
+    <t>STOREHWORD</t>
+  </si>
+  <si>
+    <t>STOREWORD</t>
+  </si>
+  <si>
+    <t>STOREBYTEI</t>
+  </si>
+  <si>
+    <t>STOREHWORDI</t>
+  </si>
+  <si>
+    <t>LOADWORDIMEM</t>
+  </si>
+  <si>
+    <t>STOREWORDIMEM</t>
+  </si>
+  <si>
+    <t>destination, source, peripheral</t>
+  </si>
+  <si>
+    <t>destination, byte immediate</t>
+  </si>
+  <si>
+    <t>destination, halfword immediate</t>
+  </si>
+  <si>
+    <t>destination, fullword immediate</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Consisted with two opcodes to write high/low bytes</t>
+  </si>
+  <si>
+    <t>destination, memory address offset</t>
+  </si>
+  <si>
+    <t>Loads destination register with a byte from address stored in source register, in the device (IRQ) stored in peripheral register</t>
+  </si>
+  <si>
+    <t>Loads destination register with a halfword (two consecutive bytes) from address stored in source register, in the device (IRQ) stored in peripheral register</t>
+  </si>
+  <si>
+    <t>Loads destination register with a full word (four consecutive bytes) from address stored in source register, in the device (IRQ) stored in peripheral register</t>
+  </si>
+  <si>
+    <t>Loads destination register with a byte immediate</t>
+  </si>
+  <si>
+    <t>Loads destination register with a halfword immediate</t>
+  </si>
+  <si>
+    <t>Loads destination register with a full word immediate</t>
+  </si>
+  <si>
+    <t>Loads destination register with a full word from specified memory address</t>
+  </si>
+  <si>
+    <t>You can only address xxx0h, xxx4h, xxx8h, xxxCh addresses; offset is a forementioned memory address divided by four</t>
+  </si>
+  <si>
+    <t>Stores a byte from destination register to address stored in source register, in the device (IRQ) stored in peripheral register</t>
+  </si>
+  <si>
+    <t>Stores a halfword (two consecutive bytes) from destination register to address stored in source register, in the device (IRQ) stored in peripheral register</t>
+  </si>
+  <si>
+    <t>Stores a full word (four consecutive bytes) from destination register to address stored in source register, in the device (IRQ) stored in peripheral register</t>
+  </si>
+  <si>
+    <t>Stores a byte immediate from address stored in destination register</t>
+  </si>
+  <si>
+    <t>Stores a halfword immediate from address stored in destination register</t>
+  </si>
+  <si>
+    <t>Stores a full word from destination register to specified memory address</t>
+  </si>
+  <si>
+    <t>rDest = dev[rPeri].mem[rSrc]</t>
+  </si>
+  <si>
+    <t>rDest = immediate</t>
+  </si>
+  <si>
+    <t>dev[rPeri].mem[rSrc] = rDest</t>
+  </si>
+  <si>
+    <t>destination, peripheral, byte immediate</t>
+  </si>
+  <si>
+    <t>destination, peripheral, halfword immediate</t>
+  </si>
+  <si>
+    <t>mem[offset] = rDest</t>
+  </si>
+  <si>
+    <t>dev[rPeri].mem[rDest] = immediate</t>
+  </si>
+  <si>
+    <t>rDest = mem[offset]</t>
+  </si>
+  <si>
+    <t>Fill screen with fore/back</t>
+  </si>
+  <si>
+    <t>Set memory bank</t>
+  </si>
+  <si>
+    <t>Slot number</t>
+  </si>
+  <si>
+    <t>Bank number</t>
+  </si>
+  <si>
+    <t>Total memory window size</t>
+  </si>
+  <si>
+    <t>FeatureID*</t>
+  </si>
+  <si>
+    <t>Optional; each bank is 256 kB, will allow to address up to 1 GB of memory</t>
+  </si>
+  <si>
+    <t>Returns -1 (FFFFFFFFh) if supported, 0 otherwise</t>
+  </si>
+  <si>
+    <t>Inquire feature support</t>
   </si>
 </sst>
 </file>
@@ -876,7 +1039,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="6" applyFont="1"/>
@@ -931,6 +1094,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -943,17 +1122,14 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1254,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK46"/>
+  <dimension ref="A1:AK48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,7 +1487,7 @@
     <row r="2" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
@@ -1397,7 +1573,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
@@ -1435,12 +1611,12 @@
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
       <c r="AJ5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AJ6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1549,11 +1725,11 @@
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="11">
         <v>0</v>
       </c>
@@ -1566,21 +1742,21 @@
       <c r="I8" s="11">
         <v>0</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31" t="s">
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31" t="s">
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
       <c r="S8" s="12">
         <v>0</v>
       </c>
@@ -1611,27 +1787,27 @@
       <c r="AB8" s="6">
         <v>0</v>
       </c>
-      <c r="AC8" s="31" t="s">
+      <c r="AC8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="31"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
       <c r="AJ8" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="18">
         <v>0</v>
       </c>
@@ -1644,19 +1820,19 @@
       <c r="I9" s="18">
         <v>0</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
       <c r="S9" s="12">
         <v>0</v>
       </c>
@@ -1706,18 +1882,18 @@
         <v>10</v>
       </c>
       <c r="AJ9" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="18">
         <v>0</v>
       </c>
@@ -1730,21 +1906,21 @@
       <c r="I10" s="18">
         <v>0</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26" t="s">
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
       <c r="S10" s="12">
         <v>0</v>
       </c>
@@ -1794,18 +1970,18 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="6">
         <v>0</v>
       </c>
@@ -1818,21 +1994,21 @@
       <c r="I11" s="12">
         <v>0</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28" t="s">
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28" t="s">
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
       <c r="S11" s="6">
         <v>0</v>
       </c>
@@ -1872,29 +2048,29 @@
       <c r="AE11" s="6">
         <v>0</v>
       </c>
-      <c r="AF11" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="AG11" s="24"/>
+      <c r="AF11" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG11" s="30"/>
       <c r="AH11" s="22" t="s">
         <v>90</v>
       </c>
       <c r="AJ11" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="6">
         <v>0</v>
       </c>
@@ -1907,31 +2083,31 @@
       <c r="I12" s="12">
         <v>0</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28" t="s">
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28" t="s">
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28" t="s">
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
       <c r="Y12" s="6">
         <v>0</v>
       </c>
@@ -1963,18 +2139,18 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="6">
         <v>0</v>
       </c>
@@ -1987,16 +2163,16 @@
       <c r="I13" s="12">
         <v>1</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28" t="s">
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
       <c r="P13" s="6">
         <v>0</v>
       </c>
@@ -2049,24 +2225,24 @@
         <v>0</v>
       </c>
       <c r="AG13" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AH13" s="22" t="s">
         <v>105</v>
       </c>
       <c r="AJ13" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="6">
         <v>0</v>
       </c>
@@ -2079,20 +2255,16 @@
       <c r="I14" s="12">
         <v>1</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="J14" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="6">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6">
-        <v>0</v>
-      </c>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
       <c r="P14" s="6">
         <v>0</v>
       </c>
@@ -2126,29 +2298,29 @@
       <c r="Z14" s="6">
         <v>0</v>
       </c>
-      <c r="AA14" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
+      <c r="AA14" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="29"/>
       <c r="AJ14" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="6">
         <v>0</v>
       </c>
@@ -2161,20 +2333,16 @@
       <c r="I15" s="12">
         <v>1</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J15" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="6">
-        <v>0</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="6">
-        <v>0</v>
-      </c>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
       <c r="P15" s="6">
         <v>1</v>
       </c>
@@ -2184,37 +2352,37 @@
       <c r="R15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="S15" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28"/>
+      <c r="S15" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
       <c r="AJ15" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="6">
         <v>0</v>
       </c>
@@ -2227,20 +2395,16 @@
       <c r="I16" s="12">
         <v>1</v>
       </c>
-      <c r="J16" s="28" t="s">
+      <c r="J16" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="6">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6">
-        <v>0</v>
-      </c>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
       <c r="P16" s="6">
         <v>1</v>
       </c>
@@ -2250,37 +2414,37 @@
       <c r="R16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="S16" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
+      <c r="S16" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
       <c r="AJ16" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="6">
         <v>0</v>
       </c>
@@ -2293,48 +2457,48 @@
       <c r="I17" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28" t="s">
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
       <c r="AJ17" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="6">
         <v>0</v>
       </c>
@@ -2347,48 +2511,48 @@
       <c r="I18" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="28" t="s">
+      <c r="J18" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
       <c r="AJ18" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="6">
         <v>1</v>
       </c>
@@ -2401,212 +2565,192 @@
       <c r="I19" s="12">
         <v>0</v>
       </c>
-      <c r="J19" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="28" t="s">
+      <c r="J19" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
       <c r="AJ19" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="6">
-        <v>1</v>
-      </c>
-      <c r="G20" s="6">
-        <v>1</v>
-      </c>
-      <c r="H20" s="6">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6">
-        <v>1</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="6">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6">
-        <v>0</v>
-      </c>
-      <c r="O20" s="6">
-        <v>0</v>
-      </c>
-      <c r="P20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>0</v>
-      </c>
-      <c r="R20" s="6">
-        <v>0</v>
-      </c>
-      <c r="S20" s="6">
-        <v>0</v>
-      </c>
-      <c r="T20" s="6">
-        <v>0</v>
-      </c>
-      <c r="U20" s="6">
-        <v>0</v>
-      </c>
-      <c r="V20" s="6">
-        <v>0</v>
-      </c>
-      <c r="W20" s="6">
-        <v>0</v>
-      </c>
-      <c r="X20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="24">
+        <v>1</v>
+      </c>
+      <c r="G20" s="25">
+        <v>0</v>
+      </c>
+      <c r="H20" s="25">
+        <v>0</v>
+      </c>
+      <c r="I20" s="25">
+        <v>1</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="25">
+        <v>0</v>
+      </c>
+      <c r="N20" s="25">
+        <v>0</v>
+      </c>
+      <c r="O20" s="25">
+        <v>0</v>
+      </c>
+      <c r="P20" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
       <c r="AJ20" s="10" t="s">
-        <v>89</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="6">
-        <v>1</v>
-      </c>
-      <c r="G21" s="6">
-        <v>1</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1</v>
-      </c>
-      <c r="J21" s="28" t="s">
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="24">
+        <v>1</v>
+      </c>
+      <c r="G21" s="25">
+        <v>0</v>
+      </c>
+      <c r="H21" s="25">
+        <v>0</v>
+      </c>
+      <c r="I21" s="25">
+        <v>1</v>
+      </c>
+      <c r="J21" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="6">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6">
-        <v>0</v>
-      </c>
-      <c r="O21" s="6">
-        <v>0</v>
-      </c>
-      <c r="P21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>0</v>
-      </c>
-      <c r="R21" s="6">
-        <v>0</v>
-      </c>
-      <c r="S21" s="6">
-        <v>0</v>
-      </c>
-      <c r="T21" s="6">
-        <v>0</v>
-      </c>
-      <c r="U21" s="6">
-        <v>0</v>
-      </c>
-      <c r="V21" s="6">
-        <v>0</v>
-      </c>
-      <c r="W21" s="6">
-        <v>0</v>
-      </c>
-      <c r="X21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="28"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="25">
+        <v>0</v>
+      </c>
+      <c r="N21" s="25">
+        <v>0</v>
+      </c>
+      <c r="O21" s="25">
+        <v>1</v>
+      </c>
+      <c r="P21" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="25">
+        <v>0</v>
+      </c>
+      <c r="R21" s="24">
+        <v>0</v>
+      </c>
+      <c r="S21" s="24">
+        <v>0</v>
+      </c>
+      <c r="T21" s="24">
+        <v>0</v>
+      </c>
+      <c r="U21" s="24">
+        <v>0</v>
+      </c>
+      <c r="V21" s="24">
+        <v>0</v>
+      </c>
+      <c r="W21" s="24">
+        <v>0</v>
+      </c>
+      <c r="X21" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
       <c r="AJ21" s="10" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="6">
         <v>1</v>
       </c>
@@ -2619,11 +2763,11 @@
       <c r="I22" s="6">
         <v>1</v>
       </c>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
       <c r="M22" s="6">
         <v>0</v>
       </c>
@@ -2664,190 +2808,280 @@
         <v>0</v>
       </c>
       <c r="Z22" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="6">
-        <v>1</v>
-      </c>
-      <c r="AF22" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH22" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ22" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AJ22" s="10" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0</v>
+      </c>
+      <c r="R23" s="6">
+        <v>0</v>
+      </c>
+      <c r="S23" s="6">
+        <v>0</v>
+      </c>
+      <c r="T23" s="6">
+        <v>0</v>
+      </c>
+      <c r="U23" s="6">
+        <v>0</v>
+      </c>
+      <c r="V23" s="6">
+        <v>0</v>
+      </c>
+      <c r="W23" s="6">
+        <v>0</v>
+      </c>
+      <c r="X23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
+      <c r="AJ23" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0</v>
+      </c>
+      <c r="R24" s="6">
+        <v>0</v>
+      </c>
+      <c r="S24" s="6">
+        <v>0</v>
+      </c>
+      <c r="T24" s="6">
+        <v>0</v>
+      </c>
+      <c r="U24" s="6">
+        <v>0</v>
+      </c>
+      <c r="V24" s="6">
+        <v>0</v>
+      </c>
+      <c r="W24" s="6">
+        <v>0</v>
+      </c>
+      <c r="X24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="10"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="6">
-        <v>1</v>
-      </c>
-      <c r="G23" s="6">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6">
-        <v>1</v>
-      </c>
-      <c r="J23" s="6">
-        <v>1</v>
-      </c>
-      <c r="K23" s="6">
-        <v>1</v>
-      </c>
-      <c r="L23" s="6">
-        <v>1</v>
-      </c>
-      <c r="M23" s="6">
-        <v>1</v>
-      </c>
-      <c r="N23" s="6">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6">
-        <v>1</v>
-      </c>
-      <c r="P23" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>1</v>
-      </c>
-      <c r="R23" s="6">
-        <v>1</v>
-      </c>
-      <c r="S23" s="6">
-        <v>1</v>
-      </c>
-      <c r="T23" s="6">
-        <v>1</v>
-      </c>
-      <c r="U23" s="6">
-        <v>1</v>
-      </c>
-      <c r="V23" s="6">
-        <v>1</v>
-      </c>
-      <c r="W23" s="6">
-        <v>1</v>
-      </c>
-      <c r="X23" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="28" t="s">
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1</v>
+      </c>
+      <c r="K25" s="6">
+        <v>1</v>
+      </c>
+      <c r="L25" s="6">
+        <v>1</v>
+      </c>
+      <c r="M25" s="6">
+        <v>1</v>
+      </c>
+      <c r="N25" s="6">
+        <v>1</v>
+      </c>
+      <c r="O25" s="6">
+        <v>1</v>
+      </c>
+      <c r="P25" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>1</v>
+      </c>
+      <c r="R25" s="6">
+        <v>1</v>
+      </c>
+      <c r="S25" s="6">
+        <v>1</v>
+      </c>
+      <c r="T25" s="6">
+        <v>1</v>
+      </c>
+      <c r="U25" s="6">
+        <v>1</v>
+      </c>
+      <c r="V25" s="6">
+        <v>1</v>
+      </c>
+      <c r="W25" s="6">
+        <v>1</v>
+      </c>
+      <c r="X25" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
-      <c r="AH30" s="6"/>
-      <c r="AJ30" s="10"/>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="6"/>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
-      <c r="AH31" s="6"/>
-      <c r="AJ31" s="10"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="29"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
@@ -2925,6 +3159,7 @@
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -2961,6 +3196,7 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -3353,35 +3589,97 @@
       <c r="AF45" s="6"/>
       <c r="AG45" s="6"/>
       <c r="AH45" s="6"/>
+      <c r="AJ45" s="10"/>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="6"/>
+      <c r="AG46" s="6"/>
+      <c r="AH46" s="6"/>
+      <c r="AJ46" s="10"/>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="6"/>
+      <c r="AG47" s="6"/>
+      <c r="AH47" s="6"/>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="64">
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="P20:U20"/>
+    <mergeCell ref="V20:AH20"/>
+    <mergeCell ref="AA21:AH21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J20:L20"/>
     <mergeCell ref="AC8:AH8"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AA20:AH20"/>
-    <mergeCell ref="AA23:AH23"/>
-    <mergeCell ref="M17:AH17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="M19:AH19"/>
-    <mergeCell ref="M18:AH18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="S16:AH16"/>
-    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="AA22:AH22"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="M9:R9"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="AA21:AH21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J13:L13"/>
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="AA14:AH14"/>
@@ -3391,12 +3689,32 @@
     <mergeCell ref="P12:R12"/>
     <mergeCell ref="S12:U12"/>
     <mergeCell ref="J15:L15"/>
+    <mergeCell ref="AA25:AH25"/>
+    <mergeCell ref="M17:AH17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="M19:AH19"/>
+    <mergeCell ref="M18:AH18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="S16:AH16"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="AA23:AH23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J13:L13"/>
     <mergeCell ref="S15:AH15"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="P10:R10"/>
     <mergeCell ref="AF11:AG11"/>
     <mergeCell ref="V12:X12"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C19:E19"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C8:E8"/>
@@ -3407,12 +3725,12 @@
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="M16:O16"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3421,10 +3739,280 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" style="26" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="141" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="108.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" t="s">
+        <v>230</v>
+      </c>
+      <c r="E14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E17" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z38" sqref="Z38"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3440,12 +4028,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -3455,20 +4043,20 @@
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3502,13 +4090,13 @@
         <v>100</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="O3" s="23" t="s">
         <v>191</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -3541,13 +4129,13 @@
         <v>101</v>
       </c>
       <c r="L4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -3580,13 +4168,13 @@
         <v>102</v>
       </c>
       <c r="L5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -3619,13 +4207,13 @@
         <v>103</v>
       </c>
       <c r="L6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -3658,13 +4246,13 @@
         <v>104</v>
       </c>
       <c r="L7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -3699,7 +4287,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6">
@@ -3721,21 +4309,21 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6">
@@ -3757,16 +4345,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -3796,7 +4384,7 @@
         <v>81</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -3826,7 +4414,7 @@
         <v>83</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -3859,7 +4447,7 @@
         <v>107</v>
       </c>
       <c r="L13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -3892,7 +4480,7 @@
         <v>108</v>
       </c>
       <c r="L14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -3925,7 +4513,7 @@
         <v>109</v>
       </c>
       <c r="L15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -3958,7 +4546,7 @@
         <v>110</v>
       </c>
       <c r="L16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -3991,7 +4579,7 @@
         <v>111</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -4024,7 +4612,7 @@
         <v>112</v>
       </c>
       <c r="L18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -4057,7 +4645,7 @@
         <v>113</v>
       </c>
       <c r="L19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -4090,7 +4678,7 @@
         <v>114</v>
       </c>
       <c r="L20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -4123,7 +4711,7 @@
         <v>115</v>
       </c>
       <c r="L21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -4156,7 +4744,7 @@
         <v>116</v>
       </c>
       <c r="L22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -4189,7 +4777,7 @@
         <v>117</v>
       </c>
       <c r="L23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -4222,7 +4810,7 @@
         <v>118</v>
       </c>
       <c r="L24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -4255,7 +4843,7 @@
         <v>129</v>
       </c>
       <c r="L25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -4288,7 +4876,7 @@
         <v>130</v>
       </c>
       <c r="L26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -4321,7 +4909,7 @@
         <v>119</v>
       </c>
       <c r="L27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -4354,7 +4942,7 @@
         <v>120</v>
       </c>
       <c r="L28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -4387,7 +4975,7 @@
         <v>121</v>
       </c>
       <c r="L29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -4420,7 +5008,7 @@
         <v>122</v>
       </c>
       <c r="L30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -4453,7 +5041,7 @@
         <v>123</v>
       </c>
       <c r="L31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -4486,12 +5074,12 @@
         <v>124</v>
       </c>
       <c r="L32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6">
@@ -4513,13 +5101,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
+        <v>208</v>
+      </c>
+      <c r="K33" t="s">
         <v>209</v>
       </c>
-      <c r="K33" t="s">
-        <v>210</v>
-      </c>
       <c r="L33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -4549,10 +5137,10 @@
         <v>69</v>
       </c>
       <c r="K34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -4585,7 +5173,7 @@
         <v>125</v>
       </c>
       <c r="L35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -4618,7 +5206,7 @@
         <v>126</v>
       </c>
       <c r="L36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -4651,7 +5239,7 @@
         <v>127</v>
       </c>
       <c r="L37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -4684,7 +5272,7 @@
         <v>132</v>
       </c>
       <c r="L38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -4717,7 +5305,7 @@
         <v>128</v>
       </c>
       <c r="L39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -4750,7 +5338,7 @@
         <v>131</v>
       </c>
       <c r="L40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -4800,7 +5388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ40"/>
   <sheetViews>
@@ -4968,30 +5556,30 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
       <c r="AJ4" s="10"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
@@ -5022,32 +5610,32 @@
       <c r="J5" s="6">
         <v>1</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="29"/>
       <c r="AJ5" s="10"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -5078,36 +5666,36 @@
       <c r="J6" s="6">
         <v>0</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28" t="s">
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28" t="s">
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="10"/>
     </row>
@@ -6254,12 +6842,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6353,22 +6941,22 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
       <c r="T4" s="10" t="s">
         <v>143</v>
       </c>
@@ -6420,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="6" t="s">
         <v>142</v>
@@ -6431,47 +7019,61 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
+        <v>259</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0</v>
+      </c>
+      <c r="F6" s="24">
+        <v>0</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0</v>
+      </c>
+      <c r="H6" s="24">
+        <v>0</v>
+      </c>
+      <c r="I6" s="24">
+        <v>0</v>
+      </c>
+      <c r="J6" s="24">
+        <v>0</v>
+      </c>
+      <c r="K6" s="24">
+        <v>0</v>
+      </c>
+      <c r="L6" s="24">
+        <v>0</v>
+      </c>
+      <c r="M6" s="24">
+        <v>0</v>
+      </c>
+      <c r="N6" s="24">
+        <v>0</v>
+      </c>
+      <c r="O6" s="24">
+        <v>0</v>
+      </c>
+      <c r="P6" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>0</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>145</v>
+      </c>
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
@@ -6492,26 +7094,26 @@
         <v>0</v>
       </c>
       <c r="I7" s="6">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="K7" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -6529,29 +7131,29 @@
         <v>0</v>
       </c>
       <c r="H8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -6572,41 +7174,61 @@
         <v>1</v>
       </c>
       <c r="I9" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
+      <c r="A10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -6767,83 +7389,82 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
+      <c r="T18" s="10"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
+      <c r="A19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="T20" s="10"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="T21" s="10"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="T22" s="10"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
@@ -6973,6 +7594,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -7209,17 +7831,37 @@
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
+      <c r="T40" s="10"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C4:R4"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="K9:R9"/>
     <mergeCell ref="K7:R7"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="K6:R6"/>
-    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="K10:R10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/doc/RiscyInstSet32Bit.xlsx
+++ b/doc/RiscyInstSet32Bit.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Instructions" sheetId="6" r:id="rId2"/>
-    <sheet name="Math Opcodes" sheetId="2" r:id="rId3"/>
+    <sheet name="Chapter 1. Math Opcodes" sheetId="2" r:id="rId2"/>
+    <sheet name="Instructions" sheetId="6" r:id="rId3"/>
     <sheet name="BIOS Call" sheetId="4" r:id="rId4"/>
     <sheet name="StdGrAd Call" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="271">
   <si>
     <t>Description</t>
   </si>
@@ -832,6 +832,15 @@
   </si>
   <si>
     <t>Inquire feature support</t>
+  </si>
+  <si>
+    <t>Chapter</t>
+  </si>
+  <si>
+    <t>Load and Store</t>
+  </si>
+  <si>
+    <t>Memory Copy</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1048,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="6" applyFont="1"/>
@@ -1141,6 +1150,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1430,23 +1460,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK48"/>
+  <dimension ref="A1:AL48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" customWidth="1"/>
-    <col min="3" max="34" width="3.42578125" customWidth="1"/>
-    <col min="35" max="35" width="2.5703125" customWidth="1"/>
-    <col min="36" max="36" width="116.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" customWidth="1"/>
+    <col min="4" max="35" width="3.42578125" customWidth="1"/>
+    <col min="36" max="36" width="2.5703125" customWidth="1"/>
+    <col min="37" max="37" width="116.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1483,17 +1514,17 @@
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
-    </row>
-    <row r="2" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="AI1" s="1"/>
+    </row>
+    <row r="2" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1524,19 +1555,19 @@
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
       <c r="AH3" s="5"/>
-      <c r="AJ3" t="s">
+      <c r="AI3" s="5"/>
+      <c r="AK3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="10">
+      <c r="C4" s="5"/>
+      <c r="D4" s="10">
         <v>8</v>
       </c>
-      <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1567,19 +1598,19 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
-      <c r="AJ4" t="s">
+      <c r="AI4" s="5"/>
+      <c r="AK4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1610,129 +1641,133 @@
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
-      <c r="AJ5" t="s">
+      <c r="AI5" s="5"/>
+      <c r="AK5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AJ6" t="s">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4">
+    <row r="7" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
         <v>31</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>30</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>29</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>28</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>27</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>26</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>25</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>24</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>23</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <v>22</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <v>21</v>
       </c>
-      <c r="N7" s="4">
+      <c r="O7" s="4">
         <v>20</v>
       </c>
-      <c r="O7" s="4">
+      <c r="P7" s="4">
         <v>19</v>
       </c>
-      <c r="P7" s="4">
+      <c r="Q7" s="4">
         <v>18</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="R7" s="4">
         <v>17</v>
       </c>
-      <c r="R7" s="4">
+      <c r="S7" s="4">
         <v>16</v>
       </c>
-      <c r="S7" s="4">
+      <c r="T7" s="4">
         <v>15</v>
       </c>
-      <c r="T7" s="4">
+      <c r="U7" s="4">
         <v>14</v>
       </c>
-      <c r="U7" s="4">
+      <c r="V7" s="4">
         <v>13</v>
       </c>
-      <c r="V7" s="4">
+      <c r="W7" s="4">
         <v>12</v>
       </c>
-      <c r="W7" s="4">
+      <c r="X7" s="4">
         <v>11</v>
       </c>
-      <c r="X7" s="4">
+      <c r="Y7" s="4">
         <v>10</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Z7" s="4">
         <v>9</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="AA7" s="4">
         <v>8</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AB7" s="4">
         <v>7</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AC7" s="4">
         <v>6</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AD7" s="4">
         <v>5</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AE7" s="4">
         <v>4</v>
       </c>
-      <c r="AE7" s="4">
+      <c r="AF7" s="4">
         <v>3</v>
       </c>
-      <c r="AF7" s="4">
+      <c r="AG7" s="4">
         <v>2</v>
       </c>
-      <c r="AG7" s="4">
-        <v>1</v>
-      </c>
       <c r="AH7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="42">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="D8" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="31"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
+      <c r="F8" s="31"/>
       <c r="G8" s="11">
         <v>0</v>
       </c>
@@ -1742,25 +1777,25 @@
       <c r="I8" s="11">
         <v>0</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="35"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="35"/>
+      <c r="N8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="35"/>
       <c r="O8" s="35"/>
-      <c r="P8" s="35" t="s">
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="35"/>
       <c r="R8" s="35"/>
-      <c r="S8" s="12">
-        <v>0</v>
-      </c>
-      <c r="T8" s="6">
+      <c r="S8" s="35"/>
+      <c r="T8" s="12">
         <v>0</v>
       </c>
       <c r="U8" s="6">
@@ -1787,30 +1822,31 @@
       <c r="AB8" s="6">
         <v>0</v>
       </c>
-      <c r="AC8" s="35" t="s">
+      <c r="AC8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AD8" s="35"/>
       <c r="AE8" s="35"/>
       <c r="AF8" s="35"/>
       <c r="AG8" s="35"/>
       <c r="AH8" s="35"/>
-      <c r="AJ8" s="10" t="s">
+      <c r="AI8" s="35"/>
+      <c r="AK8" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="30"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="18">
-        <v>0</v>
-      </c>
+      <c r="F9" s="30"/>
       <c r="G9" s="18">
         <v>0</v>
       </c>
@@ -1820,23 +1856,23 @@
       <c r="I9" s="18">
         <v>0</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="18">
+        <v>0</v>
+      </c>
+      <c r="K9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="36"/>
       <c r="L9" s="36"/>
-      <c r="M9" s="34" t="s">
+      <c r="M9" s="36"/>
+      <c r="N9" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="N9" s="34"/>
       <c r="O9" s="34"/>
       <c r="P9" s="34"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="34"/>
-      <c r="S9" s="12">
-        <v>0</v>
-      </c>
-      <c r="T9" s="6">
+      <c r="S9" s="34"/>
+      <c r="T9" s="12">
         <v>0</v>
       </c>
       <c r="U9" s="6">
@@ -1863,8 +1899,8 @@
       <c r="AB9" s="6">
         <v>0</v>
       </c>
-      <c r="AC9" s="18">
-        <v>1</v>
+      <c r="AC9" s="6">
+        <v>0</v>
       </c>
       <c r="AD9" s="18">
         <v>1</v>
@@ -1878,25 +1914,26 @@
       <c r="AG9" s="18">
         <v>1</v>
       </c>
-      <c r="AH9" s="21" t="s">
+      <c r="AH9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AJ9" s="10" t="s">
+      <c r="AK9" s="10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="D10" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="30"/>
       <c r="E10" s="30"/>
-      <c r="F10" s="18">
-        <v>0</v>
-      </c>
+      <c r="F10" s="30"/>
       <c r="G10" s="18">
         <v>0</v>
       </c>
@@ -1906,25 +1943,25 @@
       <c r="I10" s="18">
         <v>0</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="18">
+        <v>0</v>
+      </c>
+      <c r="K10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="32"/>
       <c r="L10" s="32"/>
-      <c r="M10" s="32" t="s">
+      <c r="M10" s="32"/>
+      <c r="N10" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="N10" s="32"/>
       <c r="O10" s="32"/>
-      <c r="P10" s="33" t="s">
+      <c r="P10" s="32"/>
+      <c r="Q10" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="Q10" s="33"/>
       <c r="R10" s="33"/>
-      <c r="S10" s="12">
-        <v>0</v>
-      </c>
-      <c r="T10" s="6">
+      <c r="S10" s="33"/>
+      <c r="T10" s="12">
         <v>0</v>
       </c>
       <c r="U10" s="6">
@@ -1951,41 +1988,44 @@
       <c r="AB10" s="6">
         <v>0</v>
       </c>
-      <c r="AC10" s="18">
-        <v>1</v>
+      <c r="AC10" s="6">
+        <v>0</v>
       </c>
       <c r="AD10" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="18">
         <v>0</v>
       </c>
       <c r="AF10" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="10" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="D11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="30"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
+      <c r="F11" s="30"/>
+      <c r="G11" s="6">
         <v>0</v>
       </c>
       <c r="H11" s="12">
@@ -1994,24 +2034,24 @@
       <c r="I11" s="12">
         <v>0</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="29"/>
       <c r="L11" s="29"/>
-      <c r="M11" s="29" t="s">
+      <c r="M11" s="29"/>
+      <c r="N11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="29"/>
       <c r="O11" s="29"/>
-      <c r="P11" s="29" t="s">
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="Q11" s="29"/>
       <c r="R11" s="29"/>
-      <c r="S11" s="6">
-        <v>0</v>
-      </c>
+      <c r="S11" s="29"/>
       <c r="T11" s="6">
         <v>0</v>
       </c>
@@ -2037,10 +2077,10 @@
         <v>0</v>
       </c>
       <c r="AB11" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="6">
         <v>0</v>
@@ -2048,33 +2088,36 @@
       <c r="AE11" s="6">
         <v>0</v>
       </c>
-      <c r="AF11" s="30" t="s">
+      <c r="AF11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="22" t="s">
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="AJ11" s="10" t="s">
+      <c r="AK11" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="AK11" s="2" t="s">
+      <c r="AL11" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="D12" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="30"/>
       <c r="E12" s="30"/>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
+      <c r="F12" s="30"/>
+      <c r="G12" s="6">
         <v>0</v>
       </c>
       <c r="H12" s="12">
@@ -2083,34 +2126,34 @@
       <c r="I12" s="12">
         <v>0</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="29"/>
       <c r="L12" s="29"/>
-      <c r="M12" s="29" t="s">
+      <c r="M12" s="29"/>
+      <c r="N12" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="29"/>
       <c r="O12" s="29"/>
-      <c r="P12" s="29" t="s">
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="Q12" s="29"/>
       <c r="R12" s="29"/>
-      <c r="S12" s="29" t="s">
+      <c r="S12" s="29"/>
+      <c r="T12" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="29" t="s">
+      <c r="V12" s="29"/>
+      <c r="W12" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="W12" s="29"/>
       <c r="X12" s="29"/>
-      <c r="Y12" s="6">
-        <v>0</v>
-      </c>
+      <c r="Y12" s="29"/>
       <c r="Z12" s="6">
         <v>0</v>
       </c>
@@ -2118,19 +2161,19 @@
         <v>0</v>
       </c>
       <c r="AB12" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="6">
         <v>0</v>
       </c>
       <c r="AE12" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12" s="6">
         <v>0</v>
@@ -2138,44 +2181,47 @@
       <c r="AH12" s="6">
         <v>0</v>
       </c>
-      <c r="AJ12" s="10" t="s">
+      <c r="AI12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="D13" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="30"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
+      <c r="F13" s="30"/>
+      <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="12">
         <v>0</v>
       </c>
       <c r="I13" s="12">
-        <v>1</v>
-      </c>
-      <c r="J13" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>1</v>
+      </c>
+      <c r="K13" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="29"/>
       <c r="L13" s="29"/>
-      <c r="M13" s="29" t="s">
+      <c r="M13" s="29"/>
+      <c r="N13" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="29"/>
       <c r="O13" s="29"/>
-      <c r="P13" s="6">
-        <v>0</v>
-      </c>
+      <c r="P13" s="29"/>
       <c r="Q13" s="6">
         <v>0</v>
       </c>
@@ -2224,59 +2270,62 @@
       <c r="AF13" s="6">
         <v>0</v>
       </c>
-      <c r="AG13" s="22" t="s">
+      <c r="AG13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="AH13" s="22" t="s">
+      <c r="AI13" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="AJ13" s="10" t="s">
+      <c r="AK13" s="10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" s="41">
+        <v>2</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="D14" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="30"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="12">
+      <c r="F14" s="30"/>
+      <c r="G14" s="6">
         <v>0</v>
       </c>
       <c r="H14" s="12">
         <v>0</v>
       </c>
       <c r="I14" s="12">
-        <v>1</v>
-      </c>
-      <c r="J14" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>1</v>
+      </c>
+      <c r="K14" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="29"/>
       <c r="L14" s="29"/>
-      <c r="M14" s="29" t="s">
+      <c r="M14" s="29"/>
+      <c r="N14" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="N14" s="29"/>
       <c r="O14" s="29"/>
-      <c r="P14" s="6">
-        <v>0</v>
-      </c>
+      <c r="P14" s="29"/>
       <c r="Q14" s="6">
-        <v>1</v>
-      </c>
-      <c r="R14" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6">
+        <v>1</v>
+      </c>
+      <c r="S14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="6">
-        <v>0</v>
-      </c>
       <c r="T14" s="6">
         <v>0</v>
       </c>
@@ -2298,64 +2347,67 @@
       <c r="Z14" s="6">
         <v>0</v>
       </c>
-      <c r="AA14" s="29" t="s">
+      <c r="AA14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="AB14" s="29"/>
       <c r="AC14" s="29"/>
       <c r="AD14" s="29"/>
       <c r="AE14" s="29"/>
       <c r="AF14" s="29"/>
       <c r="AG14" s="29"/>
       <c r="AH14" s="29"/>
-      <c r="AJ14" s="10" t="s">
+      <c r="AI14" s="29"/>
+      <c r="AK14" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="B15" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="D15" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="30"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
+      <c r="F15" s="30"/>
+      <c r="G15" s="6">
         <v>0</v>
       </c>
       <c r="H15" s="12">
         <v>0</v>
       </c>
       <c r="I15" s="12">
-        <v>1</v>
-      </c>
-      <c r="J15" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>1</v>
+      </c>
+      <c r="K15" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="29"/>
       <c r="L15" s="29"/>
-      <c r="M15" s="29" t="s">
+      <c r="M15" s="29"/>
+      <c r="N15" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="N15" s="29"/>
       <c r="O15" s="29"/>
-      <c r="P15" s="6">
-        <v>1</v>
-      </c>
+      <c r="P15" s="29"/>
       <c r="Q15" s="6">
-        <v>0</v>
-      </c>
-      <c r="R15" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0</v>
+      </c>
+      <c r="S15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="S15" s="29" t="s">
+      <c r="T15" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="T15" s="29"/>
       <c r="U15" s="29"/>
       <c r="V15" s="29"/>
       <c r="W15" s="29"/>
@@ -2370,54 +2422,55 @@
       <c r="AF15" s="29"/>
       <c r="AG15" s="29"/>
       <c r="AH15" s="29"/>
-      <c r="AJ15" s="10" t="s">
+      <c r="AI15" s="29"/>
+      <c r="AK15" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
+      <c r="B16" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="D16" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="30"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12">
+      <c r="F16" s="30"/>
+      <c r="G16" s="6">
         <v>0</v>
       </c>
       <c r="H16" s="12">
         <v>0</v>
       </c>
       <c r="I16" s="12">
-        <v>1</v>
-      </c>
-      <c r="J16" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>1</v>
+      </c>
+      <c r="K16" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="29"/>
       <c r="L16" s="29"/>
-      <c r="M16" s="29" t="s">
+      <c r="M16" s="29"/>
+      <c r="N16" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="N16" s="29"/>
       <c r="O16" s="29"/>
-      <c r="P16" s="6">
-        <v>1</v>
-      </c>
+      <c r="P16" s="29"/>
       <c r="Q16" s="6">
         <v>1</v>
       </c>
-      <c r="R16" s="22" t="s">
+      <c r="R16" s="6">
+        <v>1</v>
+      </c>
+      <c r="S16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="S16" s="29" t="s">
+      <c r="T16" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="T16" s="29"/>
       <c r="U16" s="29"/>
       <c r="V16" s="29"/>
       <c r="W16" s="29"/>
@@ -2432,40 +2485,41 @@
       <c r="AF16" s="29"/>
       <c r="AG16" s="29"/>
       <c r="AH16" s="29"/>
-      <c r="AJ16" s="10" t="s">
+      <c r="AI16" s="29"/>
+      <c r="AK16" s="10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="B17" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="D17" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="30"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="12">
+      <c r="F17" s="30"/>
+      <c r="G17" s="6">
         <v>0</v>
       </c>
       <c r="H17" s="12">
-        <v>1</v>
-      </c>
-      <c r="I17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>1</v>
+      </c>
+      <c r="J17" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="K17" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="29"/>
       <c r="L17" s="29"/>
-      <c r="M17" s="29" t="s">
+      <c r="M17" s="29"/>
+      <c r="N17" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="N17" s="29"/>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
@@ -2486,40 +2540,43 @@
       <c r="AF17" s="29"/>
       <c r="AG17" s="29"/>
       <c r="AH17" s="29"/>
-      <c r="AJ17" s="10" t="s">
+      <c r="AI17" s="29"/>
+      <c r="AK17" s="10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="D18" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="30"/>
       <c r="E18" s="30"/>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="12">
-        <v>1</v>
-      </c>
-      <c r="H18" s="12" t="s">
+      <c r="F18" s="30"/>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <v>1</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="J18" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="K18" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="29"/>
       <c r="L18" s="29"/>
-      <c r="M18" s="29" t="s">
+      <c r="M18" s="29"/>
+      <c r="N18" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="N18" s="29"/>
       <c r="O18" s="29"/>
       <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
@@ -2540,24 +2597,25 @@
       <c r="AF18" s="29"/>
       <c r="AG18" s="29"/>
       <c r="AH18" s="29"/>
-      <c r="AJ18" s="10" t="s">
+      <c r="AI18" s="29"/>
+      <c r="AK18" s="10" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="D19" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="30"/>
       <c r="E19" s="30"/>
-      <c r="F19" s="6">
-        <v>1</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0</v>
+      <c r="F19" s="30"/>
+      <c r="G19" s="6">
+        <v>1</v>
       </c>
       <c r="H19" s="12">
         <v>0</v>
@@ -2565,15 +2623,17 @@
       <c r="I19" s="12">
         <v>0</v>
       </c>
-      <c r="J19" s="34" t="s">
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="K19" s="34"/>
       <c r="L19" s="34"/>
-      <c r="M19" s="29" t="s">
+      <c r="M19" s="34"/>
+      <c r="N19" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="N19" s="29"/>
       <c r="O19" s="29"/>
       <c r="P19" s="29"/>
       <c r="Q19" s="29"/>
@@ -2594,57 +2654,60 @@
       <c r="AF19" s="29"/>
       <c r="AG19" s="29"/>
       <c r="AH19" s="29"/>
-      <c r="AJ19" s="10" t="s">
+      <c r="AI19" s="29"/>
+      <c r="AK19" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="D20" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="30"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="24">
-        <v>1</v>
-      </c>
-      <c r="G20" s="25">
-        <v>0</v>
+      <c r="F20" s="30"/>
+      <c r="G20" s="24">
+        <v>1</v>
       </c>
       <c r="H20" s="25">
         <v>0</v>
       </c>
       <c r="I20" s="25">
-        <v>1</v>
-      </c>
-      <c r="J20" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="25">
+        <v>1</v>
+      </c>
+      <c r="K20" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="K20" s="34"/>
       <c r="L20" s="34"/>
-      <c r="M20" s="25">
-        <v>0</v>
-      </c>
+      <c r="M20" s="34"/>
       <c r="N20" s="25">
         <v>0</v>
       </c>
       <c r="O20" s="25">
         <v>0</v>
       </c>
-      <c r="P20" s="36" t="s">
+      <c r="P20" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="Q20" s="36"/>
       <c r="R20" s="36"/>
       <c r="S20" s="36"/>
       <c r="T20" s="36"/>
       <c r="U20" s="36"/>
-      <c r="V20" s="29" t="s">
+      <c r="V20" s="36"/>
+      <c r="W20" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="W20" s="29"/>
       <c r="X20" s="29"/>
       <c r="Y20" s="29"/>
       <c r="Z20" s="29"/>
@@ -2656,52 +2719,53 @@
       <c r="AF20" s="29"/>
       <c r="AG20" s="29"/>
       <c r="AH20" s="29"/>
-      <c r="AJ20" s="10" t="s">
+      <c r="AI20" s="29"/>
+      <c r="AK20" s="10" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="D21" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="30"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="24">
-        <v>1</v>
-      </c>
-      <c r="G21" s="25">
-        <v>0</v>
+      <c r="F21" s="30"/>
+      <c r="G21" s="24">
+        <v>1</v>
       </c>
       <c r="H21" s="25">
         <v>0</v>
       </c>
       <c r="I21" s="25">
-        <v>1</v>
-      </c>
-      <c r="J21" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="25">
+        <v>1</v>
+      </c>
+      <c r="K21" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="36"/>
       <c r="L21" s="36"/>
-      <c r="M21" s="25">
-        <v>0</v>
-      </c>
+      <c r="M21" s="36"/>
       <c r="N21" s="25">
         <v>0</v>
       </c>
       <c r="O21" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="25">
         <v>0</v>
       </c>
-      <c r="R21" s="24">
+      <c r="R21" s="25">
         <v>0</v>
       </c>
       <c r="S21" s="24">
@@ -2728,32 +2792,35 @@
       <c r="Z21" s="24">
         <v>0</v>
       </c>
-      <c r="AA21" s="29" t="s">
+      <c r="AA21" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="AB21" s="29"/>
       <c r="AC21" s="29"/>
       <c r="AD21" s="29"/>
       <c r="AE21" s="29"/>
       <c r="AF21" s="29"/>
       <c r="AG21" s="29"/>
       <c r="AH21" s="29"/>
-      <c r="AJ21" s="10" t="s">
+      <c r="AI21" s="29"/>
+      <c r="AK21" s="10" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="D22" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="30"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="6">
-        <v>1</v>
-      </c>
+      <c r="F22" s="30"/>
       <c r="G22" s="6">
         <v>1</v>
       </c>
@@ -2763,14 +2830,14 @@
       <c r="I22" s="6">
         <v>1</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="J22" s="6">
+        <v>1</v>
+      </c>
+      <c r="K22" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="29"/>
       <c r="L22" s="29"/>
-      <c r="M22" s="6">
-        <v>0</v>
-      </c>
+      <c r="M22" s="29"/>
       <c r="N22" s="6">
         <v>0</v>
       </c>
@@ -2810,32 +2877,35 @@
       <c r="Z22" s="6">
         <v>0</v>
       </c>
-      <c r="AA22" s="29" t="s">
+      <c r="AA22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="AB22" s="29"/>
       <c r="AC22" s="29"/>
       <c r="AD22" s="29"/>
       <c r="AE22" s="29"/>
       <c r="AF22" s="29"/>
       <c r="AG22" s="29"/>
       <c r="AH22" s="29"/>
-      <c r="AJ22" s="10" t="s">
+      <c r="AI22" s="29"/>
+      <c r="AK22" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="D23" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="30"/>
       <c r="E23" s="30"/>
-      <c r="F23" s="6">
-        <v>1</v>
-      </c>
+      <c r="F23" s="30"/>
       <c r="G23" s="6">
         <v>1</v>
       </c>
@@ -2845,14 +2915,14 @@
       <c r="I23" s="6">
         <v>1</v>
       </c>
-      <c r="J23" s="29" t="s">
+      <c r="J23" s="6">
+        <v>1</v>
+      </c>
+      <c r="K23" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="29"/>
       <c r="L23" s="29"/>
-      <c r="M23" s="6">
-        <v>0</v>
-      </c>
+      <c r="M23" s="29"/>
       <c r="N23" s="6">
         <v>0</v>
       </c>
@@ -2890,34 +2960,37 @@
         <v>0</v>
       </c>
       <c r="Z23" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="AB23" s="29"/>
       <c r="AC23" s="29"/>
       <c r="AD23" s="29"/>
       <c r="AE23" s="29"/>
       <c r="AF23" s="29"/>
       <c r="AG23" s="29"/>
       <c r="AH23" s="29"/>
-      <c r="AJ23" s="10" t="s">
+      <c r="AI23" s="29"/>
+      <c r="AK23" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="D24" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="30"/>
       <c r="E24" s="30"/>
-      <c r="F24" s="6">
-        <v>1</v>
-      </c>
+      <c r="F24" s="30"/>
       <c r="G24" s="6">
         <v>1</v>
       </c>
@@ -2927,14 +3000,14 @@
       <c r="I24" s="6">
         <v>1</v>
       </c>
-      <c r="J24" s="29" t="s">
+      <c r="J24" s="6">
+        <v>1</v>
+      </c>
+      <c r="K24" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K24" s="29"/>
       <c r="L24" s="29"/>
-      <c r="M24" s="6">
-        <v>0</v>
-      </c>
+      <c r="M24" s="29"/>
       <c r="N24" s="6">
         <v>0</v>
       </c>
@@ -2972,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="6">
         <v>1</v>
@@ -2998,20 +3071,23 @@
       <c r="AH24" s="6">
         <v>1</v>
       </c>
-      <c r="AJ24" s="10"/>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="AI24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="10"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="D25" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="30"/>
       <c r="E25" s="30"/>
-      <c r="F25" s="6">
-        <v>1</v>
-      </c>
+      <c r="F25" s="30"/>
       <c r="G25" s="6">
         <v>1</v>
       </c>
@@ -3072,20 +3148,22 @@
       <c r="Z25" s="6">
         <v>1</v>
       </c>
-      <c r="AA25" s="29" t="s">
+      <c r="AA25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="AB25" s="29"/>
       <c r="AC25" s="29"/>
       <c r="AD25" s="29"/>
       <c r="AE25" s="29"/>
       <c r="AF25" s="29"/>
       <c r="AG25" s="29"/>
       <c r="AH25" s="29"/>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="6"/>
+      <c r="AI25" s="29"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -3118,11 +3196,11 @@
       <c r="AF32" s="6"/>
       <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
-      <c r="AJ32" s="10"/>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="6"/>
+      <c r="AI32" s="6"/>
+      <c r="AK32" s="10"/>
+    </row>
+    <row r="33" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B33" s="7"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -3155,11 +3233,11 @@
       <c r="AF33" s="6"/>
       <c r="AG33" s="6"/>
       <c r="AH33" s="6"/>
-      <c r="AJ33" s="10"/>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AK33" s="10"/>
+    </row>
+    <row r="34" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B34" s="7"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -3192,11 +3270,11 @@
       <c r="AF34" s="6"/>
       <c r="AG34" s="6"/>
       <c r="AH34" s="6"/>
-      <c r="AJ34" s="10"/>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AK34" s="10"/>
+    </row>
+    <row r="35" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B35" s="7"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -3229,11 +3307,11 @@
       <c r="AF35" s="6"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
-      <c r="AJ35" s="10"/>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="C36" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AK35" s="10"/>
+    </row>
+    <row r="36" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B36" s="7"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -3265,11 +3343,11 @@
       <c r="AF36" s="6"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
-      <c r="AJ36" s="10"/>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="C37" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AK36" s="10"/>
+    </row>
+    <row r="37" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -3301,11 +3379,11 @@
       <c r="AF37" s="6"/>
       <c r="AG37" s="6"/>
       <c r="AH37" s="6"/>
-      <c r="AJ37" s="10"/>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="C38" s="6"/>
+      <c r="AI37" s="6"/>
+      <c r="AK37" s="10"/>
+    </row>
+    <row r="38" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B38" s="7"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -3337,11 +3415,11 @@
       <c r="AF38" s="6"/>
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
-      <c r="AJ38" s="10"/>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="C39" s="6"/>
+      <c r="AI38" s="6"/>
+      <c r="AK38" s="10"/>
+    </row>
+    <row r="39" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -3373,11 +3451,11 @@
       <c r="AF39" s="6"/>
       <c r="AG39" s="6"/>
       <c r="AH39" s="6"/>
-      <c r="AJ39" s="10"/>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="C40" s="6"/>
+      <c r="AI39" s="6"/>
+      <c r="AK39" s="10"/>
+    </row>
+    <row r="40" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -3409,11 +3487,11 @@
       <c r="AF40" s="6"/>
       <c r="AG40" s="6"/>
       <c r="AH40" s="6"/>
-      <c r="AJ40" s="10"/>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="C41" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AK40" s="10"/>
+    </row>
+    <row r="41" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -3445,11 +3523,11 @@
       <c r="AF41" s="6"/>
       <c r="AG41" s="6"/>
       <c r="AH41" s="6"/>
-      <c r="AJ41" s="10"/>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="C42" s="6"/>
+      <c r="AI41" s="6"/>
+      <c r="AK41" s="10"/>
+    </row>
+    <row r="42" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B42" s="7"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -3481,11 +3559,11 @@
       <c r="AF42" s="6"/>
       <c r="AG42" s="6"/>
       <c r="AH42" s="6"/>
-      <c r="AJ42" s="10"/>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="C43" s="6"/>
+      <c r="AI42" s="6"/>
+      <c r="AK42" s="10"/>
+    </row>
+    <row r="43" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B43" s="7"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -3517,11 +3595,11 @@
       <c r="AF43" s="6"/>
       <c r="AG43" s="6"/>
       <c r="AH43" s="6"/>
-      <c r="AJ43" s="10"/>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="C44" s="6"/>
+      <c r="AI43" s="6"/>
+      <c r="AK43" s="10"/>
+    </row>
+    <row r="44" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -3553,11 +3631,11 @@
       <c r="AF44" s="6"/>
       <c r="AG44" s="6"/>
       <c r="AH44" s="6"/>
-      <c r="AJ44" s="10"/>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="C45" s="6"/>
+      <c r="AI44" s="6"/>
+      <c r="AK44" s="10"/>
+    </row>
+    <row r="45" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -3589,11 +3667,11 @@
       <c r="AF45" s="6"/>
       <c r="AG45" s="6"/>
       <c r="AH45" s="6"/>
-      <c r="AJ45" s="10"/>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="C46" s="6"/>
+      <c r="AI45" s="6"/>
+      <c r="AK45" s="10"/>
+    </row>
+    <row r="46" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -3625,11 +3703,11 @@
       <c r="AF46" s="6"/>
       <c r="AG46" s="6"/>
       <c r="AH46" s="6"/>
-      <c r="AJ46" s="10"/>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="C47" s="6"/>
+      <c r="AI46" s="6"/>
+      <c r="AK46" s="10"/>
+    </row>
+    <row r="47" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -3661,76 +3739,79 @@
       <c r="AF47" s="6"/>
       <c r="AG47" s="6"/>
       <c r="AH47" s="6"/>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
+      <c r="AI47" s="6"/>
+    </row>
+    <row r="48" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B48" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="P20:U20"/>
-    <mergeCell ref="V20:AH20"/>
-    <mergeCell ref="AA21:AH21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="AC8:AH8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AA22:AH22"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="AA14:AH14"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="AA25:AH25"/>
-    <mergeCell ref="M17:AH17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="M19:AH19"/>
-    <mergeCell ref="M18:AH18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="S16:AH16"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="AA23:AH23"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="S15:AH15"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
+  <mergeCells count="66">
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="Q20:V20"/>
+    <mergeCell ref="W20:AI20"/>
+    <mergeCell ref="AB21:AI21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="AD8:AI8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="AB22:AI22"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="AB14:AI14"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="AB25:AI25"/>
+    <mergeCell ref="N17:AI17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="N19:AI19"/>
+    <mergeCell ref="N18:AI18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="T16:AI16"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="AB23:AI23"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="T15:AI15"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3738,276 +3819,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" style="26" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="141" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="108.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="C8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E8" t="s">
-        <v>242</v>
-      </c>
-      <c r="F8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" t="s">
-        <v>258</v>
-      </c>
-      <c r="D9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E9" t="s">
-        <v>243</v>
-      </c>
-      <c r="F9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D12" t="s">
-        <v>230</v>
-      </c>
-      <c r="E12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" t="s">
-        <v>253</v>
-      </c>
-      <c r="D13" t="s">
-        <v>230</v>
-      </c>
-      <c r="E13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C14" t="s">
-        <v>253</v>
-      </c>
-      <c r="D14" t="s">
-        <v>230</v>
-      </c>
-      <c r="E14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="C15" t="s">
-        <v>257</v>
-      </c>
-      <c r="D15" t="s">
-        <v>254</v>
-      </c>
-      <c r="E15" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16" t="s">
-        <v>257</v>
-      </c>
-      <c r="D16" t="s">
-        <v>255</v>
-      </c>
-      <c r="E16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" t="s">
-        <v>256</v>
-      </c>
-      <c r="D17" t="s">
-        <v>236</v>
-      </c>
-      <c r="E17" t="s">
-        <v>250</v>
-      </c>
-      <c r="F17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O42"/>
   <sheetViews>
@@ -5384,6 +5195,305 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:J2"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" style="26" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="141" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="108.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="45">
+        <v>2</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" t="s">
+        <v>230</v>
+      </c>
+      <c r="E14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" t="s">
+        <v>254</v>
+      </c>
+      <c r="E16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" t="s">
+        <v>255</v>
+      </c>
+      <c r="E17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" t="s">
+        <v>236</v>
+      </c>
+      <c r="E18" t="s">
+        <v>250</v>
+      </c>
+      <c r="F18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" s="45">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/doc/RiscyInstSet32Bit.xlsx
+++ b/doc/RiscyInstSet32Bit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14715" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="301">
   <si>
     <t>Description</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Number of Registers</t>
   </si>
   <si>
-    <t>Mathematical opcodes</t>
-  </si>
-  <si>
     <t>MOV</t>
   </si>
   <si>
@@ -841,6 +838,99 @@
   </si>
   <si>
     <t>Memory Copy</t>
+  </si>
+  <si>
+    <t>MEMCPY</t>
+  </si>
+  <si>
+    <t>destination, source, length, from, to</t>
+  </si>
+  <si>
+    <t>dev[to].mem[dest] = dev[from].mem[src]</t>
+  </si>
+  <si>
+    <t>CMP/CMPII</t>
+  </si>
+  <si>
+    <t>lhand, rhand</t>
+  </si>
+  <si>
+    <t>rCMP = rHand - lHand</t>
+  </si>
+  <si>
+    <t>Two arguments are both integer</t>
+  </si>
+  <si>
+    <t>CMPFI</t>
+  </si>
+  <si>
+    <t>CMPIF</t>
+  </si>
+  <si>
+    <t>CMPFF</t>
+  </si>
+  <si>
+    <t>Lhand is float, Rhand is integer</t>
+  </si>
+  <si>
+    <t>Lhand is integer, Rhand is float</t>
+  </si>
+  <si>
+    <t>Two arguments are both float</t>
+  </si>
+  <si>
+    <t>PUSH</t>
+  </si>
+  <si>
+    <t>PUSHINT</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>POPINT</t>
+  </si>
+  <si>
+    <t>Conditional Jump</t>
+  </si>
+  <si>
+    <t>JMP</t>
+  </si>
+  <si>
+    <t>JZ</t>
+  </si>
+  <si>
+    <t>JNZ</t>
+  </si>
+  <si>
+    <t>JGT</t>
+  </si>
+  <si>
+    <t>JLS</t>
+  </si>
+  <si>
+    <t>JFW</t>
+  </si>
+  <si>
+    <t>JBW</t>
+  </si>
+  <si>
+    <t>Memory Bank Operation</t>
+  </si>
+  <si>
+    <t>Supported Feature Inquiry</t>
+  </si>
+  <si>
+    <t>Calling Peripheral</t>
+  </si>
+  <si>
+    <t>Memory Size Inquiry</t>
+  </si>
+  <si>
+    <t>System Uptime Inquiry</t>
+  </si>
+  <si>
+    <t>Mathematical Opcodes</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1138,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="6" applyFont="1"/>
@@ -1139,9 +1229,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1463,7 +1550,7 @@
   <dimension ref="A1:AL48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,7 +1606,7 @@
     <row r="2" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
@@ -1605,7 +1692,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -1643,17 +1730,17 @@
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AK5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AK6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>0</v>
@@ -1757,7 +1844,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="42">
+      <c r="A8" s="41">
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1834,13 +1921,13 @@
       <c r="AH8" s="35"/>
       <c r="AI8" s="35"/>
       <c r="AK8" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
+      <c r="B9" s="7" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>5</v>
@@ -1865,7 +1952,7 @@
       <c r="L9" s="36"/>
       <c r="M9" s="36"/>
       <c r="N9" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O9" s="34"/>
       <c r="P9" s="34"/>
@@ -1921,13 +2008,13 @@
         <v>10</v>
       </c>
       <c r="AK9" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>5</v>
@@ -1952,12 +2039,12 @@
       <c r="L10" s="32"/>
       <c r="M10" s="32"/>
       <c r="N10" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O10" s="32"/>
       <c r="P10" s="32"/>
       <c r="Q10" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R10" s="33"/>
       <c r="S10" s="33"/>
@@ -2010,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
@@ -2018,7 +2105,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>5</v>
@@ -2048,7 +2135,7 @@
       <c r="O11" s="29"/>
       <c r="P11" s="29"/>
       <c r="Q11" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="29"/>
       <c r="S11" s="29"/>
@@ -2092,17 +2179,17 @@
         <v>0</v>
       </c>
       <c r="AG11" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AK11" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
@@ -2110,7 +2197,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>5</v>
@@ -2140,17 +2227,17 @@
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R12" s="29"/>
       <c r="S12" s="29"/>
       <c r="T12" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U12" s="29"/>
       <c r="V12" s="29"/>
       <c r="W12" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X12" s="29"/>
       <c r="Y12" s="29"/>
@@ -2185,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
@@ -2193,7 +2280,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>5</v>
@@ -2274,21 +2361,21 @@
         <v>0</v>
       </c>
       <c r="AH13" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI13" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK13" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="AI13" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK13" s="10" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="41">
+      <c r="A14" s="40">
         <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>5</v>
@@ -2313,7 +2400,7 @@
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
       <c r="N14" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="29"/>
       <c r="P14" s="29"/>
@@ -2351,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AC14" s="29"/>
       <c r="AD14" s="29"/>
@@ -2361,13 +2448,13 @@
       <c r="AH14" s="29"/>
       <c r="AI14" s="29"/>
       <c r="AK14" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="7" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>5</v>
@@ -2392,7 +2479,7 @@
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O15" s="29"/>
       <c r="P15" s="29"/>
@@ -2406,7 +2493,7 @@
         <v>10</v>
       </c>
       <c r="T15" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U15" s="29"/>
       <c r="V15" s="29"/>
@@ -2424,13 +2511,13 @@
       <c r="AH15" s="29"/>
       <c r="AI15" s="29"/>
       <c r="AK15" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>5</v>
@@ -2455,7 +2542,7 @@
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
@@ -2469,7 +2556,7 @@
         <v>10</v>
       </c>
       <c r="T16" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U16" s="29"/>
       <c r="V16" s="29"/>
@@ -2487,13 +2574,13 @@
       <c r="AH16" s="29"/>
       <c r="AI16" s="29"/>
       <c r="AK16" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>5</v>
@@ -2510,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K17" s="29" t="s">
         <v>7</v>
@@ -2542,7 +2629,7 @@
       <c r="AH17" s="29"/>
       <c r="AI17" s="29"/>
       <c r="AK17" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
@@ -2567,7 +2654,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" s="29" t="s">
         <v>7</v>
@@ -2575,7 +2662,7 @@
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
       <c r="N18" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O18" s="29"/>
       <c r="P18" s="29"/>
@@ -2599,7 +2686,7 @@
       <c r="AH18" s="29"/>
       <c r="AI18" s="29"/>
       <c r="AK18" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
@@ -2607,7 +2694,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>5</v>
@@ -2627,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
@@ -2656,7 +2743,7 @@
       <c r="AH19" s="29"/>
       <c r="AI19" s="29"/>
       <c r="AK19" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
@@ -2664,7 +2751,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>5</v>
@@ -2684,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
@@ -2698,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R20" s="36"/>
       <c r="S20" s="36"/>
@@ -2706,7 +2793,7 @@
       <c r="U20" s="36"/>
       <c r="V20" s="36"/>
       <c r="W20" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="X20" s="29"/>
       <c r="Y20" s="29"/>
@@ -2721,7 +2808,7 @@
       <c r="AH20" s="29"/>
       <c r="AI20" s="29"/>
       <c r="AK20" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
@@ -2729,7 +2816,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>5</v>
@@ -2796,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC21" s="29"/>
       <c r="AD21" s="29"/>
@@ -2806,7 +2893,7 @@
       <c r="AH21" s="29"/>
       <c r="AI21" s="29"/>
       <c r="AK21" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
@@ -2814,7 +2901,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>5</v>
@@ -2881,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC22" s="29"/>
       <c r="AD22" s="29"/>
@@ -2891,7 +2978,7 @@
       <c r="AH22" s="29"/>
       <c r="AI22" s="29"/>
       <c r="AK22" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
@@ -2899,7 +2986,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>5</v>
@@ -2966,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="AB23" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC23" s="29"/>
       <c r="AD23" s="29"/>
@@ -2976,7 +3063,7 @@
       <c r="AH23" s="29"/>
       <c r="AI23" s="29"/>
       <c r="AK23" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
@@ -2984,7 +3071,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>5</v>
@@ -3081,7 +3168,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>5</v>
@@ -3152,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="AB25" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC25" s="29"/>
       <c r="AD25" s="29"/>
@@ -3822,13 +3909,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.5703125" customWidth="1"/>
     <col min="3" max="8" width="3.42578125" customWidth="1"/>
     <col min="9" max="9" width="2.5703125" customWidth="1"/>
@@ -3838,36 +3925,35 @@
     <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+    <row r="1" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="44">
+        <v>1</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
+      <c r="A2" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3898,21 +3984,21 @@
         <v>14</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="O3" s="23" t="s">
         <v>190</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6">
@@ -3934,24 +4020,24 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6">
@@ -3973,24 +4059,24 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6">
@@ -4012,24 +4098,24 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6">
@@ -4051,24 +4137,24 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6">
@@ -4090,15 +4176,15 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6">
@@ -4120,21 +4206,21 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6">
@@ -4156,21 +4242,21 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6">
@@ -4192,15 +4278,15 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6">
@@ -4222,15 +4308,15 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6">
@@ -4252,18 +4338,18 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6">
@@ -4285,18 +4371,18 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6">
@@ -4318,18 +4404,18 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6">
@@ -4351,18 +4437,18 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6">
@@ -4384,18 +4470,18 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6">
@@ -4417,18 +4503,18 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6">
@@ -4450,18 +4536,18 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6">
@@ -4483,18 +4569,18 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6">
@@ -4516,18 +4602,18 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6">
@@ -4549,18 +4635,18 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6">
@@ -4582,18 +4668,18 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6">
@@ -4615,18 +4701,18 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6">
@@ -4648,18 +4734,18 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6">
@@ -4681,18 +4767,18 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6">
@@ -4714,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6">
@@ -4747,18 +4833,18 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6">
@@ -4780,18 +4866,18 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6">
@@ -4813,18 +4899,18 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6">
@@ -4846,18 +4932,18 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6">
@@ -4879,18 +4965,18 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6">
@@ -4912,18 +4998,18 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
+        <v>207</v>
+      </c>
+      <c r="K33" t="s">
         <v>208</v>
       </c>
-      <c r="K33" t="s">
-        <v>209</v>
-      </c>
       <c r="L33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6">
@@ -4945,18 +5031,18 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6">
@@ -4978,18 +5064,18 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6">
@@ -5011,18 +5097,18 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6">
@@ -5044,18 +5130,18 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6">
@@ -5077,18 +5163,18 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6">
@@ -5110,18 +5196,18 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6">
@@ -5143,18 +5229,18 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="14">
@@ -5177,7 +5263,7 @@
       </c>
       <c r="I41" s="17"/>
       <c r="J41" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -5191,8 +5277,7 @@
       <c r="H42" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="1">
     <mergeCell ref="A2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5201,31 +5286,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="26" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="141" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="108.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="44">
+        <v>2</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>268</v>
-      </c>
-      <c r="B1" s="45">
-        <v>2</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>269</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5233,9 +5318,9 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" s="46"/>
+        <v>220</v>
+      </c>
+      <c r="B2" s="45"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -5243,131 +5328,131 @@
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="B3" s="47"/>
+        <v>213</v>
+      </c>
+      <c r="B3" s="46"/>
       <c r="C3" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" t="s">
         <v>243</v>
-      </c>
-      <c r="F10" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="B11" s="46"/>
+        <v>221</v>
+      </c>
+      <c r="B11" s="45"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -5375,124 +5460,551 @@
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="B12" s="47"/>
+        <v>213</v>
+      </c>
+      <c r="B12" s="46"/>
       <c r="C12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="B19" s="45">
+      <c r="A19" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" s="44">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="B22" s="44">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="C24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D24" t="s">
+        <v>274</v>
+      </c>
+      <c r="E24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="C25" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" t="s">
+        <v>274</v>
+      </c>
+      <c r="E25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26" t="s">
+        <v>274</v>
+      </c>
+      <c r="E26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C27" t="s">
+        <v>275</v>
+      </c>
+      <c r="D27" t="s">
+        <v>274</v>
+      </c>
+      <c r="E27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="B28" s="44">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" s="46"/>
+      <c r="C29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="B34" s="44">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" s="46"/>
+      <c r="C35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="B43" s="44">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" s="46"/>
+      <c r="C44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="B46" s="44">
+        <v>8</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B47" s="46"/>
+      <c r="C47" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="B49" s="44">
+        <v>9</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" s="46"/>
+      <c r="C50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="B52" s="44">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B53" s="46"/>
+      <c r="C53" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="B55" s="44">
+        <v>11</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" s="46"/>
+      <c r="C56" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="B58" s="44">
+        <v>12</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B59" s="46"/>
+      <c r="C59" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5517,7 +6029,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -5694,34 +6206,34 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="29" t="s">
         <v>98</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>99</v>
       </c>
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
@@ -5750,7 +6262,7 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
@@ -5777,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
@@ -5787,7 +6299,7 @@
       <c r="Q6" s="29"/>
       <c r="R6" s="29"/>
       <c r="S6" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T6" s="29"/>
       <c r="U6" s="29"/>
@@ -5797,7 +6309,7 @@
       <c r="Y6" s="29"/>
       <c r="Z6" s="29"/>
       <c r="AA6" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB6" s="29"/>
       <c r="AC6" s="29"/>
@@ -6971,7 +7483,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -7046,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -7068,12 +7580,12 @@
       <c r="Q4" s="35"/>
       <c r="R4" s="35"/>
       <c r="T4" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
@@ -7121,15 +7633,15 @@
         <v>1</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" s="24">
         <v>0</v>
@@ -7177,13 +7689,13 @@
         <v>0</v>
       </c>
       <c r="R6" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
@@ -7210,7 +7722,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
@@ -7223,7 +7735,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -7247,10 +7759,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
@@ -7263,7 +7775,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -7287,10 +7799,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
@@ -7303,7 +7815,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
@@ -7327,10 +7839,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>

--- a/doc/RiscyInstSet32Bit.xlsx
+++ b/doc/RiscyInstSet32Bit.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14715"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Chapter 1. Math Opcodes" sheetId="2" r:id="rId2"/>
     <sheet name="Instructions" sheetId="6" r:id="rId3"/>
-    <sheet name="BIOS Call" sheetId="4" r:id="rId4"/>
-    <sheet name="StdGrAd Call" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="BIOS Call" sheetId="4" r:id="rId5"/>
+    <sheet name="StdGrAd Call" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="309">
   <si>
     <t>Description</t>
   </si>
@@ -594,9 +595,6 @@
     <t>C: 0-Load, 1-Store</t>
   </si>
   <si>
-    <t>Conditional jump</t>
-  </si>
-  <si>
     <t>Conditional suffix</t>
   </si>
   <si>
@@ -931,6 +929,33 @@
   </si>
   <si>
     <t>Mathematical Opcodes</t>
+  </si>
+  <si>
+    <t>32 Bits; 8 General, 4 Special</t>
+  </si>
+  <si>
+    <t>(Un)Conditional jump</t>
+  </si>
+  <si>
+    <t>Feature Identifier</t>
+  </si>
+  <si>
+    <t>Always return TRUE</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Memory Banking: 16 Slots</t>
+  </si>
+  <si>
+    <t>Memory Banking: 32 Slots</t>
+  </si>
+  <si>
+    <t>Memory Banking: 64 Slots</t>
+  </si>
+  <si>
+    <t>Hex</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1163,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="6" applyFont="1"/>
@@ -1259,6 +1284,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1549,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,8 +1680,8 @@
         <v>16</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="10">
-        <v>8</v>
+      <c r="D4" s="10" t="s">
+        <v>300</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1692,7 +1720,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -1735,12 +1763,12 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AK6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>0</v>
@@ -2097,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
@@ -2686,7 +2714,7 @@
       <c r="AH18" s="29"/>
       <c r="AI18" s="29"/>
       <c r="AK18" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
@@ -2694,7 +2722,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>188</v>
+        <v>301</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>5</v>
@@ -2743,7 +2771,7 @@
       <c r="AH19" s="29"/>
       <c r="AI19" s="29"/>
       <c r="AK19" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
@@ -2751,7 +2779,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>5</v>
@@ -2785,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R20" s="36"/>
       <c r="S20" s="36"/>
@@ -2793,7 +2821,7 @@
       <c r="U20" s="36"/>
       <c r="V20" s="36"/>
       <c r="W20" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="X20" s="29"/>
       <c r="Y20" s="29"/>
@@ -2808,7 +2836,7 @@
       <c r="AH20" s="29"/>
       <c r="AI20" s="29"/>
       <c r="AK20" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
@@ -2816,7 +2844,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>5</v>
@@ -2883,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AC21" s="29"/>
       <c r="AD21" s="29"/>
@@ -2893,7 +2921,7 @@
       <c r="AH21" s="29"/>
       <c r="AI21" s="29"/>
       <c r="AK21" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
@@ -3907,10 +3935,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3918,28 +3946,29 @@
     <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.5703125" customWidth="1"/>
     <col min="3" max="8" width="3.42578125" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" customWidth="1"/>
-    <col min="11" max="11" width="45.7109375" customWidth="1"/>
-    <col min="13" max="13" width="3.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="2.5703125" customWidth="1"/>
+    <col min="13" max="13" width="45.7109375" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B1" s="44">
         <v>1</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>167</v>
       </c>
@@ -3951,12 +3980,14 @@
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="20" t="s">
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="20" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -3979,24 +4010,30 @@
       <c r="H3" s="4">
         <v>0</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q3" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="O3" s="23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -4019,23 +4056,31 @@
       <c r="H4" s="6">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" s="24">
+        <f>_xlfn.DECIMAL(CONCATENATE(C4,D4,E4,F4,G4,H4),2)</f>
+        <v>32</v>
+      </c>
+      <c r="J4" s="24" t="str">
+        <f>DEC2HEX(I4,2)&amp;"h"</f>
+        <v>20h</v>
+      </c>
+      <c r="L4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>100</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>169</v>
       </c>
-      <c r="N4" t="s">
-        <v>191</v>
-      </c>
-      <c r="O4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -4058,23 +4103,31 @@
       <c r="H5" s="6">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" s="24">
+        <f t="shared" ref="I5:I41" si="0">_xlfn.DECIMAL(CONCATENATE(C5,D5,E5,F5,G5,H5),2)</f>
+        <v>33</v>
+      </c>
+      <c r="J5" s="24" t="str">
+        <f t="shared" ref="J5:J41" si="1">DEC2HEX(I5,2)&amp;"h"</f>
+        <v>21h</v>
+      </c>
+      <c r="L5" t="s">
         <v>47</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>101</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>169</v>
       </c>
-      <c r="N5" t="s">
-        <v>192</v>
-      </c>
-      <c r="O5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>75</v>
       </c>
@@ -4097,23 +4150,31 @@
       <c r="H6" s="6">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" s="24">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="J6" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>22h</v>
+      </c>
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>102</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>169</v>
       </c>
-      <c r="N6" t="s">
-        <v>193</v>
-      </c>
-      <c r="O6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>76</v>
       </c>
@@ -4136,23 +4197,31 @@
       <c r="H7" s="6">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I7" s="24">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="J7" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>23h</v>
+      </c>
+      <c r="L7" t="s">
         <v>78</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>103</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>169</v>
       </c>
-      <c r="N7" t="s">
-        <v>194</v>
-      </c>
-      <c r="O7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>92</v>
       </c>
@@ -4175,14 +4244,22 @@
       <c r="H8" s="6">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I8" s="24">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="J8" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>24h</v>
+      </c>
+      <c r="L8" t="s">
         <v>93</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>174</v>
       </c>
@@ -4205,20 +4282,28 @@
       <c r="H9" s="6">
         <v>1</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I9" s="24">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="J9" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>25h</v>
+      </c>
+      <c r="L9" t="s">
         <v>172</v>
       </c>
-      <c r="K9" t="s">
-        <v>205</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
+        <v>204</v>
+      </c>
+      <c r="N9" t="s">
         <v>170</v>
       </c>
-      <c r="N9" s="19" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>175</v>
       </c>
@@ -4241,20 +4326,28 @@
       <c r="H10" s="6">
         <v>0</v>
       </c>
-      <c r="J10" t="s">
+      <c r="I10" s="24">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="J10" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>26h</v>
+      </c>
+      <c r="L10" t="s">
         <v>173</v>
       </c>
-      <c r="K10" t="s">
-        <v>206</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
+        <v>205</v>
+      </c>
+      <c r="N10" t="s">
         <v>169</v>
       </c>
-      <c r="N10" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>79</v>
       </c>
@@ -4277,14 +4370,22 @@
       <c r="H11" s="6">
         <v>0</v>
       </c>
-      <c r="J11" t="s">
+      <c r="I11" s="24">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="J11" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>3Eh</v>
+      </c>
+      <c r="L11" t="s">
         <v>80</v>
       </c>
-      <c r="N11" s="19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>81</v>
       </c>
@@ -4307,14 +4408,22 @@
       <c r="H12" s="6">
         <v>1</v>
       </c>
-      <c r="J12" t="s">
+      <c r="I12" s="24">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="J12" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>3Fh</v>
+      </c>
+      <c r="L12" t="s">
         <v>82</v>
       </c>
-      <c r="N12" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
@@ -4337,17 +4446,25 @@
       <c r="H13" s="6">
         <v>1</v>
       </c>
-      <c r="J13" t="s">
+      <c r="I13" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>01h</v>
+      </c>
+      <c r="L13" t="s">
         <v>48</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>106</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
@@ -4370,17 +4487,25 @@
       <c r="H14" s="6">
         <v>0</v>
       </c>
-      <c r="J14" t="s">
+      <c r="I14" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J14" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>02h</v>
+      </c>
+      <c r="L14" t="s">
         <v>49</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>107</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
@@ -4403,17 +4528,25 @@
       <c r="H15" s="6">
         <v>1</v>
       </c>
-      <c r="J15" t="s">
+      <c r="I15" s="24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J15" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>03h</v>
+      </c>
+      <c r="L15" t="s">
         <v>50</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
         <v>108</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
@@ -4436,17 +4569,25 @@
       <c r="H16" s="6">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
+      <c r="I16" s="24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J16" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>04h</v>
+      </c>
+      <c r="L16" t="s">
         <v>51</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
         <v>109</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
@@ -4469,17 +4610,25 @@
       <c r="H17" s="6">
         <v>1</v>
       </c>
-      <c r="J17" t="s">
+      <c r="I17" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J17" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>05h</v>
+      </c>
+      <c r="L17" t="s">
         <v>52</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
         <v>110</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
@@ -4502,17 +4651,25 @@
       <c r="H18" s="6">
         <v>0</v>
       </c>
-      <c r="J18" t="s">
+      <c r="I18" s="24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J18" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>06h</v>
+      </c>
+      <c r="L18" t="s">
         <v>53</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
         <v>111</v>
       </c>
-      <c r="L18" t="s">
+      <c r="N18" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
@@ -4535,17 +4692,25 @@
       <c r="H19" s="6">
         <v>1</v>
       </c>
-      <c r="J19" t="s">
+      <c r="I19" s="24">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J19" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>07h</v>
+      </c>
+      <c r="L19" t="s">
         <v>54</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="s">
         <v>112</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N19" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>27</v>
       </c>
@@ -4568,17 +4733,25 @@
       <c r="H20" s="6">
         <v>0</v>
       </c>
-      <c r="J20" t="s">
+      <c r="I20" s="24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J20" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>08h</v>
+      </c>
+      <c r="L20" t="s">
         <v>55</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="s">
         <v>113</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>28</v>
       </c>
@@ -4601,17 +4774,25 @@
       <c r="H21" s="6">
         <v>1</v>
       </c>
-      <c r="J21" t="s">
+      <c r="I21" s="24">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J21" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>09h</v>
+      </c>
+      <c r="L21" t="s">
         <v>56</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" t="s">
         <v>114</v>
       </c>
-      <c r="L21" t="s">
+      <c r="N21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
@@ -4634,17 +4815,25 @@
       <c r="H22" s="6">
         <v>0</v>
       </c>
-      <c r="J22" t="s">
+      <c r="I22" s="24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>0Ah</v>
+      </c>
+      <c r="L22" t="s">
         <v>57</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" t="s">
         <v>115</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
@@ -4667,17 +4856,25 @@
       <c r="H23" s="6">
         <v>1</v>
       </c>
-      <c r="J23" t="s">
+      <c r="I23" s="24">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="J23" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>0Bh</v>
+      </c>
+      <c r="L23" t="s">
         <v>58</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
         <v>116</v>
       </c>
-      <c r="L23" t="s">
+      <c r="N23" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -4700,17 +4897,25 @@
       <c r="H24" s="6">
         <v>0</v>
       </c>
-      <c r="J24" t="s">
+      <c r="I24" s="24">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J24" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>0Ch</v>
+      </c>
+      <c r="L24" t="s">
         <v>59</v>
       </c>
-      <c r="K24" t="s">
+      <c r="M24" t="s">
         <v>117</v>
       </c>
-      <c r="L24" t="s">
+      <c r="N24" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
@@ -4733,17 +4938,25 @@
       <c r="H25" s="6">
         <v>0</v>
       </c>
-      <c r="J25" t="s">
+      <c r="I25" s="24">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>10h</v>
+      </c>
+      <c r="L25" t="s">
         <v>60</v>
       </c>
-      <c r="K25" t="s">
+      <c r="M25" t="s">
         <v>128</v>
       </c>
-      <c r="L25" t="s">
+      <c r="N25" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>33</v>
       </c>
@@ -4766,17 +4979,25 @@
       <c r="H26" s="6">
         <v>1</v>
       </c>
-      <c r="J26" t="s">
+      <c r="I26" s="24">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="J26" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>11h</v>
+      </c>
+      <c r="L26" t="s">
         <v>61</v>
       </c>
-      <c r="K26" t="s">
+      <c r="M26" t="s">
         <v>129</v>
       </c>
-      <c r="L26" t="s">
+      <c r="N26" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>34</v>
       </c>
@@ -4799,17 +5020,25 @@
       <c r="H27" s="6">
         <v>0</v>
       </c>
-      <c r="J27" t="s">
+      <c r="I27" s="24">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J27" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>12h</v>
+      </c>
+      <c r="L27" t="s">
         <v>62</v>
       </c>
-      <c r="K27" t="s">
+      <c r="M27" t="s">
         <v>118</v>
       </c>
-      <c r="L27" t="s">
+      <c r="N27" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>35</v>
       </c>
@@ -4832,17 +5061,25 @@
       <c r="H28" s="6">
         <v>1</v>
       </c>
-      <c r="J28" t="s">
+      <c r="I28" s="24">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="J28" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>13h</v>
+      </c>
+      <c r="L28" t="s">
         <v>63</v>
       </c>
-      <c r="K28" t="s">
+      <c r="M28" t="s">
         <v>119</v>
       </c>
-      <c r="L28" t="s">
+      <c r="N28" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>36</v>
       </c>
@@ -4865,17 +5102,25 @@
       <c r="H29" s="6">
         <v>0</v>
       </c>
-      <c r="J29" t="s">
+      <c r="I29" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J29" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>14h</v>
+      </c>
+      <c r="L29" t="s">
         <v>64</v>
       </c>
-      <c r="K29" t="s">
+      <c r="M29" t="s">
         <v>120</v>
       </c>
-      <c r="L29" t="s">
+      <c r="N29" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>37</v>
       </c>
@@ -4898,17 +5143,25 @@
       <c r="H30" s="6">
         <v>1</v>
       </c>
-      <c r="J30" t="s">
+      <c r="I30" s="24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="J30" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>15h</v>
+      </c>
+      <c r="L30" t="s">
         <v>65</v>
       </c>
-      <c r="K30" t="s">
+      <c r="M30" t="s">
         <v>121</v>
       </c>
-      <c r="L30" t="s">
+      <c r="N30" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>38</v>
       </c>
@@ -4931,17 +5184,25 @@
       <c r="H31" s="6">
         <v>0</v>
       </c>
-      <c r="J31" t="s">
+      <c r="I31" s="24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J31" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>16h</v>
+      </c>
+      <c r="L31" t="s">
         <v>66</v>
       </c>
-      <c r="K31" t="s">
+      <c r="M31" t="s">
         <v>122</v>
       </c>
-      <c r="L31" t="s">
+      <c r="N31" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>39</v>
       </c>
@@ -4964,19 +5225,27 @@
       <c r="H32" s="6">
         <v>1</v>
       </c>
-      <c r="J32" t="s">
+      <c r="I32" s="24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="J32" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>17h</v>
+      </c>
+      <c r="L32" t="s">
         <v>67</v>
       </c>
-      <c r="K32" t="s">
+      <c r="M32" t="s">
         <v>123</v>
       </c>
-      <c r="L32" t="s">
+      <c r="N32" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6">
@@ -4997,17 +5266,25 @@
       <c r="H33" s="6">
         <v>0</v>
       </c>
-      <c r="J33" t="s">
+      <c r="I33" s="24">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J33" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>18h</v>
+      </c>
+      <c r="L33" t="s">
+        <v>206</v>
+      </c>
+      <c r="M33" t="s">
         <v>207</v>
       </c>
-      <c r="K33" t="s">
-        <v>208</v>
-      </c>
-      <c r="L33" t="s">
+      <c r="N33" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>40</v>
       </c>
@@ -5030,17 +5307,25 @@
       <c r="H34" s="6">
         <v>1</v>
       </c>
-      <c r="J34" t="s">
+      <c r="I34" s="24">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J34" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>19h</v>
+      </c>
+      <c r="L34" t="s">
         <v>68</v>
       </c>
-      <c r="K34" t="s">
+      <c r="M34" t="s">
         <v>171</v>
       </c>
-      <c r="L34" t="s">
+      <c r="N34" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>41</v>
       </c>
@@ -5063,17 +5348,25 @@
       <c r="H35" s="6">
         <v>0</v>
       </c>
-      <c r="J35" t="s">
+      <c r="I35" s="24">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="J35" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>1Ah</v>
+      </c>
+      <c r="L35" t="s">
         <v>69</v>
       </c>
-      <c r="K35" t="s">
+      <c r="M35" t="s">
         <v>124</v>
       </c>
-      <c r="L35" t="s">
+      <c r="N35" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>42</v>
       </c>
@@ -5096,17 +5389,25 @@
       <c r="H36" s="6">
         <v>1</v>
       </c>
-      <c r="J36" t="s">
+      <c r="I36" s="24">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="J36" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>1Bh</v>
+      </c>
+      <c r="L36" t="s">
         <v>70</v>
       </c>
-      <c r="K36" t="s">
+      <c r="M36" t="s">
         <v>125</v>
       </c>
-      <c r="L36" t="s">
+      <c r="N36" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>43</v>
       </c>
@@ -5129,17 +5430,25 @@
       <c r="H37" s="6">
         <v>0</v>
       </c>
-      <c r="J37" t="s">
+      <c r="I37" s="24">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="J37" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>1Ch</v>
+      </c>
+      <c r="L37" t="s">
         <v>71</v>
       </c>
-      <c r="K37" t="s">
+      <c r="M37" t="s">
         <v>126</v>
       </c>
-      <c r="L37" t="s">
+      <c r="N37" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>44</v>
       </c>
@@ -5162,17 +5471,25 @@
       <c r="H38" s="6">
         <v>1</v>
       </c>
-      <c r="J38" t="s">
+      <c r="I38" s="24">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="J38" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>1Dh</v>
+      </c>
+      <c r="L38" t="s">
         <v>72</v>
       </c>
-      <c r="K38" t="s">
+      <c r="M38" t="s">
         <v>131</v>
       </c>
-      <c r="L38" t="s">
+      <c r="N38" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>45</v>
       </c>
@@ -5195,17 +5512,25 @@
       <c r="H39" s="6">
         <v>0</v>
       </c>
-      <c r="J39" t="s">
+      <c r="I39" s="24">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J39" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>1Eh</v>
+      </c>
+      <c r="L39" t="s">
         <v>73</v>
       </c>
-      <c r="K39" t="s">
+      <c r="M39" t="s">
         <v>127</v>
       </c>
-      <c r="L39" t="s">
+      <c r="N39" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>46</v>
       </c>
@@ -5228,17 +5553,25 @@
       <c r="H40" s="6">
         <v>1</v>
       </c>
-      <c r="J40" t="s">
+      <c r="I40" s="24">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="J40" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>1Fh</v>
+      </c>
+      <c r="L40" t="s">
         <v>74</v>
       </c>
-      <c r="K40" t="s">
+      <c r="M40" t="s">
         <v>130</v>
       </c>
-      <c r="L40" t="s">
+      <c r="N40" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>83</v>
       </c>
@@ -5261,12 +5594,20 @@
       <c r="H41" s="14">
         <v>0</v>
       </c>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17" t="s">
+      <c r="I41" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>00h</v>
+      </c>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -5275,10 +5616,12 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5304,13 +5647,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B1" s="44">
         <v>2</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5318,7 +5661,7 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="28"/>
@@ -5328,129 +5671,129 @@
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" t="s">
         <v>242</v>
-      </c>
-      <c r="F10" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B11" s="45"/>
       <c r="C11" s="28"/>
@@ -5460,118 +5803,118 @@
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B12" s="46"/>
       <c r="C12" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B19" s="44">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -5579,36 +5922,36 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B20" s="46"/>
       <c r="C20" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="C21" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" t="s">
         <v>270</v>
-      </c>
-      <c r="C21" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B22" s="44">
         <v>4</v>
@@ -5622,81 +5965,81 @@
     </row>
     <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23" s="46"/>
       <c r="C23" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="C24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D24" t="s">
         <v>273</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>275</v>
-      </c>
-      <c r="D24" t="s">
-        <v>274</v>
-      </c>
-      <c r="E24" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B28" s="44">
         <v>5</v>
@@ -5710,51 +6053,51 @@
     </row>
     <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B29" s="46"/>
       <c r="C29" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B34" s="44">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -5762,66 +6105,66 @@
     </row>
     <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B35" s="46"/>
       <c r="C35" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B43" s="44">
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -5829,31 +6172,31 @@
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B44" s="46"/>
       <c r="C44" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B46" s="44">
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -5861,31 +6204,31 @@
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B47" s="46"/>
       <c r="C47" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B49" s="44">
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -5893,31 +6236,31 @@
     </row>
     <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B50" s="46"/>
       <c r="C50" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B52" s="44">
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -5925,31 +6268,31 @@
     </row>
     <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B53" s="46"/>
       <c r="C53" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B55" s="44">
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -5957,25 +6300,25 @@
     </row>
     <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B56" s="46"/>
       <c r="C56" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B58" s="44">
         <v>12</v>
@@ -5989,20 +6332,20 @@
     </row>
     <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B59" s="46"/>
       <c r="C59" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -6011,6 +6354,309 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" customWidth="1"/>
+    <col min="3" max="10" width="2.85546875" style="25" customWidth="1"/>
+    <col min="11" max="12" width="6" style="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="46">
+        <v>7</v>
+      </c>
+      <c r="D3" s="46">
+        <v>6</v>
+      </c>
+      <c r="E3" s="46">
+        <v>5</v>
+      </c>
+      <c r="F3" s="46">
+        <v>4</v>
+      </c>
+      <c r="G3" s="46">
+        <v>3</v>
+      </c>
+      <c r="H3" s="46">
+        <v>2</v>
+      </c>
+      <c r="I3" s="46">
+        <v>1</v>
+      </c>
+      <c r="J3" s="46">
+        <v>0</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0</v>
+      </c>
+      <c r="K4" s="25">
+        <f>_xlfn.DECIMAL(CONCATENATE(C4,D4,E4,F4,G4,H4,I4,J4),2)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="25" t="str">
+        <f>DEC2HEX(K4,2)&amp;"h"</f>
+        <v>00h</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0</v>
+      </c>
+      <c r="H5" s="25">
+        <v>1</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0</v>
+      </c>
+      <c r="J5" s="25">
+        <v>1</v>
+      </c>
+      <c r="K5" s="25">
+        <f t="shared" ref="K5:K7" si="0">_xlfn.DECIMAL(CONCATENATE(C5,D5,E5,F5,G5,H5,I5,J5),2)</f>
+        <v>5</v>
+      </c>
+      <c r="L5" s="25" t="str">
+        <f t="shared" ref="L5:L7" si="1">DEC2HEX(K5,2)&amp;"h"</f>
+        <v>05h</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
+        <v>1</v>
+      </c>
+      <c r="I6" s="25">
+        <v>1</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0</v>
+      </c>
+      <c r="K6" s="25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L6" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>06h</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
+        <v>1</v>
+      </c>
+      <c r="I7" s="25">
+        <v>1</v>
+      </c>
+      <c r="J7" s="25">
+        <v>1</v>
+      </c>
+      <c r="K7" s="25">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L7" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>07h</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ40"/>
   <sheetViews>
@@ -7464,7 +8110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
@@ -7641,7 +8287,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C6" s="24">
         <v>0</v>

--- a/doc/RiscyInstSet32Bit.xlsx
+++ b/doc/RiscyInstSet32Bit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14715" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -850,9 +850,6 @@
     <t>CMP/CMPII</t>
   </si>
   <si>
-    <t>lhand, rhand</t>
-  </si>
-  <si>
     <t>rCMP = rHand - lHand</t>
   </si>
   <si>
@@ -940,9 +937,6 @@
     <t>Feature Identifier</t>
   </si>
   <si>
-    <t>Always return TRUE</t>
-  </si>
-  <si>
     <t>Dec</t>
   </si>
   <si>
@@ -956,6 +950,12 @@
   </si>
   <si>
     <t>Hex</t>
+  </si>
+  <si>
+    <t>lhand, rhand (registers)</t>
+  </si>
+  <si>
+    <t>Always return TRUE (FFFFFFFFh)</t>
   </si>
 </sst>
 </file>
@@ -1577,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2722,7 +2722,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>5</v>
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -4011,10 +4011,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
@@ -5632,7 +5632,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5986,55 +5986,55 @@
         <v>272</v>
       </c>
       <c r="C24" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" t="s">
+        <v>307</v>
+      </c>
+      <c r="E24" t="s">
         <v>274</v>
-      </c>
-      <c r="D24" t="s">
-        <v>273</v>
-      </c>
-      <c r="E24" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D25" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="E25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D26" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="E26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D27" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="E27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6071,22 +6071,22 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6097,7 +6097,7 @@
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -6123,37 +6123,37 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6164,7 +6164,7 @@
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -6196,7 +6196,7 @@
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -6228,7 +6228,7 @@
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -6260,7 +6260,7 @@
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -6292,7 +6292,7 @@
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -6357,8 +6357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6371,7 +6371,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -6416,15 +6416,15 @@
         <v>0</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L3" s="46" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C4" s="25">
         <v>0</v>
@@ -6461,7 +6461,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C5" s="25">
         <v>0</v>
@@ -6498,7 +6498,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C6" s="25">
         <v>0</v>
@@ -6535,7 +6535,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C7" s="25">
         <v>0</v>

--- a/doc/RiscyInstSet32Bit.xlsx
+++ b/doc/RiscyInstSet32Bit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14715" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="311">
   <si>
     <t>Description</t>
   </si>
@@ -956,6 +956,12 @@
   </si>
   <si>
     <t>Always return TRUE (FFFFFFFFh)</t>
+  </si>
+  <si>
+    <t>pc = POPWORDI()</t>
+  </si>
+  <si>
+    <t>PUSHWORDI(pc); JMP(addr)</t>
   </si>
 </sst>
 </file>
@@ -1231,45 +1237,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1283,6 +1250,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1872,17 +1878,17 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
+      <c r="A8" s="35">
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="11">
         <v>0</v>
       </c>
@@ -1895,21 +1901,21 @@
       <c r="J8" s="11">
         <v>0</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35" t="s">
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35" t="s">
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
       <c r="T8" s="12">
         <v>0</v>
       </c>
@@ -1940,28 +1946,28 @@
       <c r="AC8" s="6">
         <v>0</v>
       </c>
-      <c r="AD8" s="35" t="s">
+      <c r="AD8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="35"/>
-      <c r="AI8" s="35"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="40"/>
+      <c r="AI8" s="40"/>
       <c r="AK8" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="18">
         <v>0</v>
       </c>
@@ -1974,19 +1980,19 @@
       <c r="J9" s="18">
         <v>0</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="34" t="s">
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
       <c r="T9" s="12">
         <v>0</v>
       </c>
@@ -2040,15 +2046,15 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="18">
         <v>0</v>
       </c>
@@ -2061,21 +2067,21 @@
       <c r="J10" s="18">
         <v>0</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32" t="s">
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="33" t="s">
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
       <c r="T10" s="12">
         <v>0</v>
       </c>
@@ -2135,11 +2141,11 @@
       <c r="B11" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="6">
         <v>0</v>
       </c>
@@ -2152,21 +2158,21 @@
       <c r="J11" s="12">
         <v>0</v>
       </c>
-      <c r="K11" s="29" t="s">
+      <c r="K11" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29" t="s">
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29" t="s">
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
       <c r="T11" s="6">
         <v>0</v>
       </c>
@@ -2206,10 +2212,10 @@
       <c r="AF11" s="6">
         <v>0</v>
       </c>
-      <c r="AG11" s="30" t="s">
+      <c r="AG11" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="AH11" s="30"/>
+      <c r="AH11" s="36"/>
       <c r="AI11" s="22" t="s">
         <v>89</v>
       </c>
@@ -2227,11 +2233,11 @@
       <c r="B12" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="6">
         <v>0</v>
       </c>
@@ -2244,31 +2250,31 @@
       <c r="J12" s="12">
         <v>0</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29" t="s">
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29" t="s">
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29" t="s">
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29" t="s">
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
       <c r="Z12" s="6">
         <v>0</v>
       </c>
@@ -2310,11 +2316,11 @@
       <c r="B13" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="6">
         <v>0</v>
       </c>
@@ -2327,16 +2333,16 @@
       <c r="J13" s="12">
         <v>1</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29" t="s">
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
       <c r="Q13" s="6">
         <v>0</v>
       </c>
@@ -2399,17 +2405,17 @@
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="40">
+      <c r="A14" s="34">
         <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="6">
         <v>0</v>
       </c>
@@ -2422,16 +2428,16 @@
       <c r="J14" s="12">
         <v>1</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29" t="s">
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
       <c r="Q14" s="6">
         <v>0</v>
       </c>
@@ -2465,30 +2471,30 @@
       <c r="AA14" s="6">
         <v>0</v>
       </c>
-      <c r="AB14" s="29" t="s">
+      <c r="AB14" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="29"/>
-      <c r="AH14" s="29"/>
-      <c r="AI14" s="29"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="38"/>
+      <c r="AI14" s="38"/>
       <c r="AK14" s="10" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="6">
         <v>0</v>
       </c>
@@ -2501,16 +2507,16 @@
       <c r="J15" s="12">
         <v>1</v>
       </c>
-      <c r="K15" s="29" t="s">
+      <c r="K15" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29" t="s">
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
       <c r="Q15" s="6">
         <v>1</v>
       </c>
@@ -2520,38 +2526,38 @@
       <c r="S15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="29" t="s">
+      <c r="T15" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="29"/>
-      <c r="AI15" s="29"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="38"/>
       <c r="AK15" s="10" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
       <c r="G16" s="6">
         <v>0</v>
       </c>
@@ -2564,16 +2570,16 @@
       <c r="J16" s="12">
         <v>1</v>
       </c>
-      <c r="K16" s="29" t="s">
+      <c r="K16" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29" t="s">
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
       <c r="Q16" s="6">
         <v>1</v>
       </c>
@@ -2583,38 +2589,38 @@
       <c r="S16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="29" t="s">
+      <c r="T16" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="29"/>
-      <c r="AI16" s="29"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="38"/>
       <c r="AK16" s="10" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="6">
         <v>0</v>
       </c>
@@ -2627,35 +2633,35 @@
       <c r="J17" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="29" t="s">
+      <c r="K17" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29" t="s">
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="29"/>
-      <c r="AG17" s="29"/>
-      <c r="AH17" s="29"/>
-      <c r="AI17" s="29"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
       <c r="AK17" s="10" t="s">
         <v>187</v>
       </c>
@@ -2667,11 +2673,11 @@
       <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="6">
         <v>0</v>
       </c>
@@ -2684,35 +2690,35 @@
       <c r="J18" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29" t="s">
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="29"/>
-      <c r="AI18" s="29"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
       <c r="AK18" s="10" t="s">
         <v>210</v>
       </c>
@@ -2724,11 +2730,11 @@
       <c r="B19" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="6">
         <v>1</v>
       </c>
@@ -2741,35 +2747,35 @@
       <c r="J19" s="12">
         <v>0</v>
       </c>
-      <c r="K19" s="34" t="s">
+      <c r="K19" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="29" t="s">
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="29"/>
-      <c r="AI19" s="29"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
       <c r="AK19" s="10" t="s">
         <v>201</v>
       </c>
@@ -2781,11 +2787,11 @@
       <c r="B20" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
       <c r="G20" s="24">
         <v>1</v>
       </c>
@@ -2798,11 +2804,11 @@
       <c r="J20" s="25">
         <v>1</v>
       </c>
-      <c r="K20" s="34" t="s">
+      <c r="K20" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
       <c r="N20" s="25">
         <v>0</v>
       </c>
@@ -2812,29 +2818,29 @@
       <c r="P20" s="25">
         <v>0</v>
       </c>
-      <c r="Q20" s="36" t="s">
+      <c r="Q20" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="29" t="s">
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="29"/>
-      <c r="AI20" s="29"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="38"/>
       <c r="AK20" s="10" t="s">
         <v>263</v>
       </c>
@@ -2846,11 +2852,11 @@
       <c r="B21" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
       <c r="G21" s="24">
         <v>1</v>
       </c>
@@ -2863,11 +2869,11 @@
       <c r="J21" s="25">
         <v>1</v>
       </c>
-      <c r="K21" s="36" t="s">
+      <c r="K21" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
       <c r="N21" s="25">
         <v>0</v>
       </c>
@@ -2910,16 +2916,16 @@
       <c r="AA21" s="24">
         <v>0</v>
       </c>
-      <c r="AB21" s="29" t="s">
+      <c r="AB21" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="29"/>
-      <c r="AI21" s="29"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="38"/>
       <c r="AK21" s="10" t="s">
         <v>264</v>
       </c>
@@ -2931,11 +2937,11 @@
       <c r="B22" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
       <c r="G22" s="6">
         <v>1</v>
       </c>
@@ -2948,11 +2954,11 @@
       <c r="J22" s="6">
         <v>1</v>
       </c>
-      <c r="K22" s="29" t="s">
+      <c r="K22" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
       <c r="N22" s="6">
         <v>0</v>
       </c>
@@ -2995,16 +3001,16 @@
       <c r="AA22" s="6">
         <v>0</v>
       </c>
-      <c r="AB22" s="29" t="s">
+      <c r="AB22" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="29"/>
-      <c r="AI22" s="29"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="38"/>
+      <c r="AF22" s="38"/>
+      <c r="AG22" s="38"/>
+      <c r="AH22" s="38"/>
+      <c r="AI22" s="38"/>
       <c r="AK22" s="10" t="s">
         <v>88</v>
       </c>
@@ -3016,11 +3022,11 @@
       <c r="B23" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
       <c r="G23" s="6">
         <v>1</v>
       </c>
@@ -3033,11 +3039,11 @@
       <c r="J23" s="6">
         <v>1</v>
       </c>
-      <c r="K23" s="29" t="s">
+      <c r="K23" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
       <c r="N23" s="6">
         <v>0</v>
       </c>
@@ -3080,16 +3086,16 @@
       <c r="AA23" s="6">
         <v>1</v>
       </c>
-      <c r="AB23" s="29" t="s">
+      <c r="AB23" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="29"/>
-      <c r="AI23" s="29"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="38"/>
+      <c r="AI23" s="38"/>
       <c r="AK23" s="10" t="s">
         <v>184</v>
       </c>
@@ -3101,11 +3107,11 @@
       <c r="B24" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
       <c r="G24" s="6">
         <v>1</v>
       </c>
@@ -3118,11 +3124,11 @@
       <c r="J24" s="6">
         <v>1</v>
       </c>
-      <c r="K24" s="29" t="s">
+      <c r="K24" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
       <c r="N24" s="6">
         <v>0</v>
       </c>
@@ -3198,11 +3204,11 @@
       <c r="B25" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
       <c r="G25" s="6">
         <v>1</v>
       </c>
@@ -3266,16 +3272,16 @@
       <c r="AA25" s="6">
         <v>1</v>
       </c>
-      <c r="AB25" s="29" t="s">
+      <c r="AB25" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="29"/>
-      <c r="AF25" s="29"/>
-      <c r="AG25" s="29"/>
-      <c r="AH25" s="29"/>
-      <c r="AI25" s="29"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="38"/>
+      <c r="AG25" s="38"/>
+      <c r="AH25" s="38"/>
+      <c r="AI25" s="38"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -3861,30 +3867,24 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="Q20:V20"/>
-    <mergeCell ref="W20:AI20"/>
-    <mergeCell ref="AB21:AI21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="AD8:AI8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="AB22:AI22"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="AB14:AI14"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="AB25:AI25"/>
     <mergeCell ref="N17:AI17"/>
     <mergeCell ref="K17:M17"/>
@@ -3901,32 +3901,38 @@
     <mergeCell ref="AB23:AI23"/>
     <mergeCell ref="K24:M24"/>
     <mergeCell ref="K13:M13"/>
+    <mergeCell ref="AB22:AI22"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="AB14:AI14"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="K15:M15"/>
     <mergeCell ref="T15:AI15"/>
     <mergeCell ref="K10:M10"/>
     <mergeCell ref="N10:P10"/>
     <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="Q20:V20"/>
+    <mergeCell ref="W20:AI20"/>
+    <mergeCell ref="AB21:AI21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="AD8:AI8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
     <mergeCell ref="AG11:AH11"/>
     <mergeCell ref="W12:Y12"/>
     <mergeCell ref="N14:P14"/>
     <mergeCell ref="N15:P15"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3937,8 +3943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3955,13 +3961,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="44">
-        <v>1</v>
-      </c>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="31">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>298</v>
       </c>
       <c r="D1" s="1"/>
@@ -3969,20 +3975,20 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="39"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="46"/>
       <c r="M2" s="20" t="s">
         <v>166</v>
       </c>
@@ -4381,6 +4387,9 @@
       <c r="L11" t="s">
         <v>80</v>
       </c>
+      <c r="M11" t="s">
+        <v>310</v>
+      </c>
       <c r="P11" s="19" t="s">
         <v>198</v>
       </c>
@@ -4418,6 +4427,9 @@
       </c>
       <c r="L12" t="s">
         <v>82</v>
+      </c>
+      <c r="M12" t="s">
+        <v>309</v>
       </c>
       <c r="P12" s="19" t="s">
         <v>199</v>
@@ -5632,7 +5644,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5646,13 +5658,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="44">
+      <c r="B1" s="31">
         <v>2</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="29" t="s">
         <v>267</v>
       </c>
       <c r="D1" s="1"/>
@@ -5663,7 +5675,7 @@
       <c r="A2" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -5673,7 +5685,7 @@
       <c r="A3" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="3" t="s">
         <v>99</v>
       </c>
@@ -5795,7 +5807,7 @@
       <c r="A11" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="45"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -5805,7 +5817,7 @@
       <c r="A12" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="3" t="s">
         <v>99</v>
       </c>
@@ -5907,10 +5919,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="31">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -5924,7 +5936,7 @@
       <c r="A20" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B20" s="46"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="3" t="s">
         <v>99</v>
       </c>
@@ -5950,10 +5962,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="B22" s="44">
+      <c r="B22" s="31">
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -5967,7 +5979,7 @@
       <c r="A23" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B23" s="46"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="3" t="s">
         <v>99</v>
       </c>
@@ -6038,10 +6050,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="B28" s="44">
+      <c r="B28" s="31">
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -6055,7 +6067,7 @@
       <c r="A29" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B29" s="46"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="3" t="s">
         <v>99</v>
       </c>
@@ -6090,10 +6102,10 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="B34" s="44">
+      <c r="B34" s="31">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -6107,7 +6119,7 @@
       <c r="A35" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="3" t="s">
         <v>99</v>
       </c>
@@ -6157,10 +6169,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="B43" s="44">
+      <c r="B43" s="31">
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -6174,7 +6186,7 @@
       <c r="A44" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B44" s="46"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="3" t="s">
         <v>99</v>
       </c>
@@ -6189,10 +6201,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="B46" s="44">
+      <c r="B46" s="31">
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -6206,7 +6218,7 @@
       <c r="A47" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B47" s="46"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="3" t="s">
         <v>99</v>
       </c>
@@ -6221,10 +6233,10 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="B49" s="44">
+      <c r="B49" s="31">
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -6238,7 +6250,7 @@
       <c r="A50" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B50" s="46"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="3" t="s">
         <v>99</v>
       </c>
@@ -6253,10 +6265,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="43" t="s">
+      <c r="A52" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="B52" s="44">
+      <c r="B52" s="31">
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -6270,7 +6282,7 @@
       <c r="A53" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B53" s="46"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="3" t="s">
         <v>99</v>
       </c>
@@ -6285,10 +6297,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="43" t="s">
+      <c r="A55" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="B55" s="44">
+      <c r="B55" s="31">
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -6302,7 +6314,7 @@
       <c r="A56" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B56" s="46"/>
+      <c r="B56" s="33"/>
       <c r="C56" s="3" t="s">
         <v>99</v>
       </c>
@@ -6317,10 +6329,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="43" t="s">
+      <c r="A58" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="B58" s="44">
+      <c r="B58" s="31">
         <v>12</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -6334,7 +6346,7 @@
       <c r="A59" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B59" s="46"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="3" t="s">
         <v>99</v>
       </c>
@@ -6357,7 +6369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -6391,34 +6403,34 @@
         <v>0</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="46">
+      <c r="C3" s="33">
         <v>7</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="33">
         <v>6</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="33">
         <v>5</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="33">
         <v>4</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="33">
         <v>3</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="33">
         <v>2</v>
       </c>
-      <c r="I3" s="46">
-        <v>1</v>
-      </c>
-      <c r="J3" s="46">
-        <v>0</v>
-      </c>
-      <c r="K3" s="46" t="s">
+      <c r="I3" s="33">
+        <v>1</v>
+      </c>
+      <c r="J3" s="33">
+        <v>0</v>
+      </c>
+      <c r="K3" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="33" t="s">
         <v>306</v>
       </c>
     </row>
@@ -6824,30 +6836,30 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
       <c r="AJ4" s="10"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
@@ -6878,32 +6890,32 @@
       <c r="J5" s="6">
         <v>1</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="29"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
       <c r="AJ5" s="10"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -6934,36 +6946,36 @@
       <c r="J6" s="6">
         <v>0</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29" t="s">
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29" t="s">
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="29"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="10"/>
     </row>
@@ -8209,22 +8221,22 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
       <c r="T4" s="10" t="s">
         <v>142</v>
       </c>
@@ -8367,16 +8379,16 @@
       <c r="J7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -8407,16 +8419,16 @@
       <c r="J8" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -8447,16 +8459,16 @@
       <c r="J9" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -8487,16 +8499,16 @@
       <c r="J10" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">

--- a/doc/RiscyInstSet32Bit.xlsx
+++ b/doc/RiscyInstSet32Bit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14715"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -268,12 +268,6 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>Gosub</t>
-  </si>
-  <si>
-    <t>GOSUB</t>
-  </si>
-  <si>
     <t>Return</t>
   </si>
   <si>
@@ -523,12 +517,6 @@
     <t>MathOpcode 0 for Halt</t>
   </si>
   <si>
-    <t>Gosub/Return</t>
-  </si>
-  <si>
-    <t>M: 0-GOSUB, 1-RETURN</t>
-  </si>
-  <si>
     <t>Unused registers are ignored</t>
   </si>
   <si>
@@ -640,9 +628,6 @@
     <t>e.g. MOVZ</t>
   </si>
   <si>
-    <t>e.g. GOSUBNZ</t>
-  </si>
-  <si>
     <t>Rd = (int) Rs</t>
   </si>
   <si>
@@ -962,6 +947,21 @@
   </si>
   <si>
     <t>PUSHWORDI(pc); JMP(addr)</t>
+  </si>
+  <si>
+    <t>Jump to Subroutine</t>
+  </si>
+  <si>
+    <t>JSR</t>
+  </si>
+  <si>
+    <t>e.g. JSRNZ</t>
+  </si>
+  <si>
+    <t>JSR/Return</t>
+  </si>
+  <si>
+    <t>M: 0-JSR, 1-RETURN</t>
   </si>
 </sst>
 </file>
@@ -1583,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,7 +1640,7 @@
     <row r="2" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -1764,17 +1764,17 @@
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AK5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AK6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>0</v>
@@ -1955,13 +1955,13 @@
       <c r="AH8" s="40"/>
       <c r="AI8" s="40"/>
       <c r="AK8" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
       <c r="B9" s="7" t="s">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>5</v>
@@ -1986,7 +1986,7 @@
       <c r="L9" s="37"/>
       <c r="M9" s="37"/>
       <c r="N9" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
@@ -2042,13 +2042,13 @@
         <v>10</v>
       </c>
       <c r="AK9" s="10" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
       <c r="B10" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>5</v>
@@ -2073,12 +2073,12 @@
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
       <c r="N10" s="41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O10" s="41"/>
       <c r="P10" s="41"/>
       <c r="Q10" s="42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R10" s="42"/>
       <c r="S10" s="42"/>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="10" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
@@ -2139,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>5</v>
@@ -2169,7 +2169,7 @@
       <c r="O11" s="38"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R11" s="38"/>
       <c r="S11" s="38"/>
@@ -2213,17 +2213,17 @@
         <v>0</v>
       </c>
       <c r="AG11" s="36" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AH11" s="36"/>
       <c r="AI11" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AK11" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
@@ -2231,7 +2231,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>5</v>
@@ -2261,17 +2261,17 @@
       <c r="O12" s="38"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
       <c r="T12" s="38" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="U12" s="38"/>
       <c r="V12" s="38"/>
       <c r="W12" s="38" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
@@ -2314,7 +2314,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D13" s="36" t="s">
         <v>5</v>
@@ -2395,13 +2395,13 @@
         <v>0</v>
       </c>
       <c r="AH13" s="22" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AI13" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AK13" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
@@ -2409,7 +2409,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>5</v>
@@ -2434,7 +2434,7 @@
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
       <c r="N14" s="38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O14" s="38"/>
       <c r="P14" s="38"/>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AC14" s="38"/>
       <c r="AD14" s="38"/>
@@ -2482,13 +2482,13 @@
       <c r="AH14" s="38"/>
       <c r="AI14" s="38"/>
       <c r="AK14" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
       <c r="B15" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>5</v>
@@ -2513,7 +2513,7 @@
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
       <c r="N15" s="38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O15" s="38"/>
       <c r="P15" s="38"/>
@@ -2527,7 +2527,7 @@
         <v>10</v>
       </c>
       <c r="T15" s="38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U15" s="38"/>
       <c r="V15" s="38"/>
@@ -2545,13 +2545,13 @@
       <c r="AH15" s="38"/>
       <c r="AI15" s="38"/>
       <c r="AK15" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="34"/>
       <c r="B16" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>5</v>
@@ -2576,7 +2576,7 @@
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
@@ -2590,7 +2590,7 @@
         <v>10</v>
       </c>
       <c r="T16" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="U16" s="38"/>
       <c r="V16" s="38"/>
@@ -2608,13 +2608,13 @@
       <c r="AH16" s="38"/>
       <c r="AI16" s="38"/>
       <c r="AK16" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
       <c r="B17" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>5</v>
@@ -2631,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K17" s="38" t="s">
         <v>7</v>
@@ -2663,7 +2663,7 @@
       <c r="AH17" s="38"/>
       <c r="AI17" s="38"/>
       <c r="AK17" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
@@ -2688,7 +2688,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K18" s="38" t="s">
         <v>7</v>
@@ -2696,7 +2696,7 @@
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
       <c r="N18" s="38" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="O18" s="38"/>
       <c r="P18" s="38"/>
@@ -2720,7 +2720,7 @@
       <c r="AH18" s="38"/>
       <c r="AI18" s="38"/>
       <c r="AK18" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
@@ -2728,7 +2728,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>5</v>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L19" s="39"/>
       <c r="M19" s="39"/>
@@ -2777,7 +2777,7 @@
       <c r="AH19" s="38"/>
       <c r="AI19" s="38"/>
       <c r="AK19" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
@@ -2785,7 +2785,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>5</v>
@@ -2805,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L20" s="39"/>
       <c r="M20" s="39"/>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="37" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="R20" s="37"/>
       <c r="S20" s="37"/>
@@ -2827,7 +2827,7 @@
       <c r="U20" s="37"/>
       <c r="V20" s="37"/>
       <c r="W20" s="38" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="X20" s="38"/>
       <c r="Y20" s="38"/>
@@ -2842,7 +2842,7 @@
       <c r="AH20" s="38"/>
       <c r="AI20" s="38"/>
       <c r="AK20" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
@@ -2850,7 +2850,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>5</v>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="38" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AC21" s="38"/>
       <c r="AD21" s="38"/>
@@ -2927,7 +2927,7 @@
       <c r="AH21" s="38"/>
       <c r="AI21" s="38"/>
       <c r="AK21" s="10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
@@ -2935,7 +2935,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D22" s="36" t="s">
         <v>5</v>
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AC22" s="38"/>
       <c r="AD22" s="38"/>
@@ -3012,7 +3012,7 @@
       <c r="AH22" s="38"/>
       <c r="AI22" s="38"/>
       <c r="AK22" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
@@ -3020,7 +3020,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D23" s="36" t="s">
         <v>5</v>
@@ -3087,7 +3087,7 @@
         <v>1</v>
       </c>
       <c r="AB23" s="38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AC23" s="38"/>
       <c r="AD23" s="38"/>
@@ -3097,7 +3097,7 @@
       <c r="AH23" s="38"/>
       <c r="AI23" s="38"/>
       <c r="AK23" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
@@ -3105,7 +3105,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D24" s="36" t="s">
         <v>5</v>
@@ -3202,7 +3202,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D25" s="36" t="s">
         <v>5</v>
@@ -3273,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="AB25" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC25" s="38"/>
       <c r="AD25" s="38"/>
@@ -3943,8 +3943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3962,13 +3962,13 @@
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B1" s="31">
         <v>1</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
@@ -3990,7 +3990,7 @@
       <c r="K2" s="45"/>
       <c r="L2" s="46"/>
       <c r="M2" s="20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4017,26 +4017,26 @@
         <v>0</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -4074,16 +4074,16 @@
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q4" t="s">
         <v>190</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -4121,16 +4121,16 @@
         <v>47</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P5" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q5" t="s">
         <v>191</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -4168,16 +4168,16 @@
         <v>77</v>
       </c>
       <c r="M6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P6" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q6" t="s">
         <v>192</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -4215,21 +4215,21 @@
         <v>78</v>
       </c>
       <c r="M7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6">
@@ -4259,15 +4259,15 @@
         <v>24h</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6">
@@ -4297,21 +4297,21 @@
         <v>25h</v>
       </c>
       <c r="L9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="N9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6">
@@ -4341,21 +4341,21 @@
         <v>26h</v>
       </c>
       <c r="L10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>203</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6">
@@ -4385,18 +4385,18 @@
         <v>3Eh</v>
       </c>
       <c r="L11" t="s">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="M11" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6">
@@ -4426,13 +4426,13 @@
         <v>3Fh</v>
       </c>
       <c r="L12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M12" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -4470,10 +4470,10 @@
         <v>48</v>
       </c>
       <c r="M13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -4511,10 +4511,10 @@
         <v>49</v>
       </c>
       <c r="M14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N14" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -4552,10 +4552,10 @@
         <v>50</v>
       </c>
       <c r="M15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -4593,10 +4593,10 @@
         <v>51</v>
       </c>
       <c r="M16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -4634,10 +4634,10 @@
         <v>52</v>
       </c>
       <c r="M17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -4675,10 +4675,10 @@
         <v>53</v>
       </c>
       <c r="M18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -4716,10 +4716,10 @@
         <v>54</v>
       </c>
       <c r="M19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N19" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -4757,10 +4757,10 @@
         <v>55</v>
       </c>
       <c r="M20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -4798,10 +4798,10 @@
         <v>56</v>
       </c>
       <c r="M21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -4839,10 +4839,10 @@
         <v>57</v>
       </c>
       <c r="M22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N22" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -4880,10 +4880,10 @@
         <v>58</v>
       </c>
       <c r="M23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N23" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -4921,10 +4921,10 @@
         <v>59</v>
       </c>
       <c r="M24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N24" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -4962,10 +4962,10 @@
         <v>60</v>
       </c>
       <c r="M25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N25" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -5003,10 +5003,10 @@
         <v>61</v>
       </c>
       <c r="M26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N26" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -5044,10 +5044,10 @@
         <v>62</v>
       </c>
       <c r="M27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N27" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -5085,10 +5085,10 @@
         <v>63</v>
       </c>
       <c r="M28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N28" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -5126,10 +5126,10 @@
         <v>64</v>
       </c>
       <c r="M29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N29" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -5167,10 +5167,10 @@
         <v>65</v>
       </c>
       <c r="M30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -5208,10 +5208,10 @@
         <v>66</v>
       </c>
       <c r="M31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N31" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -5249,15 +5249,15 @@
         <v>67</v>
       </c>
       <c r="M32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N32" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6">
@@ -5287,13 +5287,13 @@
         <v>18h</v>
       </c>
       <c r="L33" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M33" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N33" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -5331,10 +5331,10 @@
         <v>68</v>
       </c>
       <c r="M34" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="N34" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -5372,10 +5372,10 @@
         <v>69</v>
       </c>
       <c r="M35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N35" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -5413,10 +5413,10 @@
         <v>70</v>
       </c>
       <c r="M36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N36" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -5454,10 +5454,10 @@
         <v>71</v>
       </c>
       <c r="M37" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N37" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -5495,10 +5495,10 @@
         <v>72</v>
       </c>
       <c r="M38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N38" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -5536,10 +5536,10 @@
         <v>73</v>
       </c>
       <c r="M39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N39" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -5577,15 +5577,15 @@
         <v>74</v>
       </c>
       <c r="M40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N40" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="14">
@@ -5616,7 +5616,7 @@
       </c>
       <c r="K41" s="17"/>
       <c r="L41" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -5659,13 +5659,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B1" s="31">
         <v>2</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5673,7 +5673,7 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="28"/>
@@ -5683,129 +5683,129 @@
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C8" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F9" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C10" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E10" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F10" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="28"/>
@@ -5815,118 +5815,118 @@
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C13" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D13" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E13" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C14" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E14" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" t="s">
         <v>223</v>
       </c>
-      <c r="C15" t="s">
-        <v>251</v>
-      </c>
-      <c r="D15" t="s">
-        <v>228</v>
-      </c>
       <c r="E15" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C16" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D16" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C17" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D17" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E17" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C18" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D18" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E18" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F18" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="30" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B19" s="31">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -5934,42 +5934,42 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C21" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D21" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="30" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B22" s="31">
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -5977,81 +5977,81 @@
     </row>
     <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C24" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D24" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E24" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" t="s">
+        <v>302</v>
+      </c>
+      <c r="E25" t="s">
         <v>273</v>
-      </c>
-      <c r="D25" t="s">
-        <v>307</v>
-      </c>
-      <c r="E25" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C26" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D26" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E26" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C27" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D27" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E27" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="30" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B28" s="31">
         <v>5</v>
@@ -6065,51 +6065,51 @@
     </row>
     <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="30" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B34" s="31">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -6117,66 +6117,66 @@
     </row>
     <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="30" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B43" s="31">
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -6184,31 +6184,31 @@
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="30" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B46" s="31">
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -6216,31 +6216,31 @@
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="27" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="30" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B49" s="31">
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -6248,31 +6248,31 @@
     </row>
     <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="30" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B52" s="31">
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -6280,31 +6280,31 @@
     </row>
     <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="30" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B55" s="31">
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -6312,31 +6312,31 @@
     </row>
     <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B56" s="33"/>
       <c r="C56" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="30" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B58" s="31">
         <v>12</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -6344,20 +6344,20 @@
     </row>
     <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="27" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B59" s="33"/>
       <c r="C59" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -6383,7 +6383,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -6428,15 +6428,15 @@
         <v>0</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C4" s="25">
         <v>0</v>
@@ -6473,7 +6473,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C5" s="25">
         <v>0</v>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C6" s="25">
         <v>0</v>
@@ -6547,7 +6547,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C7" s="25">
         <v>0</v>
@@ -6687,7 +6687,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6864,7 +6864,7 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
@@ -6920,7 +6920,7 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
@@ -6957,7 +6957,7 @@
       <c r="Q6" s="38"/>
       <c r="R6" s="38"/>
       <c r="S6" s="38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T6" s="38"/>
       <c r="U6" s="38"/>
@@ -6967,7 +6967,7 @@
       <c r="Y6" s="38"/>
       <c r="Z6" s="38"/>
       <c r="AA6" s="38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AB6" s="38"/>
       <c r="AC6" s="38"/>
@@ -8141,7 +8141,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -8238,68 +8238,68 @@
       <c r="Q4" s="40"/>
       <c r="R4" s="40"/>
       <c r="T4" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>1</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>1</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="T5" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C6" s="24">
         <v>0</v>
@@ -8347,13 +8347,13 @@
         <v>0</v>
       </c>
       <c r="R6" s="24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
@@ -8380,7 +8380,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
@@ -8393,7 +8393,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -8417,10 +8417,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
@@ -8433,7 +8433,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -8457,10 +8457,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
@@ -8473,7 +8473,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
@@ -8497,10 +8497,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>

--- a/doc/RiscyInstSet32Bit.xlsx
+++ b/doc/RiscyInstSet32Bit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -325,9 +325,6 @@
     <t>Expression</t>
   </si>
   <si>
-    <t>Rd = Rs</t>
-  </si>
-  <si>
     <t>Rd &lt;-&gt; Rs</t>
   </si>
   <si>
@@ -962,6 +959,9 @@
   </si>
   <si>
     <t>M: 0-JSR, 1-RETURN</t>
+  </si>
+  <si>
+    <t>Rd &lt;- Rs</t>
   </si>
 </sst>
 </file>
@@ -1583,7 +1583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
@@ -1640,7 +1640,7 @@
     <row r="2" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -1764,17 +1764,17 @@
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AK5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AK6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>0</v>
@@ -1955,13 +1955,13 @@
       <c r="AH8" s="40"/>
       <c r="AI8" s="40"/>
       <c r="AK8" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
       <c r="B9" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>5</v>
@@ -1986,7 +1986,7 @@
       <c r="L9" s="37"/>
       <c r="M9" s="37"/>
       <c r="N9" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
@@ -2042,7 +2042,7 @@
         <v>10</v>
       </c>
       <c r="AK9" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
@@ -2073,12 +2073,12 @@
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
       <c r="N10" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O10" s="41"/>
       <c r="P10" s="41"/>
       <c r="Q10" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R10" s="42"/>
       <c r="S10" s="42"/>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
@@ -2139,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>5</v>
@@ -2213,17 +2213,17 @@
         <v>0</v>
       </c>
       <c r="AG11" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AH11" s="36"/>
       <c r="AI11" s="22" t="s">
         <v>87</v>
       </c>
       <c r="AK11" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
@@ -2261,17 +2261,17 @@
       <c r="O12" s="38"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
       <c r="T12" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U12" s="38"/>
       <c r="V12" s="38"/>
       <c r="W12" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
@@ -2314,7 +2314,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13" s="36" t="s">
         <v>5</v>
@@ -2395,13 +2395,13 @@
         <v>0</v>
       </c>
       <c r="AH13" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI13" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK13" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="AI13" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK13" s="10" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
@@ -2409,7 +2409,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>5</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AC14" s="38"/>
       <c r="AD14" s="38"/>
@@ -2482,13 +2482,13 @@
       <c r="AH14" s="38"/>
       <c r="AI14" s="38"/>
       <c r="AK14" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
       <c r="B15" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>5</v>
@@ -2527,7 +2527,7 @@
         <v>10</v>
       </c>
       <c r="T15" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U15" s="38"/>
       <c r="V15" s="38"/>
@@ -2545,13 +2545,13 @@
       <c r="AH15" s="38"/>
       <c r="AI15" s="38"/>
       <c r="AK15" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="34"/>
       <c r="B16" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>5</v>
@@ -2590,7 +2590,7 @@
         <v>10</v>
       </c>
       <c r="T16" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U16" s="38"/>
       <c r="V16" s="38"/>
@@ -2608,13 +2608,13 @@
       <c r="AH16" s="38"/>
       <c r="AI16" s="38"/>
       <c r="AK16" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
       <c r="B17" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>5</v>
@@ -2663,7 +2663,7 @@
       <c r="AH17" s="38"/>
       <c r="AI17" s="38"/>
       <c r="AK17" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
@@ -2696,7 +2696,7 @@
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
       <c r="N18" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O18" s="38"/>
       <c r="P18" s="38"/>
@@ -2720,7 +2720,7 @@
       <c r="AH18" s="38"/>
       <c r="AI18" s="38"/>
       <c r="AK18" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
@@ -2728,7 +2728,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>5</v>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L19" s="39"/>
       <c r="M19" s="39"/>
@@ -2777,7 +2777,7 @@
       <c r="AH19" s="38"/>
       <c r="AI19" s="38"/>
       <c r="AK19" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
@@ -2785,7 +2785,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>5</v>
@@ -2805,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L20" s="39"/>
       <c r="M20" s="39"/>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R20" s="37"/>
       <c r="S20" s="37"/>
@@ -2827,7 +2827,7 @@
       <c r="U20" s="37"/>
       <c r="V20" s="37"/>
       <c r="W20" s="38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="X20" s="38"/>
       <c r="Y20" s="38"/>
@@ -2842,7 +2842,7 @@
       <c r="AH20" s="38"/>
       <c r="AI20" s="38"/>
       <c r="AK20" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
@@ -2850,7 +2850,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>5</v>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC21" s="38"/>
       <c r="AD21" s="38"/>
@@ -2927,7 +2927,7 @@
       <c r="AH21" s="38"/>
       <c r="AI21" s="38"/>
       <c r="AK21" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
@@ -3097,7 +3097,7 @@
       <c r="AH23" s="38"/>
       <c r="AI23" s="38"/>
       <c r="AK23" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
@@ -3943,8 +3943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3962,13 +3962,13 @@
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B1" s="31">
         <v>1</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
@@ -3990,7 +3990,7 @@
       <c r="K2" s="45"/>
       <c r="L2" s="46"/>
       <c r="M2" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4017,10 +4017,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
@@ -4030,13 +4030,13 @@
         <v>97</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q3" s="23" t="s">
         <v>184</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -4074,16 +4074,16 @@
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>98</v>
+        <v>310</v>
       </c>
       <c r="N4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -4121,16 +4121,16 @@
         <v>47</v>
       </c>
       <c r="M5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -4168,16 +4168,16 @@
         <v>77</v>
       </c>
       <c r="M6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -4215,16 +4215,16 @@
         <v>78</v>
       </c>
       <c r="M7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -4262,12 +4262,12 @@
         <v>91</v>
       </c>
       <c r="M8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6">
@@ -4297,21 +4297,21 @@
         <v>25h</v>
       </c>
       <c r="L9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6">
@@ -4341,21 +4341,21 @@
         <v>26h</v>
       </c>
       <c r="L10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6">
@@ -4385,13 +4385,13 @@
         <v>3Eh</v>
       </c>
       <c r="L11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -4429,10 +4429,10 @@
         <v>80</v>
       </c>
       <c r="M12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -4470,10 +4470,10 @@
         <v>48</v>
       </c>
       <c r="M13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -4511,10 +4511,10 @@
         <v>49</v>
       </c>
       <c r="M14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -4552,10 +4552,10 @@
         <v>50</v>
       </c>
       <c r="M15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -4593,10 +4593,10 @@
         <v>51</v>
       </c>
       <c r="M16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -4634,10 +4634,10 @@
         <v>52</v>
       </c>
       <c r="M17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -4675,10 +4675,10 @@
         <v>53</v>
       </c>
       <c r="M18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -4716,10 +4716,10 @@
         <v>54</v>
       </c>
       <c r="M19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -4757,10 +4757,10 @@
         <v>55</v>
       </c>
       <c r="M20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -4798,10 +4798,10 @@
         <v>56</v>
       </c>
       <c r="M21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -4839,10 +4839,10 @@
         <v>57</v>
       </c>
       <c r="M22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -4880,10 +4880,10 @@
         <v>58</v>
       </c>
       <c r="M23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -4921,10 +4921,10 @@
         <v>59</v>
       </c>
       <c r="M24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -4962,10 +4962,10 @@
         <v>60</v>
       </c>
       <c r="M25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -5003,10 +5003,10 @@
         <v>61</v>
       </c>
       <c r="M26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -5044,10 +5044,10 @@
         <v>62</v>
       </c>
       <c r="M27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -5085,10 +5085,10 @@
         <v>63</v>
       </c>
       <c r="M28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -5126,10 +5126,10 @@
         <v>64</v>
       </c>
       <c r="M29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -5167,10 +5167,10 @@
         <v>65</v>
       </c>
       <c r="M30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -5208,10 +5208,10 @@
         <v>66</v>
       </c>
       <c r="M31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -5249,15 +5249,15 @@
         <v>67</v>
       </c>
       <c r="M32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6">
@@ -5287,13 +5287,13 @@
         <v>18h</v>
       </c>
       <c r="L33" t="s">
+        <v>200</v>
+      </c>
+      <c r="M33" t="s">
         <v>201</v>
       </c>
-      <c r="M33" t="s">
-        <v>202</v>
-      </c>
       <c r="N33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -5331,10 +5331,10 @@
         <v>68</v>
       </c>
       <c r="M34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -5372,10 +5372,10 @@
         <v>69</v>
       </c>
       <c r="M35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -5413,10 +5413,10 @@
         <v>70</v>
       </c>
       <c r="M36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -5454,10 +5454,10 @@
         <v>71</v>
       </c>
       <c r="M37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -5495,10 +5495,10 @@
         <v>72</v>
       </c>
       <c r="M38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -5536,10 +5536,10 @@
         <v>73</v>
       </c>
       <c r="M39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -5577,10 +5577,10 @@
         <v>74</v>
       </c>
       <c r="M40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -5659,13 +5659,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B1" s="31">
         <v>2</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5673,7 +5673,7 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="28"/>
@@ -5683,129 +5683,129 @@
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" t="s">
         <v>236</v>
-      </c>
-      <c r="F10" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="28"/>
@@ -5815,118 +5815,118 @@
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B19" s="31">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -5934,42 +5934,42 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" t="s">
+        <v>265</v>
+      </c>
+      <c r="D21" t="s">
         <v>264</v>
-      </c>
-      <c r="C21" t="s">
-        <v>266</v>
-      </c>
-      <c r="D21" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B22" s="31">
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -5977,81 +5977,81 @@
     </row>
     <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" t="s">
         <v>267</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>301</v>
+      </c>
+      <c r="E24" t="s">
         <v>268</v>
-      </c>
-      <c r="D24" t="s">
-        <v>302</v>
-      </c>
-      <c r="E24" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B28" s="31">
         <v>5</v>
@@ -6065,51 +6065,51 @@
     </row>
     <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B34" s="31">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -6117,66 +6117,66 @@
     </row>
     <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B43" s="31">
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -6184,31 +6184,31 @@
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B46" s="31">
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -6216,31 +6216,31 @@
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B49" s="31">
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -6248,31 +6248,31 @@
     </row>
     <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B52" s="31">
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -6280,31 +6280,31 @@
     </row>
     <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B55" s="31">
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -6312,25 +6312,25 @@
     </row>
     <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B56" s="33"/>
       <c r="C56" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B58" s="31">
         <v>12</v>
@@ -6344,20 +6344,20 @@
     </row>
     <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B59" s="33"/>
       <c r="C59" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -6383,7 +6383,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -6428,15 +6428,15 @@
         <v>0</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C4" s="25">
         <v>0</v>
@@ -6473,7 +6473,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C5" s="25">
         <v>0</v>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C6" s="25">
         <v>0</v>
@@ -6547,7 +6547,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C7" s="25">
         <v>0</v>
@@ -6920,7 +6920,7 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
@@ -6957,7 +6957,7 @@
       <c r="Q6" s="38"/>
       <c r="R6" s="38"/>
       <c r="S6" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T6" s="38"/>
       <c r="U6" s="38"/>
@@ -6967,7 +6967,7 @@
       <c r="Y6" s="38"/>
       <c r="Z6" s="38"/>
       <c r="AA6" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB6" s="38"/>
       <c r="AC6" s="38"/>
@@ -8141,7 +8141,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -8238,12 +8238,12 @@
       <c r="Q4" s="40"/>
       <c r="R4" s="40"/>
       <c r="T4" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
@@ -8291,15 +8291,15 @@
         <v>1</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C6" s="24">
         <v>0</v>
@@ -8347,13 +8347,13 @@
         <v>0</v>
       </c>
       <c r="R6" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
@@ -8380,7 +8380,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
@@ -8393,7 +8393,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -8417,10 +8417,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
@@ -8433,7 +8433,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -8457,10 +8457,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
@@ -8473,7 +8473,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
@@ -8497,10 +8497,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>

--- a/doc/RiscyInstSet32Bit.xlsx
+++ b/doc/RiscyInstSet32Bit.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="311">
   <si>
     <t>Description</t>
   </si>
@@ -1169,7 +1169,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="6" applyFont="1"/>
@@ -1237,6 +1237,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1878,17 +1884,17 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="35">
+      <c r="A8" s="37">
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="11">
         <v>0</v>
       </c>
@@ -1901,21 +1907,21 @@
       <c r="J8" s="11">
         <v>0</v>
       </c>
-      <c r="K8" s="40" t="s">
+      <c r="K8" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40" t="s">
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40" t="s">
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
       <c r="T8" s="12">
         <v>0</v>
       </c>
@@ -1946,28 +1952,28 @@
       <c r="AC8" s="6">
         <v>0</v>
       </c>
-      <c r="AD8" s="40" t="s">
+      <c r="AD8" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="40"/>
-      <c r="AI8" s="40"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="42"/>
       <c r="AK8" s="10" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="18">
         <v>0</v>
       </c>
@@ -1980,19 +1986,19 @@
       <c r="J9" s="18">
         <v>0</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="39" t="s">
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
       <c r="T9" s="12">
         <v>0</v>
       </c>
@@ -2046,15 +2052,15 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="18">
         <v>0</v>
       </c>
@@ -2067,21 +2073,21 @@
       <c r="J10" s="18">
         <v>0</v>
       </c>
-      <c r="K10" s="41" t="s">
+      <c r="K10" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41" t="s">
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="42" t="s">
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
       <c r="T10" s="12">
         <v>0</v>
       </c>
@@ -2141,11 +2147,11 @@
       <c r="B11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="6">
         <v>0</v>
       </c>
@@ -2158,21 +2164,21 @@
       <c r="J11" s="12">
         <v>0</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38" t="s">
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38" t="s">
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
       <c r="T11" s="6">
         <v>0</v>
       </c>
@@ -2212,10 +2218,10 @@
       <c r="AF11" s="6">
         <v>0</v>
       </c>
-      <c r="AG11" s="36" t="s">
+      <c r="AG11" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="AH11" s="36"/>
+      <c r="AH11" s="38"/>
       <c r="AI11" s="22" t="s">
         <v>87</v>
       </c>
@@ -2233,11 +2239,11 @@
       <c r="B12" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="6">
         <v>0</v>
       </c>
@@ -2250,31 +2256,31 @@
       <c r="J12" s="12">
         <v>0</v>
       </c>
-      <c r="K12" s="38" t="s">
+      <c r="K12" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38" t="s">
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38" t="s">
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38" t="s">
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38" t="s">
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
       <c r="Z12" s="6">
         <v>0</v>
       </c>
@@ -2316,11 +2322,11 @@
       <c r="B13" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="6">
         <v>0</v>
       </c>
@@ -2333,16 +2339,16 @@
       <c r="J13" s="12">
         <v>1</v>
       </c>
-      <c r="K13" s="38" t="s">
+      <c r="K13" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38" t="s">
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
       <c r="Q13" s="6">
         <v>0</v>
       </c>
@@ -2405,17 +2411,17 @@
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="A14" s="36">
         <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
       <c r="G14" s="6">
         <v>0</v>
       </c>
@@ -2428,16 +2434,16 @@
       <c r="J14" s="12">
         <v>1</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38" t="s">
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
       <c r="Q14" s="6">
         <v>0</v>
       </c>
@@ -2471,30 +2477,30 @@
       <c r="AA14" s="6">
         <v>0</v>
       </c>
-      <c r="AB14" s="38" t="s">
+      <c r="AB14" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="38"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="40"/>
+      <c r="AI14" s="40"/>
       <c r="AK14" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
       <c r="G15" s="6">
         <v>0</v>
       </c>
@@ -2507,16 +2513,16 @@
       <c r="J15" s="12">
         <v>1</v>
       </c>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38" t="s">
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
       <c r="Q15" s="6">
         <v>1</v>
       </c>
@@ -2526,38 +2532,38 @@
       <c r="S15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="38" t="s">
+      <c r="T15" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="38"/>
-      <c r="AH15" s="38"/>
-      <c r="AI15" s="38"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="40"/>
       <c r="AK15" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
       <c r="G16" s="6">
         <v>0</v>
       </c>
@@ -2570,16 +2576,16 @@
       <c r="J16" s="12">
         <v>1</v>
       </c>
-      <c r="K16" s="38" t="s">
+      <c r="K16" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38" t="s">
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
       <c r="Q16" s="6">
         <v>1</v>
       </c>
@@ -2589,38 +2595,38 @@
       <c r="S16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="38" t="s">
+      <c r="T16" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="38"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="40"/>
+      <c r="AH16" s="40"/>
+      <c r="AI16" s="40"/>
       <c r="AK16" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="6">
         <v>0</v>
       </c>
@@ -2633,35 +2639,35 @@
       <c r="J17" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38" t="s">
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="38"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="40"/>
+      <c r="AH17" s="40"/>
+      <c r="AI17" s="40"/>
       <c r="AK17" s="10" t="s">
         <v>182</v>
       </c>
@@ -2673,11 +2679,11 @@
       <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
       <c r="G18" s="6">
         <v>0</v>
       </c>
@@ -2690,35 +2696,35 @@
       <c r="J18" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38" t="s">
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="38"/>
-      <c r="AI18" s="38"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+      <c r="AG18" s="40"/>
+      <c r="AH18" s="40"/>
+      <c r="AI18" s="40"/>
       <c r="AK18" s="10" t="s">
         <v>204</v>
       </c>
@@ -2730,11 +2736,11 @@
       <c r="B19" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
       <c r="G19" s="6">
         <v>1</v>
       </c>
@@ -2747,35 +2753,35 @@
       <c r="J19" s="12">
         <v>0</v>
       </c>
-      <c r="K19" s="39" t="s">
+      <c r="K19" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="38" t="s">
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="38"/>
-      <c r="AI19" s="38"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="40"/>
+      <c r="AG19" s="40"/>
+      <c r="AH19" s="40"/>
+      <c r="AI19" s="40"/>
       <c r="AK19" s="10" t="s">
         <v>196</v>
       </c>
@@ -2787,11 +2793,11 @@
       <c r="B20" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
       <c r="G20" s="24">
         <v>1</v>
       </c>
@@ -2804,11 +2810,11 @@
       <c r="J20" s="25">
         <v>1</v>
       </c>
-      <c r="K20" s="39" t="s">
+      <c r="K20" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
       <c r="N20" s="25">
         <v>0</v>
       </c>
@@ -2818,29 +2824,29 @@
       <c r="P20" s="25">
         <v>0</v>
       </c>
-      <c r="Q20" s="37" t="s">
+      <c r="Q20" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="38" t="s">
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="38"/>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="38"/>
-      <c r="AI20" s="38"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="40"/>
+      <c r="AG20" s="40"/>
+      <c r="AH20" s="40"/>
+      <c r="AI20" s="40"/>
       <c r="AK20" s="10" t="s">
         <v>257</v>
       </c>
@@ -2852,11 +2858,11 @@
       <c r="B21" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
       <c r="G21" s="24">
         <v>1</v>
       </c>
@@ -2869,11 +2875,11 @@
       <c r="J21" s="25">
         <v>1</v>
       </c>
-      <c r="K21" s="37" t="s">
+      <c r="K21" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
       <c r="N21" s="25">
         <v>0</v>
       </c>
@@ -2916,16 +2922,16 @@
       <c r="AA21" s="24">
         <v>0</v>
       </c>
-      <c r="AB21" s="38" t="s">
+      <c r="AB21" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="38"/>
-      <c r="AF21" s="38"/>
-      <c r="AG21" s="38"/>
-      <c r="AH21" s="38"/>
-      <c r="AI21" s="38"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="40"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="40"/>
+      <c r="AI21" s="40"/>
       <c r="AK21" s="10" t="s">
         <v>258</v>
       </c>
@@ -2937,11 +2943,11 @@
       <c r="B22" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
       <c r="G22" s="6">
         <v>1</v>
       </c>
@@ -2954,11 +2960,11 @@
       <c r="J22" s="6">
         <v>1</v>
       </c>
-      <c r="K22" s="38" t="s">
+      <c r="K22" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
       <c r="N22" s="6">
         <v>0</v>
       </c>
@@ -3001,16 +3007,16 @@
       <c r="AA22" s="6">
         <v>0</v>
       </c>
-      <c r="AB22" s="38" t="s">
+      <c r="AB22" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="38"/>
-      <c r="AF22" s="38"/>
-      <c r="AG22" s="38"/>
-      <c r="AH22" s="38"/>
-      <c r="AI22" s="38"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="40"/>
+      <c r="AI22" s="40"/>
       <c r="AK22" s="10" t="s">
         <v>86</v>
       </c>
@@ -3022,11 +3028,11 @@
       <c r="B23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
       <c r="G23" s="6">
         <v>1</v>
       </c>
@@ -3039,11 +3045,11 @@
       <c r="J23" s="6">
         <v>1</v>
       </c>
-      <c r="K23" s="38" t="s">
+      <c r="K23" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
       <c r="N23" s="6">
         <v>0</v>
       </c>
@@ -3086,16 +3092,16 @@
       <c r="AA23" s="6">
         <v>1</v>
       </c>
-      <c r="AB23" s="38" t="s">
+      <c r="AB23" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="38"/>
-      <c r="AF23" s="38"/>
-      <c r="AG23" s="38"/>
-      <c r="AH23" s="38"/>
-      <c r="AI23" s="38"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="40"/>
+      <c r="AI23" s="40"/>
       <c r="AK23" s="10" t="s">
         <v>179</v>
       </c>
@@ -3107,11 +3113,11 @@
       <c r="B24" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
       <c r="G24" s="6">
         <v>1</v>
       </c>
@@ -3124,11 +3130,11 @@
       <c r="J24" s="6">
         <v>1</v>
       </c>
-      <c r="K24" s="38" t="s">
+      <c r="K24" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
       <c r="N24" s="6">
         <v>0</v>
       </c>
@@ -3204,11 +3210,11 @@
       <c r="B25" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
       <c r="G25" s="6">
         <v>1</v>
       </c>
@@ -3272,16 +3278,16 @@
       <c r="AA25" s="6">
         <v>1</v>
       </c>
-      <c r="AB25" s="38" t="s">
+      <c r="AB25" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="38"/>
-      <c r="AE25" s="38"/>
-      <c r="AF25" s="38"/>
-      <c r="AG25" s="38"/>
-      <c r="AH25" s="38"/>
-      <c r="AI25" s="38"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="40"/>
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="40"/>
+      <c r="AI25" s="40"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
@@ -3941,10 +3947,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3961,13 +3967,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="31">
-        <v>1</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="33">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>292</v>
       </c>
       <c r="D1" s="1"/>
@@ -3975,20 +3981,20 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="20" t="s">
         <v>161</v>
       </c>
@@ -4048,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="6">
         <v>0</v>
@@ -4064,11 +4070,11 @@
       </c>
       <c r="I4" s="24">
         <f>_xlfn.DECIMAL(CONCATENATE(C4,D4,E4,F4,G4,H4),2)</f>
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="J4" s="24" t="str">
         <f>DEC2HEX(I4,2)&amp;"h"</f>
-        <v>20h</v>
+        <v>30h</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -4095,7 +4101,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
@@ -4110,12 +4116,12 @@
         <v>1</v>
       </c>
       <c r="I5" s="24">
-        <f t="shared" ref="I5:I41" si="0">_xlfn.DECIMAL(CONCATENATE(C5,D5,E5,F5,G5,H5),2)</f>
-        <v>33</v>
+        <f t="shared" ref="I5:I47" si="0">_xlfn.DECIMAL(CONCATENATE(C5,D5,E5,F5,G5,H5),2)</f>
+        <v>49</v>
       </c>
       <c r="J5" s="24" t="str">
-        <f t="shared" ref="J5:J41" si="1">DEC2HEX(I5,2)&amp;"h"</f>
-        <v>21h</v>
+        <f t="shared" ref="J5:J47" si="1">DEC2HEX(I5,2)&amp;"h"</f>
+        <v>31h</v>
       </c>
       <c r="L5" t="s">
         <v>47</v>
@@ -4142,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
@@ -4158,11 +4164,11 @@
       </c>
       <c r="I6" s="24">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="J6" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>22h</v>
+        <v>32h</v>
       </c>
       <c r="L6" t="s">
         <v>77</v>
@@ -4189,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -4205,11 +4211,11 @@
       </c>
       <c r="I7" s="24">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="J7" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>23h</v>
+        <v>33h</v>
       </c>
       <c r="L7" t="s">
         <v>78</v>
@@ -4236,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
@@ -4252,11 +4258,11 @@
       </c>
       <c r="I8" s="24">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J8" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>24h</v>
+        <v>34h</v>
       </c>
       <c r="L8" t="s">
         <v>91</v>
@@ -4274,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
@@ -4283,18 +4289,18 @@
         <v>1</v>
       </c>
       <c r="G9" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="24">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J9" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>25h</v>
+        <v>36h</v>
       </c>
       <c r="L9" t="s">
         <v>167</v>
@@ -4318,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
@@ -4330,15 +4336,15 @@
         <v>1</v>
       </c>
       <c r="H10" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="24">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="J10" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>26h</v>
+        <v>37h</v>
       </c>
       <c r="L10" t="s">
         <v>168</v>
@@ -4682,954 +4688,1218 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="30" t="str">
+        <f>A13&amp;" integer"</f>
+        <v>Add integer</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29">
+        <v>1</v>
+      </c>
+      <c r="D19" s="29">
+        <v>0</v>
+      </c>
+      <c r="E19" s="29">
+        <v>0</v>
+      </c>
+      <c r="F19" s="29">
+        <v>0</v>
+      </c>
+      <c r="G19" s="29">
+        <v>0</v>
+      </c>
+      <c r="H19" s="29">
+        <v>1</v>
+      </c>
+      <c r="I19" s="29">
+        <f t="shared" ref="I19:I24" si="2">_xlfn.DECIMAL(CONCATENATE(C19,D19,E19,F19,G19,H19),2)</f>
+        <v>33</v>
+      </c>
+      <c r="J19" s="29" t="str">
+        <f t="shared" ref="J19:J24" si="3">DEC2HEX(I19,2)&amp;"h"</f>
+        <v>21h</v>
+      </c>
+      <c r="L19" t="str">
+        <f>L13&amp;"INT"</f>
+        <v>ADDINT</v>
+      </c>
+      <c r="M19" t="str">
+        <f>M13</f>
+        <v>Rd = Rs + Rm</v>
+      </c>
+      <c r="N19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="str">
+        <f t="shared" ref="A20:A24" si="4">A14&amp;" integer"</f>
+        <v>Subtract integer</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29">
+        <v>1</v>
+      </c>
+      <c r="D20" s="29">
+        <v>0</v>
+      </c>
+      <c r="E20" s="29">
+        <v>0</v>
+      </c>
+      <c r="F20" s="29">
+        <v>0</v>
+      </c>
+      <c r="G20" s="29">
+        <v>1</v>
+      </c>
+      <c r="H20" s="29">
+        <v>0</v>
+      </c>
+      <c r="I20" s="29">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="J20" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>22h</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" ref="L20:L24" si="5">L14&amp;"INT"</f>
+        <v>SUBINT</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" ref="M20:M24" si="6">M14</f>
+        <v>Rd = Rs - Rm</v>
+      </c>
+      <c r="N20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v>Multiply integer</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29">
+        <v>1</v>
+      </c>
+      <c r="D21" s="29">
+        <v>0</v>
+      </c>
+      <c r="E21" s="29">
+        <v>0</v>
+      </c>
+      <c r="F21" s="29">
+        <v>0</v>
+      </c>
+      <c r="G21" s="29">
+        <v>1</v>
+      </c>
+      <c r="H21" s="29">
+        <v>1</v>
+      </c>
+      <c r="I21" s="29">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="J21" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>23h</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="5"/>
+        <v>MULINT</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="6"/>
+        <v>Rd = Rs * Rm</v>
+      </c>
+      <c r="N21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v>Divide integer</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29">
+        <v>1</v>
+      </c>
+      <c r="D22" s="29">
+        <v>0</v>
+      </c>
+      <c r="E22" s="29">
+        <v>0</v>
+      </c>
+      <c r="F22" s="29">
+        <v>1</v>
+      </c>
+      <c r="G22" s="29">
+        <v>0</v>
+      </c>
+      <c r="H22" s="29">
+        <v>0</v>
+      </c>
+      <c r="I22" s="29">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="J22" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>24h</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="5"/>
+        <v>DIVINT</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="6"/>
+        <v>Rd = Rs / Rm</v>
+      </c>
+      <c r="N22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v>Powerof integer</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29">
+        <v>1</v>
+      </c>
+      <c r="D23" s="29">
+        <v>0</v>
+      </c>
+      <c r="E23" s="29">
+        <v>0</v>
+      </c>
+      <c r="F23" s="29">
+        <v>1</v>
+      </c>
+      <c r="G23" s="29">
+        <v>0</v>
+      </c>
+      <c r="H23" s="29">
+        <v>1</v>
+      </c>
+      <c r="I23" s="29">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="J23" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>25h</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="5"/>
+        <v>POWINT</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="6"/>
+        <v>Rd = Rs ^ Rm</v>
+      </c>
+      <c r="N23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v>Modulo integer</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29">
+        <v>1</v>
+      </c>
+      <c r="D24" s="29">
+        <v>0</v>
+      </c>
+      <c r="E24" s="29">
+        <v>0</v>
+      </c>
+      <c r="F24" s="29">
+        <v>1</v>
+      </c>
+      <c r="G24" s="29">
+        <v>1</v>
+      </c>
+      <c r="H24" s="29">
+        <v>0</v>
+      </c>
+      <c r="I24" s="29">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="J24" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>26h</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="5"/>
+        <v>MODINT</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="6"/>
+        <v>Rd = Rs % Rm</v>
+      </c>
+      <c r="N24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
-      <c r="I19" s="24">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+      <c r="I25" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J19" s="24" t="str">
+      <c r="J25" s="24" t="str">
         <f t="shared" si="1"/>
         <v>07h</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L25" t="s">
         <v>54</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M25" t="s">
         <v>109</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N25" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="24">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J20" s="24" t="str">
+      <c r="J26" s="24" t="str">
         <f t="shared" si="1"/>
         <v>08h</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L26" t="s">
         <v>55</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M26" t="s">
         <v>110</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N26" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1</v>
-      </c>
-      <c r="I21" s="24">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="I27" s="24">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J21" s="24" t="str">
+      <c r="J27" s="24" t="str">
         <f t="shared" si="1"/>
         <v>09h</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L27" t="s">
         <v>56</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M27" t="s">
         <v>111</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N27" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
-        <v>1</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-      <c r="I22" s="24">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J22" s="24" t="str">
+      <c r="J28" s="24" t="str">
         <f t="shared" si="1"/>
         <v>0Ah</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L28" t="s">
         <v>57</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M28" t="s">
         <v>112</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N28" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6">
-        <v>1</v>
-      </c>
-      <c r="I23" s="24">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1</v>
+      </c>
+      <c r="I29" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="J23" s="24" t="str">
+      <c r="J29" s="24" t="str">
         <f t="shared" si="1"/>
         <v>0Bh</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L29" t="s">
         <v>58</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M29" t="s">
         <v>113</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N29" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c r="I24" s="24">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J24" s="24" t="str">
+      <c r="J30" s="24" t="str">
         <f t="shared" si="1"/>
         <v>0Ch</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L30" t="s">
         <v>59</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M30" t="s">
         <v>114</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N30" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0</v>
-      </c>
-      <c r="I25" s="24">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="24">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J25" s="24" t="str">
+      <c r="J31" s="24" t="str">
         <f t="shared" si="1"/>
         <v>10h</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L31" t="s">
         <v>60</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M31" t="s">
         <v>125</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N31" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
-        <v>1</v>
-      </c>
-      <c r="I26" s="24">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6">
+        <v>1</v>
+      </c>
+      <c r="I32" s="24">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="J26" s="24" t="str">
+      <c r="J32" s="24" t="str">
         <f t="shared" si="1"/>
         <v>11h</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L32" t="s">
         <v>61</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M32" t="s">
         <v>126</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N32" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <v>1</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
-      <c r="I27" s="24">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="24">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J27" s="24" t="str">
+      <c r="J33" s="24" t="str">
         <f t="shared" si="1"/>
         <v>12h</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L33" t="s">
         <v>62</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M33" t="s">
         <v>115</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N33" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6">
-        <v>1</v>
-      </c>
-      <c r="H28" s="6">
-        <v>1</v>
-      </c>
-      <c r="I28" s="24">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1</v>
+      </c>
+      <c r="I34" s="24">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J28" s="24" t="str">
+      <c r="J34" s="24" t="str">
         <f t="shared" si="1"/>
         <v>13h</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L34" t="s">
         <v>63</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M34" t="s">
         <v>116</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N34" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6">
-        <v>0</v>
-      </c>
-      <c r="I29" s="24">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+      <c r="I35" s="24">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J29" s="24" t="str">
+      <c r="J35" s="24" t="str">
         <f t="shared" si="1"/>
         <v>14h</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L35" t="s">
         <v>64</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M35" t="s">
         <v>117</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N35" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6">
-        <v>1</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6">
-        <v>1</v>
-      </c>
-      <c r="I30" s="24">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6">
+        <v>1</v>
+      </c>
+      <c r="I36" s="24">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="J30" s="24" t="str">
+      <c r="J36" s="24" t="str">
         <f t="shared" si="1"/>
         <v>15h</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L36" t="s">
         <v>65</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M36" t="s">
         <v>118</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N36" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6">
-        <v>0</v>
-      </c>
-      <c r="D31" s="6">
-        <v>1</v>
-      </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="6">
-        <v>1</v>
-      </c>
-      <c r="G31" s="6">
-        <v>1</v>
-      </c>
-      <c r="H31" s="6">
-        <v>0</v>
-      </c>
-      <c r="I31" s="24">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+      <c r="I37" s="24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="J31" s="24" t="str">
+      <c r="J37" s="24" t="str">
         <f t="shared" si="1"/>
         <v>16h</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L37" t="s">
         <v>66</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M37" t="s">
         <v>119</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N37" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6">
-        <v>0</v>
-      </c>
-      <c r="D32" s="6">
-        <v>1</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
-      <c r="F32" s="6">
-        <v>1</v>
-      </c>
-      <c r="G32" s="6">
-        <v>1</v>
-      </c>
-      <c r="H32" s="6">
-        <v>1</v>
-      </c>
-      <c r="I32" s="24">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1</v>
+      </c>
+      <c r="G38" s="6">
+        <v>1</v>
+      </c>
+      <c r="H38" s="6">
+        <v>1</v>
+      </c>
+      <c r="I38" s="24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="J32" s="24" t="str">
+      <c r="J38" s="24" t="str">
         <f t="shared" si="1"/>
         <v>17h</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L38" t="s">
         <v>67</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M38" t="s">
         <v>120</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N38" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6">
-        <v>0</v>
-      </c>
-      <c r="D33" s="6">
-        <v>1</v>
-      </c>
-      <c r="E33" s="6">
-        <v>1</v>
-      </c>
-      <c r="F33" s="6">
-        <v>0</v>
-      </c>
-      <c r="G33" s="6">
-        <v>0</v>
-      </c>
-      <c r="H33" s="6">
-        <v>0</v>
-      </c>
-      <c r="I33" s="24">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
+      <c r="I39" s="24">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="J33" s="24" t="str">
+      <c r="J39" s="24" t="str">
         <f t="shared" si="1"/>
         <v>18h</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L39" t="s">
         <v>200</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M39" t="s">
         <v>201</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N39" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6">
-        <v>0</v>
-      </c>
-      <c r="D34" s="6">
-        <v>1</v>
-      </c>
-      <c r="E34" s="6">
-        <v>1</v>
-      </c>
-      <c r="F34" s="6">
-        <v>0</v>
-      </c>
-      <c r="G34" s="6">
-        <v>0</v>
-      </c>
-      <c r="H34" s="6">
-        <v>1</v>
-      </c>
-      <c r="I34" s="24">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6">
+        <v>1</v>
+      </c>
+      <c r="I40" s="24">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="J34" s="24" t="str">
+      <c r="J40" s="24" t="str">
         <f t="shared" si="1"/>
         <v>19h</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L40" t="s">
         <v>68</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M40" t="s">
         <v>166</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N40" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6">
-        <v>0</v>
-      </c>
-      <c r="D35" s="6">
-        <v>1</v>
-      </c>
-      <c r="E35" s="6">
-        <v>1</v>
-      </c>
-      <c r="F35" s="6">
-        <v>0</v>
-      </c>
-      <c r="G35" s="6">
-        <v>1</v>
-      </c>
-      <c r="H35" s="6">
-        <v>0</v>
-      </c>
-      <c r="I35" s="24">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="24">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="J35" s="24" t="str">
+      <c r="J41" s="24" t="str">
         <f t="shared" si="1"/>
         <v>1Ah</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L41" t="s">
         <v>69</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M41" t="s">
         <v>121</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N41" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6">
-        <v>0</v>
-      </c>
-      <c r="D36" s="6">
-        <v>1</v>
-      </c>
-      <c r="E36" s="6">
-        <v>1</v>
-      </c>
-      <c r="F36" s="6">
-        <v>0</v>
-      </c>
-      <c r="G36" s="6">
-        <v>1</v>
-      </c>
-      <c r="H36" s="6">
-        <v>1</v>
-      </c>
-      <c r="I36" s="24">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6">
+        <v>1</v>
+      </c>
+      <c r="H42" s="6">
+        <v>1</v>
+      </c>
+      <c r="I42" s="24">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="J36" s="24" t="str">
+      <c r="J42" s="24" t="str">
         <f t="shared" si="1"/>
         <v>1Bh</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L42" t="s">
         <v>70</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M42" t="s">
         <v>122</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N42" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6">
-        <v>0</v>
-      </c>
-      <c r="D37" s="6">
-        <v>1</v>
-      </c>
-      <c r="E37" s="6">
-        <v>1</v>
-      </c>
-      <c r="F37" s="6">
-        <v>1</v>
-      </c>
-      <c r="G37" s="6">
-        <v>0</v>
-      </c>
-      <c r="H37" s="6">
-        <v>0</v>
-      </c>
-      <c r="I37" s="24">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" s="24">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="J37" s="24" t="str">
+      <c r="J43" s="24" t="str">
         <f t="shared" si="1"/>
         <v>1Ch</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L43" t="s">
         <v>71</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M43" t="s">
         <v>123</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N43" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6">
-        <v>0</v>
-      </c>
-      <c r="D38" s="6">
-        <v>1</v>
-      </c>
-      <c r="E38" s="6">
-        <v>1</v>
-      </c>
-      <c r="F38" s="6">
-        <v>1</v>
-      </c>
-      <c r="G38" s="6">
-        <v>0</v>
-      </c>
-      <c r="H38" s="6">
-        <v>1</v>
-      </c>
-      <c r="I38" s="24">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1</v>
+      </c>
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6">
+        <v>1</v>
+      </c>
+      <c r="I44" s="24">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="J38" s="24" t="str">
+      <c r="J44" s="24" t="str">
         <f t="shared" si="1"/>
         <v>1Dh</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L44" t="s">
         <v>72</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M44" t="s">
         <v>128</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N44" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6">
-        <v>0</v>
-      </c>
-      <c r="D39" s="6">
-        <v>1</v>
-      </c>
-      <c r="E39" s="6">
-        <v>1</v>
-      </c>
-      <c r="F39" s="6">
-        <v>1</v>
-      </c>
-      <c r="G39" s="6">
-        <v>1</v>
-      </c>
-      <c r="H39" s="6">
-        <v>0</v>
-      </c>
-      <c r="I39" s="24">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1</v>
+      </c>
+      <c r="F45" s="6">
+        <v>1</v>
+      </c>
+      <c r="G45" s="6">
+        <v>1</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" s="24">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J39" s="24" t="str">
+      <c r="J45" s="24" t="str">
         <f t="shared" si="1"/>
         <v>1Eh</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L45" t="s">
         <v>73</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M45" t="s">
         <v>124</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N45" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6">
-        <v>0</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1</v>
-      </c>
-      <c r="E40" s="6">
-        <v>1</v>
-      </c>
-      <c r="F40" s="6">
-        <v>1</v>
-      </c>
-      <c r="G40" s="6">
-        <v>1</v>
-      </c>
-      <c r="H40" s="6">
-        <v>1</v>
-      </c>
-      <c r="I40" s="24">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1</v>
+      </c>
+      <c r="G46" s="6">
+        <v>1</v>
+      </c>
+      <c r="H46" s="6">
+        <v>1</v>
+      </c>
+      <c r="I46" s="24">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="J40" s="24" t="str">
+      <c r="J46" s="24" t="str">
         <f t="shared" si="1"/>
         <v>1Fh</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L46" t="s">
         <v>74</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M46" t="s">
         <v>127</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N46" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14">
-        <v>0</v>
-      </c>
-      <c r="D41" s="14">
-        <v>0</v>
-      </c>
-      <c r="E41" s="14">
-        <v>0</v>
-      </c>
-      <c r="F41" s="14">
-        <v>0</v>
-      </c>
-      <c r="G41" s="14">
-        <v>0</v>
-      </c>
-      <c r="H41" s="14">
-        <v>0</v>
-      </c>
-      <c r="I41" s="24">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14">
+        <v>0</v>
+      </c>
+      <c r="D47" s="14">
+        <v>0</v>
+      </c>
+      <c r="E47" s="14">
+        <v>0</v>
+      </c>
+      <c r="F47" s="14">
+        <v>0</v>
+      </c>
+      <c r="G47" s="14">
+        <v>0</v>
+      </c>
+      <c r="H47" s="14">
+        <v>0</v>
+      </c>
+      <c r="I47" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J41" s="24" t="str">
+      <c r="J47" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00h</v>
       </c>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17" t="s">
+      <c r="K47" s="17"/>
+      <c r="L47" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5658,13 +5928,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="31">
+      <c r="B1" s="33">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="31" t="s">
         <v>261</v>
       </c>
       <c r="D1" s="1"/>
@@ -5675,7 +5945,7 @@
       <c r="A2" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -5685,7 +5955,7 @@
       <c r="A3" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="3" t="s">
         <v>97</v>
       </c>
@@ -5807,7 +6077,7 @@
       <c r="A11" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -5817,7 +6087,7 @@
       <c r="A12" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="3" t="s">
         <v>97</v>
       </c>
@@ -5919,10 +6189,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="33">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -5936,7 +6206,7 @@
       <c r="A20" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="3" t="s">
         <v>97</v>
       </c>
@@ -5962,10 +6232,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="33">
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -5979,7 +6249,7 @@
       <c r="A23" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B23" s="33"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="3" t="s">
         <v>97</v>
       </c>
@@ -6050,10 +6320,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="33">
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -6067,7 +6337,7 @@
       <c r="A29" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B29" s="33"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="3" t="s">
         <v>97</v>
       </c>
@@ -6102,10 +6372,10 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="B34" s="31">
+      <c r="B34" s="33">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -6119,7 +6389,7 @@
       <c r="A35" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B35" s="33"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="3" t="s">
         <v>97</v>
       </c>
@@ -6169,10 +6439,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="B43" s="31">
+      <c r="B43" s="33">
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -6186,7 +6456,7 @@
       <c r="A44" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B44" s="33"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="3" t="s">
         <v>97</v>
       </c>
@@ -6201,10 +6471,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="B46" s="31">
+      <c r="B46" s="33">
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -6218,7 +6488,7 @@
       <c r="A47" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B47" s="33"/>
+      <c r="B47" s="35"/>
       <c r="C47" s="3" t="s">
         <v>97</v>
       </c>
@@ -6233,10 +6503,10 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="B49" s="31">
+      <c r="B49" s="33">
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -6250,7 +6520,7 @@
       <c r="A50" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B50" s="33"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="3" t="s">
         <v>97</v>
       </c>
@@ -6265,10 +6535,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="B52" s="31">
+      <c r="B52" s="33">
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -6282,7 +6552,7 @@
       <c r="A53" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B53" s="33"/>
+      <c r="B53" s="35"/>
       <c r="C53" s="3" t="s">
         <v>97</v>
       </c>
@@ -6297,10 +6567,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="B55" s="31">
+      <c r="B55" s="33">
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -6314,7 +6584,7 @@
       <c r="A56" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B56" s="33"/>
+      <c r="B56" s="35"/>
       <c r="C56" s="3" t="s">
         <v>97</v>
       </c>
@@ -6329,10 +6599,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="B58" s="31">
+      <c r="B58" s="33">
         <v>12</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -6346,7 +6616,7 @@
       <c r="A59" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B59" s="33"/>
+      <c r="B59" s="35"/>
       <c r="C59" s="3" t="s">
         <v>97</v>
       </c>
@@ -6382,20 +6652,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6403,34 +6673,34 @@
         <v>0</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="33">
+      <c r="C3" s="35">
         <v>7</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="35">
         <v>6</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="35">
         <v>5</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="35">
         <v>4</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="35">
         <v>3</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="35">
         <v>2</v>
       </c>
-      <c r="I3" s="33">
-        <v>1</v>
-      </c>
-      <c r="J3" s="33">
-        <v>0</v>
-      </c>
-      <c r="K3" s="33" t="s">
+      <c r="I3" s="35">
+        <v>1</v>
+      </c>
+      <c r="J3" s="35">
+        <v>0</v>
+      </c>
+      <c r="K3" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="35" t="s">
         <v>300</v>
       </c>
     </row>
@@ -6836,30 +7106,30 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
       <c r="AJ4" s="10"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
@@ -6890,32 +7160,32 @@
       <c r="J5" s="6">
         <v>1</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="40"/>
+      <c r="AH5" s="40"/>
       <c r="AJ5" s="10"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -6946,36 +7216,36 @@
       <c r="J6" s="6">
         <v>0</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38" t="s">
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38" t="s">
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="10"/>
     </row>
@@ -8221,22 +8491,22 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
       <c r="T4" s="10" t="s">
         <v>139</v>
       </c>
@@ -8379,16 +8649,16 @@
       <c r="J7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -8419,16 +8689,16 @@
       <c r="J8" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="K8" s="38" t="s">
+      <c r="K8" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -8459,16 +8729,16 @@
       <c r="J9" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -8499,16 +8769,16 @@
       <c r="J10" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">

--- a/doc/RiscyInstSet32Bit.xlsx
+++ b/doc/RiscyInstSet32Bit.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="12690" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Chapter 1. Math Opcodes" sheetId="2" r:id="rId2"/>
-    <sheet name="Instructions" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
-    <sheet name="BIOS Call" sheetId="4" r:id="rId5"/>
-    <sheet name="StdGrAd Call" sheetId="5" r:id="rId6"/>
+    <sheet name="Summary - Terra" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary - FlowerPot" sheetId="8" r:id="rId2"/>
+    <sheet name="Chapter 1. Math Opcodes" sheetId="2" r:id="rId3"/>
+    <sheet name="Instructions" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="BIOS Call" sheetId="4" r:id="rId6"/>
+    <sheet name="StdGrAd Call" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="346">
   <si>
     <t>Description</t>
   </si>
@@ -40,9 +41,6 @@
     <t>32 Bits</t>
   </si>
   <si>
-    <t>TerranVM Riscy Insturction Set 32 Bit</t>
-  </si>
-  <si>
     <t>Registers key:</t>
   </si>
   <si>
@@ -859,15 +857,9 @@
     <t>PUSH</t>
   </si>
   <si>
-    <t>PUSHINT</t>
-  </si>
-  <si>
     <t>POP</t>
   </si>
   <si>
-    <t>POPINT</t>
-  </si>
-  <si>
     <t>Conditional Jump</t>
   </si>
   <si>
@@ -910,9 +902,6 @@
     <t>Mathematical Opcodes</t>
   </si>
   <si>
-    <t>32 Bits; 8 General, 4 Special</t>
-  </si>
-  <si>
     <t>(Un)Conditional jump</t>
   </si>
   <si>
@@ -962,6 +951,123 @@
   </si>
   <si>
     <t>Rd &lt;- Rs</t>
+  </si>
+  <si>
+    <t>Word length</t>
+  </si>
+  <si>
+    <t>8 General, 4 Special</t>
+  </si>
+  <si>
+    <t>TerranVM Terra Insturction Set</t>
+  </si>
+  <si>
+    <t>TerranVM FlowerPot Insturction Set</t>
+  </si>
+  <si>
+    <t>16 Bits</t>
+  </si>
+  <si>
+    <t>8 Bits</t>
+  </si>
+  <si>
+    <t>1 MB</t>
+  </si>
+  <si>
+    <t>4 General, 4 Special</t>
+  </si>
+  <si>
+    <t>Offset (address = 2 * offset)</t>
+  </si>
+  <si>
+    <t>Put character/pixel</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Change current canvas/framebuffer</t>
+  </si>
+  <si>
+    <t>Canvas Index</t>
+  </si>
+  <si>
+    <t>No operation</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>PUSHWORDI</t>
+  </si>
+  <si>
+    <t>POPWORDI</t>
+  </si>
+  <si>
+    <t>Push whatever value in the destination register into the stack</t>
+  </si>
+  <si>
+    <t>Push memory address immediate into the stack</t>
+  </si>
+  <si>
+    <t>Pop whatever value in the stack and write the value to the register</t>
+  </si>
+  <si>
+    <t>Pop whatever value in the stack and write the value to the Link Register</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>memory address offset</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Unconditionally jump to the memory address</t>
+  </si>
+  <si>
+    <t>pc = offset</t>
+  </si>
+  <si>
+    <t>number of words to jump</t>
+  </si>
+  <si>
+    <t>if (rCMP == 0) pc = offset</t>
+  </si>
+  <si>
+    <t>if (rCMP != 0) pc = offset</t>
+  </si>
+  <si>
+    <t>if (rCMP &gt; 0) pc = offset</t>
+  </si>
+  <si>
+    <t>if (rCMP &lt; 0) pc = offset</t>
+  </si>
+  <si>
+    <t>Jump to the memory address, if rCMP is equal to zero</t>
+  </si>
+  <si>
+    <t>Jump to the memory address, if rCMP is not equal to zero</t>
+  </si>
+  <si>
+    <t>Jump to the memory address, if rCMP is greater than zero</t>
+  </si>
+  <si>
+    <t>Jump to the memory address, if rCMP is less than zero</t>
+  </si>
+  <si>
+    <t>pc += words</t>
+  </si>
+  <si>
+    <t>pc -= words</t>
+  </si>
+  <si>
+    <t>Unconditionally increment program counter</t>
+  </si>
+  <si>
+    <t>Unconditionally decrement program counter</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1275,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="6" applyFont="1"/>
@@ -1240,6 +1346,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1300,6 +1418,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Explanatory Text" xfId="7" builtinId="53" customBuiltin="1"/>
@@ -1587,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL48"/>
+  <dimension ref="A1:AL49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AK10" sqref="AK10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,7 +1728,7 @@
   <sheetData>
     <row r="1" spans="1:38" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>309</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1646,7 +1768,7 @@
     <row r="2" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
@@ -1684,16 +1806,16 @@
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
       <c r="AK3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>16</v>
+      <c r="B4" s="34" t="s">
+        <v>307</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="10" t="s">
-        <v>293</v>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1726,17 +1848,14 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
-      <c r="AK4" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>255</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>1</v>
+      <c r="D5" s="10" t="s">
+        <v>308</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1770,297 +1889,253 @@
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AK5" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
       <c r="AK6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
         <v>31</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="4">
         <v>30</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="4">
         <v>29</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G8" s="4">
         <v>28</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H8" s="4">
         <v>27</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I8" s="4">
         <v>26</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J8" s="4">
         <v>25</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K8" s="4">
         <v>24</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L8" s="4">
         <v>23</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M8" s="4">
         <v>22</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N8" s="4">
         <v>21</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O8" s="4">
         <v>20</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P8" s="4">
         <v>19</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q8" s="4">
         <v>18</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R8" s="4">
         <v>17</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S8" s="4">
         <v>16</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T8" s="4">
         <v>15</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U8" s="4">
         <v>14</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V8" s="4">
         <v>13</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W8" s="4">
         <v>12</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X8" s="4">
         <v>11</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y8" s="4">
         <v>10</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="Z8" s="4">
         <v>9</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AA8" s="4">
         <v>8</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AB8" s="4">
         <v>7</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AC8" s="4">
         <v>6</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AD8" s="4">
         <v>5</v>
       </c>
-      <c r="AE7" s="4">
+      <c r="AE8" s="4">
         <v>4</v>
       </c>
-      <c r="AF7" s="4">
+      <c r="AF8" s="4">
         <v>3</v>
       </c>
-      <c r="AG7" s="4">
+      <c r="AG8" s="4">
         <v>2</v>
       </c>
-      <c r="AH7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="37">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42" t="s">
+      <c r="AH8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="K9" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="12">
-        <v>0</v>
-      </c>
-      <c r="U8" s="6">
-        <v>0</v>
-      </c>
-      <c r="V8" s="6">
-        <v>0</v>
-      </c>
-      <c r="W8" s="6">
-        <v>0</v>
-      </c>
-      <c r="X8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="42"/>
-      <c r="AI8" s="42"/>
-      <c r="AK8" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="18">
-        <v>0</v>
-      </c>
-      <c r="H9" s="18">
-        <v>0</v>
-      </c>
-      <c r="I9" s="18">
-        <v>0</v>
-      </c>
-      <c r="J9" s="18">
-        <v>0</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="41" t="s">
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="12">
+        <v>0</v>
+      </c>
+      <c r="U9" s="6">
+        <v>0</v>
+      </c>
+      <c r="V9" s="6">
+        <v>0</v>
+      </c>
+      <c r="W9" s="6">
+        <v>0</v>
+      </c>
+      <c r="X9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="46"/>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="46"/>
+      <c r="AK9" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="12">
-        <v>0</v>
-      </c>
-      <c r="U9" s="6">
-        <v>0</v>
-      </c>
-      <c r="V9" s="6">
-        <v>0</v>
-      </c>
-      <c r="W9" s="6">
-        <v>0</v>
-      </c>
-      <c r="X9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="18">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="18">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="18">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="18">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="18">
-        <v>1</v>
-      </c>
-      <c r="AI9" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK9" s="10" t="s">
-        <v>309</v>
-      </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
+        <v>304</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="18">
         <v>0</v>
       </c>
@@ -2074,20 +2149,18 @@
         <v>0</v>
       </c>
       <c r="K10" s="43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L10" s="43"/>
       <c r="M10" s="43"/>
-      <c r="N10" s="43" t="s">
+      <c r="N10" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
       <c r="T10" s="12">
         <v>0</v>
       </c>
@@ -2122,64 +2195,62 @@
         <v>1</v>
       </c>
       <c r="AE10" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="18">
         <v>1</v>
       </c>
       <c r="AH10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="13">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AI10" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="AK10" s="10" t="s">
-        <v>203</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
+      <c r="A11" s="40"/>
       <c r="B11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-      <c r="K11" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="6">
+      <c r="D11" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0</v>
+      </c>
+      <c r="J11" s="18">
+        <v>0</v>
+      </c>
+      <c r="K11" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="12">
         <v>0</v>
       </c>
       <c r="U11" s="6">
@@ -2207,80 +2278,87 @@
         <v>0</v>
       </c>
       <c r="AC11" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH11" s="38"/>
-      <c r="AI11" s="22" t="s">
-        <v>87</v>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="18">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="13">
+        <v>0</v>
       </c>
       <c r="AK11" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="AL11" s="2" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="6">
+        <v>0</v>
+      </c>
+      <c r="U12" s="6">
+        <v>0</v>
+      </c>
+      <c r="V12" s="6">
+        <v>0</v>
+      </c>
+      <c r="W12" s="6">
+        <v>0</v>
+      </c>
+      <c r="X12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>0</v>
+      </c>
       <c r="Z12" s="6">
         <v>0</v>
       </c>
@@ -2300,569 +2378,588 @@
         <v>0</v>
       </c>
       <c r="AF12" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="AK12" s="10" t="s">
-        <v>173</v>
+        <v>179</v>
+      </c>
+      <c r="AL12" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>1</v>
+      </c>
+      <c r="K14" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0</v>
+      </c>
+      <c r="T14" s="6">
+        <v>0</v>
+      </c>
+      <c r="U14" s="6">
+        <v>0</v>
+      </c>
+      <c r="V14" s="6">
+        <v>0</v>
+      </c>
+      <c r="W14" s="6">
+        <v>0</v>
+      </c>
+      <c r="X14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI14" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK14" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" s="40">
+        <v>2</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>1</v>
+      </c>
+      <c r="K15" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="6">
+        <v>0</v>
+      </c>
+      <c r="R15" s="6">
+        <v>1</v>
+      </c>
+      <c r="S15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="6">
+        <v>0</v>
+      </c>
+      <c r="U15" s="6">
+        <v>0</v>
+      </c>
+      <c r="V15" s="6">
+        <v>0</v>
+      </c>
+      <c r="W15" s="6">
+        <v>0</v>
+      </c>
+      <c r="X15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="44"/>
+      <c r="AK15" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="38" t="s">
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>1</v>
+      </c>
+      <c r="K16" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="6">
+        <v>1</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0</v>
+      </c>
+      <c r="S16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="44"/>
+      <c r="AI16" s="44"/>
+      <c r="AK16" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>1</v>
+      </c>
+      <c r="K17" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="6">
+        <v>1</v>
+      </c>
+      <c r="R17" s="6">
+        <v>1</v>
+      </c>
+      <c r="S17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="44"/>
+      <c r="AK17" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>1</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-      <c r="J13" s="12">
-        <v>1</v>
-      </c>
-      <c r="K13" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="6">
-        <v>0</v>
-      </c>
-      <c r="R13" s="6">
-        <v>0</v>
-      </c>
-      <c r="S13" s="6">
-        <v>0</v>
-      </c>
-      <c r="T13" s="6">
-        <v>0</v>
-      </c>
-      <c r="U13" s="6">
-        <v>0</v>
-      </c>
-      <c r="V13" s="6">
-        <v>0</v>
-      </c>
-      <c r="W13" s="6">
-        <v>0</v>
-      </c>
-      <c r="X13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI13" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK13" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
-        <v>2</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
-      <c r="J14" s="12">
-        <v>1</v>
-      </c>
-      <c r="K14" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="6">
-        <v>0</v>
-      </c>
-      <c r="R14" s="6">
-        <v>1</v>
-      </c>
-      <c r="S14" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="T14" s="6">
-        <v>0</v>
-      </c>
-      <c r="U14" s="6">
-        <v>0</v>
-      </c>
-      <c r="V14" s="6">
-        <v>0</v>
-      </c>
-      <c r="W14" s="6">
-        <v>0</v>
-      </c>
-      <c r="X14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="40"/>
-      <c r="AG14" s="40"/>
-      <c r="AH14" s="40"/>
-      <c r="AI14" s="40"/>
-      <c r="AK14" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
-      <c r="J15" s="12">
-        <v>1</v>
-      </c>
-      <c r="K15" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="6">
-        <v>1</v>
-      </c>
-      <c r="R15" s="6">
-        <v>0</v>
-      </c>
-      <c r="S15" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="T15" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="40"/>
-      <c r="AG15" s="40"/>
-      <c r="AH15" s="40"/>
-      <c r="AI15" s="40"/>
-      <c r="AK15" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
-      <c r="J16" s="12">
-        <v>1</v>
-      </c>
-      <c r="K16" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="6">
-        <v>1</v>
-      </c>
-      <c r="R16" s="6">
-        <v>1</v>
-      </c>
-      <c r="S16" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="T16" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="40"/>
-      <c r="AG16" s="40"/>
-      <c r="AH16" s="40"/>
-      <c r="AI16" s="40"/>
-      <c r="AK16" s="10" t="s">
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="44"/>
+      <c r="AK18" s="10" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12">
-        <v>1</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="40"/>
-      <c r="AG17" s="40"/>
-      <c r="AH17" s="40"/>
-      <c r="AI17" s="40"/>
-      <c r="AK17" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="12">
-        <v>1</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="K18" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="40"/>
-      <c r="AD18" s="40"/>
-      <c r="AE18" s="40"/>
-      <c r="AF18" s="40"/>
-      <c r="AG18" s="40"/>
-      <c r="AH18" s="40"/>
-      <c r="AI18" s="40"/>
-      <c r="AK18" s="10" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12">
-        <v>0</v>
-      </c>
-      <c r="J19" s="12">
-        <v>0</v>
-      </c>
-      <c r="K19" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="40"/>
-      <c r="AD19" s="40"/>
-      <c r="AE19" s="40"/>
-      <c r="AF19" s="40"/>
-      <c r="AG19" s="40"/>
-      <c r="AH19" s="40"/>
-      <c r="AI19" s="40"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="44"/>
+      <c r="AI19" s="44"/>
       <c r="AK19" s="10" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D20" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="24">
-        <v>1</v>
-      </c>
-      <c r="H20" s="25">
-        <v>0</v>
-      </c>
-      <c r="I20" s="25">
-        <v>0</v>
-      </c>
-      <c r="J20" s="25">
-        <v>1</v>
-      </c>
-      <c r="K20" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="25">
-        <v>0</v>
-      </c>
-      <c r="O20" s="25">
-        <v>0</v>
-      </c>
-      <c r="P20" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="40"/>
-      <c r="AG20" s="40"/>
-      <c r="AH20" s="40"/>
-      <c r="AI20" s="40"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="44"/>
       <c r="AK20" s="10" t="s">
-        <v>257</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
+        <v>251</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="24">
         <v>1</v>
       </c>
@@ -2875,11 +2972,11 @@
       <c r="J21" s="25">
         <v>1</v>
       </c>
-      <c r="K21" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
+      <c r="K21" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
       <c r="N21" s="25">
         <v>0</v>
       </c>
@@ -2887,152 +2984,132 @@
         <v>0</v>
       </c>
       <c r="P21" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="25">
-        <v>0</v>
-      </c>
-      <c r="R21" s="25">
-        <v>0</v>
-      </c>
-      <c r="S21" s="24">
-        <v>0</v>
-      </c>
-      <c r="T21" s="24">
-        <v>0</v>
-      </c>
-      <c r="U21" s="24">
-        <v>0</v>
-      </c>
-      <c r="V21" s="24">
-        <v>0</v>
-      </c>
-      <c r="W21" s="24">
-        <v>0</v>
-      </c>
-      <c r="X21" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="44"/>
+      <c r="AH21" s="44"/>
+      <c r="AI21" s="44"/>
+      <c r="AK21" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="40"/>
-      <c r="AE21" s="40"/>
-      <c r="AF21" s="40"/>
-      <c r="AG21" s="40"/>
-      <c r="AH21" s="40"/>
-      <c r="AI21" s="40"/>
-      <c r="AK21" s="10" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="6">
-        <v>1</v>
-      </c>
-      <c r="H22" s="6">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6">
-        <v>1</v>
-      </c>
-      <c r="J22" s="6">
-        <v>1</v>
-      </c>
-      <c r="K22" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="6">
-        <v>0</v>
-      </c>
-      <c r="O22" s="6">
-        <v>0</v>
-      </c>
-      <c r="P22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>0</v>
-      </c>
-      <c r="R22" s="6">
-        <v>0</v>
-      </c>
-      <c r="S22" s="6">
-        <v>0</v>
-      </c>
-      <c r="T22" s="6">
-        <v>0</v>
-      </c>
-      <c r="U22" s="6">
-        <v>0</v>
-      </c>
-      <c r="V22" s="6">
-        <v>0</v>
-      </c>
-      <c r="W22" s="6">
-        <v>0</v>
-      </c>
-      <c r="X22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC22" s="40"/>
-      <c r="AD22" s="40"/>
-      <c r="AE22" s="40"/>
-      <c r="AF22" s="40"/>
-      <c r="AG22" s="40"/>
-      <c r="AH22" s="40"/>
-      <c r="AI22" s="40"/>
+        <v>258</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="24">
+        <v>1</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0</v>
+      </c>
+      <c r="I22" s="25">
+        <v>0</v>
+      </c>
+      <c r="J22" s="25">
+        <v>1</v>
+      </c>
+      <c r="K22" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="25">
+        <v>0</v>
+      </c>
+      <c r="O22" s="25">
+        <v>0</v>
+      </c>
+      <c r="P22" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>0</v>
+      </c>
+      <c r="R22" s="25">
+        <v>0</v>
+      </c>
+      <c r="S22" s="24">
+        <v>0</v>
+      </c>
+      <c r="T22" s="24">
+        <v>0</v>
+      </c>
+      <c r="U22" s="24">
+        <v>0</v>
+      </c>
+      <c r="V22" s="24">
+        <v>0</v>
+      </c>
+      <c r="W22" s="24">
+        <v>0</v>
+      </c>
+      <c r="X22" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="44"/>
+      <c r="AI22" s="44"/>
       <c r="AK22" s="10" t="s">
-        <v>86</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
+        <v>84</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
       <c r="G23" s="6">
         <v>1</v>
       </c>
@@ -3045,11 +3122,11 @@
       <c r="J23" s="6">
         <v>1</v>
       </c>
-      <c r="K23" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
+      <c r="K23" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
       <c r="N23" s="6">
         <v>0</v>
       </c>
@@ -3090,34 +3167,34 @@
         <v>0</v>
       </c>
       <c r="AA23" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="40"/>
-      <c r="AE23" s="40"/>
-      <c r="AF23" s="40"/>
-      <c r="AG23" s="40"/>
-      <c r="AH23" s="40"/>
-      <c r="AI23" s="40"/>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="44"/>
+      <c r="AI23" s="44"/>
       <c r="AK23" s="10" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
+        <v>91</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
       <c r="G24" s="6">
         <v>1</v>
       </c>
@@ -3130,11 +3207,11 @@
       <c r="J24" s="6">
         <v>1</v>
       </c>
-      <c r="K24" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
+      <c r="K24" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
       <c r="N24" s="6">
         <v>0</v>
       </c>
@@ -3177,154 +3254,202 @@
       <c r="AA24" s="6">
         <v>1</v>
       </c>
-      <c r="AB24" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD24" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="6">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG24" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH24" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI24" s="6">
-        <v>1</v>
-      </c>
-      <c r="AK24" s="10"/>
+      <c r="AB24" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="44"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="44"/>
+      <c r="AH24" s="44"/>
+      <c r="AI24" s="44"/>
+      <c r="AK24" s="10" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1</v>
+      </c>
+      <c r="K25" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="6">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6">
+        <v>0</v>
+      </c>
+      <c r="P25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0</v>
+      </c>
+      <c r="R25" s="6">
+        <v>0</v>
+      </c>
+      <c r="S25" s="6">
+        <v>0</v>
+      </c>
+      <c r="T25" s="6">
+        <v>0</v>
+      </c>
+      <c r="U25" s="6">
+        <v>0</v>
+      </c>
+      <c r="V25" s="6">
+        <v>0</v>
+      </c>
+      <c r="W25" s="6">
+        <v>0</v>
+      </c>
+      <c r="X25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="10"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>12</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="6">
-        <v>1</v>
-      </c>
-      <c r="H25" s="6">
-        <v>1</v>
-      </c>
-      <c r="I25" s="6">
-        <v>1</v>
-      </c>
-      <c r="J25" s="6">
-        <v>1</v>
-      </c>
-      <c r="K25" s="6">
-        <v>1</v>
-      </c>
-      <c r="L25" s="6">
-        <v>1</v>
-      </c>
-      <c r="M25" s="6">
-        <v>1</v>
-      </c>
-      <c r="N25" s="6">
-        <v>1</v>
-      </c>
-      <c r="O25" s="6">
-        <v>1</v>
-      </c>
-      <c r="P25" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>1</v>
-      </c>
-      <c r="R25" s="6">
-        <v>1</v>
-      </c>
-      <c r="S25" s="6">
-        <v>1</v>
-      </c>
-      <c r="T25" s="6">
-        <v>1</v>
-      </c>
-      <c r="U25" s="6">
-        <v>1</v>
-      </c>
-      <c r="V25" s="6">
-        <v>1</v>
-      </c>
-      <c r="W25" s="6">
-        <v>1</v>
-      </c>
-      <c r="X25" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="40"/>
-      <c r="AE25" s="40"/>
-      <c r="AF25" s="40"/>
-      <c r="AG25" s="40"/>
-      <c r="AH25" s="40"/>
-      <c r="AI25" s="40"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
-      <c r="AH32" s="6"/>
-      <c r="AI32" s="6"/>
-      <c r="AK32" s="10"/>
+      <c r="B26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+      <c r="I26" s="6">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6">
+        <v>1</v>
+      </c>
+      <c r="K26" s="6">
+        <v>1</v>
+      </c>
+      <c r="L26" s="6">
+        <v>1</v>
+      </c>
+      <c r="M26" s="6">
+        <v>1</v>
+      </c>
+      <c r="N26" s="6">
+        <v>1</v>
+      </c>
+      <c r="O26" s="6">
+        <v>1</v>
+      </c>
+      <c r="P26" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>1</v>
+      </c>
+      <c r="R26" s="6">
+        <v>1</v>
+      </c>
+      <c r="S26" s="6">
+        <v>1</v>
+      </c>
+      <c r="T26" s="6">
+        <v>1</v>
+      </c>
+      <c r="U26" s="6">
+        <v>1</v>
+      </c>
+      <c r="V26" s="6">
+        <v>1</v>
+      </c>
+      <c r="W26" s="6">
+        <v>1</v>
+      </c>
+      <c r="X26" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="44"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="44"/>
+      <c r="AI26" s="44"/>
     </row>
     <row r="33" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
@@ -3439,6 +3564,7 @@
     </row>
     <row r="36" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -3867,78 +3993,114 @@
       <c r="AG47" s="6"/>
       <c r="AH47" s="6"/>
       <c r="AI47" s="6"/>
+      <c r="AK47" s="10"/>
     </row>
     <row r="48" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="6"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="D19:F19"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D18:F18"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D11:F11"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D11:F11"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="AB25:AI25"/>
-    <mergeCell ref="N17:AI17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="AB26:AI26"/>
+    <mergeCell ref="N18:AI18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="N20:AI20"/>
+    <mergeCell ref="N19:AI19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="T17:AI17"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="AB24:AI24"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="AB23:AI23"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:S10"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="AB15:AI15"/>
     <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="T16:AI16"/>
     <mergeCell ref="K11:M11"/>
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="N19:AI19"/>
-    <mergeCell ref="N18:AI18"/>
-    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="Q21:V21"/>
+    <mergeCell ref="W21:AI21"/>
+    <mergeCell ref="AB22:AI22"/>
     <mergeCell ref="K22:M22"/>
-    <mergeCell ref="T16:AI16"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="AB23:AI23"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="AB22:AI22"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="AD9:AI9"/>
     <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="AB14:AI14"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="T15:AI15"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="Q20:V20"/>
-    <mergeCell ref="W20:AI20"/>
-    <mergeCell ref="AB21:AI21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="AD8:AI8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="W12:Y12"/>
-    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="W13:Y13"/>
     <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3947,10 +4109,2715 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" customWidth="1"/>
+    <col min="4" max="35" width="3.42578125" customWidth="1"/>
+    <col min="36" max="36" width="2.5703125" customWidth="1"/>
+    <col min="37" max="37" width="116.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+    </row>
+    <row r="2" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B3" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AK3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B4" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AK5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B6" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AK6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>31</v>
+      </c>
+      <c r="E8" s="4">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4">
+        <v>29</v>
+      </c>
+      <c r="G8" s="4">
+        <v>28</v>
+      </c>
+      <c r="H8" s="4">
+        <v>27</v>
+      </c>
+      <c r="I8" s="4">
+        <v>26</v>
+      </c>
+      <c r="J8" s="4">
+        <v>25</v>
+      </c>
+      <c r="K8" s="4">
+        <v>24</v>
+      </c>
+      <c r="L8" s="4">
+        <v>23</v>
+      </c>
+      <c r="M8" s="4">
+        <v>22</v>
+      </c>
+      <c r="N8" s="4">
+        <v>21</v>
+      </c>
+      <c r="O8" s="4">
+        <v>20</v>
+      </c>
+      <c r="P8" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>18</v>
+      </c>
+      <c r="R8" s="4">
+        <v>17</v>
+      </c>
+      <c r="S8" s="4">
+        <v>16</v>
+      </c>
+      <c r="T8" s="4">
+        <v>15</v>
+      </c>
+      <c r="U8" s="4">
+        <v>14</v>
+      </c>
+      <c r="V8" s="4">
+        <v>13</v>
+      </c>
+      <c r="W8" s="4">
+        <v>12</v>
+      </c>
+      <c r="X8" s="4">
+        <v>11</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>9</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>8</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>7</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>6</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>4</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>3</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>1</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="32">
+        <v>0</v>
+      </c>
+      <c r="H9" s="32">
+        <v>0</v>
+      </c>
+      <c r="I9" s="32">
+        <v>0</v>
+      </c>
+      <c r="J9" s="32">
+        <v>0</v>
+      </c>
+      <c r="K9" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="33">
+        <v>0</v>
+      </c>
+      <c r="U9" s="29">
+        <v>0</v>
+      </c>
+      <c r="V9" s="29">
+        <v>0</v>
+      </c>
+      <c r="W9" s="29">
+        <v>0</v>
+      </c>
+      <c r="X9" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="46"/>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="46"/>
+      <c r="AK9" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="31">
+        <v>0</v>
+      </c>
+      <c r="H10" s="31">
+        <v>0</v>
+      </c>
+      <c r="I10" s="31">
+        <v>0</v>
+      </c>
+      <c r="J10" s="31">
+        <v>0</v>
+      </c>
+      <c r="K10" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="33">
+        <v>0</v>
+      </c>
+      <c r="U10" s="29">
+        <v>0</v>
+      </c>
+      <c r="V10" s="29">
+        <v>0</v>
+      </c>
+      <c r="W10" s="29">
+        <v>0</v>
+      </c>
+      <c r="X10" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="31">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="31">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="31">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="31">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="31">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK10" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="31">
+        <v>0</v>
+      </c>
+      <c r="H11" s="31">
+        <v>0</v>
+      </c>
+      <c r="I11" s="31">
+        <v>0</v>
+      </c>
+      <c r="J11" s="31">
+        <v>0</v>
+      </c>
+      <c r="K11" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="33">
+        <v>0</v>
+      </c>
+      <c r="U11" s="29">
+        <v>0</v>
+      </c>
+      <c r="V11" s="29">
+        <v>0</v>
+      </c>
+      <c r="W11" s="29">
+        <v>0</v>
+      </c>
+      <c r="X11" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="31">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="31">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="29">
+        <v>0</v>
+      </c>
+      <c r="H12" s="33">
+        <v>0</v>
+      </c>
+      <c r="I12" s="33">
+        <v>0</v>
+      </c>
+      <c r="J12" s="33">
+        <v>0</v>
+      </c>
+      <c r="K12" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="29">
+        <v>0</v>
+      </c>
+      <c r="U12" s="29">
+        <v>0</v>
+      </c>
+      <c r="V12" s="29">
+        <v>0</v>
+      </c>
+      <c r="W12" s="29">
+        <v>0</v>
+      </c>
+      <c r="X12" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="29">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK12" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL12" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="29">
+        <v>0</v>
+      </c>
+      <c r="H13" s="33">
+        <v>0</v>
+      </c>
+      <c r="I13" s="33">
+        <v>0</v>
+      </c>
+      <c r="J13" s="33">
+        <v>0</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="29">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="29">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="29">
+        <v>0</v>
+      </c>
+      <c r="H14" s="33">
+        <v>0</v>
+      </c>
+      <c r="I14" s="33">
+        <v>0</v>
+      </c>
+      <c r="J14" s="33">
+        <v>1</v>
+      </c>
+      <c r="K14" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="29">
+        <v>0</v>
+      </c>
+      <c r="R14" s="29">
+        <v>0</v>
+      </c>
+      <c r="S14" s="29">
+        <v>0</v>
+      </c>
+      <c r="T14" s="29">
+        <v>0</v>
+      </c>
+      <c r="U14" s="29">
+        <v>0</v>
+      </c>
+      <c r="V14" s="29">
+        <v>0</v>
+      </c>
+      <c r="W14" s="29">
+        <v>0</v>
+      </c>
+      <c r="X14" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="29">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI14" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK14" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" s="40">
+        <v>2</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="29">
+        <v>0</v>
+      </c>
+      <c r="H15" s="33">
+        <v>0</v>
+      </c>
+      <c r="I15" s="33">
+        <v>0</v>
+      </c>
+      <c r="J15" s="33">
+        <v>1</v>
+      </c>
+      <c r="K15" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="29">
+        <v>0</v>
+      </c>
+      <c r="R15" s="29">
+        <v>1</v>
+      </c>
+      <c r="S15" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="29">
+        <v>0</v>
+      </c>
+      <c r="U15" s="29">
+        <v>0</v>
+      </c>
+      <c r="V15" s="29">
+        <v>0</v>
+      </c>
+      <c r="W15" s="29">
+        <v>0</v>
+      </c>
+      <c r="X15" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="44"/>
+      <c r="AK15" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="29">
+        <v>0</v>
+      </c>
+      <c r="H16" s="33">
+        <v>0</v>
+      </c>
+      <c r="I16" s="33">
+        <v>0</v>
+      </c>
+      <c r="J16" s="33">
+        <v>1</v>
+      </c>
+      <c r="K16" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="29">
+        <v>1</v>
+      </c>
+      <c r="R16" s="29">
+        <v>0</v>
+      </c>
+      <c r="S16" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="44"/>
+      <c r="AI16" s="44"/>
+      <c r="AK16" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="29">
+        <v>0</v>
+      </c>
+      <c r="H17" s="33">
+        <v>0</v>
+      </c>
+      <c r="I17" s="33">
+        <v>0</v>
+      </c>
+      <c r="J17" s="33">
+        <v>1</v>
+      </c>
+      <c r="K17" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="29">
+        <v>1</v>
+      </c>
+      <c r="R17" s="29">
+        <v>1</v>
+      </c>
+      <c r="S17" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="44"/>
+      <c r="AK17" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="29">
+        <v>0</v>
+      </c>
+      <c r="H18" s="33">
+        <v>0</v>
+      </c>
+      <c r="I18" s="33">
+        <v>1</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="44"/>
+      <c r="AK18" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="29">
+        <v>0</v>
+      </c>
+      <c r="H19" s="33">
+        <v>1</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="44"/>
+      <c r="AI19" s="44"/>
+      <c r="AK19" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="29">
+        <v>1</v>
+      </c>
+      <c r="H20" s="33">
+        <v>0</v>
+      </c>
+      <c r="I20" s="33">
+        <v>0</v>
+      </c>
+      <c r="J20" s="33">
+        <v>0</v>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="44"/>
+      <c r="AK20" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="29">
+        <v>1</v>
+      </c>
+      <c r="H21" s="33">
+        <v>0</v>
+      </c>
+      <c r="I21" s="33">
+        <v>0</v>
+      </c>
+      <c r="J21" s="33">
+        <v>1</v>
+      </c>
+      <c r="K21" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="33">
+        <v>0</v>
+      </c>
+      <c r="O21" s="33">
+        <v>0</v>
+      </c>
+      <c r="P21" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="44"/>
+      <c r="AH21" s="44"/>
+      <c r="AI21" s="44"/>
+      <c r="AK21" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="29">
+        <v>1</v>
+      </c>
+      <c r="H22" s="33">
+        <v>0</v>
+      </c>
+      <c r="I22" s="33">
+        <v>0</v>
+      </c>
+      <c r="J22" s="33">
+        <v>1</v>
+      </c>
+      <c r="K22" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="33">
+        <v>0</v>
+      </c>
+      <c r="O22" s="33">
+        <v>0</v>
+      </c>
+      <c r="P22" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="33">
+        <v>0</v>
+      </c>
+      <c r="R22" s="33">
+        <v>0</v>
+      </c>
+      <c r="S22" s="29">
+        <v>0</v>
+      </c>
+      <c r="T22" s="29">
+        <v>0</v>
+      </c>
+      <c r="U22" s="29">
+        <v>0</v>
+      </c>
+      <c r="V22" s="29">
+        <v>0</v>
+      </c>
+      <c r="W22" s="29">
+        <v>0</v>
+      </c>
+      <c r="X22" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="44"/>
+      <c r="AI22" s="44"/>
+      <c r="AK22" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="29">
+        <v>1</v>
+      </c>
+      <c r="H23" s="29">
+        <v>1</v>
+      </c>
+      <c r="I23" s="29">
+        <v>1</v>
+      </c>
+      <c r="J23" s="29">
+        <v>1</v>
+      </c>
+      <c r="K23" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="29">
+        <v>0</v>
+      </c>
+      <c r="O23" s="29">
+        <v>0</v>
+      </c>
+      <c r="P23" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="29">
+        <v>0</v>
+      </c>
+      <c r="R23" s="29">
+        <v>0</v>
+      </c>
+      <c r="S23" s="29">
+        <v>0</v>
+      </c>
+      <c r="T23" s="29">
+        <v>0</v>
+      </c>
+      <c r="U23" s="29">
+        <v>0</v>
+      </c>
+      <c r="V23" s="29">
+        <v>0</v>
+      </c>
+      <c r="W23" s="29">
+        <v>0</v>
+      </c>
+      <c r="X23" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="44"/>
+      <c r="AI23" s="44"/>
+      <c r="AK23" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="29">
+        <v>1</v>
+      </c>
+      <c r="H24" s="29">
+        <v>1</v>
+      </c>
+      <c r="I24" s="29">
+        <v>1</v>
+      </c>
+      <c r="J24" s="29">
+        <v>1</v>
+      </c>
+      <c r="K24" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="29">
+        <v>0</v>
+      </c>
+      <c r="O24" s="29">
+        <v>0</v>
+      </c>
+      <c r="P24" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="29">
+        <v>0</v>
+      </c>
+      <c r="R24" s="29">
+        <v>0</v>
+      </c>
+      <c r="S24" s="29">
+        <v>0</v>
+      </c>
+      <c r="T24" s="29">
+        <v>0</v>
+      </c>
+      <c r="U24" s="29">
+        <v>0</v>
+      </c>
+      <c r="V24" s="29">
+        <v>0</v>
+      </c>
+      <c r="W24" s="29">
+        <v>0</v>
+      </c>
+      <c r="X24" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="29">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="44"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="44"/>
+      <c r="AH24" s="44"/>
+      <c r="AI24" s="44"/>
+      <c r="AK24" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="29">
+        <v>1</v>
+      </c>
+      <c r="H25" s="29">
+        <v>1</v>
+      </c>
+      <c r="I25" s="29">
+        <v>1</v>
+      </c>
+      <c r="J25" s="29">
+        <v>1</v>
+      </c>
+      <c r="K25" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="29">
+        <v>0</v>
+      </c>
+      <c r="O25" s="29">
+        <v>0</v>
+      </c>
+      <c r="P25" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="29">
+        <v>0</v>
+      </c>
+      <c r="R25" s="29">
+        <v>0</v>
+      </c>
+      <c r="S25" s="29">
+        <v>0</v>
+      </c>
+      <c r="T25" s="29">
+        <v>0</v>
+      </c>
+      <c r="U25" s="29">
+        <v>0</v>
+      </c>
+      <c r="V25" s="29">
+        <v>0</v>
+      </c>
+      <c r="W25" s="29">
+        <v>0</v>
+      </c>
+      <c r="X25" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="29">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="29">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="29">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="29">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="29">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="29">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="29">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="29">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="10"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="29">
+        <v>1</v>
+      </c>
+      <c r="H26" s="29">
+        <v>1</v>
+      </c>
+      <c r="I26" s="29">
+        <v>1</v>
+      </c>
+      <c r="J26" s="29">
+        <v>1</v>
+      </c>
+      <c r="K26" s="29">
+        <v>1</v>
+      </c>
+      <c r="L26" s="29">
+        <v>1</v>
+      </c>
+      <c r="M26" s="29">
+        <v>1</v>
+      </c>
+      <c r="N26" s="29">
+        <v>1</v>
+      </c>
+      <c r="O26" s="29">
+        <v>1</v>
+      </c>
+      <c r="P26" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="29">
+        <v>1</v>
+      </c>
+      <c r="R26" s="29">
+        <v>1</v>
+      </c>
+      <c r="S26" s="29">
+        <v>1</v>
+      </c>
+      <c r="T26" s="29">
+        <v>1</v>
+      </c>
+      <c r="U26" s="29">
+        <v>1</v>
+      </c>
+      <c r="V26" s="29">
+        <v>1</v>
+      </c>
+      <c r="W26" s="29">
+        <v>1</v>
+      </c>
+      <c r="X26" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="29">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="29">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="29">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="44"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="44"/>
+      <c r="AI26" s="44"/>
+    </row>
+    <row r="27" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="T28" s="32">
+        <v>0</v>
+      </c>
+      <c r="U28" s="32">
+        <v>0</v>
+      </c>
+      <c r="V28" s="32">
+        <v>0</v>
+      </c>
+      <c r="W28" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE28" s="46"/>
+      <c r="AF28" s="46"/>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="46"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="T29" s="31">
+        <v>0</v>
+      </c>
+      <c r="U29" s="31">
+        <v>0</v>
+      </c>
+      <c r="V29" s="31">
+        <v>0</v>
+      </c>
+      <c r="W29" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="31">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="31">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="31">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="31">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="31">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="T30" s="31">
+        <v>0</v>
+      </c>
+      <c r="U30" s="31">
+        <v>0</v>
+      </c>
+      <c r="V30" s="31">
+        <v>0</v>
+      </c>
+      <c r="W30" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="31">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="31">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="T31" s="33">
+        <v>0</v>
+      </c>
+      <c r="U31" s="33">
+        <v>0</v>
+      </c>
+      <c r="V31" s="33">
+        <v>0</v>
+      </c>
+      <c r="W31" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z31" s="44"/>
+      <c r="AA31" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB31" s="44"/>
+      <c r="AC31" s="29">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="29">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH31" s="42"/>
+      <c r="AI31" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="T32" s="33">
+        <v>0</v>
+      </c>
+      <c r="U32" s="33">
+        <v>0</v>
+      </c>
+      <c r="V32" s="33">
+        <v>0</v>
+      </c>
+      <c r="W32" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="X32" s="44"/>
+    </row>
+    <row r="33" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B33" s="34"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="33">
+        <v>0</v>
+      </c>
+      <c r="U33" s="33">
+        <v>0</v>
+      </c>
+      <c r="V33" s="33">
+        <v>1</v>
+      </c>
+      <c r="W33" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="29">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI33" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK33" s="10"/>
+    </row>
+    <row r="34" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B34" s="34"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="33">
+        <v>0</v>
+      </c>
+      <c r="U34" s="33">
+        <v>0</v>
+      </c>
+      <c r="V34" s="33">
+        <v>1</v>
+      </c>
+      <c r="W34" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z34" s="44"/>
+      <c r="AA34" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB34" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC34" s="44"/>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="44"/>
+      <c r="AF34" s="44"/>
+      <c r="AG34" s="44"/>
+      <c r="AH34" s="44"/>
+      <c r="AI34" s="44"/>
+      <c r="AK34" s="10"/>
+    </row>
+    <row r="35" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B35" s="34"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="55"/>
+      <c r="Y35" s="55"/>
+      <c r="Z35" s="55"/>
+      <c r="AH35" s="29"/>
+      <c r="AI35" s="29"/>
+      <c r="AK35" s="10"/>
+    </row>
+    <row r="36" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B36" s="34"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="55"/>
+      <c r="Y36" s="55"/>
+      <c r="Z36" s="55"/>
+      <c r="AH36" s="29"/>
+      <c r="AI36" s="29"/>
+      <c r="AK36" s="10"/>
+    </row>
+    <row r="37" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B37" s="34"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="33">
+        <v>0</v>
+      </c>
+      <c r="U37" s="33">
+        <v>1</v>
+      </c>
+      <c r="V37" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="W37" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="X37" s="44"/>
+      <c r="Y37" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z37" s="44"/>
+      <c r="AA37" s="44"/>
+      <c r="AB37" s="44"/>
+      <c r="AC37" s="44"/>
+      <c r="AD37" s="44"/>
+      <c r="AE37" s="44"/>
+      <c r="AF37" s="44"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+      <c r="AK37" s="10"/>
+    </row>
+    <row r="38" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B38" s="34"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="33">
+        <v>1</v>
+      </c>
+      <c r="U38" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="V38" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="W38" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="X38" s="44"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="29"/>
+      <c r="AF38" s="29"/>
+      <c r="AG38" s="29"/>
+      <c r="AH38" s="29"/>
+      <c r="AI38" s="29"/>
+      <c r="AK38" s="10"/>
+    </row>
+    <row r="39" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B39" s="34"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="33">
+        <v>0</v>
+      </c>
+      <c r="U39" s="33">
+        <v>0</v>
+      </c>
+      <c r="V39" s="33">
+        <v>0</v>
+      </c>
+      <c r="W39" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="29"/>
+      <c r="AF39" s="29"/>
+      <c r="AG39" s="29"/>
+      <c r="AH39" s="29"/>
+      <c r="AI39" s="29"/>
+      <c r="AK39" s="10"/>
+    </row>
+    <row r="40" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B40" s="34"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="33">
+        <v>0</v>
+      </c>
+      <c r="U40" s="33">
+        <v>0</v>
+      </c>
+      <c r="V40" s="33">
+        <v>1</v>
+      </c>
+      <c r="W40" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="X40" s="44"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="29"/>
+      <c r="AB40" s="29"/>
+      <c r="AC40" s="29"/>
+      <c r="AD40" s="29"/>
+      <c r="AE40" s="29"/>
+      <c r="AF40" s="29"/>
+      <c r="AG40" s="29"/>
+      <c r="AH40" s="29"/>
+      <c r="AI40" s="29"/>
+      <c r="AK40" s="10"/>
+    </row>
+    <row r="41" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B41" s="34"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="33">
+        <v>0</v>
+      </c>
+      <c r="U41" s="33">
+        <v>0</v>
+      </c>
+      <c r="V41" s="33">
+        <v>1</v>
+      </c>
+      <c r="W41" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="29"/>
+      <c r="AE41" s="29"/>
+      <c r="AF41" s="29"/>
+      <c r="AG41" s="29"/>
+      <c r="AH41" s="29"/>
+      <c r="AI41" s="29"/>
+      <c r="AK41" s="10"/>
+    </row>
+    <row r="42" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B42" s="34"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29">
+        <v>1</v>
+      </c>
+      <c r="U42" s="29">
+        <v>1</v>
+      </c>
+      <c r="V42" s="29">
+        <v>1</v>
+      </c>
+      <c r="W42" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="X42" s="44"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="29"/>
+      <c r="AB42" s="29"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="29"/>
+      <c r="AE42" s="29"/>
+      <c r="AF42" s="29"/>
+      <c r="AG42" s="29"/>
+      <c r="AH42" s="29"/>
+      <c r="AI42" s="29"/>
+      <c r="AK42" s="10"/>
+    </row>
+    <row r="43" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B43" s="34"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29">
+        <v>1</v>
+      </c>
+      <c r="U43" s="29">
+        <v>1</v>
+      </c>
+      <c r="V43" s="29">
+        <v>1</v>
+      </c>
+      <c r="W43" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="X43" s="44"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="29"/>
+      <c r="AF43" s="29"/>
+      <c r="AG43" s="29"/>
+      <c r="AH43" s="29"/>
+      <c r="AI43" s="29"/>
+      <c r="AK43" s="10"/>
+    </row>
+    <row r="44" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B44" s="34"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29">
+        <v>1</v>
+      </c>
+      <c r="U44" s="29">
+        <v>1</v>
+      </c>
+      <c r="V44" s="29">
+        <v>1</v>
+      </c>
+      <c r="W44" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="X44" s="44"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
+      <c r="AE44" s="29"/>
+      <c r="AF44" s="29"/>
+      <c r="AG44" s="29"/>
+      <c r="AH44" s="29"/>
+      <c r="AI44" s="29"/>
+      <c r="AK44" s="10"/>
+    </row>
+    <row r="45" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B45" s="34"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29">
+        <v>1</v>
+      </c>
+      <c r="U45" s="29">
+        <v>1</v>
+      </c>
+      <c r="V45" s="29">
+        <v>1</v>
+      </c>
+      <c r="W45" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="X45" s="44"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="29"/>
+      <c r="AE45" s="29"/>
+      <c r="AF45" s="29"/>
+      <c r="AG45" s="29"/>
+      <c r="AH45" s="29"/>
+      <c r="AI45" s="29"/>
+      <c r="AK45" s="10"/>
+    </row>
+    <row r="46" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B46" s="34"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="29"/>
+      <c r="AB46" s="29"/>
+      <c r="AC46" s="29"/>
+      <c r="AD46" s="29"/>
+      <c r="AE46" s="29"/>
+      <c r="AF46" s="29"/>
+      <c r="AG46" s="29"/>
+      <c r="AH46" s="29"/>
+      <c r="AI46" s="29"/>
+      <c r="AK46" s="10"/>
+    </row>
+    <row r="47" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B47" s="34"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
+      <c r="AE47" s="29"/>
+      <c r="AF47" s="29"/>
+      <c r="AG47" s="29"/>
+      <c r="AH47" s="29"/>
+      <c r="AI47" s="29"/>
+      <c r="AK47" s="10"/>
+    </row>
+    <row r="48" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B48" s="34"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
+      <c r="U48" s="29"/>
+      <c r="V48" s="29"/>
+      <c r="W48" s="29"/>
+      <c r="X48" s="29"/>
+      <c r="Y48" s="29"/>
+      <c r="Z48" s="29"/>
+      <c r="AA48" s="29"/>
+      <c r="AB48" s="29"/>
+      <c r="AC48" s="29"/>
+      <c r="AD48" s="29"/>
+      <c r="AE48" s="29"/>
+      <c r="AF48" s="29"/>
+      <c r="AG48" s="29"/>
+      <c r="AH48" s="29"/>
+      <c r="AI48" s="29"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="99">
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="Y29:AB29"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="AB34:AI34"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="Y37:AI37"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="AD28:AI28"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="AB26:AI26"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="AB23:AI23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="AB24:AI24"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="Q21:V21"/>
+    <mergeCell ref="W21:AI21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="AB22:AI22"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:AI19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:AI20"/>
+    <mergeCell ref="AB15:AI15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="T16:AI16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="T17:AI17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:AI18"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="AD9:AI9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:S10"/>
+    <mergeCell ref="D11:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3967,36 +6834,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" s="33">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>292</v>
+      <c r="A1" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="37">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>289</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
+      <c r="A2" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4023,31 +6890,31 @@
         <v>0</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>300</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q3" s="23" t="s">
         <v>183</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6">
@@ -4077,24 +6944,24 @@
         <v>30h</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="N4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6">
@@ -4124,24 +6991,24 @@
         <v>31h</v>
       </c>
       <c r="L5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6">
@@ -4171,24 +7038,24 @@
         <v>32h</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6">
@@ -4218,24 +7085,24 @@
         <v>33h</v>
       </c>
       <c r="L7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6">
@@ -4265,15 +7132,15 @@
         <v>34h</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6">
@@ -4303,21 +7170,21 @@
         <v>36h</v>
       </c>
       <c r="L9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6">
@@ -4347,21 +7214,21 @@
         <v>37h</v>
       </c>
       <c r="L10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6">
@@ -4391,18 +7258,18 @@
         <v>3Eh</v>
       </c>
       <c r="L11" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6">
@@ -4432,18 +7299,18 @@
         <v>3Fh</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M12" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6">
@@ -4473,18 +7340,18 @@
         <v>01h</v>
       </c>
       <c r="L13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6">
@@ -4514,18 +7381,18 @@
         <v>02h</v>
       </c>
       <c r="L14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6">
@@ -4555,18 +7422,18 @@
         <v>03h</v>
       </c>
       <c r="L15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6">
@@ -4596,18 +7463,18 @@
         <v>04h</v>
       </c>
       <c r="L16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6">
@@ -4637,18 +7504,18 @@
         <v>05h</v>
       </c>
       <c r="L17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6">
@@ -4678,17 +7545,17 @@
         <v>06h</v>
       </c>
       <c r="L18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="str">
+      <c r="A19" s="34" t="str">
         <f>A13&amp;" integer"</f>
         <v>Add integer</v>
       </c>
@@ -4728,11 +7595,11 @@
         <v>Rd = Rs + Rm</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="str">
+      <c r="A20" s="34" t="str">
         <f t="shared" ref="A20:A24" si="4">A14&amp;" integer"</f>
         <v>Subtract integer</v>
       </c>
@@ -4772,11 +7639,11 @@
         <v>Rd = Rs - Rm</v>
       </c>
       <c r="N20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="str">
+      <c r="A21" s="34" t="str">
         <f t="shared" si="4"/>
         <v>Multiply integer</v>
       </c>
@@ -4816,11 +7683,11 @@
         <v>Rd = Rs * Rm</v>
       </c>
       <c r="N21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="str">
+      <c r="A22" s="34" t="str">
         <f t="shared" si="4"/>
         <v>Divide integer</v>
       </c>
@@ -4860,11 +7727,11 @@
         <v>Rd = Rs / Rm</v>
       </c>
       <c r="N22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="str">
+      <c r="A23" s="34" t="str">
         <f t="shared" si="4"/>
         <v>Powerof integer</v>
       </c>
@@ -4904,11 +7771,11 @@
         <v>Rd = Rs ^ Rm</v>
       </c>
       <c r="N23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="str">
+      <c r="A24" s="34" t="str">
         <f t="shared" si="4"/>
         <v>Modulo integer</v>
       </c>
@@ -4948,12 +7815,12 @@
         <v>Rd = Rs % Rm</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6">
@@ -4983,18 +7850,18 @@
         <v>07h</v>
       </c>
       <c r="L25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6">
@@ -5024,18 +7891,18 @@
         <v>08h</v>
       </c>
       <c r="L26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6">
@@ -5065,18 +7932,18 @@
         <v>09h</v>
       </c>
       <c r="L27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6">
@@ -5106,18 +7973,18 @@
         <v>0Ah</v>
       </c>
       <c r="L28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6">
@@ -5147,18 +8014,18 @@
         <v>0Bh</v>
       </c>
       <c r="L29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6">
@@ -5188,18 +8055,18 @@
         <v>0Ch</v>
       </c>
       <c r="L30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6">
@@ -5229,18 +8096,18 @@
         <v>10h</v>
       </c>
       <c r="L31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6">
@@ -5270,18 +8137,18 @@
         <v>11h</v>
       </c>
       <c r="L32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6">
@@ -5311,18 +8178,18 @@
         <v>12h</v>
       </c>
       <c r="L33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6">
@@ -5352,18 +8219,18 @@
         <v>13h</v>
       </c>
       <c r="L34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6">
@@ -5393,18 +8260,18 @@
         <v>14h</v>
       </c>
       <c r="L35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6">
@@ -5434,18 +8301,18 @@
         <v>15h</v>
       </c>
       <c r="L36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6">
@@ -5475,18 +8342,18 @@
         <v>16h</v>
       </c>
       <c r="L37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6">
@@ -5516,18 +8383,18 @@
         <v>17h</v>
       </c>
       <c r="L38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6">
@@ -5557,18 +8424,18 @@
         <v>18h</v>
       </c>
       <c r="L39" t="s">
+        <v>199</v>
+      </c>
+      <c r="M39" t="s">
         <v>200</v>
       </c>
-      <c r="M39" t="s">
-        <v>201</v>
-      </c>
       <c r="N39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6">
@@ -5598,18 +8465,18 @@
         <v>19h</v>
       </c>
       <c r="L40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6">
@@ -5639,18 +8506,18 @@
         <v>1Ah</v>
       </c>
       <c r="L41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6">
@@ -5680,18 +8547,18 @@
         <v>1Bh</v>
       </c>
       <c r="L42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6">
@@ -5721,18 +8588,18 @@
         <v>1Ch</v>
       </c>
       <c r="L43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6">
@@ -5762,18 +8629,18 @@
         <v>1Dh</v>
       </c>
       <c r="L44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6">
@@ -5803,18 +8670,18 @@
         <v>1Eh</v>
       </c>
       <c r="L45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6">
@@ -5844,18 +8711,18 @@
         <v>1Fh</v>
       </c>
       <c r="L46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="14">
@@ -5886,7 +8753,7 @@
       </c>
       <c r="K47" s="17"/>
       <c r="L47" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -5906,15 +8773,16 @@
     <mergeCell ref="A2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5928,14 +8796,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="37">
+        <v>2</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>260</v>
-      </c>
-      <c r="B1" s="33">
-        <v>2</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>261</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5943,9 +8811,9 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" s="34"/>
+        <v>212</v>
+      </c>
+      <c r="B2" s="38"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -5953,131 +8821,131 @@
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="B3" s="35"/>
+        <v>205</v>
+      </c>
+      <c r="B3" s="39"/>
       <c r="C3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F10" t="s">
         <v>235</v>
-      </c>
-      <c r="F10" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="B11" s="34"/>
+        <v>213</v>
+      </c>
+      <c r="B11" s="38"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -6085,118 +8953,118 @@
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="B12" s="35"/>
+        <v>205</v>
+      </c>
+      <c r="B12" s="39"/>
       <c r="C12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="B19" s="33">
+      <c r="A19" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" s="37">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -6204,42 +9072,42 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="35"/>
+        <v>205</v>
+      </c>
+      <c r="B20" s="39"/>
       <c r="C20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" t="s">
         <v>263</v>
       </c>
-      <c r="C21" t="s">
-        <v>265</v>
-      </c>
-      <c r="D21" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="22" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="B22" s="33">
+      <c r="A22" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B22" s="37">
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -6247,87 +9115,87 @@
     </row>
     <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="B23" s="35"/>
+        <v>205</v>
+      </c>
+      <c r="B23" s="39"/>
       <c r="C23" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" t="s">
         <v>266</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>297</v>
+      </c>
+      <c r="E24" t="s">
         <v>267</v>
-      </c>
-      <c r="D24" t="s">
-        <v>301</v>
-      </c>
-      <c r="E24" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D25" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D26" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D27" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="B28" s="33">
+      <c r="A28" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B28" s="37">
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -6335,51 +9203,78 @@
     </row>
     <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="B29" s="35"/>
+        <v>205</v>
+      </c>
+      <c r="B29" s="39"/>
       <c r="C29" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+      <c r="D30" t="s">
+        <v>328</v>
+      </c>
+      <c r="E30" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>276</v>
+        <v>322</v>
+      </c>
+      <c r="D31" t="s">
+        <v>329</v>
+      </c>
+      <c r="E31" t="s">
+        <v>325</v>
+      </c>
+      <c r="F31" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>277</v>
+        <v>275</v>
+      </c>
+      <c r="D32" t="s">
+        <v>328</v>
+      </c>
+      <c r="E32" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>278</v>
+        <v>323</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="E33" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="B34" s="33">
+      <c r="A34" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B34" s="37">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -6387,66 +9282,144 @@
     </row>
     <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="B35" s="35"/>
+        <v>205</v>
+      </c>
+      <c r="B35" s="39"/>
       <c r="C35" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>280</v>
+        <v>277</v>
+      </c>
+      <c r="C36" t="s">
+        <v>332</v>
+      </c>
+      <c r="D36" t="s">
+        <v>329</v>
+      </c>
+      <c r="E36" t="s">
+        <v>331</v>
+      </c>
+      <c r="F36" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>281</v>
+        <v>278</v>
+      </c>
+      <c r="C37" t="s">
+        <v>334</v>
+      </c>
+      <c r="D37" t="s">
+        <v>329</v>
+      </c>
+      <c r="E37" t="s">
+        <v>338</v>
+      </c>
+      <c r="F37" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>282</v>
+        <v>279</v>
+      </c>
+      <c r="C38" t="s">
+        <v>335</v>
+      </c>
+      <c r="D38" t="s">
+        <v>329</v>
+      </c>
+      <c r="E38" t="s">
+        <v>339</v>
+      </c>
+      <c r="F38" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>283</v>
+        <v>280</v>
+      </c>
+      <c r="C39" t="s">
+        <v>336</v>
+      </c>
+      <c r="D39" t="s">
+        <v>329</v>
+      </c>
+      <c r="E39" t="s">
+        <v>340</v>
+      </c>
+      <c r="F39" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>284</v>
+        <v>281</v>
+      </c>
+      <c r="C40" t="s">
+        <v>337</v>
+      </c>
+      <c r="D40" t="s">
+        <v>329</v>
+      </c>
+      <c r="E40" t="s">
+        <v>341</v>
+      </c>
+      <c r="F40" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>285</v>
+        <v>282</v>
+      </c>
+      <c r="C41" t="s">
+        <v>342</v>
+      </c>
+      <c r="D41" t="s">
+        <v>333</v>
+      </c>
+      <c r="E41" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
-        <v>286</v>
+        <v>283</v>
+      </c>
+      <c r="C42" t="s">
+        <v>343</v>
+      </c>
+      <c r="D42" t="s">
+        <v>333</v>
+      </c>
+      <c r="E42" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="B43" s="33">
+      <c r="A43" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B43" s="37">
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -6454,31 +9427,31 @@
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="B44" s="35"/>
+        <v>205</v>
+      </c>
+      <c r="B44" s="39"/>
       <c r="C44" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="B46" s="33">
+      <c r="A46" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B46" s="37">
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -6486,31 +9459,31 @@
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="B47" s="35"/>
+        <v>205</v>
+      </c>
+      <c r="B47" s="39"/>
       <c r="C47" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="B49" s="33">
+      <c r="A49" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B49" s="37">
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -6518,31 +9491,31 @@
     </row>
     <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="B50" s="35"/>
+        <v>205</v>
+      </c>
+      <c r="B50" s="39"/>
       <c r="C50" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="B52" s="33">
+      <c r="A52" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B52" s="37">
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -6550,31 +9523,31 @@
     </row>
     <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="B53" s="35"/>
+        <v>205</v>
+      </c>
+      <c r="B53" s="39"/>
       <c r="C53" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="B55" s="33">
+      <c r="A55" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B55" s="37">
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -6582,31 +9555,31 @@
     </row>
     <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="B56" s="35"/>
+        <v>205</v>
+      </c>
+      <c r="B56" s="39"/>
       <c r="C56" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="B58" s="33">
+      <c r="A58" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B58" s="37">
         <v>12</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -6614,20 +9587,20 @@
     </row>
     <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="B59" s="35"/>
+        <v>205</v>
+      </c>
+      <c r="B59" s="39"/>
       <c r="C59" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -6635,7 +9608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
@@ -6652,20 +9625,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
-        <v>295</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
+      <c r="A1" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6673,40 +9646,40 @@
         <v>0</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="35">
+      <c r="C3" s="39">
         <v>7</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="39">
         <v>6</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="39">
         <v>5</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="39">
         <v>4</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="39">
         <v>3</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="39">
         <v>2</v>
       </c>
-      <c r="I3" s="35">
-        <v>1</v>
-      </c>
-      <c r="J3" s="35">
-        <v>0</v>
-      </c>
-      <c r="K3" s="35" t="s">
+      <c r="I3" s="39">
+        <v>1</v>
+      </c>
+      <c r="J3" s="39">
+        <v>0</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="L3" s="39" t="s">
         <v>296</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C4" s="25">
         <v>0</v>
@@ -6743,7 +9716,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C5" s="25">
         <v>0</v>
@@ -6780,7 +9753,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C6" s="25">
         <v>0</v>
@@ -6817,7 +9790,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C7" s="25">
         <v>0</v>
@@ -6938,7 +9911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ40"/>
   <sheetViews>
@@ -6957,7 +9930,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -7106,146 +10079,146 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
       <c r="AJ4" s="10"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="40"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44"/>
       <c r="AJ5" s="10"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="40"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="10"/>
     </row>
@@ -8392,12 +11365,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8411,7 +11384,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -8486,224 +11459,246 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
       <c r="T4" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>1</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>138</v>
+      <c r="A5" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" s="31">
+        <v>0</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0</v>
+      </c>
+      <c r="E5" s="31">
+        <v>0</v>
+      </c>
+      <c r="F5" s="31">
+        <v>0</v>
+      </c>
+      <c r="G5" s="31">
+        <v>0</v>
+      </c>
+      <c r="H5" s="31">
+        <v>0</v>
+      </c>
+      <c r="I5" s="31">
+        <v>0</v>
+      </c>
+      <c r="J5" s="31">
+        <v>0</v>
+      </c>
+      <c r="K5" s="31">
+        <v>0</v>
+      </c>
+      <c r="L5" s="31">
+        <v>0</v>
+      </c>
+      <c r="M5" s="31">
+        <v>0</v>
+      </c>
+      <c r="N5" s="31">
+        <v>0</v>
+      </c>
+      <c r="O5" s="31">
+        <v>0</v>
+      </c>
+      <c r="P5" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="31">
+        <v>0</v>
+      </c>
+      <c r="R5" s="31" t="s">
+        <v>321</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="24">
-        <v>0</v>
-      </c>
-      <c r="D6" s="24">
-        <v>0</v>
-      </c>
-      <c r="E6" s="24">
-        <v>0</v>
-      </c>
-      <c r="F6" s="24">
-        <v>0</v>
-      </c>
-      <c r="G6" s="24">
-        <v>0</v>
-      </c>
-      <c r="H6" s="24">
-        <v>0</v>
-      </c>
-      <c r="I6" s="24">
-        <v>0</v>
-      </c>
-      <c r="J6" s="24">
-        <v>0</v>
-      </c>
-      <c r="K6" s="24">
-        <v>0</v>
-      </c>
-      <c r="L6" s="24">
-        <v>0</v>
-      </c>
-      <c r="M6" s="24">
-        <v>0</v>
-      </c>
-      <c r="N6" s="24">
-        <v>0</v>
-      </c>
-      <c r="O6" s="24">
-        <v>0</v>
-      </c>
-      <c r="P6" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="24">
-        <v>0</v>
-      </c>
-      <c r="R6" s="24" t="s">
-        <v>141</v>
+        <v>135</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>1</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>1</v>
-      </c>
-      <c r="K7" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0</v>
+      </c>
+      <c r="G7" s="24">
+        <v>0</v>
+      </c>
+      <c r="H7" s="24">
+        <v>0</v>
+      </c>
+      <c r="I7" s="24">
+        <v>0</v>
+      </c>
+      <c r="J7" s="24">
+        <v>0</v>
+      </c>
+      <c r="K7" s="24">
+        <v>0</v>
+      </c>
+      <c r="L7" s="24">
+        <v>0</v>
+      </c>
+      <c r="M7" s="24">
+        <v>0</v>
+      </c>
+      <c r="N7" s="24">
+        <v>0</v>
+      </c>
+      <c r="O7" s="24">
+        <v>0</v>
+      </c>
+      <c r="P7" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="24">
+        <v>0</v>
+      </c>
+      <c r="R7" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
+      <c r="A8" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="C8" s="29">
+        <v>0</v>
+      </c>
+      <c r="D8" s="29">
+        <v>0</v>
+      </c>
+      <c r="E8" s="29">
+        <v>0</v>
+      </c>
+      <c r="F8" s="29">
+        <v>0</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0</v>
+      </c>
+      <c r="I8" s="29">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29">
+        <v>0</v>
+      </c>
+      <c r="K8" s="29">
+        <v>0</v>
+      </c>
+      <c r="L8" s="29">
+        <v>0</v>
+      </c>
+      <c r="M8" s="29">
+        <v>0</v>
+      </c>
+      <c r="N8" s="29">
+        <v>1</v>
+      </c>
+      <c r="O8" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -8721,29 +11716,29 @@
         <v>0</v>
       </c>
       <c r="H9" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="6">
         <v>0</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
@@ -8761,84 +11756,144 @@
         <v>0</v>
       </c>
       <c r="H10" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="6">
         <v>1</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="K10" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
+      <c r="K10" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
+      <c r="A11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
       <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
+      <c r="A12" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
       <c r="T12" s="10"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
+      <c r="A13" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -8959,24 +12014,27 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
+      <c r="T19" s="10"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
+      <c r="A20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="T20" s="10"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -8996,7 +12054,6 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
-      <c r="T21" s="10"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C22" s="12"/>
@@ -9018,7 +12075,6 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -9038,25 +12094,22 @@
       <c r="T23" s="10"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="T24" s="10"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
@@ -9165,6 +12218,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -9185,6 +12239,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -9401,17 +12456,59 @@
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
+      <c r="T41" s="10"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="T42" s="10"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="O8:R8"/>
     <mergeCell ref="C4:R4"/>
-    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="K11:R11"/>
     <mergeCell ref="K9:R9"/>
-    <mergeCell ref="K7:R7"/>
-    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="K12:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/doc/RiscyInstSet32Bit.xlsx
+++ b/doc/RiscyInstSet32Bit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="12690" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Terra" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="349">
   <si>
     <t>Description</t>
   </si>
@@ -1068,6 +1068,15 @@
   </si>
   <si>
     <t>Unconditionally decrement program counter</t>
+  </si>
+  <si>
+    <t>Reg: 0-pc, 1-sp, 2-lr</t>
+  </si>
+  <si>
+    <t>Special Register MOV (SMOV)</t>
+  </si>
+  <si>
+    <t>SpReg</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1284,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="6" applyFont="1"/>
@@ -1422,6 +1431,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Explanatory Text" xfId="7" builtinId="53" customBuiltin="1"/>
@@ -1709,10 +1721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL49"/>
+  <dimension ref="A1:AL50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2127,7 +2139,7 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="7" t="s">
         <v>304</v>
       </c>
@@ -2214,7 +2226,7 @@
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="7" t="s">
         <v>89</v>
       </c>
@@ -2303,27 +2315,25 @@
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>129</v>
+      <c r="A12" s="56"/>
+      <c r="B12" s="34" t="s">
+        <v>347</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="12">
+      <c r="G12" s="31">
+        <v>0</v>
+      </c>
+      <c r="H12" s="31">
+        <v>0</v>
+      </c>
+      <c r="I12" s="31">
+        <v>0</v>
+      </c>
+      <c r="J12" s="31">
         <v>0</v>
       </c>
       <c r="K12" s="44" t="s">
@@ -2332,74 +2342,63 @@
       <c r="L12" s="44"/>
       <c r="M12" s="44"/>
       <c r="N12" s="44" t="s">
-        <v>10</v>
+        <v>348</v>
       </c>
       <c r="O12" s="44"/>
       <c r="P12" s="44"/>
-      <c r="Q12" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="6">
-        <v>0</v>
-      </c>
-      <c r="U12" s="6">
-        <v>0</v>
-      </c>
-      <c r="V12" s="6">
-        <v>0</v>
-      </c>
-      <c r="W12" s="6">
-        <v>0</v>
-      </c>
-      <c r="X12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="22" t="s">
-        <v>86</v>
-      </c>
+      <c r="Q12" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="33">
+        <v>0</v>
+      </c>
+      <c r="U12" s="29">
+        <v>0</v>
+      </c>
+      <c r="V12" s="29">
+        <v>0</v>
+      </c>
+      <c r="W12" s="29">
+        <v>0</v>
+      </c>
+      <c r="X12" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="29">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="47"/>
+      <c r="AG12" s="47"/>
+      <c r="AH12" s="47"/>
+      <c r="AI12" s="47"/>
       <c r="AK12" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AL12" s="2" t="s">
-        <v>170</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>4</v>
@@ -2429,20 +2428,28 @@
       <c r="O13" s="44"/>
       <c r="P13" s="44"/>
       <c r="Q13" s="44" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="R13" s="44"/>
       <c r="S13" s="44"/>
-      <c r="T13" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
+      <c r="T13" s="6">
+        <v>0</v>
+      </c>
+      <c r="U13" s="6">
+        <v>0</v>
+      </c>
+      <c r="V13" s="6">
+        <v>0</v>
+      </c>
+      <c r="W13" s="6">
+        <v>0</v>
+      </c>
+      <c r="X13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>0</v>
+      </c>
       <c r="Z13" s="6">
         <v>0</v>
       </c>
@@ -2462,27 +2469,28 @@
         <v>0</v>
       </c>
       <c r="AF13" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="AK13" s="10" t="s">
-        <v>172</v>
+        <v>179</v>
+      </c>
+      <c r="AL13" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>4</v>
@@ -2499,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="44" t="s">
         <v>6</v>
@@ -2511,33 +2519,21 @@
       </c>
       <c r="O14" s="44"/>
       <c r="P14" s="44"/>
-      <c r="Q14" s="6">
-        <v>0</v>
-      </c>
-      <c r="R14" s="6">
-        <v>0</v>
-      </c>
-      <c r="S14" s="6">
-        <v>0</v>
-      </c>
-      <c r="T14" s="6">
-        <v>0</v>
-      </c>
-      <c r="U14" s="6">
-        <v>0</v>
-      </c>
-      <c r="V14" s="6">
-        <v>0</v>
-      </c>
-      <c r="W14" s="6">
-        <v>0</v>
-      </c>
-      <c r="X14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="6">
-        <v>0</v>
-      </c>
+      <c r="Q14" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
       <c r="Z14" s="6">
         <v>0</v>
       </c>
@@ -2548,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="6">
         <v>0</v>
@@ -2557,27 +2553,27 @@
         <v>0</v>
       </c>
       <c r="AF14" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" s="6">
         <v>0</v>
       </c>
-      <c r="AH14" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="AI14" s="22" t="s">
-        <v>100</v>
+      <c r="AH14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="6">
+        <v>0</v>
       </c>
       <c r="AK14" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="40">
-        <v>2</v>
+      <c r="A15">
+        <v>4</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D15" s="42" t="s">
         <v>4</v>
@@ -2602,7 +2598,7 @@
       <c r="L15" s="44"/>
       <c r="M15" s="44"/>
       <c r="N15" s="44" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="O15" s="44"/>
       <c r="P15" s="44"/>
@@ -2610,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="R15" s="6">
-        <v>1</v>
-      </c>
-      <c r="S15" s="22" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="S15" s="6">
+        <v>0</v>
       </c>
       <c r="T15" s="6">
         <v>0</v>
@@ -2639,24 +2635,40 @@
       <c r="AA15" s="6">
         <v>0</v>
       </c>
-      <c r="AB15" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
-      <c r="AG15" s="44"/>
-      <c r="AH15" s="44"/>
-      <c r="AI15" s="44"/>
+      <c r="AB15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI15" s="22" t="s">
+        <v>100</v>
+      </c>
       <c r="AK15" s="10" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="40">
+        <v>2</v>
+      </c>
       <c r="B16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>4</v>
@@ -2686,25 +2698,41 @@
       <c r="O16" s="44"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="T16" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="44"/>
+      <c r="T16" s="6">
+        <v>0</v>
+      </c>
+      <c r="U16" s="6">
+        <v>0</v>
+      </c>
+      <c r="V16" s="6">
+        <v>0</v>
+      </c>
+      <c r="W16" s="6">
+        <v>0</v>
+      </c>
+      <c r="X16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="44" t="s">
+        <v>155</v>
+      </c>
       <c r="AC16" s="44"/>
       <c r="AD16" s="44"/>
       <c r="AE16" s="44"/>
@@ -2719,7 +2747,7 @@
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D17" s="42" t="s">
         <v>4</v>
@@ -2752,13 +2780,13 @@
         <v>1</v>
       </c>
       <c r="R17" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="22" t="s">
         <v>9</v>
       </c>
       <c r="T17" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U17" s="44"/>
       <c r="V17" s="44"/>
@@ -2776,13 +2804,13 @@
       <c r="AH17" s="44"/>
       <c r="AI17" s="44"/>
       <c r="AK17" s="10" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D18" s="42" t="s">
         <v>4</v>
@@ -2796,10 +2824,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="12">
-        <v>1</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>86</v>
+        <v>0</v>
+      </c>
+      <c r="J18" s="12">
+        <v>1</v>
       </c>
       <c r="K18" s="44" t="s">
         <v>6</v>
@@ -2807,14 +2835,22 @@
       <c r="L18" s="44"/>
       <c r="M18" s="44"/>
       <c r="N18" s="44" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="O18" s="44"/>
       <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
+      <c r="Q18" s="6">
+        <v>1</v>
+      </c>
+      <c r="R18" s="6">
+        <v>1</v>
+      </c>
+      <c r="S18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="T18" s="44" t="s">
+        <v>154</v>
+      </c>
       <c r="U18" s="44"/>
       <c r="V18" s="44"/>
       <c r="W18" s="44"/>
@@ -2831,15 +2867,13 @@
       <c r="AH18" s="44"/>
       <c r="AI18" s="44"/>
       <c r="AK18" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>5</v>
-      </c>
+      <c r="A19" s="40"/>
       <c r="B19" s="7" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>4</v>
@@ -2850,10 +2884,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="12">
-        <v>1</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <v>1</v>
       </c>
       <c r="J19" s="12" t="s">
         <v>86</v>
@@ -2864,7 +2898,7 @@
       <c r="L19" s="44"/>
       <c r="M19" s="44"/>
       <c r="N19" s="44" t="s">
-        <v>177</v>
+        <v>5</v>
       </c>
       <c r="O19" s="44"/>
       <c r="P19" s="44"/>
@@ -2888,15 +2922,15 @@
       <c r="AH19" s="44"/>
       <c r="AI19" s="44"/>
       <c r="AK19" s="10" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>290</v>
+        <v>8</v>
       </c>
       <c r="D20" s="42" t="s">
         <v>4</v>
@@ -2904,24 +2938,24 @@
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
       <c r="G20" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="12">
-        <v>0</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0</v>
-      </c>
-      <c r="J20" s="12">
-        <v>0</v>
-      </c>
-      <c r="K20" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
       <c r="N20" s="44" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="O20" s="44"/>
       <c r="P20" s="44"/>
@@ -2945,58 +2979,50 @@
       <c r="AH20" s="44"/>
       <c r="AI20" s="44"/>
       <c r="AK20" s="10" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="D21" s="42" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="42"/>
       <c r="F21" s="42"/>
-      <c r="G21" s="24">
-        <v>1</v>
-      </c>
-      <c r="H21" s="25">
-        <v>0</v>
-      </c>
-      <c r="I21" s="25">
-        <v>0</v>
-      </c>
-      <c r="J21" s="25">
-        <v>1</v>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
       </c>
       <c r="K21" s="45" t="s">
         <v>158</v>
       </c>
       <c r="L21" s="45"/>
       <c r="M21" s="45"/>
-      <c r="N21" s="25">
-        <v>0</v>
-      </c>
-      <c r="O21" s="25">
-        <v>0</v>
-      </c>
-      <c r="P21" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="44" t="s">
-        <v>252</v>
-      </c>
+      <c r="N21" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
       <c r="X21" s="44"/>
       <c r="Y21" s="44"/>
       <c r="Z21" s="44"/>
@@ -3010,15 +3036,15 @@
       <c r="AH21" s="44"/>
       <c r="AI21" s="44"/>
       <c r="AK21" s="10" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>4</v>
@@ -3037,11 +3063,11 @@
       <c r="J22" s="25">
         <v>1</v>
       </c>
-      <c r="K22" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
+      <c r="K22" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
       <c r="N22" s="25">
         <v>0</v>
       </c>
@@ -3049,44 +3075,24 @@
         <v>0</v>
       </c>
       <c r="P22" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="25">
-        <v>0</v>
-      </c>
-      <c r="R22" s="25">
-        <v>0</v>
-      </c>
-      <c r="S22" s="24">
-        <v>0</v>
-      </c>
-      <c r="T22" s="24">
-        <v>0</v>
-      </c>
-      <c r="U22" s="24">
-        <v>0</v>
-      </c>
-      <c r="V22" s="24">
-        <v>0</v>
-      </c>
-      <c r="W22" s="24">
-        <v>0</v>
-      </c>
-      <c r="X22" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="44" t="s">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
       <c r="AC22" s="44"/>
       <c r="AD22" s="44"/>
       <c r="AE22" s="44"/>
@@ -3095,82 +3101,82 @@
       <c r="AH22" s="44"/>
       <c r="AI22" s="44"/>
       <c r="AK22" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>84</v>
+        <v>258</v>
       </c>
       <c r="D23" s="42" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
-      <c r="G23" s="6">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6">
-        <v>1</v>
-      </c>
-      <c r="J23" s="6">
-        <v>1</v>
-      </c>
-      <c r="K23" s="44" t="s">
+      <c r="G23" s="24">
+        <v>1</v>
+      </c>
+      <c r="H23" s="25">
+        <v>0</v>
+      </c>
+      <c r="I23" s="25">
+        <v>0</v>
+      </c>
+      <c r="J23" s="25">
+        <v>1</v>
+      </c>
+      <c r="K23" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="6">
-        <v>0</v>
-      </c>
-      <c r="O23" s="6">
-        <v>0</v>
-      </c>
-      <c r="P23" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>0</v>
-      </c>
-      <c r="R23" s="6">
-        <v>0</v>
-      </c>
-      <c r="S23" s="6">
-        <v>0</v>
-      </c>
-      <c r="T23" s="6">
-        <v>0</v>
-      </c>
-      <c r="U23" s="6">
-        <v>0</v>
-      </c>
-      <c r="V23" s="6">
-        <v>0</v>
-      </c>
-      <c r="W23" s="6">
-        <v>0</v>
-      </c>
-      <c r="X23" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="6">
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="25">
+        <v>0</v>
+      </c>
+      <c r="O23" s="25">
+        <v>0</v>
+      </c>
+      <c r="P23" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="25">
+        <v>0</v>
+      </c>
+      <c r="R23" s="25">
+        <v>0</v>
+      </c>
+      <c r="S23" s="24">
+        <v>0</v>
+      </c>
+      <c r="T23" s="24">
+        <v>0</v>
+      </c>
+      <c r="U23" s="24">
+        <v>0</v>
+      </c>
+      <c r="V23" s="24">
+        <v>0</v>
+      </c>
+      <c r="W23" s="24">
+        <v>0</v>
+      </c>
+      <c r="X23" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="24">
         <v>0</v>
       </c>
       <c r="AB23" s="44" t="s">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="AC23" s="44"/>
       <c r="AD23" s="44"/>
@@ -3180,15 +3186,15 @@
       <c r="AH23" s="44"/>
       <c r="AI23" s="44"/>
       <c r="AK23" s="10" t="s">
-        <v>85</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D24" s="42" t="s">
         <v>4</v>
@@ -3252,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="44" t="s">
         <v>83</v>
@@ -3265,15 +3271,15 @@
       <c r="AH24" s="44"/>
       <c r="AI24" s="44"/>
       <c r="AK24" s="10" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>4</v>
@@ -3339,38 +3345,26 @@
       <c r="AA25" s="6">
         <v>1</v>
       </c>
-      <c r="AB25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AF25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="10"/>
+      <c r="AB25" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="44"/>
+      <c r="AH25" s="44"/>
+      <c r="AI25" s="44"/>
+      <c r="AK25" s="10" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D26" s="42" t="s">
         <v>4</v>
@@ -3389,104 +3383,164 @@
       <c r="J26" s="6">
         <v>1</v>
       </c>
-      <c r="K26" s="6">
-        <v>1</v>
-      </c>
-      <c r="L26" s="6">
-        <v>1</v>
-      </c>
-      <c r="M26" s="6">
-        <v>1</v>
-      </c>
+      <c r="K26" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
       <c r="N26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="6">
         <v>1</v>
       </c>
-      <c r="AB26" s="44" t="s">
+      <c r="AB26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="10"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="44"/>
-      <c r="AF26" s="44"/>
-      <c r="AG26" s="44"/>
-      <c r="AH26" s="44"/>
-      <c r="AI26" s="44"/>
-    </row>
-    <row r="33" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="6"/>
-      <c r="AE33" s="6"/>
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="6"/>
-      <c r="AH33" s="6"/>
-      <c r="AI33" s="6"/>
-      <c r="AK33" s="10"/>
+      <c r="D27" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1</v>
+      </c>
+      <c r="J27" s="6">
+        <v>1</v>
+      </c>
+      <c r="K27" s="6">
+        <v>1</v>
+      </c>
+      <c r="L27" s="6">
+        <v>1</v>
+      </c>
+      <c r="M27" s="6">
+        <v>1</v>
+      </c>
+      <c r="N27" s="6">
+        <v>1</v>
+      </c>
+      <c r="O27" s="6">
+        <v>1</v>
+      </c>
+      <c r="P27" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>1</v>
+      </c>
+      <c r="R27" s="6">
+        <v>1</v>
+      </c>
+      <c r="S27" s="6">
+        <v>1</v>
+      </c>
+      <c r="T27" s="6">
+        <v>1</v>
+      </c>
+      <c r="U27" s="6">
+        <v>1</v>
+      </c>
+      <c r="V27" s="6">
+        <v>1</v>
+      </c>
+      <c r="W27" s="6">
+        <v>1</v>
+      </c>
+      <c r="X27" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="44"/>
+      <c r="AF27" s="44"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="44"/>
+      <c r="AI27" s="44"/>
     </row>
     <row r="34" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
@@ -3601,6 +3655,7 @@
     </row>
     <row r="37" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -4029,78 +4084,119 @@
       <c r="AG48" s="6"/>
       <c r="AH48" s="6"/>
       <c r="AI48" s="6"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="AK48" s="10"/>
+    </row>
+    <row r="49" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="6"/>
+      <c r="AH49" s="6"/>
+      <c r="AI49" s="6"/>
+    </row>
+    <row r="50" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B50" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D23:F23"/>
+  <mergeCells count="71">
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D21:F21"/>
     <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
     <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D13:F13"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="AB26:AI26"/>
-    <mergeCell ref="N18:AI18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="N20:AI20"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="AB27:AI27"/>
     <mergeCell ref="N19:AI19"/>
     <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="T17:AI17"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="AB24:AI24"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="AB23:AI23"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:S10"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="AB15:AI15"/>
-    <mergeCell ref="K17:M17"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="N21:AI21"/>
+    <mergeCell ref="N20:AI20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="T18:AI18"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="AB25:AI25"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="AB24:AI24"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:S10"/>
+    <mergeCell ref="N15:P15"/>
     <mergeCell ref="K16:M16"/>
-    <mergeCell ref="T16:AI16"/>
+    <mergeCell ref="AB16:AI16"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="T17:AI17"/>
     <mergeCell ref="K11:M11"/>
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="Q21:V21"/>
-    <mergeCell ref="W21:AI21"/>
-    <mergeCell ref="AB22:AI22"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="Q22:V22"/>
+    <mergeCell ref="W22:AI22"/>
+    <mergeCell ref="AB23:AI23"/>
+    <mergeCell ref="K23:M23"/>
     <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K21:M21"/>
     <mergeCell ref="AD9:AI9"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="N9:P9"/>
     <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="W14:Y14"/>
     <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6817,7 +6913,7 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8781,7 +8877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>

--- a/doc/RiscyInstSet32Bit.xlsx
+++ b/doc/RiscyInstSet32Bit.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="12690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="12690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Terra" sheetId="1" r:id="rId1"/>
     <sheet name="Summary - FlowerPot" sheetId="8" r:id="rId2"/>
-    <sheet name="Chapter 1. Math Opcodes" sheetId="2" r:id="rId3"/>
-    <sheet name="Instructions" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
-    <sheet name="BIOS Call" sheetId="4" r:id="rId6"/>
-    <sheet name="StdGrAd Call" sheetId="5" r:id="rId7"/>
+    <sheet name="Tera-Math" sheetId="2" r:id="rId3"/>
+    <sheet name="FlowerPot-TinyMath" sheetId="9" r:id="rId4"/>
+    <sheet name="Tera&amp;FlowerPot-Instructions" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
+    <sheet name="BIOS Call" sheetId="4" r:id="rId7"/>
+    <sheet name="StdGrAd Call" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="360">
   <si>
     <t>Description</t>
   </si>
@@ -74,9 +75,6 @@
     <t>Opcode</t>
   </si>
   <si>
-    <t>MathOpcode*</t>
-  </si>
-  <si>
     <t>Number of Registers</t>
   </si>
   <si>
@@ -965,18 +963,6 @@
     <t>TerranVM FlowerPot Insturction Set</t>
   </si>
   <si>
-    <t>16 Bits</t>
-  </si>
-  <si>
-    <t>8 Bits</t>
-  </si>
-  <si>
-    <t>1 MB</t>
-  </si>
-  <si>
-    <t>4 General, 4 Special</t>
-  </si>
-  <si>
     <t>Offset (address = 2 * offset)</t>
   </si>
   <si>
@@ -1070,13 +1056,61 @@
     <t>Unconditionally decrement program counter</t>
   </si>
   <si>
-    <t>Reg: 0-pc, 1-sp, 2-lr</t>
-  </si>
-  <si>
     <t>Special Register MOV (SMOV)</t>
   </si>
   <si>
     <t>SpReg</t>
+  </si>
+  <si>
+    <t>Reg: 0-pc, 1-sp, 2-lr; operation is read-only</t>
+  </si>
+  <si>
+    <t>n/c</t>
+  </si>
+  <si>
+    <t>Math*</t>
+  </si>
+  <si>
+    <t>TinyMath*</t>
+  </si>
+  <si>
+    <t>Load and Store byte to memory</t>
+  </si>
+  <si>
+    <t>512 Bytes</t>
+  </si>
+  <si>
+    <t>Rlow</t>
+  </si>
+  <si>
+    <t>M: Use Rhigh (high 8 bits of the RTC)</t>
+  </si>
+  <si>
+    <t>Reset internal timer</t>
+  </si>
+  <si>
+    <t>Rhigh*</t>
+  </si>
+  <si>
+    <t>Set internal timer to 0000h</t>
+  </si>
+  <si>
+    <t>Load internal timer to register</t>
+  </si>
+  <si>
+    <t>Write to internal timer</t>
+  </si>
+  <si>
+    <t>Rhigh: ignored when M is 0</t>
+  </si>
+  <si>
+    <t>16 bits</t>
+  </si>
+  <si>
+    <t>8 bits</t>
+  </si>
+  <si>
+    <t>4 general, 4 special 1 16-bit timer</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1318,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="6" applyFont="1"/>
@@ -1361,9 +1395,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1427,12 +1458,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1723,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13:P13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,7 +1770,7 @@
   <sheetData>
     <row r="1" spans="1:38" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1780,7 +1810,7 @@
     <row r="2" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
@@ -1822,8 +1852,8 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
-        <v>307</v>
+      <c r="B4" s="33" t="s">
+        <v>306</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
@@ -1860,14 +1890,17 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
+      <c r="AK4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1901,12 +1934,12 @@
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AK5" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -1944,17 +1977,12 @@
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
       <c r="AK6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="AK7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>0</v>
@@ -2058,17 +2086,17 @@
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
+      <c r="A9" s="40">
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="11">
         <v>0</v>
       </c>
@@ -2081,21 +2109,21 @@
       <c r="J9" s="11">
         <v>0</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46" t="s">
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46" t="s">
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
       <c r="T9" s="12">
         <v>0</v>
       </c>
@@ -2126,28 +2154,28 @@
       <c r="AC9" s="6">
         <v>0</v>
       </c>
-      <c r="AD9" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="46"/>
-      <c r="AG9" s="46"/>
-      <c r="AH9" s="46"/>
-      <c r="AI9" s="46"/>
+      <c r="AD9" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
       <c r="AK9" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="D10" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="18">
         <v>0</v>
       </c>
@@ -2160,19 +2188,19 @@
       <c r="J10" s="18">
         <v>0</v>
       </c>
-      <c r="K10" s="43" t="s">
+      <c r="K10" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
       <c r="T10" s="12">
         <v>0</v>
       </c>
@@ -2222,19 +2250,19 @@
         <v>9</v>
       </c>
       <c r="AK10" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="18">
         <v>0</v>
       </c>
@@ -2247,21 +2275,21 @@
       <c r="J11" s="18">
         <v>0</v>
       </c>
-      <c r="K11" s="47" t="s">
+      <c r="K11" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47" t="s">
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
       <c r="T11" s="12">
         <v>0</v>
       </c>
@@ -2311,19 +2339,19 @@
         <v>0</v>
       </c>
       <c r="AK11" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="34" t="s">
-        <v>347</v>
-      </c>
-      <c r="D12" s="42" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="D12" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="31">
         <v>0</v>
       </c>
@@ -2336,22 +2364,22 @@
       <c r="J12" s="31">
         <v>0</v>
       </c>
-      <c r="K12" s="44" t="s">
+      <c r="K12" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44" t="s">
-        <v>348</v>
-      </c>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="33">
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="32">
         <v>0</v>
       </c>
       <c r="U12" s="29">
@@ -2381,16 +2409,16 @@
       <c r="AC12" s="29">
         <v>0</v>
       </c>
-      <c r="AD12" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="47"/>
-      <c r="AG12" s="47"/>
-      <c r="AH12" s="47"/>
-      <c r="AI12" s="47"/>
+      <c r="AD12" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="46"/>
       <c r="AK12" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
@@ -2398,13 +2426,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="6">
         <v>0</v>
       </c>
@@ -2417,21 +2445,21 @@
       <c r="J13" s="12">
         <v>0</v>
       </c>
-      <c r="K13" s="44" t="s">
+      <c r="K13" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44" t="s">
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
       <c r="T13" s="6">
         <v>0</v>
       </c>
@@ -2471,18 +2499,18 @@
       <c r="AF13" s="6">
         <v>0</v>
       </c>
-      <c r="AG13" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH13" s="42"/>
+      <c r="AG13" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH13" s="41"/>
       <c r="AI13" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AK13" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL13" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
@@ -2490,13 +2518,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="6">
         <v>0</v>
       </c>
@@ -2509,31 +2537,31 @@
       <c r="J14" s="12">
         <v>0</v>
       </c>
-      <c r="K14" s="44" t="s">
+      <c r="K14" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44" t="s">
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44" t="s">
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
       <c r="Z14" s="6">
         <v>0</v>
       </c>
@@ -2565,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
@@ -2573,13 +2601,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="6">
         <v>0</v>
       </c>
@@ -2592,16 +2620,16 @@
       <c r="J15" s="12">
         <v>1</v>
       </c>
-      <c r="K15" s="44" t="s">
+      <c r="K15" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44" t="s">
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
       <c r="Q15" s="6">
         <v>0</v>
       </c>
@@ -2654,27 +2682,27 @@
         <v>0</v>
       </c>
       <c r="AH15" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI15" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK15" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="AI15" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK15" s="10" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="40">
+      <c r="A16" s="39">
         <v>2</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="6">
         <v>0</v>
       </c>
@@ -2687,16 +2715,16 @@
       <c r="J16" s="12">
         <v>1</v>
       </c>
-      <c r="K16" s="44" t="s">
+      <c r="K16" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
       <c r="Q16" s="6">
         <v>0</v>
       </c>
@@ -2730,30 +2758,30 @@
       <c r="AA16" s="6">
         <v>0</v>
       </c>
-      <c r="AB16" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC16" s="44"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="44"/>
-      <c r="AF16" s="44"/>
-      <c r="AG16" s="44"/>
-      <c r="AH16" s="44"/>
-      <c r="AI16" s="44"/>
+      <c r="AB16" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC16" s="43"/>
+      <c r="AD16" s="43"/>
+      <c r="AE16" s="43"/>
+      <c r="AF16" s="43"/>
+      <c r="AG16" s="43"/>
+      <c r="AH16" s="43"/>
+      <c r="AI16" s="43"/>
       <c r="AK16" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="7" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="6">
         <v>0</v>
       </c>
@@ -2766,16 +2794,16 @@
       <c r="J17" s="12">
         <v>1</v>
       </c>
-      <c r="K17" s="44" t="s">
+      <c r="K17" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
       <c r="Q17" s="6">
         <v>1</v>
       </c>
@@ -2785,38 +2813,38 @@
       <c r="S17" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="T17" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="44"/>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="44"/>
-      <c r="AF17" s="44"/>
-      <c r="AG17" s="44"/>
-      <c r="AH17" s="44"/>
-      <c r="AI17" s="44"/>
+      <c r="T17" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="43"/>
+      <c r="AE17" s="43"/>
+      <c r="AF17" s="43"/>
+      <c r="AG17" s="43"/>
+      <c r="AH17" s="43"/>
+      <c r="AI17" s="43"/>
       <c r="AK17" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="6">
         <v>0</v>
       </c>
@@ -2829,16 +2857,16 @@
       <c r="J18" s="12">
         <v>1</v>
       </c>
-      <c r="K18" s="44" t="s">
+      <c r="K18" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
       <c r="Q18" s="6">
         <v>1</v>
       </c>
@@ -2848,81 +2876,81 @@
       <c r="S18" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="T18" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="44"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="44"/>
-      <c r="AF18" s="44"/>
-      <c r="AG18" s="44"/>
-      <c r="AH18" s="44"/>
-      <c r="AI18" s="44"/>
+      <c r="T18" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="43"/>
+      <c r="AC18" s="43"/>
+      <c r="AD18" s="43"/>
+      <c r="AE18" s="43"/>
+      <c r="AF18" s="43"/>
+      <c r="AG18" s="43"/>
+      <c r="AH18" s="43"/>
+      <c r="AI18" s="43"/>
       <c r="AK18" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <v>1</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="43"/>
+      <c r="AC19" s="43"/>
+      <c r="AD19" s="43"/>
+      <c r="AE19" s="43"/>
+      <c r="AF19" s="43"/>
+      <c r="AG19" s="43"/>
+      <c r="AH19" s="43"/>
+      <c r="AI19" s="43"/>
+      <c r="AK19" s="10" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12">
-        <v>1</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="44"/>
-      <c r="AC19" s="44"/>
-      <c r="AD19" s="44"/>
-      <c r="AE19" s="44"/>
-      <c r="AF19" s="44"/>
-      <c r="AG19" s="44"/>
-      <c r="AH19" s="44"/>
-      <c r="AI19" s="44"/>
-      <c r="AK19" s="10" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
@@ -2932,11 +2960,11 @@
       <c r="B20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="6">
         <v>0</v>
       </c>
@@ -2947,39 +2975,39 @@
         <v>9</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="44"/>
-      <c r="AF20" s="44"/>
-      <c r="AG20" s="44"/>
-      <c r="AH20" s="44"/>
-      <c r="AI20" s="44"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="43"/>
+      <c r="AC20" s="43"/>
+      <c r="AD20" s="43"/>
+      <c r="AE20" s="43"/>
+      <c r="AF20" s="43"/>
+      <c r="AG20" s="43"/>
+      <c r="AH20" s="43"/>
+      <c r="AI20" s="43"/>
       <c r="AK20" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
@@ -2987,13 +3015,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D21" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="D21" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="6">
         <v>1</v>
       </c>
@@ -3006,37 +3034,37 @@
       <c r="J21" s="12">
         <v>0</v>
       </c>
-      <c r="K21" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="44" t="s">
+      <c r="K21" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="44"/>
-      <c r="AF21" s="44"/>
-      <c r="AG21" s="44"/>
-      <c r="AH21" s="44"/>
-      <c r="AI21" s="44"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="43"/>
+      <c r="AF21" s="43"/>
+      <c r="AG21" s="43"/>
+      <c r="AH21" s="43"/>
+      <c r="AI21" s="43"/>
       <c r="AK21" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
@@ -3044,64 +3072,64 @@
         <v>7</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="24">
+        <v>1</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0</v>
+      </c>
+      <c r="I22" s="25">
+        <v>0</v>
+      </c>
+      <c r="J22" s="25">
+        <v>1</v>
+      </c>
+      <c r="K22" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="25">
+        <v>0</v>
+      </c>
+      <c r="O22" s="25">
+        <v>0</v>
+      </c>
+      <c r="P22" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="D22" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="24">
-        <v>1</v>
-      </c>
-      <c r="H22" s="25">
-        <v>0</v>
-      </c>
-      <c r="I22" s="25">
-        <v>0</v>
-      </c>
-      <c r="J22" s="25">
-        <v>1</v>
-      </c>
-      <c r="K22" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="25">
-        <v>0</v>
-      </c>
-      <c r="O22" s="25">
-        <v>0</v>
-      </c>
-      <c r="P22" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="44"/>
-      <c r="AF22" s="44"/>
-      <c r="AG22" s="44"/>
-      <c r="AH22" s="44"/>
-      <c r="AI22" s="44"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="43"/>
+      <c r="AE22" s="43"/>
+      <c r="AF22" s="43"/>
+      <c r="AG22" s="43"/>
+      <c r="AH22" s="43"/>
+      <c r="AI22" s="43"/>
       <c r="AK22" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
@@ -3109,13 +3137,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D23" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="D23" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="24">
         <v>1</v>
       </c>
@@ -3128,11 +3156,11 @@
       <c r="J23" s="25">
         <v>1</v>
       </c>
-      <c r="K23" s="43" t="s">
+      <c r="K23" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
       <c r="N23" s="25">
         <v>0</v>
       </c>
@@ -3175,18 +3203,18 @@
       <c r="AA23" s="24">
         <v>0</v>
       </c>
-      <c r="AB23" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="44"/>
-      <c r="AH23" s="44"/>
-      <c r="AI23" s="44"/>
+      <c r="AB23" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="43"/>
+      <c r="AH23" s="43"/>
+      <c r="AI23" s="43"/>
       <c r="AK23" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
@@ -3194,84 +3222,84 @@
         <v>9</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6">
+        <v>1</v>
+      </c>
+      <c r="K24" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0</v>
+      </c>
+      <c r="R24" s="6">
+        <v>0</v>
+      </c>
+      <c r="S24" s="6">
+        <v>0</v>
+      </c>
+      <c r="T24" s="6">
+        <v>0</v>
+      </c>
+      <c r="U24" s="6">
+        <v>0</v>
+      </c>
+      <c r="V24" s="6">
+        <v>0</v>
+      </c>
+      <c r="W24" s="6">
+        <v>0</v>
+      </c>
+      <c r="X24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC24" s="43"/>
+      <c r="AD24" s="43"/>
+      <c r="AE24" s="43"/>
+      <c r="AF24" s="43"/>
+      <c r="AG24" s="43"/>
+      <c r="AH24" s="43"/>
+      <c r="AI24" s="43"/>
+      <c r="AK24" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="6">
-        <v>1</v>
-      </c>
-      <c r="H24" s="6">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6">
-        <v>1</v>
-      </c>
-      <c r="J24" s="6">
-        <v>1</v>
-      </c>
-      <c r="K24" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="6">
-        <v>0</v>
-      </c>
-      <c r="O24" s="6">
-        <v>0</v>
-      </c>
-      <c r="P24" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>0</v>
-      </c>
-      <c r="R24" s="6">
-        <v>0</v>
-      </c>
-      <c r="S24" s="6">
-        <v>0</v>
-      </c>
-      <c r="T24" s="6">
-        <v>0</v>
-      </c>
-      <c r="U24" s="6">
-        <v>0</v>
-      </c>
-      <c r="V24" s="6">
-        <v>0</v>
-      </c>
-      <c r="W24" s="6">
-        <v>0</v>
-      </c>
-      <c r="X24" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="44"/>
-      <c r="AF24" s="44"/>
-      <c r="AG24" s="44"/>
-      <c r="AH24" s="44"/>
-      <c r="AI24" s="44"/>
-      <c r="AK24" s="10" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
@@ -3279,13 +3307,13 @@
         <v>10</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="6">
         <v>1</v>
       </c>
@@ -3298,11 +3326,11 @@
       <c r="J25" s="6">
         <v>1</v>
       </c>
-      <c r="K25" s="44" t="s">
+      <c r="K25" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
       <c r="N25" s="6">
         <v>0</v>
       </c>
@@ -3345,18 +3373,18 @@
       <c r="AA25" s="6">
         <v>1</v>
       </c>
-      <c r="AB25" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="44"/>
-      <c r="AE25" s="44"/>
-      <c r="AF25" s="44"/>
-      <c r="AG25" s="44"/>
-      <c r="AH25" s="44"/>
-      <c r="AI25" s="44"/>
+      <c r="AB25" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="43"/>
+      <c r="AE25" s="43"/>
+      <c r="AF25" s="43"/>
+      <c r="AG25" s="43"/>
+      <c r="AH25" s="43"/>
+      <c r="AI25" s="43"/>
       <c r="AK25" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
@@ -3364,13 +3392,13 @@
         <v>11</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="6">
         <v>1</v>
       </c>
@@ -3383,11 +3411,11 @@
       <c r="J26" s="6">
         <v>1</v>
       </c>
-      <c r="K26" s="44" t="s">
+      <c r="K26" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="6">
         <v>0</v>
       </c>
@@ -3461,13 +3489,13 @@
         <v>12</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
       <c r="G27" s="6">
         <v>1</v>
       </c>
@@ -3531,16 +3559,16 @@
       <c r="AA27" s="6">
         <v>1</v>
       </c>
-      <c r="AB27" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="44"/>
-      <c r="AF27" s="44"/>
-      <c r="AG27" s="44"/>
-      <c r="AH27" s="44"/>
-      <c r="AI27" s="44"/>
+      <c r="AB27" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC27" s="43"/>
+      <c r="AD27" s="43"/>
+      <c r="AE27" s="43"/>
+      <c r="AF27" s="43"/>
+      <c r="AG27" s="43"/>
+      <c r="AH27" s="43"/>
+      <c r="AI27" s="43"/>
     </row>
     <row r="34" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
@@ -4205,10 +4233,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL49"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4216,15 +4244,15 @@
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" customWidth="1"/>
     <col min="3" max="3" width="2.5703125" customWidth="1"/>
-    <col min="4" max="35" width="3.42578125" customWidth="1"/>
-    <col min="36" max="36" width="2.5703125" customWidth="1"/>
-    <col min="37" max="37" width="116.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.28515625" customWidth="1"/>
+    <col min="4" max="19" width="3.42578125" customWidth="1"/>
+    <col min="20" max="20" width="2.5703125" customWidth="1"/>
+    <col min="21" max="21" width="116.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4244,31 +4272,15 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-    </row>
-    <row r="2" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
-        <v>146</v>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="33" t="s">
+        <v>145</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -4285,33 +4297,17 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AK3" t="s">
+      <c r="U3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
-        <v>307</v>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
+        <v>306</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -4328,30 +4324,17 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
-        <v>15</v>
+      <c r="U4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="10" t="s">
-        <v>314</v>
+      <c r="D5" s="5" t="s">
+        <v>359</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4368,33 +4351,14 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AK5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
-        <v>254</v>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="33" t="s">
+        <v>253</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4411,2497 +4375,756 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AK6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="AK7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E8" s="4">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F8" s="4">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="G8" s="4">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H8" s="4">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I8" s="4">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="J8" s="4">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="K8" s="4">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="L8" s="4">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="M8" s="4">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="N8" s="4">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="O8" s="4">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="P8" s="4">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="4">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="R8" s="4">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="S8" s="4">
-        <v>16</v>
-      </c>
-      <c r="T8" s="4">
-        <v>15</v>
-      </c>
-      <c r="U8" s="4">
-        <v>14</v>
-      </c>
-      <c r="V8" s="4">
-        <v>13</v>
-      </c>
-      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="X8" s="4">
+      <c r="D9" s="29">
+        <v>0</v>
+      </c>
+      <c r="E9" s="29">
+        <v>0</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Q9" s="43"/>
+      <c r="R9" s="29">
+        <v>0</v>
+      </c>
+      <c r="S9" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="D10" s="32">
+        <v>0</v>
+      </c>
+      <c r="E10" s="32">
+        <v>0</v>
+      </c>
+      <c r="F10" s="32">
+        <v>1</v>
+      </c>
+      <c r="G10" s="32">
+        <v>0</v>
+      </c>
+      <c r="H10" s="32">
+        <v>0</v>
+      </c>
+      <c r="I10" s="32">
+        <v>0</v>
+      </c>
+      <c r="J10" s="32">
+        <v>0</v>
+      </c>
+      <c r="K10" s="32">
+        <v>0</v>
+      </c>
+      <c r="L10" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="Z8" s="4">
-        <v>9</v>
-      </c>
-      <c r="AA8" s="4">
-        <v>8</v>
-      </c>
-      <c r="AB8" s="4">
-        <v>7</v>
-      </c>
-      <c r="AC8" s="4">
+      <c r="O10" s="43"/>
+      <c r="P10" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="29">
+        <v>0</v>
+      </c>
+      <c r="R10" s="32">
+        <v>1</v>
+      </c>
+      <c r="S10" s="30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="32">
+        <v>0</v>
+      </c>
+      <c r="E11" s="32">
+        <v>0</v>
+      </c>
+      <c r="F11" s="32">
+        <v>1</v>
+      </c>
+      <c r="G11" s="32">
+        <v>0</v>
+      </c>
+      <c r="H11" s="32">
+        <v>0</v>
+      </c>
+      <c r="I11" s="32">
+        <v>0</v>
+      </c>
+      <c r="J11" s="32">
+        <v>0</v>
+      </c>
+      <c r="K11" s="32">
+        <v>0</v>
+      </c>
+      <c r="L11" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AD8" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE8" s="4">
-        <v>4</v>
-      </c>
-      <c r="AF8" s="4">
-        <v>3</v>
-      </c>
-      <c r="AG8" s="4">
-        <v>2</v>
-      </c>
-      <c r="AH8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
-        <v>1</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="32">
-        <v>0</v>
-      </c>
-      <c r="H9" s="32">
-        <v>0</v>
-      </c>
-      <c r="I9" s="32">
-        <v>0</v>
-      </c>
-      <c r="J9" s="32">
-        <v>0</v>
-      </c>
-      <c r="K9" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46" t="s">
+      <c r="M11" s="43"/>
+      <c r="N11" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="33">
-        <v>0</v>
-      </c>
-      <c r="U9" s="29">
-        <v>0</v>
-      </c>
-      <c r="V9" s="29">
-        <v>0</v>
-      </c>
-      <c r="W9" s="29">
-        <v>0</v>
-      </c>
-      <c r="X9" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="29">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="46"/>
-      <c r="AG9" s="46"/>
-      <c r="AH9" s="46"/>
-      <c r="AI9" s="46"/>
-      <c r="AK9" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="31">
-        <v>0</v>
-      </c>
-      <c r="H10" s="31">
-        <v>0</v>
-      </c>
-      <c r="I10" s="31">
-        <v>0</v>
-      </c>
-      <c r="J10" s="31">
-        <v>0</v>
-      </c>
-      <c r="K10" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="33">
-        <v>0</v>
-      </c>
-      <c r="U10" s="29">
-        <v>0</v>
-      </c>
-      <c r="V10" s="29">
-        <v>0</v>
-      </c>
-      <c r="W10" s="29">
-        <v>0</v>
-      </c>
-      <c r="X10" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="29">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="31">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="31">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="31">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="31">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="31">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK10" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="31">
-        <v>0</v>
-      </c>
-      <c r="H11" s="31">
-        <v>0</v>
-      </c>
-      <c r="I11" s="31">
-        <v>0</v>
-      </c>
-      <c r="J11" s="31">
-        <v>0</v>
-      </c>
-      <c r="K11" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="33">
-        <v>0</v>
-      </c>
-      <c r="U11" s="29">
-        <v>0</v>
-      </c>
-      <c r="V11" s="29">
-        <v>0</v>
-      </c>
-      <c r="W11" s="29">
-        <v>0</v>
-      </c>
-      <c r="X11" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="29">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="31">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="31">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="31">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="31">
-        <v>1</v>
-      </c>
-      <c r="AH11" s="31">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="33">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="O11" s="43"/>
+      <c r="P11" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="32">
+        <v>1</v>
+      </c>
+      <c r="R11" s="32">
+        <v>0</v>
+      </c>
+      <c r="S11" s="32">
+        <v>0</v>
+      </c>
+      <c r="U11" s="10"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="42" t="s">
+      <c r="B12" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="32">
+        <v>0</v>
+      </c>
+      <c r="E12" s="32">
+        <v>0</v>
+      </c>
+      <c r="F12" s="32">
+        <v>1</v>
+      </c>
+      <c r="G12" s="32">
+        <v>0</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="42"/>
+      <c r="J12" s="32">
+        <v>0</v>
+      </c>
+      <c r="K12" s="32">
+        <v>1</v>
+      </c>
+      <c r="L12" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="U12" s="10"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="32">
+        <v>0</v>
+      </c>
+      <c r="E13" s="32">
+        <v>0</v>
+      </c>
+      <c r="F13" s="32">
+        <v>1</v>
+      </c>
+      <c r="G13" s="32">
+        <v>0</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="42"/>
+      <c r="J13" s="32">
+        <v>1</v>
+      </c>
+      <c r="K13" s="32">
+        <v>0</v>
+      </c>
+      <c r="L13" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="U13" s="10"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="32">
+        <v>0</v>
+      </c>
+      <c r="E14" s="32">
+        <v>1</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="42"/>
+      <c r="J14" s="32">
+        <v>0</v>
+      </c>
+      <c r="K14" s="32">
+        <v>0</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="U14" s="10"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="D15" s="32">
+        <v>0</v>
+      </c>
+      <c r="E15" s="32">
+        <v>1</v>
+      </c>
+      <c r="F15" s="32">
+        <v>1</v>
+      </c>
+      <c r="G15" s="32">
+        <v>1</v>
+      </c>
+      <c r="H15" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="29">
-        <v>0</v>
-      </c>
-      <c r="H12" s="33">
-        <v>0</v>
-      </c>
-      <c r="I12" s="33">
-        <v>0</v>
-      </c>
-      <c r="J12" s="33">
-        <v>0</v>
-      </c>
-      <c r="K12" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="29">
-        <v>0</v>
-      </c>
-      <c r="U12" s="29">
-        <v>0</v>
-      </c>
-      <c r="V12" s="29">
-        <v>0</v>
-      </c>
-      <c r="W12" s="29">
-        <v>0</v>
-      </c>
-      <c r="X12" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="29">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="29">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="29">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="29">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK12" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AL12" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="29">
-        <v>0</v>
-      </c>
-      <c r="H13" s="33">
-        <v>0</v>
-      </c>
-      <c r="I13" s="33">
-        <v>0</v>
-      </c>
-      <c r="J13" s="33">
-        <v>0</v>
-      </c>
-      <c r="K13" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="29">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="29">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="29">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="29">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="29">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="29">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="29">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="29">
-        <v>0</v>
-      </c>
-      <c r="H14" s="33">
-        <v>0</v>
-      </c>
-      <c r="I14" s="33">
-        <v>0</v>
-      </c>
-      <c r="J14" s="33">
-        <v>1</v>
-      </c>
-      <c r="K14" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="29">
-        <v>0</v>
-      </c>
-      <c r="R14" s="29">
-        <v>0</v>
-      </c>
-      <c r="S14" s="29">
-        <v>0</v>
-      </c>
-      <c r="T14" s="29">
-        <v>0</v>
-      </c>
-      <c r="U14" s="29">
-        <v>0</v>
-      </c>
-      <c r="V14" s="29">
-        <v>0</v>
-      </c>
-      <c r="W14" s="29">
-        <v>0</v>
-      </c>
-      <c r="X14" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="29">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="29">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="29">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="29">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="29">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="AI14" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK14" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="40">
-        <v>2</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="29">
-        <v>0</v>
-      </c>
-      <c r="H15" s="33">
-        <v>0</v>
-      </c>
-      <c r="I15" s="33">
-        <v>0</v>
-      </c>
-      <c r="J15" s="33">
-        <v>1</v>
-      </c>
-      <c r="K15" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="29">
-        <v>0</v>
-      </c>
-      <c r="R15" s="29">
-        <v>1</v>
-      </c>
-      <c r="S15" s="30" t="s">
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="32">
+        <v>1</v>
+      </c>
+      <c r="L15" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="U15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
+        <v>13</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="D16" s="32">
+        <v>1</v>
+      </c>
+      <c r="E16" s="32">
+        <v>0</v>
+      </c>
+      <c r="F16" s="32">
+        <v>0</v>
+      </c>
+      <c r="G16" s="32">
+        <v>0</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="K16" s="42"/>
+      <c r="L16" s="32">
+        <v>0</v>
+      </c>
+      <c r="M16" s="32">
+        <v>0</v>
+      </c>
+      <c r="N16" s="32">
+        <v>0</v>
+      </c>
+      <c r="O16" s="32">
+        <v>0</v>
+      </c>
+      <c r="P16" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="32">
+        <v>0</v>
+      </c>
+      <c r="R16" s="32">
+        <v>0</v>
+      </c>
+      <c r="S16" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="T15" s="29">
-        <v>0</v>
-      </c>
-      <c r="U15" s="29">
-        <v>0</v>
-      </c>
-      <c r="V15" s="29">
-        <v>0</v>
-      </c>
-      <c r="W15" s="29">
-        <v>0</v>
-      </c>
-      <c r="X15" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
-      <c r="AG15" s="44"/>
-      <c r="AH15" s="44"/>
-      <c r="AI15" s="44"/>
-      <c r="AK15" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="29">
-        <v>0</v>
-      </c>
-      <c r="H16" s="33">
-        <v>0</v>
-      </c>
-      <c r="I16" s="33">
-        <v>0</v>
-      </c>
-      <c r="J16" s="33">
-        <v>1</v>
-      </c>
-      <c r="K16" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="29">
-        <v>1</v>
-      </c>
-      <c r="R16" s="29">
-        <v>0</v>
-      </c>
-      <c r="S16" s="30" t="s">
+      <c r="U16" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="D17" s="32">
+        <v>1</v>
+      </c>
+      <c r="E17" s="32">
+        <v>0</v>
+      </c>
+      <c r="F17" s="32">
+        <v>0</v>
+      </c>
+      <c r="G17" s="32">
+        <v>0</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="K17" s="42"/>
+      <c r="L17" s="32">
+        <v>0</v>
+      </c>
+      <c r="M17" s="32">
+        <v>0</v>
+      </c>
+      <c r="N17" s="32">
+        <v>0</v>
+      </c>
+      <c r="O17" s="32">
+        <v>0</v>
+      </c>
+      <c r="P17" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="32">
+        <v>0</v>
+      </c>
+      <c r="R17" s="32">
+        <v>1</v>
+      </c>
+      <c r="S17" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="T16" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="44"/>
-      <c r="AC16" s="44"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="44"/>
-      <c r="AF16" s="44"/>
-      <c r="AG16" s="44"/>
-      <c r="AH16" s="44"/>
-      <c r="AI16" s="44"/>
-      <c r="AK16" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="29">
-        <v>0</v>
-      </c>
-      <c r="H17" s="33">
-        <v>0</v>
-      </c>
-      <c r="I17" s="33">
-        <v>0</v>
-      </c>
-      <c r="J17" s="33">
-        <v>1</v>
-      </c>
-      <c r="K17" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="29">
-        <v>1</v>
-      </c>
-      <c r="R17" s="29">
-        <v>1</v>
-      </c>
-      <c r="S17" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="T17" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="44"/>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="44"/>
-      <c r="AF17" s="44"/>
-      <c r="AG17" s="44"/>
-      <c r="AH17" s="44"/>
-      <c r="AI17" s="44"/>
-      <c r="AK17" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="29">
-        <v>0</v>
-      </c>
-      <c r="H18" s="33">
-        <v>0</v>
-      </c>
-      <c r="I18" s="33">
-        <v>1</v>
-      </c>
-      <c r="J18" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="K18" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="44"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="44"/>
-      <c r="AF18" s="44"/>
-      <c r="AG18" s="44"/>
-      <c r="AH18" s="44"/>
-      <c r="AI18" s="44"/>
-      <c r="AK18" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>5</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="29">
-        <v>0</v>
-      </c>
-      <c r="H19" s="33">
-        <v>1</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="44"/>
-      <c r="AC19" s="44"/>
-      <c r="AD19" s="44"/>
-      <c r="AE19" s="44"/>
-      <c r="AF19" s="44"/>
-      <c r="AG19" s="44"/>
-      <c r="AH19" s="44"/>
-      <c r="AI19" s="44"/>
-      <c r="AK19" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>6</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="29">
-        <v>1</v>
-      </c>
-      <c r="H20" s="33">
-        <v>0</v>
-      </c>
-      <c r="I20" s="33">
-        <v>0</v>
-      </c>
-      <c r="J20" s="33">
-        <v>0</v>
-      </c>
-      <c r="K20" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="44"/>
-      <c r="AF20" s="44"/>
-      <c r="AG20" s="44"/>
-      <c r="AH20" s="44"/>
-      <c r="AI20" s="44"/>
-      <c r="AK20" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>7</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="29">
-        <v>1</v>
-      </c>
-      <c r="H21" s="33">
-        <v>0</v>
-      </c>
-      <c r="I21" s="33">
-        <v>0</v>
-      </c>
-      <c r="J21" s="33">
-        <v>1</v>
-      </c>
-      <c r="K21" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="33">
-        <v>0</v>
-      </c>
-      <c r="O21" s="33">
-        <v>0</v>
-      </c>
-      <c r="P21" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="44"/>
-      <c r="AF21" s="44"/>
-      <c r="AG21" s="44"/>
-      <c r="AH21" s="44"/>
-      <c r="AI21" s="44"/>
-      <c r="AK21" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>8</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="29">
-        <v>1</v>
-      </c>
-      <c r="H22" s="33">
-        <v>0</v>
-      </c>
-      <c r="I22" s="33">
-        <v>0</v>
-      </c>
-      <c r="J22" s="33">
-        <v>1</v>
-      </c>
-      <c r="K22" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="33">
-        <v>0</v>
-      </c>
-      <c r="O22" s="33">
-        <v>0</v>
-      </c>
-      <c r="P22" s="33">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="33">
-        <v>0</v>
-      </c>
-      <c r="R22" s="33">
-        <v>0</v>
-      </c>
-      <c r="S22" s="29">
-        <v>0</v>
-      </c>
-      <c r="T22" s="29">
-        <v>0</v>
-      </c>
-      <c r="U22" s="29">
-        <v>0</v>
-      </c>
-      <c r="V22" s="29">
-        <v>0</v>
-      </c>
-      <c r="W22" s="29">
-        <v>0</v>
-      </c>
-      <c r="X22" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="44"/>
-      <c r="AF22" s="44"/>
-      <c r="AG22" s="44"/>
-      <c r="AH22" s="44"/>
-      <c r="AI22" s="44"/>
-      <c r="AK22" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>9</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="29">
-        <v>1</v>
-      </c>
-      <c r="H23" s="29">
-        <v>1</v>
-      </c>
-      <c r="I23" s="29">
-        <v>1</v>
-      </c>
-      <c r="J23" s="29">
-        <v>1</v>
-      </c>
-      <c r="K23" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="29">
-        <v>0</v>
-      </c>
-      <c r="O23" s="29">
-        <v>0</v>
-      </c>
-      <c r="P23" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="29">
-        <v>0</v>
-      </c>
-      <c r="R23" s="29">
-        <v>0</v>
-      </c>
-      <c r="S23" s="29">
-        <v>0</v>
-      </c>
-      <c r="T23" s="29">
-        <v>0</v>
-      </c>
-      <c r="U23" s="29">
-        <v>0</v>
-      </c>
-      <c r="V23" s="29">
-        <v>0</v>
-      </c>
-      <c r="W23" s="29">
-        <v>0</v>
-      </c>
-      <c r="X23" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="44"/>
-      <c r="AH23" s="44"/>
-      <c r="AI23" s="44"/>
-      <c r="AK23" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>10</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="29">
-        <v>1</v>
-      </c>
-      <c r="H24" s="29">
-        <v>1</v>
-      </c>
-      <c r="I24" s="29">
-        <v>1</v>
-      </c>
-      <c r="J24" s="29">
-        <v>1</v>
-      </c>
-      <c r="K24" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="29">
-        <v>0</v>
-      </c>
-      <c r="O24" s="29">
-        <v>0</v>
-      </c>
-      <c r="P24" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="29">
-        <v>0</v>
-      </c>
-      <c r="R24" s="29">
-        <v>0</v>
-      </c>
-      <c r="S24" s="29">
-        <v>0</v>
-      </c>
-      <c r="T24" s="29">
-        <v>0</v>
-      </c>
-      <c r="U24" s="29">
-        <v>0</v>
-      </c>
-      <c r="V24" s="29">
-        <v>0</v>
-      </c>
-      <c r="W24" s="29">
-        <v>0</v>
-      </c>
-      <c r="X24" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="29">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="44"/>
-      <c r="AF24" s="44"/>
-      <c r="AG24" s="44"/>
-      <c r="AH24" s="44"/>
-      <c r="AI24" s="44"/>
-      <c r="AK24" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>11</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="29">
-        <v>1</v>
-      </c>
-      <c r="H25" s="29">
-        <v>1</v>
-      </c>
-      <c r="I25" s="29">
-        <v>1</v>
-      </c>
-      <c r="J25" s="29">
-        <v>1</v>
-      </c>
-      <c r="K25" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="29">
-        <v>0</v>
-      </c>
-      <c r="O25" s="29">
-        <v>0</v>
-      </c>
-      <c r="P25" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="29">
-        <v>0</v>
-      </c>
-      <c r="R25" s="29">
-        <v>0</v>
-      </c>
-      <c r="S25" s="29">
-        <v>0</v>
-      </c>
-      <c r="T25" s="29">
-        <v>0</v>
-      </c>
-      <c r="U25" s="29">
-        <v>0</v>
-      </c>
-      <c r="V25" s="29">
-        <v>0</v>
-      </c>
-      <c r="W25" s="29">
-        <v>0</v>
-      </c>
-      <c r="X25" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="29">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="29">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="29">
-        <v>1</v>
-      </c>
-      <c r="AD25" s="29">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="29">
-        <v>1</v>
-      </c>
-      <c r="AF25" s="29">
-        <v>1</v>
-      </c>
-      <c r="AG25" s="29">
-        <v>1</v>
-      </c>
-      <c r="AH25" s="29">
-        <v>1</v>
-      </c>
-      <c r="AI25" s="29">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="10"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>12</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="29">
-        <v>1</v>
-      </c>
-      <c r="H26" s="29">
-        <v>1</v>
-      </c>
-      <c r="I26" s="29">
-        <v>1</v>
-      </c>
-      <c r="J26" s="29">
-        <v>1</v>
-      </c>
-      <c r="K26" s="29">
-        <v>1</v>
-      </c>
-      <c r="L26" s="29">
-        <v>1</v>
-      </c>
-      <c r="M26" s="29">
-        <v>1</v>
-      </c>
-      <c r="N26" s="29">
-        <v>1</v>
-      </c>
-      <c r="O26" s="29">
-        <v>1</v>
-      </c>
-      <c r="P26" s="29">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="29">
-        <v>1</v>
-      </c>
-      <c r="R26" s="29">
-        <v>1</v>
-      </c>
-      <c r="S26" s="29">
-        <v>1</v>
-      </c>
-      <c r="T26" s="29">
-        <v>1</v>
-      </c>
-      <c r="U26" s="29">
-        <v>1</v>
-      </c>
-      <c r="V26" s="29">
-        <v>1</v>
-      </c>
-      <c r="W26" s="29">
-        <v>1</v>
-      </c>
-      <c r="X26" s="29">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="29">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="29">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="29">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="44"/>
-      <c r="AF26" s="44"/>
-      <c r="AG26" s="44"/>
-      <c r="AH26" s="44"/>
-      <c r="AI26" s="44"/>
-    </row>
-    <row r="27" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="T28" s="32">
-        <v>0</v>
-      </c>
-      <c r="U28" s="32">
-        <v>0</v>
-      </c>
-      <c r="V28" s="32">
-        <v>0</v>
-      </c>
-      <c r="W28" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="X28" s="44"/>
-      <c r="Y28" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z28" s="44"/>
-      <c r="AA28" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB28" s="44"/>
-      <c r="AC28" s="29">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE28" s="46"/>
-      <c r="AF28" s="46"/>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="46"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="T29" s="31">
-        <v>0</v>
-      </c>
-      <c r="U29" s="31">
-        <v>0</v>
-      </c>
-      <c r="V29" s="31">
-        <v>0</v>
-      </c>
-      <c r="W29" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="54"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="29">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="31">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="31">
-        <v>1</v>
-      </c>
-      <c r="AF29" s="31">
-        <v>1</v>
-      </c>
-      <c r="AG29" s="31">
-        <v>1</v>
-      </c>
-      <c r="AH29" s="31">
-        <v>1</v>
-      </c>
-      <c r="AI29" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="T30" s="31">
-        <v>0</v>
-      </c>
-      <c r="U30" s="31">
-        <v>0</v>
-      </c>
-      <c r="V30" s="31">
-        <v>0</v>
-      </c>
-      <c r="W30" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z30" s="44"/>
-      <c r="AA30" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="29">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="31">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="31">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="31">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="31">
-        <v>1</v>
-      </c>
-      <c r="AH30" s="31">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="T31" s="33">
-        <v>0</v>
-      </c>
-      <c r="U31" s="33">
-        <v>0</v>
-      </c>
-      <c r="V31" s="33">
-        <v>0</v>
-      </c>
-      <c r="W31" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="29">
-        <v>1</v>
-      </c>
-      <c r="AD31" s="29">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="29">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="29">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH31" s="42"/>
-      <c r="AI31" s="30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="T32" s="33">
-        <v>0</v>
-      </c>
-      <c r="U32" s="33">
-        <v>0</v>
-      </c>
-      <c r="V32" s="33">
-        <v>0</v>
-      </c>
-      <c r="W32" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="X32" s="44"/>
-    </row>
-    <row r="33" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B33" s="34"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="33">
-        <v>0</v>
-      </c>
-      <c r="U33" s="33">
-        <v>0</v>
-      </c>
-      <c r="V33" s="33">
-        <v>1</v>
-      </c>
-      <c r="W33" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z33" s="44"/>
-      <c r="AA33" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="29">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="29">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="29">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="29">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="29">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="AI33" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK33" s="10"/>
-    </row>
-    <row r="34" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B34" s="34"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="33">
-        <v>0</v>
-      </c>
-      <c r="U34" s="33">
-        <v>0</v>
-      </c>
-      <c r="V34" s="33">
-        <v>1</v>
-      </c>
-      <c r="W34" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z34" s="44"/>
-      <c r="AA34" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB34" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC34" s="44"/>
-      <c r="AD34" s="44"/>
-      <c r="AE34" s="44"/>
-      <c r="AF34" s="44"/>
-      <c r="AG34" s="44"/>
-      <c r="AH34" s="44"/>
-      <c r="AI34" s="44"/>
-      <c r="AK34" s="10"/>
-    </row>
-    <row r="35" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B35" s="34"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="W35" s="55"/>
-      <c r="X35" s="55"/>
-      <c r="Y35" s="55"/>
-      <c r="Z35" s="55"/>
-      <c r="AH35" s="29"/>
-      <c r="AI35" s="29"/>
-      <c r="AK35" s="10"/>
-    </row>
-    <row r="36" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B36" s="34"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="W36" s="55"/>
-      <c r="X36" s="55"/>
-      <c r="Y36" s="55"/>
-      <c r="Z36" s="55"/>
-      <c r="AH36" s="29"/>
-      <c r="AI36" s="29"/>
-      <c r="AK36" s="10"/>
-    </row>
-    <row r="37" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B37" s="34"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="33">
-        <v>0</v>
-      </c>
-      <c r="U37" s="33">
-        <v>1</v>
-      </c>
-      <c r="V37" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="W37" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="X37" s="44"/>
-      <c r="Y37" s="44" t="s">
-        <v>315</v>
-      </c>
-      <c r="Z37" s="44"/>
-      <c r="AA37" s="44"/>
-      <c r="AB37" s="44"/>
-      <c r="AC37" s="44"/>
-      <c r="AD37" s="44"/>
-      <c r="AE37" s="44"/>
-      <c r="AF37" s="44"/>
-      <c r="AG37" s="44"/>
-      <c r="AH37" s="44"/>
-      <c r="AI37" s="44"/>
-      <c r="AK37" s="10"/>
-    </row>
-    <row r="38" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B38" s="34"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="33">
-        <v>1</v>
-      </c>
-      <c r="U38" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="V38" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="W38" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="X38" s="44"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="29"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="29"/>
-      <c r="AE38" s="29"/>
-      <c r="AF38" s="29"/>
-      <c r="AG38" s="29"/>
-      <c r="AH38" s="29"/>
-      <c r="AI38" s="29"/>
-      <c r="AK38" s="10"/>
-    </row>
-    <row r="39" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B39" s="34"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="33">
-        <v>0</v>
-      </c>
-      <c r="U39" s="33">
-        <v>0</v>
-      </c>
-      <c r="V39" s="33">
-        <v>0</v>
-      </c>
-      <c r="W39" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="X39" s="44"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="29"/>
-      <c r="AB39" s="29"/>
-      <c r="AC39" s="29"/>
-      <c r="AD39" s="29"/>
-      <c r="AE39" s="29"/>
-      <c r="AF39" s="29"/>
-      <c r="AG39" s="29"/>
-      <c r="AH39" s="29"/>
-      <c r="AI39" s="29"/>
-      <c r="AK39" s="10"/>
-    </row>
-    <row r="40" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B40" s="34"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="33">
-        <v>0</v>
-      </c>
-      <c r="U40" s="33">
-        <v>0</v>
-      </c>
-      <c r="V40" s="33">
-        <v>1</v>
-      </c>
-      <c r="W40" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="X40" s="44"/>
-      <c r="Y40" s="29"/>
-      <c r="Z40" s="29"/>
-      <c r="AA40" s="29"/>
-      <c r="AB40" s="29"/>
-      <c r="AC40" s="29"/>
-      <c r="AD40" s="29"/>
-      <c r="AE40" s="29"/>
-      <c r="AF40" s="29"/>
-      <c r="AG40" s="29"/>
-      <c r="AH40" s="29"/>
-      <c r="AI40" s="29"/>
-      <c r="AK40" s="10"/>
-    </row>
-    <row r="41" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B41" s="34"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="33">
-        <v>0</v>
-      </c>
-      <c r="U41" s="33">
-        <v>0</v>
-      </c>
-      <c r="V41" s="33">
-        <v>1</v>
-      </c>
-      <c r="W41" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
-      <c r="AE41" s="29"/>
-      <c r="AF41" s="29"/>
-      <c r="AG41" s="29"/>
-      <c r="AH41" s="29"/>
-      <c r="AI41" s="29"/>
-      <c r="AK41" s="10"/>
-    </row>
-    <row r="42" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B42" s="34"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29">
-        <v>1</v>
-      </c>
-      <c r="U42" s="29">
-        <v>1</v>
-      </c>
-      <c r="V42" s="29">
-        <v>1</v>
-      </c>
-      <c r="W42" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="X42" s="44"/>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="29"/>
-      <c r="AB42" s="29"/>
-      <c r="AC42" s="29"/>
-      <c r="AD42" s="29"/>
-      <c r="AE42" s="29"/>
-      <c r="AF42" s="29"/>
-      <c r="AG42" s="29"/>
-      <c r="AH42" s="29"/>
-      <c r="AI42" s="29"/>
-      <c r="AK42" s="10"/>
-    </row>
-    <row r="43" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B43" s="34"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29">
-        <v>1</v>
-      </c>
-      <c r="U43" s="29">
-        <v>1</v>
-      </c>
-      <c r="V43" s="29">
-        <v>1</v>
-      </c>
-      <c r="W43" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="X43" s="44"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="29"/>
-      <c r="AB43" s="29"/>
-      <c r="AC43" s="29"/>
-      <c r="AD43" s="29"/>
-      <c r="AE43" s="29"/>
-      <c r="AF43" s="29"/>
-      <c r="AG43" s="29"/>
-      <c r="AH43" s="29"/>
-      <c r="AI43" s="29"/>
-      <c r="AK43" s="10"/>
-    </row>
-    <row r="44" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B44" s="34"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="29">
-        <v>1</v>
-      </c>
-      <c r="U44" s="29">
-        <v>1</v>
-      </c>
-      <c r="V44" s="29">
-        <v>1</v>
-      </c>
-      <c r="W44" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="X44" s="44"/>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="29"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="29"/>
-      <c r="AD44" s="29"/>
-      <c r="AE44" s="29"/>
-      <c r="AF44" s="29"/>
-      <c r="AG44" s="29"/>
-      <c r="AH44" s="29"/>
-      <c r="AI44" s="29"/>
-      <c r="AK44" s="10"/>
-    </row>
-    <row r="45" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B45" s="34"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="29">
-        <v>1</v>
-      </c>
-      <c r="U45" s="29">
-        <v>1</v>
-      </c>
-      <c r="V45" s="29">
-        <v>1</v>
-      </c>
-      <c r="W45" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="X45" s="44"/>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="29"/>
-      <c r="AB45" s="29"/>
-      <c r="AC45" s="29"/>
-      <c r="AD45" s="29"/>
-      <c r="AE45" s="29"/>
-      <c r="AF45" s="29"/>
-      <c r="AG45" s="29"/>
-      <c r="AH45" s="29"/>
-      <c r="AI45" s="29"/>
-      <c r="AK45" s="10"/>
-    </row>
-    <row r="46" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B46" s="34"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="29"/>
-      <c r="AB46" s="29"/>
-      <c r="AC46" s="29"/>
-      <c r="AD46" s="29"/>
-      <c r="AE46" s="29"/>
-      <c r="AF46" s="29"/>
-      <c r="AG46" s="29"/>
-      <c r="AH46" s="29"/>
-      <c r="AI46" s="29"/>
-      <c r="AK46" s="10"/>
-    </row>
-    <row r="47" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B47" s="34"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="29"/>
-      <c r="AF47" s="29"/>
-      <c r="AG47" s="29"/>
-      <c r="AH47" s="29"/>
-      <c r="AI47" s="29"/>
-      <c r="AK47" s="10"/>
-    </row>
-    <row r="48" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B48" s="34"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="29"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="29"/>
-      <c r="X48" s="29"/>
-      <c r="Y48" s="29"/>
-      <c r="Z48" s="29"/>
-      <c r="AA48" s="29"/>
-      <c r="AB48" s="29"/>
-      <c r="AC48" s="29"/>
-      <c r="AD48" s="29"/>
-      <c r="AE48" s="29"/>
-      <c r="AF48" s="29"/>
-      <c r="AG48" s="29"/>
-      <c r="AH48" s="29"/>
-      <c r="AI48" s="29"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="34"/>
+      <c r="U17" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="D18" s="32">
+        <v>1</v>
+      </c>
+      <c r="E18" s="32">
+        <v>0</v>
+      </c>
+      <c r="F18" s="32">
+        <v>0</v>
+      </c>
+      <c r="G18" s="32">
+        <v>0</v>
+      </c>
+      <c r="H18" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="32">
+        <v>0</v>
+      </c>
+      <c r="M18" s="32">
+        <v>0</v>
+      </c>
+      <c r="N18" s="32">
+        <v>0</v>
+      </c>
+      <c r="O18" s="32">
+        <v>0</v>
+      </c>
+      <c r="P18" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="32">
+        <v>1</v>
+      </c>
+      <c r="R18" s="32">
+        <v>0</v>
+      </c>
+      <c r="S18" s="32">
+        <v>0</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="33"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="U19" s="10"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="33"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="U20" s="10"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="33"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="U21" s="10"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="33"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="U22" s="10"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="33"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="U23" s="10"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="33"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="U24" s="10"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="33"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="U25" s="10"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B26" s="33"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B27" s="33"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="99">
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="Y29:AB29"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="AB34:AI34"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="Y37:AI37"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="AD28:AI28"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="AB26:AI26"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="AB23:AI23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="AB24:AI24"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="Q21:V21"/>
-    <mergeCell ref="W21:AI21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="AB22:AI22"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:AI19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:AI20"/>
-    <mergeCell ref="AB15:AI15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="T16:AI16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="T17:AI17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:AI18"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="AD9:AI9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:S10"/>
-    <mergeCell ref="D11:F11"/>
+  <mergeCells count="22">
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L12:S12"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6912,8 +5135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6930,36 +5153,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1" s="37">
-        <v>1</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>289</v>
+      <c r="A1" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="36">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>288</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="52"/>
+      <c r="A2" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="51"/>
       <c r="M2" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6986,31 +5209,31 @@
         <v>0</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q3" s="23" t="s">
         <v>182</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6">
@@ -7040,24 +5263,24 @@
         <v>30h</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6">
@@ -7087,24 +5310,24 @@
         <v>31h</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6">
@@ -7134,24 +5357,24 @@
         <v>32h</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6">
@@ -7181,24 +5404,24 @@
         <v>33h</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6">
@@ -7228,15 +5451,15 @@
         <v>34h</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6">
@@ -7266,21 +5489,21 @@
         <v>36h</v>
       </c>
       <c r="L9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6">
@@ -7310,21 +5533,21 @@
         <v>37h</v>
       </c>
       <c r="L10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6">
@@ -7354,18 +5577,18 @@
         <v>3Eh</v>
       </c>
       <c r="L11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6">
@@ -7395,18 +5618,18 @@
         <v>3Fh</v>
       </c>
       <c r="L12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6">
@@ -7436,18 +5659,18 @@
         <v>01h</v>
       </c>
       <c r="L13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6">
@@ -7477,18 +5700,18 @@
         <v>02h</v>
       </c>
       <c r="L14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6">
@@ -7518,18 +5741,18 @@
         <v>03h</v>
       </c>
       <c r="L15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6">
@@ -7559,18 +5782,18 @@
         <v>04h</v>
       </c>
       <c r="L16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6">
@@ -7600,18 +5823,18 @@
         <v>05h</v>
       </c>
       <c r="L17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6">
@@ -7641,17 +5864,17 @@
         <v>06h</v>
       </c>
       <c r="L18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="str">
+      <c r="A19" s="33" t="str">
         <f>A13&amp;" integer"</f>
         <v>Add integer</v>
       </c>
@@ -7691,11 +5914,11 @@
         <v>Rd = Rs + Rm</v>
       </c>
       <c r="N19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="str">
+      <c r="A20" s="33" t="str">
         <f t="shared" ref="A20:A24" si="4">A14&amp;" integer"</f>
         <v>Subtract integer</v>
       </c>
@@ -7735,11 +5958,11 @@
         <v>Rd = Rs - Rm</v>
       </c>
       <c r="N20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="str">
+      <c r="A21" s="33" t="str">
         <f t="shared" si="4"/>
         <v>Multiply integer</v>
       </c>
@@ -7779,11 +6002,11 @@
         <v>Rd = Rs * Rm</v>
       </c>
       <c r="N21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="str">
+      <c r="A22" s="33" t="str">
         <f t="shared" si="4"/>
         <v>Divide integer</v>
       </c>
@@ -7823,11 +6046,11 @@
         <v>Rd = Rs / Rm</v>
       </c>
       <c r="N22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="str">
+      <c r="A23" s="33" t="str">
         <f t="shared" si="4"/>
         <v>Powerof integer</v>
       </c>
@@ -7867,11 +6090,11 @@
         <v>Rd = Rs ^ Rm</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="str">
+      <c r="A24" s="33" t="str">
         <f t="shared" si="4"/>
         <v>Modulo integer</v>
       </c>
@@ -7911,12 +6134,12 @@
         <v>Rd = Rs % Rm</v>
       </c>
       <c r="N24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6">
@@ -7946,18 +6169,18 @@
         <v>07h</v>
       </c>
       <c r="L25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6">
@@ -7987,18 +6210,18 @@
         <v>08h</v>
       </c>
       <c r="L26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6">
@@ -8028,18 +6251,18 @@
         <v>09h</v>
       </c>
       <c r="L27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6">
@@ -8069,18 +6292,18 @@
         <v>0Ah</v>
       </c>
       <c r="L28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6">
@@ -8110,18 +6333,18 @@
         <v>0Bh</v>
       </c>
       <c r="L29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6">
@@ -8151,18 +6374,18 @@
         <v>0Ch</v>
       </c>
       <c r="L30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6">
@@ -8192,18 +6415,18 @@
         <v>10h</v>
       </c>
       <c r="L31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6">
@@ -8233,18 +6456,18 @@
         <v>11h</v>
       </c>
       <c r="L32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6">
@@ -8274,18 +6497,18 @@
         <v>12h</v>
       </c>
       <c r="L33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6">
@@ -8315,18 +6538,18 @@
         <v>13h</v>
       </c>
       <c r="L34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6">
@@ -8356,18 +6579,18 @@
         <v>14h</v>
       </c>
       <c r="L35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6">
@@ -8397,18 +6620,18 @@
         <v>15h</v>
       </c>
       <c r="L36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6">
@@ -8438,18 +6661,18 @@
         <v>16h</v>
       </c>
       <c r="L37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6">
@@ -8479,18 +6702,18 @@
         <v>17h</v>
       </c>
       <c r="L38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6">
@@ -8520,18 +6743,18 @@
         <v>18h</v>
       </c>
       <c r="L39" t="s">
+        <v>198</v>
+      </c>
+      <c r="M39" t="s">
         <v>199</v>
       </c>
-      <c r="M39" t="s">
-        <v>200</v>
-      </c>
       <c r="N39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6">
@@ -8561,18 +6784,18 @@
         <v>19h</v>
       </c>
       <c r="L40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6">
@@ -8602,18 +6825,18 @@
         <v>1Ah</v>
       </c>
       <c r="L41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6">
@@ -8643,18 +6866,18 @@
         <v>1Bh</v>
       </c>
       <c r="L42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6">
@@ -8684,18 +6907,18 @@
         <v>1Ch</v>
       </c>
       <c r="L43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6">
@@ -8725,18 +6948,18 @@
         <v>1Dh</v>
       </c>
       <c r="L44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6">
@@ -8766,18 +6989,18 @@
         <v>1Eh</v>
       </c>
       <c r="L45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6">
@@ -8807,18 +7030,18 @@
         <v>1Fh</v>
       </c>
       <c r="L46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="14">
@@ -8849,7 +7072,7 @@
       </c>
       <c r="K47" s="17"/>
       <c r="L47" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -8874,6 +7097,860 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" customWidth="1"/>
+    <col min="3" max="7" width="3.42578125" customWidth="1"/>
+    <col min="8" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" customWidth="1"/>
+    <col min="12" max="12" width="45.7109375" customWidth="1"/>
+    <col min="14" max="14" width="3.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="36">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29">
+        <v>0</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0</v>
+      </c>
+      <c r="F4" s="29">
+        <v>0</v>
+      </c>
+      <c r="G4" s="29">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <f>_xlfn.DECIMAL(CONCATENATE(C4,D4,E4,F4,G4),2)</f>
+        <v>16</v>
+      </c>
+      <c r="I4" s="29" t="str">
+        <f>DEC2HEX(H4,2)&amp;"h"</f>
+        <v>10h</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>305</v>
+      </c>
+      <c r="M4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29">
+        <v>0</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0</v>
+      </c>
+      <c r="F5" s="29">
+        <v>0</v>
+      </c>
+      <c r="G5" s="29">
+        <v>1</v>
+      </c>
+      <c r="H5" s="29">
+        <f t="shared" ref="H5:H23" si="0">_xlfn.DECIMAL(CONCATENATE(C5,D5,E5,F5,G5),2)</f>
+        <v>17</v>
+      </c>
+      <c r="I5" s="29" t="str">
+        <f t="shared" ref="I5:I23" si="1">DEC2HEX(H5,2)&amp;"h"</f>
+        <v>11h</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29">
+        <v>1</v>
+      </c>
+      <c r="D6" s="29">
+        <v>0</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0</v>
+      </c>
+      <c r="F6" s="29">
+        <v>1</v>
+      </c>
+      <c r="G6" s="29">
+        <v>0</v>
+      </c>
+      <c r="H6" s="29">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I6" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>12h</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29">
+        <v>1</v>
+      </c>
+      <c r="D7" s="29">
+        <v>0</v>
+      </c>
+      <c r="E7" s="29">
+        <v>0</v>
+      </c>
+      <c r="F7" s="29">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29">
+        <v>1</v>
+      </c>
+      <c r="H7" s="29">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="I7" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>13h</v>
+      </c>
+      <c r="K7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29">
+        <v>1</v>
+      </c>
+      <c r="D8" s="29">
+        <v>1</v>
+      </c>
+      <c r="E8" s="29">
+        <v>1</v>
+      </c>
+      <c r="F8" s="29">
+        <v>1</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I8" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>1Eh</v>
+      </c>
+      <c r="K8" t="s">
+        <v>301</v>
+      </c>
+      <c r="L8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29">
+        <v>1</v>
+      </c>
+      <c r="D9" s="29">
+        <v>1</v>
+      </c>
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" s="29">
+        <v>1</v>
+      </c>
+      <c r="G9" s="29">
+        <v>1</v>
+      </c>
+      <c r="H9" s="29">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="I9" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>1Fh</v>
+      </c>
+      <c r="K9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29">
+        <v>0</v>
+      </c>
+      <c r="D10" s="29">
+        <v>0</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0</v>
+      </c>
+      <c r="F10" s="29">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29">
+        <v>1</v>
+      </c>
+      <c r="H10" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>01h</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29">
+        <v>0</v>
+      </c>
+      <c r="D11" s="29">
+        <v>0</v>
+      </c>
+      <c r="E11" s="29">
+        <v>0</v>
+      </c>
+      <c r="F11" s="29">
+        <v>1</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I11" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>02h</v>
+      </c>
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29">
+        <v>0</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0</v>
+      </c>
+      <c r="F12" s="29">
+        <v>1</v>
+      </c>
+      <c r="G12" s="29">
+        <v>1</v>
+      </c>
+      <c r="H12" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I12" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>03h</v>
+      </c>
+      <c r="K12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29">
+        <v>0</v>
+      </c>
+      <c r="D13" s="29">
+        <v>0</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1</v>
+      </c>
+      <c r="F13" s="29">
+        <v>0</v>
+      </c>
+      <c r="G13" s="29">
+        <v>0</v>
+      </c>
+      <c r="H13" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I13" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>04h</v>
+      </c>
+      <c r="K13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" t="s">
+        <v>104</v>
+      </c>
+      <c r="M13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29">
+        <v>0</v>
+      </c>
+      <c r="D14" s="29">
+        <v>0</v>
+      </c>
+      <c r="E14" s="29">
+        <v>1</v>
+      </c>
+      <c r="F14" s="29">
+        <v>0</v>
+      </c>
+      <c r="G14" s="29">
+        <v>1</v>
+      </c>
+      <c r="H14" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I14" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>05h</v>
+      </c>
+      <c r="K14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" t="s">
+        <v>105</v>
+      </c>
+      <c r="M14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29">
+        <v>0</v>
+      </c>
+      <c r="D15" s="29">
+        <v>0</v>
+      </c>
+      <c r="E15" s="29">
+        <v>1</v>
+      </c>
+      <c r="F15" s="29">
+        <v>1</v>
+      </c>
+      <c r="G15" s="29">
+        <v>0</v>
+      </c>
+      <c r="H15" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I15" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>06h</v>
+      </c>
+      <c r="K15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" t="s">
+        <v>106</v>
+      </c>
+      <c r="M15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29">
+        <v>0</v>
+      </c>
+      <c r="D16" s="29">
+        <v>0</v>
+      </c>
+      <c r="E16" s="29">
+        <v>1</v>
+      </c>
+      <c r="F16" s="29">
+        <v>1</v>
+      </c>
+      <c r="G16" s="29">
+        <v>1</v>
+      </c>
+      <c r="H16" s="29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I16" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>07h</v>
+      </c>
+      <c r="K16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" t="s">
+        <v>107</v>
+      </c>
+      <c r="M16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29">
+        <v>0</v>
+      </c>
+      <c r="D17" s="29">
+        <v>1</v>
+      </c>
+      <c r="E17" s="29">
+        <v>0</v>
+      </c>
+      <c r="F17" s="29">
+        <v>0</v>
+      </c>
+      <c r="G17" s="29">
+        <v>0</v>
+      </c>
+      <c r="H17" s="29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I17" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>08h</v>
+      </c>
+      <c r="K17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" t="s">
+        <v>108</v>
+      </c>
+      <c r="M17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29">
+        <v>0</v>
+      </c>
+      <c r="D18" s="29">
+        <v>1</v>
+      </c>
+      <c r="E18" s="29">
+        <v>0</v>
+      </c>
+      <c r="F18" s="29">
+        <v>0</v>
+      </c>
+      <c r="G18" s="29">
+        <v>1</v>
+      </c>
+      <c r="H18" s="29">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I18" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>09h</v>
+      </c>
+      <c r="K18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" t="s">
+        <v>109</v>
+      </c>
+      <c r="M18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29">
+        <v>0</v>
+      </c>
+      <c r="D19" s="29">
+        <v>1</v>
+      </c>
+      <c r="E19" s="29">
+        <v>0</v>
+      </c>
+      <c r="F19" s="29">
+        <v>1</v>
+      </c>
+      <c r="G19" s="29">
+        <v>0</v>
+      </c>
+      <c r="H19" s="29">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I19" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>0Ah</v>
+      </c>
+      <c r="K19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" t="s">
+        <v>110</v>
+      </c>
+      <c r="M19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29">
+        <v>0</v>
+      </c>
+      <c r="D20" s="29">
+        <v>1</v>
+      </c>
+      <c r="E20" s="29">
+        <v>0</v>
+      </c>
+      <c r="F20" s="29">
+        <v>1</v>
+      </c>
+      <c r="G20" s="29">
+        <v>1</v>
+      </c>
+      <c r="H20" s="29">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I20" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>0Bh</v>
+      </c>
+      <c r="K20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" t="s">
+        <v>111</v>
+      </c>
+      <c r="M20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29">
+        <v>0</v>
+      </c>
+      <c r="D21" s="29">
+        <v>1</v>
+      </c>
+      <c r="E21" s="29">
+        <v>1</v>
+      </c>
+      <c r="F21" s="29">
+        <v>0</v>
+      </c>
+      <c r="G21" s="29">
+        <v>0</v>
+      </c>
+      <c r="H21" s="29">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I21" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>0Ch</v>
+      </c>
+      <c r="K21" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" t="s">
+        <v>112</v>
+      </c>
+      <c r="M21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29">
+        <v>0</v>
+      </c>
+      <c r="D22" s="29">
+        <v>1</v>
+      </c>
+      <c r="E22" s="29">
+        <v>1</v>
+      </c>
+      <c r="F22" s="29">
+        <v>0</v>
+      </c>
+      <c r="G22" s="29">
+        <v>1</v>
+      </c>
+      <c r="H22" s="29">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="I22" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>0Dh</v>
+      </c>
+      <c r="K22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" t="s">
+        <v>125</v>
+      </c>
+      <c r="M22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14">
+        <v>0</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0</v>
+      </c>
+      <c r="H23" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>00h</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
@@ -8892,14 +7969,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="36">
+        <v>2</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>259</v>
-      </c>
-      <c r="B1" s="37">
-        <v>2</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>260</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -8907,9 +7984,9 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="38"/>
+        <v>211</v>
+      </c>
+      <c r="B2" s="37"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -8917,131 +7994,131 @@
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" s="39"/>
+        <v>204</v>
+      </c>
+      <c r="B3" s="38"/>
       <c r="C3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10" t="s">
         <v>234</v>
-      </c>
-      <c r="F10" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="B11" s="38"/>
+        <v>212</v>
+      </c>
+      <c r="B11" s="37"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -9049,118 +8126,118 @@
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B12" s="39"/>
+        <v>204</v>
+      </c>
+      <c r="B12" s="38"/>
       <c r="C12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="B19" s="37">
+      <c r="A19" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19" s="36">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -9168,42 +8245,42 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B20" s="39"/>
+        <v>204</v>
+      </c>
+      <c r="B20" s="38"/>
       <c r="C20" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="C21" t="s">
+        <v>263</v>
+      </c>
+      <c r="D21" t="s">
         <v>262</v>
       </c>
-      <c r="C21" t="s">
-        <v>264</v>
-      </c>
-      <c r="D21" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="22" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="B22" s="37">
+      <c r="A22" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="B22" s="36">
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -9211,83 +8288,83 @@
     </row>
     <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B23" s="39"/>
+        <v>204</v>
+      </c>
+      <c r="B23" s="38"/>
       <c r="C23" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" t="s">
         <v>265</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>296</v>
+      </c>
+      <c r="E24" t="s">
         <v>266</v>
-      </c>
-      <c r="D24" t="s">
-        <v>297</v>
-      </c>
-      <c r="E24" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="B28" s="37">
+      <c r="A28" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="B28" s="36">
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -9299,78 +8376,78 @@
     </row>
     <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B29" s="39"/>
+        <v>204</v>
+      </c>
+      <c r="B29" s="38"/>
       <c r="C29" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D30" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E30" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D31" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E31" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D32" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E32" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E33" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="B34" s="37">
+      <c r="A34" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34" s="36">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -9378,144 +8455,144 @@
     </row>
     <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B35" s="39"/>
+        <v>204</v>
+      </c>
+      <c r="B35" s="38"/>
       <c r="C35" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C36" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D36" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E36" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C37" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D37" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E37" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C38" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D38" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E38" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C39" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D39" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E39" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C40" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D40" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E40" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C41" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D41" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E41" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="C42" t="s">
+        <v>338</v>
+      </c>
+      <c r="D42" t="s">
+        <v>328</v>
+      </c>
+      <c r="E42" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="B43" s="36">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="C42" t="s">
-        <v>343</v>
-      </c>
-      <c r="D42" t="s">
-        <v>333</v>
-      </c>
-      <c r="E42" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="B43" s="37">
-        <v>7</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -9523,31 +8600,31 @@
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B44" s="39"/>
+        <v>204</v>
+      </c>
+      <c r="B44" s="38"/>
       <c r="C44" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="B46" s="37">
+      <c r="A46" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="B46" s="36">
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -9555,31 +8632,31 @@
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B47" s="39"/>
+        <v>204</v>
+      </c>
+      <c r="B47" s="38"/>
       <c r="C47" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="B49" s="37">
+      <c r="A49" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="B49" s="36">
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -9587,31 +8664,31 @@
     </row>
     <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B50" s="39"/>
+        <v>204</v>
+      </c>
+      <c r="B50" s="38"/>
       <c r="C50" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="B52" s="37">
+      <c r="A52" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="B52" s="36">
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -9619,31 +8696,31 @@
     </row>
     <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B53" s="39"/>
+        <v>204</v>
+      </c>
+      <c r="B53" s="38"/>
       <c r="C53" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="B55" s="37">
+      <c r="A55" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="B55" s="36">
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -9651,31 +8728,31 @@
     </row>
     <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B56" s="39"/>
+        <v>204</v>
+      </c>
+      <c r="B56" s="38"/>
       <c r="C56" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="B58" s="37">
+      <c r="A58" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="B58" s="36">
         <v>12</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -9683,20 +8760,20 @@
     </row>
     <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B59" s="39"/>
+        <v>204</v>
+      </c>
+      <c r="B59" s="38"/>
       <c r="C59" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -9704,7 +8781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
@@ -9721,20 +8798,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
-        <v>291</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
+      <c r="A1" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9742,40 +8819,40 @@
         <v>0</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="39">
+      <c r="C3" s="38">
         <v>7</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="38">
         <v>6</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="38">
         <v>5</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="38">
         <v>4</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="38">
         <v>3</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="38">
         <v>2</v>
       </c>
-      <c r="I3" s="39">
-        <v>1</v>
-      </c>
-      <c r="J3" s="39">
-        <v>0</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>296</v>
+      <c r="I3" s="38">
+        <v>1</v>
+      </c>
+      <c r="J3" s="38">
+        <v>0</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C4" s="25">
         <v>0</v>
@@ -9812,7 +8889,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C5" s="25">
         <v>0</v>
@@ -9849,7 +8926,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C6" s="25">
         <v>0</v>
@@ -9886,7 +8963,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C7" s="25">
         <v>0</v>
@@ -10007,7 +9084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ40"/>
   <sheetViews>
@@ -10026,7 +9103,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -10175,146 +9252,146 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="45"/>
       <c r="AJ4" s="10"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1</v>
-      </c>
-      <c r="K5" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
       <c r="AJ5" s="10"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="44"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="43"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="10"/>
     </row>
@@ -11461,7 +10538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T44"/>
   <sheetViews>
@@ -11480,7 +10557,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -11555,34 +10632,34 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
       <c r="T4" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>320</v>
+      <c r="A5" s="33" t="s">
+        <v>315</v>
       </c>
       <c r="C5" s="31">
         <v>0</v>
@@ -11630,15 +10707,15 @@
         <v>0</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
@@ -11686,13 +10763,13 @@
         <v>1</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C7" s="24">
         <v>0</v>
@@ -11740,13 +10817,13 @@
         <v>0</v>
       </c>
       <c r="R7" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>318</v>
+      <c r="A8" s="33" t="s">
+        <v>313</v>
       </c>
       <c r="C8" s="29">
         <v>0</v>
@@ -11784,17 +10861,17 @@
       <c r="N8" s="29">
         <v>1</v>
       </c>
-      <c r="O8" s="44" t="s">
-        <v>319</v>
-      </c>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
+      <c r="O8" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -11820,21 +10897,21 @@
       <c r="J9" s="6">
         <v>1</v>
       </c>
-      <c r="K9" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
+      <c r="K9" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
@@ -11858,23 +10935,23 @@
         <v>1</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="K10" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
+      <c r="K10" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
@@ -11898,23 +10975,23 @@
         <v>0</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="K11" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
+      <c r="K11" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
       <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -11938,23 +11015,23 @@
         <v>1</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="K12" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
+      <c r="K12" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
       <c r="T12" s="10"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
@@ -11980,16 +11057,16 @@
       <c r="J13" s="6">
         <v>0</v>
       </c>
-      <c r="K13" s="44" t="s">
-        <v>317</v>
-      </c>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
+      <c r="K13" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">

--- a/doc/RiscyInstSet32Bit.xlsx
+++ b/doc/RiscyInstSet32Bit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="12690" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="12690" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Terra" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,9 @@
     <sheet name="Tera-Math" sheetId="2" r:id="rId3"/>
     <sheet name="FlowerPot-TinyMath" sheetId="9" r:id="rId4"/>
     <sheet name="Tera&amp;FlowerPot-Instructions" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
+    <sheet name="Feature ID" sheetId="7" r:id="rId6"/>
     <sheet name="BIOS Call" sheetId="4" r:id="rId7"/>
-    <sheet name="StdGrAd Call" sheetId="5" r:id="rId8"/>
+    <sheet name="Graphics Adapter Call" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="366">
   <si>
     <t>Description</t>
   </si>
@@ -39,9 +39,6 @@
     <t>16 MB</t>
   </si>
   <si>
-    <t>32 Bits</t>
-  </si>
-  <si>
     <t>Registers key:</t>
   </si>
   <si>
@@ -309,9 +306,6 @@
     <t>Get uptime</t>
   </si>
   <si>
-    <t>BIOS Call</t>
-  </si>
-  <si>
     <t>Print string</t>
   </si>
   <si>
@@ -1110,7 +1104,31 @@
     <t>8 bits</t>
   </si>
   <si>
-    <t>4 general, 4 special 1 16-bit timer</t>
+    <t>Terra Instruction Set is for general-perpose computing, with 32-bit hardwares.</t>
+  </si>
+  <si>
+    <t>FlowerPot Instruction Set is for 8-bit microcontrollers with limited memory</t>
+  </si>
+  <si>
+    <t>32 bits</t>
+  </si>
+  <si>
+    <t>4 general, 4 special, 1 16-bit timer</t>
+  </si>
+  <si>
+    <t>BIOS Call (32-bit)</t>
+  </si>
+  <si>
+    <t>Boot from device</t>
+  </si>
+  <si>
+    <t>Retrieve file handle</t>
+  </si>
+  <si>
+    <t>rFileID</t>
+  </si>
+  <si>
+    <t>rFileID &lt;- File handle</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1336,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="6" applyFont="1"/>
@@ -1419,25 +1437,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
@@ -1445,6 +1466,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1457,12 +1493,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1751,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL50"/>
+  <dimension ref="A1:AL51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AK6" sqref="AK6"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,7 +1800,7 @@
   <sheetData>
     <row r="1" spans="1:38" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1809,55 +1839,17 @@
     </row>
     <row r="2" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AK3" t="s">
-        <v>3</v>
+      <c r="B3" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
-        <v>306</v>
+      <c r="B4" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>2</v>
+        <v>359</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1891,16 +1883,16 @@
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
       <c r="AK4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>14</v>
+      <c r="B5" s="33" t="s">
+        <v>304</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="10" t="s">
-        <v>307</v>
+      <c r="D5" s="5" t="s">
+        <v>359</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1934,16 +1926,16 @@
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AK5" t="s">
-        <v>149</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>253</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>1</v>
+      <c r="D6" s="10" t="s">
+        <v>305</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1977,230 +1969,196 @@
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
       <c r="AK6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AK7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
         <v>31</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="4">
         <v>30</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F9" s="4">
         <v>29</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G9" s="4">
         <v>28</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H9" s="4">
         <v>27</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I9" s="4">
         <v>26</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J9" s="4">
         <v>25</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K9" s="4">
         <v>24</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L9" s="4">
         <v>23</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M9" s="4">
         <v>22</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N9" s="4">
         <v>21</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O9" s="4">
         <v>20</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P9" s="4">
         <v>19</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q9" s="4">
         <v>18</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R9" s="4">
         <v>17</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S9" s="4">
         <v>16</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T9" s="4">
         <v>15</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U9" s="4">
         <v>14</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V9" s="4">
         <v>13</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W9" s="4">
         <v>12</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X9" s="4">
         <v>11</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y9" s="4">
         <v>10</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="Z9" s="4">
         <v>9</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AA9" s="4">
         <v>8</v>
       </c>
-      <c r="AB8" s="4">
+      <c r="AB9" s="4">
         <v>7</v>
       </c>
-      <c r="AC8" s="4">
+      <c r="AC9" s="4">
         <v>6</v>
       </c>
-      <c r="AD8" s="4">
+      <c r="AD9" s="4">
         <v>5</v>
       </c>
-      <c r="AE8" s="4">
+      <c r="AE9" s="4">
         <v>4</v>
       </c>
-      <c r="AF8" s="4">
+      <c r="AF9" s="4">
         <v>3</v>
       </c>
-      <c r="AG8" s="4">
+      <c r="AG9" s="4">
         <v>2</v>
       </c>
-      <c r="AH8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="40">
-        <v>1</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0</v>
-      </c>
-      <c r="K9" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45" t="s">
+      <c r="AH9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" s="44">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="12">
-        <v>0</v>
-      </c>
-      <c r="U9" s="6">
-        <v>0</v>
-      </c>
-      <c r="V9" s="6">
-        <v>0</v>
-      </c>
-      <c r="W9" s="6">
-        <v>0</v>
-      </c>
-      <c r="X9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="45" t="s">
-        <v>345</v>
-      </c>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AK9" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="18">
-        <v>0</v>
-      </c>
-      <c r="H10" s="18">
-        <v>0</v>
-      </c>
-      <c r="I10" s="18">
-        <v>0</v>
-      </c>
-      <c r="J10" s="18">
-        <v>0</v>
-      </c>
-      <c r="K10" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
       <c r="T10" s="12">
         <v>0</v>
       </c>
@@ -2231,38 +2189,28 @@
       <c r="AC10" s="6">
         <v>0</v>
       </c>
-      <c r="AD10" s="18">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="18">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="18">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="18">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="18">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="21" t="s">
-        <v>9</v>
-      </c>
+      <c r="AD10" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="53"/>
       <c r="AK10" s="10" t="s">
-        <v>304</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+        <v>301</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="18">
         <v>0</v>
       </c>
@@ -2275,21 +2223,19 @@
       <c r="J11" s="18">
         <v>0</v>
       </c>
-      <c r="K11" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
+      <c r="K11" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
       <c r="T11" s="12">
         <v>0</v>
       </c>
@@ -2324,244 +2270,249 @@
         <v>1</v>
       </c>
       <c r="AE11" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11" s="18">
         <v>1</v>
       </c>
       <c r="AH11" s="18">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="13">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AI11" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="AK11" s="10" t="s">
-        <v>201</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="31">
-        <v>0</v>
-      </c>
-      <c r="H12" s="31">
-        <v>0</v>
-      </c>
-      <c r="I12" s="31">
-        <v>0</v>
-      </c>
-      <c r="J12" s="31">
+      <c r="A12" s="45"/>
+      <c r="B12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18">
         <v>0</v>
       </c>
       <c r="K12" s="43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L12" s="43"/>
       <c r="M12" s="43"/>
       <c r="N12" s="43" t="s">
-        <v>342</v>
+        <v>154</v>
       </c>
       <c r="O12" s="43"/>
       <c r="P12" s="43"/>
-      <c r="Q12" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="32">
-        <v>0</v>
-      </c>
-      <c r="U12" s="29">
-        <v>0</v>
-      </c>
-      <c r="V12" s="29">
-        <v>0</v>
-      </c>
-      <c r="W12" s="29">
-        <v>0</v>
-      </c>
-      <c r="X12" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="29">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="29">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="46" t="s">
-        <v>345</v>
-      </c>
-      <c r="AE12" s="46"/>
-      <c r="AF12" s="46"/>
-      <c r="AG12" s="46"/>
-      <c r="AH12" s="46"/>
-      <c r="AI12" s="46"/>
+      <c r="Q12" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="6">
+        <v>0</v>
+      </c>
+      <c r="V12" s="6">
+        <v>0</v>
+      </c>
+      <c r="W12" s="6">
+        <v>0</v>
+      </c>
+      <c r="X12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>0</v>
+      </c>
       <c r="AK12" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="31">
+        <v>0</v>
+      </c>
+      <c r="H13" s="31">
+        <v>0</v>
+      </c>
+      <c r="I13" s="31">
+        <v>0</v>
+      </c>
+      <c r="J13" s="31">
+        <v>0</v>
+      </c>
+      <c r="K13" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47" t="s">
+        <v>340</v>
+      </c>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="32">
+        <v>0</v>
+      </c>
+      <c r="U13" s="29">
+        <v>0</v>
+      </c>
+      <c r="V13" s="29">
+        <v>0</v>
+      </c>
+      <c r="W13" s="29">
+        <v>0</v>
+      </c>
+      <c r="X13" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="29">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="43" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-      <c r="K13" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="6">
-        <v>0</v>
-      </c>
-      <c r="U13" s="6">
-        <v>0</v>
-      </c>
-      <c r="V13" s="6">
-        <v>0</v>
-      </c>
-      <c r="W13" s="6">
-        <v>0</v>
-      </c>
-      <c r="X13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="22" t="s">
-        <v>85</v>
-      </c>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="43"/>
+      <c r="AH13" s="43"/>
+      <c r="AI13" s="43"/>
       <c r="AK13" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="AL13" s="2" t="s">
-        <v>169</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
-      <c r="J14" s="12">
-        <v>0</v>
-      </c>
-      <c r="K14" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="43"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="6">
+        <v>0</v>
+      </c>
+      <c r="U14" s="6">
+        <v>0</v>
+      </c>
+      <c r="V14" s="6">
+        <v>0</v>
+      </c>
+      <c r="W14" s="6">
+        <v>0</v>
+      </c>
+      <c r="X14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>0</v>
+      </c>
       <c r="Z14" s="6">
         <v>0</v>
       </c>
@@ -2581,569 +2532,588 @@
         <v>0</v>
       </c>
       <c r="AF14" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="AK14" s="10" t="s">
-        <v>171</v>
+        <v>176</v>
+      </c>
+      <c r="AL14" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>4</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
-      <c r="J15" s="12">
-        <v>1</v>
-      </c>
-      <c r="K15" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="6">
-        <v>0</v>
-      </c>
-      <c r="R15" s="6">
-        <v>0</v>
-      </c>
-      <c r="S15" s="6">
-        <v>0</v>
-      </c>
-      <c r="T15" s="6">
-        <v>0</v>
-      </c>
-      <c r="U15" s="6">
-        <v>0</v>
-      </c>
-      <c r="V15" s="6">
-        <v>0</v>
-      </c>
-      <c r="W15" s="6">
-        <v>0</v>
-      </c>
-      <c r="X15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI15" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK15" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
+      <c r="B16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>1</v>
+      </c>
+      <c r="K16" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0</v>
+      </c>
+      <c r="S16" s="6">
+        <v>0</v>
+      </c>
+      <c r="T16" s="6">
+        <v>0</v>
+      </c>
+      <c r="U16" s="6">
+        <v>0</v>
+      </c>
+      <c r="V16" s="6">
+        <v>0</v>
+      </c>
+      <c r="W16" s="6">
+        <v>0</v>
+      </c>
+      <c r="X16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI16" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK16" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" s="52">
         <v>2</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
-      <c r="J16" s="12">
-        <v>1</v>
-      </c>
-      <c r="K16" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="6">
-        <v>0</v>
-      </c>
-      <c r="R16" s="6">
-        <v>1</v>
-      </c>
-      <c r="S16" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="T16" s="6">
-        <v>0</v>
-      </c>
-      <c r="U16" s="6">
-        <v>0</v>
-      </c>
-      <c r="V16" s="6">
-        <v>0</v>
-      </c>
-      <c r="W16" s="6">
-        <v>0</v>
-      </c>
-      <c r="X16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC16" s="43"/>
-      <c r="AD16" s="43"/>
-      <c r="AE16" s="43"/>
-      <c r="AF16" s="43"/>
-      <c r="AG16" s="43"/>
-      <c r="AH16" s="43"/>
-      <c r="AI16" s="43"/>
-      <c r="AK16" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
       <c r="B17" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>1</v>
+      </c>
+      <c r="K17" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6">
+        <v>1</v>
+      </c>
+      <c r="S17" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" s="6">
+        <v>0</v>
+      </c>
+      <c r="U17" s="6">
+        <v>0</v>
+      </c>
+      <c r="V17" s="6">
+        <v>0</v>
+      </c>
+      <c r="W17" s="6">
+        <v>0</v>
+      </c>
+      <c r="X17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="47"/>
+      <c r="AK17" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A18" s="52"/>
+      <c r="B18" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12">
+        <v>1</v>
+      </c>
+      <c r="K18" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="6">
+        <v>1</v>
+      </c>
+      <c r="R18" s="6">
+        <v>0</v>
+      </c>
+      <c r="S18" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="T18" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="47"/>
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="47"/>
+      <c r="AK18" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" s="52"/>
+      <c r="B19" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
+        <v>1</v>
+      </c>
+      <c r="K19" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="6">
+        <v>1</v>
+      </c>
+      <c r="R19" s="6">
+        <v>1</v>
+      </c>
+      <c r="S19" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="T19" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="47"/>
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="47"/>
+      <c r="AK19" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20" s="52"/>
+      <c r="B20" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
+        <v>1</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0</v>
-      </c>
-      <c r="J17" s="12">
-        <v>1</v>
-      </c>
-      <c r="K17" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="6">
-        <v>1</v>
-      </c>
-      <c r="R17" s="6">
-        <v>0</v>
-      </c>
-      <c r="S17" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="T17" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="43"/>
-      <c r="AA17" s="43"/>
-      <c r="AB17" s="43"/>
-      <c r="AC17" s="43"/>
-      <c r="AD17" s="43"/>
-      <c r="AE17" s="43"/>
-      <c r="AF17" s="43"/>
-      <c r="AG17" s="43"/>
-      <c r="AH17" s="43"/>
-      <c r="AI17" s="43"/>
-      <c r="AK17" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12">
-        <v>0</v>
-      </c>
-      <c r="J18" s="12">
-        <v>1</v>
-      </c>
-      <c r="K18" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="6">
-        <v>1</v>
-      </c>
-      <c r="R18" s="6">
-        <v>1</v>
-      </c>
-      <c r="S18" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="T18" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="43"/>
-      <c r="AC18" s="43"/>
-      <c r="AD18" s="43"/>
-      <c r="AE18" s="43"/>
-      <c r="AF18" s="43"/>
-      <c r="AG18" s="43"/>
-      <c r="AH18" s="43"/>
-      <c r="AI18" s="43"/>
-      <c r="AK18" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12">
-        <v>1</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K19" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="43"/>
-      <c r="AA19" s="43"/>
-      <c r="AB19" s="43"/>
-      <c r="AC19" s="43"/>
-      <c r="AD19" s="43"/>
-      <c r="AE19" s="43"/>
-      <c r="AF19" s="43"/>
-      <c r="AG19" s="43"/>
-      <c r="AH19" s="43"/>
-      <c r="AI19" s="43"/>
-      <c r="AK19" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="12">
-        <v>1</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K20" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="43"/>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="43"/>
-      <c r="AC20" s="43"/>
-      <c r="AD20" s="43"/>
-      <c r="AE20" s="43"/>
-      <c r="AF20" s="43"/>
-      <c r="AG20" s="43"/>
-      <c r="AH20" s="43"/>
-      <c r="AI20" s="43"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="47"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="47"/>
       <c r="AK20" s="10" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
+        <v>7</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
       <c r="G21" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="12">
-        <v>0</v>
-      </c>
-      <c r="I21" s="12">
-        <v>0</v>
-      </c>
-      <c r="J21" s="12">
-        <v>0</v>
-      </c>
-      <c r="K21" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="43"/>
-      <c r="AA21" s="43"/>
-      <c r="AB21" s="43"/>
-      <c r="AC21" s="43"/>
-      <c r="AD21" s="43"/>
-      <c r="AE21" s="43"/>
-      <c r="AF21" s="43"/>
-      <c r="AG21" s="43"/>
-      <c r="AH21" s="43"/>
-      <c r="AI21" s="43"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="47"/>
+      <c r="AF21" s="47"/>
+      <c r="AG21" s="47"/>
+      <c r="AH21" s="47"/>
+      <c r="AI21" s="47"/>
       <c r="AK21" s="10" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D22" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+      <c r="K22" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="24">
-        <v>1</v>
-      </c>
-      <c r="H22" s="25">
-        <v>0</v>
-      </c>
-      <c r="I22" s="25">
-        <v>0</v>
-      </c>
-      <c r="J22" s="25">
-        <v>1</v>
-      </c>
-      <c r="K22" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="25">
-        <v>0</v>
-      </c>
-      <c r="O22" s="25">
-        <v>0</v>
-      </c>
-      <c r="P22" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="43"/>
-      <c r="AC22" s="43"/>
-      <c r="AD22" s="43"/>
-      <c r="AE22" s="43"/>
-      <c r="AF22" s="43"/>
-      <c r="AG22" s="43"/>
-      <c r="AH22" s="43"/>
-      <c r="AI22" s="43"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="47"/>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="47"/>
+      <c r="AF22" s="47"/>
+      <c r="AG22" s="47"/>
+      <c r="AH22" s="47"/>
+      <c r="AI22" s="47"/>
       <c r="AK22" s="10" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
+        <v>248</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
       <c r="G23" s="24">
         <v>1</v>
       </c>
@@ -3156,11 +3126,11 @@
       <c r="J23" s="25">
         <v>1</v>
       </c>
-      <c r="K23" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
+      <c r="K23" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
       <c r="N23" s="25">
         <v>0</v>
       </c>
@@ -3168,152 +3138,132 @@
         <v>0</v>
       </c>
       <c r="P23" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="25">
-        <v>0</v>
-      </c>
-      <c r="R23" s="25">
-        <v>0</v>
-      </c>
-      <c r="S23" s="24">
-        <v>0</v>
-      </c>
-      <c r="T23" s="24">
-        <v>0</v>
-      </c>
-      <c r="U23" s="24">
-        <v>0</v>
-      </c>
-      <c r="V23" s="24">
-        <v>0</v>
-      </c>
-      <c r="W23" s="24">
-        <v>0</v>
-      </c>
-      <c r="X23" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="AC23" s="43"/>
-      <c r="AD23" s="43"/>
-      <c r="AE23" s="43"/>
-      <c r="AF23" s="43"/>
-      <c r="AG23" s="43"/>
-      <c r="AH23" s="43"/>
-      <c r="AI23" s="43"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="47"/>
+      <c r="AH23" s="47"/>
+      <c r="AI23" s="47"/>
       <c r="AK23" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="6">
-        <v>1</v>
-      </c>
-      <c r="H24" s="6">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6">
-        <v>1</v>
-      </c>
-      <c r="J24" s="6">
-        <v>1</v>
-      </c>
-      <c r="K24" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="6">
-        <v>0</v>
-      </c>
-      <c r="O24" s="6">
-        <v>0</v>
-      </c>
-      <c r="P24" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>0</v>
-      </c>
-      <c r="R24" s="6">
-        <v>0</v>
-      </c>
-      <c r="S24" s="6">
-        <v>0</v>
-      </c>
-      <c r="T24" s="6">
-        <v>0</v>
-      </c>
-      <c r="U24" s="6">
-        <v>0</v>
-      </c>
-      <c r="V24" s="6">
-        <v>0</v>
-      </c>
-      <c r="W24" s="6">
-        <v>0</v>
-      </c>
-      <c r="X24" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC24" s="43"/>
-      <c r="AD24" s="43"/>
-      <c r="AE24" s="43"/>
-      <c r="AF24" s="43"/>
-      <c r="AG24" s="43"/>
-      <c r="AH24" s="43"/>
-      <c r="AI24" s="43"/>
+        <v>255</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="25">
+        <v>0</v>
+      </c>
+      <c r="I24" s="25">
+        <v>0</v>
+      </c>
+      <c r="J24" s="25">
+        <v>1</v>
+      </c>
+      <c r="K24" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="25">
+        <v>0</v>
+      </c>
+      <c r="O24" s="25">
+        <v>0</v>
+      </c>
+      <c r="P24" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="25">
+        <v>0</v>
+      </c>
+      <c r="R24" s="25">
+        <v>0</v>
+      </c>
+      <c r="S24" s="24">
+        <v>0</v>
+      </c>
+      <c r="T24" s="24">
+        <v>0</v>
+      </c>
+      <c r="U24" s="24">
+        <v>0</v>
+      </c>
+      <c r="V24" s="24">
+        <v>0</v>
+      </c>
+      <c r="W24" s="24">
+        <v>0</v>
+      </c>
+      <c r="X24" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="47"/>
+      <c r="AF24" s="47"/>
+      <c r="AG24" s="47"/>
+      <c r="AH24" s="47"/>
+      <c r="AI24" s="47"/>
       <c r="AK24" s="10" t="s">
-        <v>84</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
+        <v>82</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
       <c r="G25" s="6">
         <v>1</v>
       </c>
@@ -3326,11 +3276,11 @@
       <c r="J25" s="6">
         <v>1</v>
       </c>
-      <c r="K25" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
+      <c r="K25" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
       <c r="N25" s="6">
         <v>0</v>
       </c>
@@ -3371,34 +3321,34 @@
         <v>0</v>
       </c>
       <c r="AA25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC25" s="43"/>
-      <c r="AD25" s="43"/>
-      <c r="AE25" s="43"/>
-      <c r="AF25" s="43"/>
-      <c r="AG25" s="43"/>
-      <c r="AH25" s="43"/>
-      <c r="AI25" s="43"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="47"/>
+      <c r="AF25" s="47"/>
+      <c r="AG25" s="47"/>
+      <c r="AH25" s="47"/>
+      <c r="AI25" s="47"/>
       <c r="AK25" s="10" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
+        <v>89</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
       <c r="G26" s="6">
         <v>1</v>
       </c>
@@ -3411,11 +3361,11 @@
       <c r="J26" s="6">
         <v>1</v>
       </c>
-      <c r="K26" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
+      <c r="K26" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
       <c r="N26" s="6">
         <v>0</v>
       </c>
@@ -3458,154 +3408,202 @@
       <c r="AA26" s="6">
         <v>1</v>
       </c>
-      <c r="AB26" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD26" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="6">
-        <v>1</v>
-      </c>
-      <c r="AF26" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG26" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH26" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI26" s="6">
-        <v>1</v>
-      </c>
-      <c r="AK26" s="10"/>
+      <c r="AB26" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="47"/>
+      <c r="AH26" s="47"/>
+      <c r="AI26" s="47"/>
+      <c r="AK26" s="10" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1</v>
+      </c>
+      <c r="J27" s="6">
+        <v>1</v>
+      </c>
+      <c r="K27" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="6">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>0</v>
+      </c>
+      <c r="R27" s="6">
+        <v>0</v>
+      </c>
+      <c r="S27" s="6">
+        <v>0</v>
+      </c>
+      <c r="T27" s="6">
+        <v>0</v>
+      </c>
+      <c r="U27" s="6">
+        <v>0</v>
+      </c>
+      <c r="V27" s="6">
+        <v>0</v>
+      </c>
+      <c r="W27" s="6">
+        <v>0</v>
+      </c>
+      <c r="X27" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="10"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>12</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="6">
-        <v>1</v>
-      </c>
-      <c r="H27" s="6">
-        <v>1</v>
-      </c>
-      <c r="I27" s="6">
-        <v>1</v>
-      </c>
-      <c r="J27" s="6">
-        <v>1</v>
-      </c>
-      <c r="K27" s="6">
-        <v>1</v>
-      </c>
-      <c r="L27" s="6">
-        <v>1</v>
-      </c>
-      <c r="M27" s="6">
-        <v>1</v>
-      </c>
-      <c r="N27" s="6">
-        <v>1</v>
-      </c>
-      <c r="O27" s="6">
-        <v>1</v>
-      </c>
-      <c r="P27" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="6">
-        <v>1</v>
-      </c>
-      <c r="R27" s="6">
-        <v>1</v>
-      </c>
-      <c r="S27" s="6">
-        <v>1</v>
-      </c>
-      <c r="T27" s="6">
-        <v>1</v>
-      </c>
-      <c r="U27" s="6">
-        <v>1</v>
-      </c>
-      <c r="V27" s="6">
-        <v>1</v>
-      </c>
-      <c r="W27" s="6">
-        <v>1</v>
-      </c>
-      <c r="X27" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC27" s="43"/>
-      <c r="AD27" s="43"/>
-      <c r="AE27" s="43"/>
-      <c r="AF27" s="43"/>
-      <c r="AG27" s="43"/>
-      <c r="AH27" s="43"/>
-      <c r="AI27" s="43"/>
-    </row>
-    <row r="34" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
-      <c r="AC34" s="6"/>
-      <c r="AD34" s="6"/>
-      <c r="AE34" s="6"/>
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="6"/>
-      <c r="AH34" s="6"/>
-      <c r="AI34" s="6"/>
-      <c r="AK34" s="10"/>
+      <c r="B28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1</v>
+      </c>
+      <c r="J28" s="6">
+        <v>1</v>
+      </c>
+      <c r="K28" s="6">
+        <v>1</v>
+      </c>
+      <c r="L28" s="6">
+        <v>1</v>
+      </c>
+      <c r="M28" s="6">
+        <v>1</v>
+      </c>
+      <c r="N28" s="6">
+        <v>1</v>
+      </c>
+      <c r="O28" s="6">
+        <v>1</v>
+      </c>
+      <c r="P28" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>1</v>
+      </c>
+      <c r="R28" s="6">
+        <v>1</v>
+      </c>
+      <c r="S28" s="6">
+        <v>1</v>
+      </c>
+      <c r="T28" s="6">
+        <v>1</v>
+      </c>
+      <c r="U28" s="6">
+        <v>1</v>
+      </c>
+      <c r="V28" s="6">
+        <v>1</v>
+      </c>
+      <c r="W28" s="6">
+        <v>1</v>
+      </c>
+      <c r="X28" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="47"/>
+      <c r="AF28" s="47"/>
+      <c r="AG28" s="47"/>
+      <c r="AH28" s="47"/>
+      <c r="AI28" s="47"/>
     </row>
     <row r="35" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
@@ -3720,6 +3718,7 @@
     </row>
     <row r="38" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -4114,7 +4113,7 @@
       <c r="AI48" s="6"/>
       <c r="AK48" s="10"/>
     </row>
-    <row r="49" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -4148,83 +4147,119 @@
       <c r="AG49" s="6"/>
       <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
-    </row>
-    <row r="50" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AK49" s="10"/>
+    </row>
+    <row r="50" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="6"/>
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="6"/>
+      <c r="AF50" s="6"/>
+      <c r="AG50" s="6"/>
+      <c r="AH50" s="6"/>
+      <c r="AI50" s="6"/>
+    </row>
+    <row r="51" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B51" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="Q23:V23"/>
+    <mergeCell ref="W23:AI23"/>
+    <mergeCell ref="AB24:AI24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="AB25:AI25"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:S11"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="AB17:AI17"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="T18:AI18"/>
     <mergeCell ref="K12:M12"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="AB28:AI28"/>
+    <mergeCell ref="N20:AI20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="N22:AI22"/>
+    <mergeCell ref="N21:AI21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="T19:AI19"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="AB26:AI26"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D19:F19"/>
     <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="D21:F21"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="AD13:AI13"/>
+    <mergeCell ref="A10:A13"/>
     <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="AB27:AI27"/>
-    <mergeCell ref="N19:AI19"/>
-    <mergeCell ref="K19:M19"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="N21:AI21"/>
-    <mergeCell ref="N20:AI20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="T18:AI18"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="AB25:AI25"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="AB24:AI24"/>
+    <mergeCell ref="AD10:AI10"/>
     <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:S10"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="AB16:AI16"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="T17:AI17"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="Q22:V22"/>
-    <mergeCell ref="W22:AI22"/>
-    <mergeCell ref="AB23:AI23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="AD9:AI9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4233,10 +4268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4252,7 +4287,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4275,39 +4310,17 @@
     </row>
     <row r="2" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="U3" t="s">
-        <v>3</v>
+      <c r="B3" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="33" t="s">
-        <v>306</v>
+        <v>143</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -4325,16 +4338,16 @@
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="U4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" s="33" t="s">
-        <v>14</v>
+        <v>304</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4351,14 +4364,17 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
+      <c r="U5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" s="33" t="s">
-        <v>253</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4376,165 +4392,136 @@
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
         <v>15</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="4">
         <v>14</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F9" s="4">
         <v>13</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G9" s="4">
         <v>12</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H9" s="4">
         <v>11</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I9" s="4">
         <v>10</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J9" s="4">
         <v>9</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K9" s="4">
         <v>8</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L9" s="4">
         <v>7</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M9" s="4">
         <v>6</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N9" s="4">
         <v>5</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O9" s="4">
         <v>4</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P9" s="4">
         <v>3</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q9" s="4">
         <v>2</v>
       </c>
-      <c r="R8" s="4">
-        <v>1</v>
-      </c>
-      <c r="S8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="29">
-        <v>0</v>
-      </c>
-      <c r="E9" s="29">
-        <v>0</v>
-      </c>
-      <c r="F9" s="29">
-        <v>0</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>346</v>
-      </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="29">
-        <v>0</v>
-      </c>
-      <c r="S9" s="29">
+      <c r="R9" s="4">
+        <v>1</v>
+      </c>
+      <c r="S9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="D10" s="32">
-        <v>0</v>
-      </c>
-      <c r="E10" s="32">
-        <v>0</v>
-      </c>
-      <c r="F10" s="32">
-        <v>1</v>
-      </c>
-      <c r="G10" s="32">
-        <v>0</v>
-      </c>
-      <c r="H10" s="32">
-        <v>0</v>
-      </c>
-      <c r="I10" s="32">
-        <v>0</v>
-      </c>
-      <c r="J10" s="32">
-        <v>0</v>
-      </c>
-      <c r="K10" s="32">
-        <v>0</v>
-      </c>
-      <c r="L10" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="29">
+        <v>0</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0</v>
+      </c>
+      <c r="F10" s="29">
+        <v>0</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="43"/>
-      <c r="P10" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="29">
-        <v>0</v>
-      </c>
-      <c r="R10" s="32">
-        <v>1</v>
-      </c>
-      <c r="S10" s="30" t="s">
-        <v>85</v>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="29">
+        <v>0</v>
+      </c>
+      <c r="S10" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="29"/>
+        <v>345</v>
+      </c>
       <c r="D11" s="32">
         <v>0</v>
       </c>
@@ -4559,34 +4546,33 @@
       <c r="K11" s="32">
         <v>0</v>
       </c>
-      <c r="L11" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="43"/>
-      <c r="P11" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="32">
-        <v>1</v>
+      <c r="L11" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="47"/>
+      <c r="P11" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>0</v>
       </c>
       <c r="R11" s="32">
-        <v>0</v>
-      </c>
-      <c r="S11" s="32">
-        <v>0</v>
-      </c>
-      <c r="U11" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="S11" s="30" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="32">
@@ -4601,26 +4587,38 @@
       <c r="G12" s="32">
         <v>0</v>
       </c>
-      <c r="H12" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="42"/>
+      <c r="H12" s="32">
+        <v>0</v>
+      </c>
+      <c r="I12" s="32">
+        <v>0</v>
+      </c>
       <c r="J12" s="32">
         <v>0</v>
       </c>
       <c r="K12" s="32">
-        <v>1</v>
-      </c>
-      <c r="L12" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="47"/>
+      <c r="P12" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="32">
+        <v>1</v>
+      </c>
+      <c r="R12" s="32">
+        <v>0</v>
+      </c>
+      <c r="S12" s="32">
+        <v>0</v>
+      </c>
       <c r="U12" s="10"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -4628,7 +4626,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="32">
@@ -4643,289 +4641,311 @@
       <c r="G13" s="32">
         <v>0</v>
       </c>
-      <c r="H13" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="42"/>
+      <c r="H13" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="51"/>
       <c r="J13" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="32">
-        <v>0</v>
-      </c>
-      <c r="L13" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
       <c r="U13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="32">
         <v>0</v>
       </c>
       <c r="E14" s="32">
-        <v>1</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="42"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="32">
+        <v>1</v>
+      </c>
+      <c r="G14" s="32">
+        <v>0</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="51"/>
       <c r="J14" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="32">
         <v>0</v>
       </c>
-      <c r="L14" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
+      <c r="L14" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
       <c r="U14" s="10"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="32">
+        <v>0</v>
+      </c>
+      <c r="E15" s="32">
+        <v>1</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="51"/>
+      <c r="J15" s="32">
+        <v>0</v>
+      </c>
+      <c r="K15" s="32">
+        <v>0</v>
+      </c>
+      <c r="L15" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="U15" s="10"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>6</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="D15" s="32">
-        <v>0</v>
-      </c>
-      <c r="E15" s="32">
-        <v>1</v>
-      </c>
-      <c r="F15" s="32">
-        <v>1</v>
-      </c>
-      <c r="G15" s="32">
-        <v>1</v>
-      </c>
-      <c r="H15" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="32">
-        <v>1</v>
-      </c>
-      <c r="L15" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="U15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
+      <c r="B16" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="D16" s="32">
+        <v>0</v>
+      </c>
+      <c r="E16" s="32">
+        <v>1</v>
+      </c>
+      <c r="F16" s="32">
+        <v>1</v>
+      </c>
+      <c r="G16" s="32">
+        <v>1</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="32">
+        <v>1</v>
+      </c>
+      <c r="L16" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="U16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="52">
         <v>13</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B17" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="D17" s="32">
+        <v>1</v>
+      </c>
+      <c r="E17" s="32">
+        <v>0</v>
+      </c>
+      <c r="F17" s="32">
+        <v>0</v>
+      </c>
+      <c r="G17" s="32">
+        <v>0</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>347</v>
+      </c>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51" t="s">
+        <v>350</v>
+      </c>
+      <c r="K17" s="51"/>
+      <c r="L17" s="32">
+        <v>0</v>
+      </c>
+      <c r="M17" s="32">
+        <v>0</v>
+      </c>
+      <c r="N17" s="32">
+        <v>0</v>
+      </c>
+      <c r="O17" s="32">
+        <v>0</v>
+      </c>
+      <c r="P17" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="32">
+        <v>0</v>
+      </c>
+      <c r="R17" s="32">
+        <v>0</v>
+      </c>
+      <c r="S17" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="52"/>
+      <c r="B18" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="D18" s="32">
+        <v>1</v>
+      </c>
+      <c r="E18" s="32">
+        <v>0</v>
+      </c>
+      <c r="F18" s="32">
+        <v>0</v>
+      </c>
+      <c r="G18" s="32">
+        <v>0</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>347</v>
+      </c>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51" t="s">
+        <v>350</v>
+      </c>
+      <c r="K18" s="51"/>
+      <c r="L18" s="32">
+        <v>0</v>
+      </c>
+      <c r="M18" s="32">
+        <v>0</v>
+      </c>
+      <c r="N18" s="32">
+        <v>0</v>
+      </c>
+      <c r="O18" s="32">
+        <v>0</v>
+      </c>
+      <c r="P18" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="32">
+        <v>0</v>
+      </c>
+      <c r="R18" s="32">
+        <v>1</v>
+      </c>
+      <c r="S18" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="D16" s="32">
-        <v>1</v>
-      </c>
-      <c r="E16" s="32">
-        <v>0</v>
-      </c>
-      <c r="F16" s="32">
-        <v>0</v>
-      </c>
-      <c r="G16" s="32">
-        <v>0</v>
-      </c>
-      <c r="H16" s="42" t="s">
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="52"/>
+      <c r="B19" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42" t="s">
-        <v>352</v>
-      </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="32">
-        <v>0</v>
-      </c>
-      <c r="M16" s="32">
-        <v>0</v>
-      </c>
-      <c r="N16" s="32">
-        <v>0</v>
-      </c>
-      <c r="O16" s="32">
-        <v>0</v>
-      </c>
-      <c r="P16" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="32">
-        <v>0</v>
-      </c>
-      <c r="R16" s="32">
-        <v>0</v>
-      </c>
-      <c r="S16" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="U16" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="33" t="s">
-        <v>355</v>
-      </c>
-      <c r="D17" s="32">
-        <v>1</v>
-      </c>
-      <c r="E17" s="32">
-        <v>0</v>
-      </c>
-      <c r="F17" s="32">
-        <v>0</v>
-      </c>
-      <c r="G17" s="32">
-        <v>0</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>349</v>
-      </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42" t="s">
-        <v>352</v>
-      </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="32">
-        <v>0</v>
-      </c>
-      <c r="M17" s="32">
-        <v>0</v>
-      </c>
-      <c r="N17" s="32">
-        <v>0</v>
-      </c>
-      <c r="O17" s="32">
-        <v>0</v>
-      </c>
-      <c r="P17" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="32">
-        <v>0</v>
-      </c>
-      <c r="R17" s="32">
-        <v>1</v>
-      </c>
-      <c r="S17" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="U17" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="33" t="s">
+      <c r="D19" s="32">
+        <v>1</v>
+      </c>
+      <c r="E19" s="32">
+        <v>0</v>
+      </c>
+      <c r="F19" s="32">
+        <v>0</v>
+      </c>
+      <c r="G19" s="32">
+        <v>0</v>
+      </c>
+      <c r="H19" s="50" t="s">
+        <v>342</v>
+      </c>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="32">
+        <v>0</v>
+      </c>
+      <c r="M19" s="32">
+        <v>0</v>
+      </c>
+      <c r="N19" s="32">
+        <v>0</v>
+      </c>
+      <c r="O19" s="32">
+        <v>0</v>
+      </c>
+      <c r="P19" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="32">
+        <v>1</v>
+      </c>
+      <c r="R19" s="32">
+        <v>0</v>
+      </c>
+      <c r="S19" s="32">
+        <v>0</v>
+      </c>
+      <c r="U19" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="D18" s="32">
-        <v>1</v>
-      </c>
-      <c r="E18" s="32">
-        <v>0</v>
-      </c>
-      <c r="F18" s="32">
-        <v>0</v>
-      </c>
-      <c r="G18" s="32">
-        <v>0</v>
-      </c>
-      <c r="H18" s="44" t="s">
-        <v>344</v>
-      </c>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="32">
-        <v>0</v>
-      </c>
-      <c r="M18" s="32">
-        <v>0</v>
-      </c>
-      <c r="N18" s="32">
-        <v>0</v>
-      </c>
-      <c r="O18" s="32">
-        <v>0</v>
-      </c>
-      <c r="P18" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="32">
-        <v>1</v>
-      </c>
-      <c r="R18" s="32">
-        <v>0</v>
-      </c>
-      <c r="S18" s="32">
-        <v>0</v>
-      </c>
-      <c r="U18" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="33"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="U19" s="10"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B20" s="33"/>
@@ -5065,6 +5085,7 @@
       <c r="Q26" s="32"/>
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
+      <c r="U26" s="10"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B27" s="33"/>
@@ -5086,6 +5107,7 @@
       <c r="S27" s="32"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B28" s="33"/>
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
@@ -5100,31 +5122,49 @@
       <c r="O28" s="32"/>
       <c r="P28" s="32"/>
       <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="L16:S16"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L12:S12"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H15:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5135,8 +5175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5154,35 +5194,35 @@
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B1" s="36">
         <v>1</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
+      <c r="A2" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="57"/>
       <c r="M2" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5209,31 +5249,31 @@
         <v>0</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6">
@@ -5263,24 +5303,24 @@
         <v>30h</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6">
@@ -5310,24 +5350,24 @@
         <v>31h</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6">
@@ -5357,24 +5397,24 @@
         <v>32h</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6">
@@ -5404,24 +5444,24 @@
         <v>33h</v>
       </c>
       <c r="L7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6">
@@ -5451,15 +5491,15 @@
         <v>34h</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6">
@@ -5489,21 +5529,21 @@
         <v>36h</v>
       </c>
       <c r="L9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6">
@@ -5533,21 +5573,21 @@
         <v>37h</v>
       </c>
       <c r="L10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6">
@@ -5577,18 +5617,18 @@
         <v>3Eh</v>
       </c>
       <c r="L11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6">
@@ -5618,18 +5658,18 @@
         <v>3Fh</v>
       </c>
       <c r="L12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6">
@@ -5659,18 +5699,18 @@
         <v>01h</v>
       </c>
       <c r="L13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6">
@@ -5700,18 +5740,18 @@
         <v>02h</v>
       </c>
       <c r="L14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6">
@@ -5741,18 +5781,18 @@
         <v>03h</v>
       </c>
       <c r="L15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6">
@@ -5782,18 +5822,18 @@
         <v>04h</v>
       </c>
       <c r="L16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6">
@@ -5823,18 +5863,18 @@
         <v>05h</v>
       </c>
       <c r="L17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6">
@@ -5864,13 +5904,13 @@
         <v>06h</v>
       </c>
       <c r="L18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -5914,7 +5954,7 @@
         <v>Rd = Rs + Rm</v>
       </c>
       <c r="N19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -5958,7 +5998,7 @@
         <v>Rd = Rs - Rm</v>
       </c>
       <c r="N20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -6002,7 +6042,7 @@
         <v>Rd = Rs * Rm</v>
       </c>
       <c r="N21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -6046,7 +6086,7 @@
         <v>Rd = Rs / Rm</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -6090,7 +6130,7 @@
         <v>Rd = Rs ^ Rm</v>
       </c>
       <c r="N23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -6134,12 +6174,12 @@
         <v>Rd = Rs % Rm</v>
       </c>
       <c r="N24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6">
@@ -6169,18 +6209,18 @@
         <v>07h</v>
       </c>
       <c r="L25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6">
@@ -6210,18 +6250,18 @@
         <v>08h</v>
       </c>
       <c r="L26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6">
@@ -6251,18 +6291,18 @@
         <v>09h</v>
       </c>
       <c r="L27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6">
@@ -6292,18 +6332,18 @@
         <v>0Ah</v>
       </c>
       <c r="L28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6">
@@ -6333,18 +6373,18 @@
         <v>0Bh</v>
       </c>
       <c r="L29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6">
@@ -6374,18 +6414,18 @@
         <v>0Ch</v>
       </c>
       <c r="L30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6">
@@ -6415,18 +6455,18 @@
         <v>10h</v>
       </c>
       <c r="L31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6">
@@ -6456,18 +6496,18 @@
         <v>11h</v>
       </c>
       <c r="L32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6">
@@ -6497,18 +6537,18 @@
         <v>12h</v>
       </c>
       <c r="L33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6">
@@ -6538,18 +6578,18 @@
         <v>13h</v>
       </c>
       <c r="L34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6">
@@ -6579,18 +6619,18 @@
         <v>14h</v>
       </c>
       <c r="L35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6">
@@ -6620,18 +6660,18 @@
         <v>15h</v>
       </c>
       <c r="L36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6">
@@ -6661,18 +6701,18 @@
         <v>16h</v>
       </c>
       <c r="L37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6">
@@ -6702,18 +6742,18 @@
         <v>17h</v>
       </c>
       <c r="L38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6">
@@ -6743,18 +6783,18 @@
         <v>18h</v>
       </c>
       <c r="L39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M39" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6">
@@ -6784,18 +6824,18 @@
         <v>19h</v>
       </c>
       <c r="L40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6">
@@ -6825,18 +6865,18 @@
         <v>1Ah</v>
       </c>
       <c r="L41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6">
@@ -6866,18 +6906,18 @@
         <v>1Bh</v>
       </c>
       <c r="L42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6">
@@ -6907,18 +6947,18 @@
         <v>1Ch</v>
       </c>
       <c r="L43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6">
@@ -6948,18 +6988,18 @@
         <v>1Dh</v>
       </c>
       <c r="L44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6">
@@ -6989,18 +7029,18 @@
         <v>1Eh</v>
       </c>
       <c r="L45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6">
@@ -7030,18 +7070,18 @@
         <v>1Fh</v>
       </c>
       <c r="L46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="14">
@@ -7072,7 +7112,7 @@
       </c>
       <c r="K47" s="17"/>
       <c r="L47" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -7117,7 +7157,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B1" s="36">
         <v>1</v>
@@ -7127,21 +7167,21 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="A2" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
       <c r="L2" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7165,25 +7205,25 @@
         <v>0</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="29">
@@ -7210,18 +7250,18 @@
         <v>10h</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="29">
@@ -7248,18 +7288,18 @@
         <v>11h</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="29">
@@ -7286,18 +7326,18 @@
         <v>12h</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29">
@@ -7324,18 +7364,18 @@
         <v>13h</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29">
@@ -7362,15 +7402,15 @@
         <v>1Eh</v>
       </c>
       <c r="K8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29">
@@ -7397,15 +7437,15 @@
         <v>1Fh</v>
       </c>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29">
@@ -7432,18 +7472,18 @@
         <v>01h</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29">
@@ -7470,18 +7510,18 @@
         <v>02h</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29">
@@ -7508,18 +7548,18 @@
         <v>03h</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29">
@@ -7546,18 +7586,18 @@
         <v>04h</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29">
@@ -7584,18 +7624,18 @@
         <v>05h</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29">
@@ -7622,18 +7662,18 @@
         <v>06h</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="29">
@@ -7660,18 +7700,18 @@
         <v>07h</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="29">
@@ -7698,18 +7738,18 @@
         <v>08h</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="29">
@@ -7736,18 +7776,18 @@
         <v>09h</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29">
@@ -7774,18 +7814,18 @@
         <v>0Ah</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="29">
@@ -7812,18 +7852,18 @@
         <v>0Bh</v>
       </c>
       <c r="K20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="29">
@@ -7850,18 +7890,18 @@
         <v>0Ch</v>
       </c>
       <c r="K21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="29">
@@ -7888,18 +7928,18 @@
         <v>0Dh</v>
       </c>
       <c r="K22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14">
@@ -7927,7 +7967,7 @@
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -7954,7 +7994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -7970,13 +8010,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B1" s="36">
         <v>2</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -7984,7 +8024,7 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="28"/>
@@ -7994,129 +8034,129 @@
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" t="s">
+        <v>230</v>
+      </c>
+      <c r="F9" t="s">
         <v>223</v>
-      </c>
-      <c r="E9" t="s">
-        <v>232</v>
-      </c>
-      <c r="F9" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="28"/>
@@ -8126,118 +8166,118 @@
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B19" s="36">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -8245,42 +8285,42 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B20" s="38"/>
       <c r="C20" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" t="s">
         <v>261</v>
       </c>
-      <c r="C21" t="s">
-        <v>263</v>
-      </c>
       <c r="D21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B22" s="36">
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -8288,87 +8328,87 @@
     </row>
     <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B23" s="38"/>
       <c r="C23" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="C24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E24" t="s">
         <v>264</v>
-      </c>
-      <c r="C24" t="s">
-        <v>265</v>
-      </c>
-      <c r="D24" t="s">
-        <v>296</v>
-      </c>
-      <c r="E24" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C25" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D25" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E25" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D26" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D27" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E27" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B28" s="36">
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -8376,78 +8416,78 @@
     </row>
     <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B29" s="38"/>
       <c r="C29" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E30" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D31" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E31" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D32" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E32" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E33" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B34" s="36">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -8455,144 +8495,144 @@
     </row>
     <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B35" s="38"/>
       <c r="C35" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D36" t="s">
+        <v>322</v>
+      </c>
+      <c r="E36" t="s">
         <v>324</v>
       </c>
-      <c r="E36" t="s">
-        <v>326</v>
-      </c>
       <c r="F36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C37" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D37" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E37" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F37" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C38" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D38" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E38" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C39" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D39" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C40" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D40" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E40" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F40" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C41" t="s">
+        <v>335</v>
+      </c>
+      <c r="D41" t="s">
+        <v>326</v>
+      </c>
+      <c r="E41" t="s">
         <v>337</v>
-      </c>
-      <c r="D41" t="s">
-        <v>328</v>
-      </c>
-      <c r="E41" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C42" t="s">
+        <v>336</v>
+      </c>
+      <c r="D42" t="s">
+        <v>326</v>
+      </c>
+      <c r="E42" t="s">
         <v>338</v>
-      </c>
-      <c r="D42" t="s">
-        <v>328</v>
-      </c>
-      <c r="E42" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B43" s="36">
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -8600,31 +8640,31 @@
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B44" s="38"/>
       <c r="C44" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B46" s="36">
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -8632,31 +8672,31 @@
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B47" s="38"/>
       <c r="C47" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B49" s="36">
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -8664,31 +8704,31 @@
     </row>
     <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B50" s="38"/>
       <c r="C50" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B52" s="36">
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -8696,31 +8736,31 @@
     </row>
     <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B53" s="38"/>
       <c r="C53" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B55" s="36">
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -8728,31 +8768,31 @@
     </row>
     <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B56" s="38"/>
       <c r="C56" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B58" s="36">
         <v>12</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -8760,20 +8800,20 @@
     </row>
     <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B59" s="38"/>
       <c r="C59" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -8798,20 +8838,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
+      <c r="A1" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8844,15 +8884,15 @@
         <v>0</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C4" s="25">
         <v>0</v>
@@ -8889,7 +8929,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C5" s="25">
         <v>0</v>
@@ -8926,7 +8966,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C6" s="25">
         <v>0</v>
@@ -8963,7 +9003,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C7" s="25">
         <v>0</v>
@@ -9086,10 +9126,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AJ41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9103,7 +9143,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>92</v>
+        <v>361</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -9243,88 +9283,168 @@
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
+      <c r="A4" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="C4" s="41">
+        <v>0</v>
+      </c>
+      <c r="D4" s="41">
+        <v>0</v>
+      </c>
+      <c r="E4" s="41">
+        <v>0</v>
+      </c>
+      <c r="F4" s="41">
+        <v>0</v>
+      </c>
+      <c r="G4" s="41">
+        <v>0</v>
+      </c>
+      <c r="H4" s="41">
+        <v>0</v>
+      </c>
+      <c r="I4" s="41">
+        <v>0</v>
+      </c>
+      <c r="J4" s="41">
+        <v>0</v>
+      </c>
+      <c r="K4" s="41">
+        <v>0</v>
+      </c>
+      <c r="L4" s="41">
+        <v>0</v>
+      </c>
+      <c r="M4" s="41">
+        <v>0</v>
+      </c>
+      <c r="N4" s="41">
+        <v>0</v>
+      </c>
+      <c r="O4" s="41">
+        <v>0</v>
+      </c>
+      <c r="P4" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="41">
+        <v>0</v>
+      </c>
+      <c r="R4" s="41">
+        <v>0</v>
+      </c>
+      <c r="S4" s="41">
+        <v>0</v>
+      </c>
+      <c r="T4" s="41">
+        <v>0</v>
+      </c>
+      <c r="U4" s="41">
+        <v>0</v>
+      </c>
+      <c r="V4" s="41">
+        <v>0</v>
+      </c>
+      <c r="W4" s="41">
+        <v>0</v>
+      </c>
+      <c r="X4" s="41">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="41">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
       <c r="AJ4" s="10"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1</v>
-      </c>
-      <c r="K5" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
+      <c r="A5" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="C5" s="41">
+        <v>0</v>
+      </c>
+      <c r="D5" s="41">
+        <v>0</v>
+      </c>
+      <c r="E5" s="41">
+        <v>0</v>
+      </c>
+      <c r="F5" s="41">
+        <v>0</v>
+      </c>
+      <c r="G5" s="41">
+        <v>0</v>
+      </c>
+      <c r="H5" s="41">
+        <v>0</v>
+      </c>
+      <c r="I5" s="41">
+        <v>0</v>
+      </c>
+      <c r="J5" s="41">
+        <v>0</v>
+      </c>
+      <c r="K5" s="41">
+        <v>0</v>
+      </c>
+      <c r="L5" s="41">
+        <v>0</v>
+      </c>
+      <c r="M5" s="41">
+        <v>0</v>
+      </c>
+      <c r="N5" s="41">
+        <v>0</v>
+      </c>
+      <c r="O5" s="41">
+        <v>0</v>
+      </c>
+      <c r="P5" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="41">
+        <v>0</v>
+      </c>
+      <c r="R5" s="41">
+        <v>0</v>
+      </c>
+      <c r="S5" s="41">
+        <v>0</v>
+      </c>
+      <c r="T5" s="41">
+        <v>0</v>
+      </c>
+      <c r="U5" s="41">
+        <v>0</v>
+      </c>
+      <c r="V5" s="41">
+        <v>0</v>
+      </c>
+      <c r="W5" s="41">
+        <v>1</v>
+      </c>
+      <c r="X5" s="43" t="s">
+        <v>364</v>
+      </c>
       <c r="Y5" s="43"/>
       <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
+      <c r="AA5" s="43" t="s">
+        <v>81</v>
+      </c>
       <c r="AB5" s="43"/>
       <c r="AC5" s="43"/>
       <c r="AD5" s="43"/>
@@ -9332,103 +9452,125 @@
       <c r="AF5" s="43"/>
       <c r="AG5" s="43"/>
       <c r="AH5" s="43"/>
-      <c r="AJ5" s="10"/>
+      <c r="AJ5" s="10" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="47"/>
+      <c r="AJ6" s="10"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="43"/>
-      <c r="AF6" s="43"/>
-      <c r="AG6" s="43"/>
-      <c r="AH6" s="43"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="10"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="6"/>
       <c r="AJ7" s="10"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
@@ -9515,12 +9657,12 @@
       <c r="J10" s="6"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -9546,17 +9688,17 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="6"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
@@ -9582,33 +9724,33 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
       <c r="AJ12" s="10"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
@@ -9653,12 +9795,12 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -9673,14 +9815,14 @@
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
       <c r="AJ14" s="10"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
@@ -9745,14 +9887,14 @@
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
       <c r="AJ16" s="10"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
@@ -9765,8 +9907,8 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -9781,93 +9923,92 @@
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AJ17" s="10"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
       <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
-      <c r="AJ19" s="10"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
       <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AJ20" s="10"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AJ21" s="10"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -10093,6 +10234,7 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -10521,17 +10663,55 @@
       <c r="AF39" s="6"/>
       <c r="AG39" s="6"/>
       <c r="AH39" s="6"/>
+      <c r="AJ39" s="10"/>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="6"/>
+      <c r="AH40" s="6"/>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="K4:AH4"/>
-    <mergeCell ref="K5:AH5"/>
-    <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="S6:Z6"/>
-    <mergeCell ref="K6:R6"/>
+  <mergeCells count="7">
+    <mergeCell ref="K6:AH6"/>
+    <mergeCell ref="AA7:AH7"/>
+    <mergeCell ref="S7:Z7"/>
+    <mergeCell ref="K7:R7"/>
+    <mergeCell ref="AA4:AH4"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AH5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10540,10 +10720,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10557,7 +10737,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -10632,366 +10812,386 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="41">
+        <v>0</v>
+      </c>
+      <c r="D4" s="41">
+        <v>0</v>
+      </c>
+      <c r="E4" s="41">
+        <v>0</v>
+      </c>
+      <c r="F4" s="41">
+        <v>0</v>
+      </c>
+      <c r="G4" s="41">
+        <v>0</v>
+      </c>
+      <c r="H4" s="41">
+        <v>0</v>
+      </c>
+      <c r="I4" s="41">
+        <v>0</v>
+      </c>
+      <c r="J4" s="41">
+        <v>0</v>
+      </c>
+      <c r="K4" s="41">
+        <v>0</v>
+      </c>
+      <c r="L4" s="41">
+        <v>0</v>
+      </c>
+      <c r="M4" s="41">
+        <v>0</v>
+      </c>
+      <c r="N4" s="41">
+        <v>0</v>
+      </c>
+      <c r="O4" s="41">
+        <v>0</v>
+      </c>
+      <c r="P4" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="41">
+        <v>0</v>
+      </c>
+      <c r="R4" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="T4" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="T4" s="10" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="40">
+        <v>0</v>
+      </c>
+      <c r="D5" s="40">
+        <v>0</v>
+      </c>
+      <c r="E5" s="40">
+        <v>0</v>
+      </c>
+      <c r="F5" s="40">
+        <v>0</v>
+      </c>
+      <c r="G5" s="40">
+        <v>0</v>
+      </c>
+      <c r="H5" s="40">
+        <v>0</v>
+      </c>
+      <c r="I5" s="40">
+        <v>0</v>
+      </c>
+      <c r="J5" s="40">
+        <v>0</v>
+      </c>
+      <c r="K5" s="40">
+        <v>0</v>
+      </c>
+      <c r="L5" s="40">
+        <v>0</v>
+      </c>
+      <c r="M5" s="40">
+        <v>0</v>
+      </c>
+      <c r="N5" s="40">
+        <v>0</v>
+      </c>
+      <c r="O5" s="40">
+        <v>0</v>
+      </c>
+      <c r="P5" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="40">
+        <v>1</v>
+      </c>
+      <c r="R5" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="40">
+        <v>0</v>
+      </c>
+      <c r="D6" s="40">
+        <v>0</v>
+      </c>
+      <c r="E6" s="40">
+        <v>0</v>
+      </c>
+      <c r="F6" s="40">
+        <v>0</v>
+      </c>
+      <c r="G6" s="40">
+        <v>0</v>
+      </c>
+      <c r="H6" s="40">
+        <v>0</v>
+      </c>
+      <c r="I6" s="40">
+        <v>0</v>
+      </c>
+      <c r="J6" s="40">
+        <v>0</v>
+      </c>
+      <c r="K6" s="40">
+        <v>0</v>
+      </c>
+      <c r="L6" s="40">
+        <v>0</v>
+      </c>
+      <c r="M6" s="40">
+        <v>0</v>
+      </c>
+      <c r="N6" s="40">
+        <v>0</v>
+      </c>
+      <c r="O6" s="40">
+        <v>0</v>
+      </c>
+      <c r="P6" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="40">
+        <v>0</v>
+      </c>
+      <c r="R6" s="40" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="C5" s="31">
-        <v>0</v>
-      </c>
-      <c r="D5" s="31">
-        <v>0</v>
-      </c>
-      <c r="E5" s="31">
-        <v>0</v>
-      </c>
-      <c r="F5" s="31">
-        <v>0</v>
-      </c>
-      <c r="G5" s="31">
-        <v>0</v>
-      </c>
-      <c r="H5" s="31">
-        <v>0</v>
-      </c>
-      <c r="I5" s="31">
-        <v>0</v>
-      </c>
-      <c r="J5" s="31">
-        <v>0</v>
-      </c>
-      <c r="K5" s="31">
-        <v>0</v>
-      </c>
-      <c r="L5" s="31">
-        <v>0</v>
-      </c>
-      <c r="M5" s="31">
-        <v>0</v>
-      </c>
-      <c r="N5" s="31">
-        <v>0</v>
-      </c>
-      <c r="O5" s="31">
-        <v>0</v>
-      </c>
-      <c r="P5" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="31">
-        <v>0</v>
-      </c>
-      <c r="R5" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>1</v>
-      </c>
-      <c r="R6" s="6" t="s">
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="40">
+        <v>0</v>
+      </c>
+      <c r="D7" s="40">
+        <v>0</v>
+      </c>
+      <c r="E7" s="40">
+        <v>0</v>
+      </c>
+      <c r="F7" s="40">
+        <v>0</v>
+      </c>
+      <c r="G7" s="40">
+        <v>0</v>
+      </c>
+      <c r="H7" s="40">
+        <v>0</v>
+      </c>
+      <c r="I7" s="40">
+        <v>0</v>
+      </c>
+      <c r="J7" s="40">
+        <v>0</v>
+      </c>
+      <c r="K7" s="40">
+        <v>0</v>
+      </c>
+      <c r="L7" s="40">
+        <v>0</v>
+      </c>
+      <c r="M7" s="40">
+        <v>0</v>
+      </c>
+      <c r="N7" s="40">
+        <v>1</v>
+      </c>
+      <c r="O7" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="40">
+        <v>0</v>
+      </c>
+      <c r="D8" s="40">
+        <v>0</v>
+      </c>
+      <c r="E8" s="40">
+        <v>0</v>
+      </c>
+      <c r="F8" s="40">
+        <v>0</v>
+      </c>
+      <c r="G8" s="40">
+        <v>0</v>
+      </c>
+      <c r="H8" s="40">
+        <v>0</v>
+      </c>
+      <c r="I8" s="40">
+        <v>0</v>
+      </c>
+      <c r="J8" s="40">
+        <v>1</v>
+      </c>
+      <c r="K8" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="T6" s="10"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C7" s="24">
-        <v>0</v>
-      </c>
-      <c r="D7" s="24">
-        <v>0</v>
-      </c>
-      <c r="E7" s="24">
-        <v>0</v>
-      </c>
-      <c r="F7" s="24">
-        <v>0</v>
-      </c>
-      <c r="G7" s="24">
-        <v>0</v>
-      </c>
-      <c r="H7" s="24">
-        <v>0</v>
-      </c>
-      <c r="I7" s="24">
-        <v>0</v>
-      </c>
-      <c r="J7" s="24">
-        <v>0</v>
-      </c>
-      <c r="K7" s="24">
-        <v>0</v>
-      </c>
-      <c r="L7" s="24">
-        <v>0</v>
-      </c>
-      <c r="M7" s="24">
-        <v>0</v>
-      </c>
-      <c r="N7" s="24">
-        <v>0</v>
-      </c>
-      <c r="O7" s="24">
-        <v>0</v>
-      </c>
-      <c r="P7" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="24">
-        <v>0</v>
-      </c>
-      <c r="R7" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="T7" s="10"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="C8" s="29">
-        <v>0</v>
-      </c>
-      <c r="D8" s="29">
-        <v>0</v>
-      </c>
-      <c r="E8" s="29">
-        <v>0</v>
-      </c>
-      <c r="F8" s="29">
-        <v>0</v>
-      </c>
-      <c r="G8" s="29">
-        <v>0</v>
-      </c>
-      <c r="H8" s="29">
-        <v>0</v>
-      </c>
-      <c r="I8" s="29">
-        <v>0</v>
-      </c>
-      <c r="J8" s="29">
-        <v>0</v>
-      </c>
-      <c r="K8" s="29">
-        <v>0</v>
-      </c>
-      <c r="L8" s="29">
-        <v>0</v>
-      </c>
-      <c r="M8" s="29">
-        <v>0</v>
-      </c>
-      <c r="N8" s="29">
-        <v>1</v>
-      </c>
-      <c r="O8" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="40">
+        <v>0</v>
+      </c>
+      <c r="D9" s="40">
+        <v>0</v>
+      </c>
+      <c r="E9" s="40">
+        <v>0</v>
+      </c>
+      <c r="F9" s="40">
+        <v>0</v>
+      </c>
+      <c r="G9" s="40">
+        <v>0</v>
+      </c>
+      <c r="H9" s="40">
+        <v>0</v>
+      </c>
+      <c r="I9" s="40">
+        <v>1</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="T9" s="10"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="40">
+        <v>0</v>
+      </c>
+      <c r="D10" s="40">
+        <v>0</v>
+      </c>
+      <c r="E10" s="40">
+        <v>0</v>
+      </c>
+      <c r="F10" s="40">
+        <v>0</v>
+      </c>
+      <c r="G10" s="40">
+        <v>0</v>
+      </c>
+      <c r="H10" s="40">
+        <v>1</v>
+      </c>
+      <c r="I10" s="40">
+        <v>0</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="T10" s="10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1</v>
-      </c>
-      <c r="K9" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="T9" s="10"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K10" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="T10" s="10"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K11" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
+      <c r="C11" s="40">
+        <v>0</v>
+      </c>
+      <c r="D11" s="40">
+        <v>0</v>
+      </c>
+      <c r="E11" s="40">
+        <v>0</v>
+      </c>
+      <c r="F11" s="40">
+        <v>0</v>
+      </c>
+      <c r="G11" s="40">
+        <v>0</v>
+      </c>
+      <c r="H11" s="40">
+        <v>1</v>
+      </c>
+      <c r="I11" s="40">
+        <v>1</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="K11" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
       <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>143</v>
+        <v>309</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -11006,67 +11206,47 @@
         <v>0</v>
       </c>
       <c r="G12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="6">
-        <v>1</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K12" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="47" t="s">
+        <v>310</v>
+      </c>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
       <c r="T12" s="10"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
-        <v>0</v>
-      </c>
-      <c r="K13" s="43" t="s">
-        <v>312</v>
-      </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
+      <c r="A13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -11207,82 +11387,83 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
-      <c r="T20" s="10"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="T22" s="10"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="T23" s="10"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="T24" s="10"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
@@ -11412,7 +11593,6 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -11649,39 +11829,18 @@
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
-      <c r="T42" s="10"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="C4:R4"/>
+  <mergeCells count="6">
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="K9:R9"/>
     <mergeCell ref="K10:R10"/>
+    <mergeCell ref="K8:R8"/>
     <mergeCell ref="K11:R11"/>
-    <mergeCell ref="K9:R9"/>
-    <mergeCell ref="K12:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/doc/RiscyInstSet32Bit.xlsx
+++ b/doc/RiscyInstSet32Bit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="12690" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Terra" sheetId="1" r:id="rId1"/>
@@ -948,9 +948,6 @@
     <t>Word length</t>
   </si>
   <si>
-    <t>8 General, 4 Special</t>
-  </si>
-  <si>
     <t>TerranVM Terra Insturction Set</t>
   </si>
   <si>
@@ -1129,6 +1126,9 @@
   </si>
   <si>
     <t>rFileID &lt;- File handle</t>
+  </si>
+  <si>
+    <t>8 General, 4 Special, 1 'null' register (returns 0 upon read, throws error upon write)</t>
   </si>
 </sst>
 </file>
@@ -1446,19 +1446,22 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
@@ -1467,13 +1470,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1783,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,7 +1800,7 @@
   <sheetData>
     <row r="1" spans="1:38" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1840,7 +1840,7 @@
     <row r="2" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="10" t="s">
-        <v>305</v>
+        <v>365</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2121,17 +2121,17 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
+      <c r="A10" s="51">
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="11">
         <v>0</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="AD10" s="53" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AE10" s="53"/>
       <c r="AF10" s="53"/>
@@ -2202,15 +2202,15 @@
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="18">
         <v>0</v>
       </c>
@@ -2223,19 +2223,19 @@
       <c r="J11" s="18">
         <v>0</v>
       </c>
-      <c r="K11" s="51" t="s">
+      <c r="K11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="50" t="s">
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
       <c r="T11" s="12">
         <v>0</v>
       </c>
@@ -2289,15 +2289,15 @@
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
       <c r="G12" s="18">
         <v>0</v>
       </c>
@@ -2310,21 +2310,21 @@
       <c r="J12" s="18">
         <v>0</v>
       </c>
-      <c r="K12" s="43" t="s">
+      <c r="K12" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43" t="s">
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="48" t="s">
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
       <c r="T12" s="12">
         <v>0</v>
       </c>
@@ -2378,82 +2378,82 @@
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="31">
+        <v>0</v>
+      </c>
+      <c r="H13" s="31">
+        <v>0</v>
+      </c>
+      <c r="I13" s="31">
+        <v>0</v>
+      </c>
+      <c r="J13" s="31">
+        <v>0</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44" t="s">
         <v>339</v>
       </c>
-      <c r="D13" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="31">
-        <v>0</v>
-      </c>
-      <c r="H13" s="31">
-        <v>0</v>
-      </c>
-      <c r="I13" s="31">
-        <v>0</v>
-      </c>
-      <c r="J13" s="31">
-        <v>0</v>
-      </c>
-      <c r="K13" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47" t="s">
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="32">
+        <v>0</v>
+      </c>
+      <c r="U13" s="29">
+        <v>0</v>
+      </c>
+      <c r="V13" s="29">
+        <v>0</v>
+      </c>
+      <c r="W13" s="29">
+        <v>0</v>
+      </c>
+      <c r="X13" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="29">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="48" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="48"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="48"/>
+      <c r="AK13" s="10" t="s">
         <v>340</v>
-      </c>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="32">
-        <v>0</v>
-      </c>
-      <c r="U13" s="29">
-        <v>0</v>
-      </c>
-      <c r="V13" s="29">
-        <v>0</v>
-      </c>
-      <c r="W13" s="29">
-        <v>0</v>
-      </c>
-      <c r="X13" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="29">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="29">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="43" t="s">
-        <v>343</v>
-      </c>
-      <c r="AE13" s="43"/>
-      <c r="AF13" s="43"/>
-      <c r="AG13" s="43"/>
-      <c r="AH13" s="43"/>
-      <c r="AI13" s="43"/>
-      <c r="AK13" s="10" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
@@ -2463,11 +2463,11 @@
       <c r="B14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
       <c r="G14" s="6">
         <v>0</v>
       </c>
@@ -2480,21 +2480,21 @@
       <c r="J14" s="12">
         <v>0</v>
       </c>
-      <c r="K14" s="47" t="s">
+      <c r="K14" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47" t="s">
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47" t="s">
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
       <c r="T14" s="6">
         <v>0</v>
       </c>
@@ -2534,10 +2534,10 @@
       <c r="AF14" s="6">
         <v>0</v>
       </c>
-      <c r="AG14" s="46" t="s">
+      <c r="AG14" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="AH14" s="46"/>
+      <c r="AH14" s="43"/>
       <c r="AI14" s="22" t="s">
         <v>84</v>
       </c>
@@ -2555,11 +2555,11 @@
       <c r="B15" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="6">
         <v>0</v>
       </c>
@@ -2572,31 +2572,31 @@
       <c r="J15" s="12">
         <v>0</v>
       </c>
-      <c r="K15" s="47" t="s">
+      <c r="K15" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47" t="s">
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47" t="s">
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47" t="s">
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47" t="s">
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="47"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
       <c r="Z15" s="6">
         <v>0</v>
       </c>
@@ -2638,11 +2638,11 @@
       <c r="B16" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="6">
         <v>0</v>
       </c>
@@ -2655,16 +2655,16 @@
       <c r="J16" s="12">
         <v>1</v>
       </c>
-      <c r="K16" s="47" t="s">
+      <c r="K16" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47" t="s">
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
       <c r="Q16" s="6">
         <v>0</v>
       </c>
@@ -2727,17 +2727,17 @@
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" s="52">
+      <c r="A17" s="45">
         <v>2</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="6">
         <v>0</v>
       </c>
@@ -2750,16 +2750,16 @@
       <c r="J17" s="12">
         <v>1</v>
       </c>
-      <c r="K17" s="47" t="s">
+      <c r="K17" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47" t="s">
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
       <c r="Q17" s="6">
         <v>0</v>
       </c>
@@ -2793,30 +2793,30 @@
       <c r="AA17" s="6">
         <v>0</v>
       </c>
-      <c r="AB17" s="47" t="s">
+      <c r="AB17" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="47"/>
-      <c r="AG17" s="47"/>
-      <c r="AH17" s="47"/>
-      <c r="AI17" s="47"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="44"/>
       <c r="AK17" s="10" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="6">
         <v>0</v>
       </c>
@@ -2829,16 +2829,16 @@
       <c r="J18" s="12">
         <v>1</v>
       </c>
-      <c r="K18" s="47" t="s">
+      <c r="K18" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47" t="s">
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
       <c r="Q18" s="6">
         <v>1</v>
       </c>
@@ -2848,38 +2848,38 @@
       <c r="S18" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="T18" s="47" t="s">
+      <c r="T18" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="47"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="47"/>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="47"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="44"/>
       <c r="AK18" s="10" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
       <c r="G19" s="6">
         <v>0</v>
       </c>
@@ -2892,16 +2892,16 @@
       <c r="J19" s="12">
         <v>1</v>
       </c>
-      <c r="K19" s="47" t="s">
+      <c r="K19" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47" t="s">
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
       <c r="Q19" s="6">
         <v>1</v>
       </c>
@@ -2911,38 +2911,38 @@
       <c r="S19" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="T19" s="47" t="s">
+      <c r="T19" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="47"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="44"/>
+      <c r="AI19" s="44"/>
       <c r="AK19" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="6">
         <v>0</v>
       </c>
@@ -2955,35 +2955,35 @@
       <c r="J20" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="K20" s="47" t="s">
+      <c r="K20" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47" t="s">
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="47"/>
-      <c r="AH20" s="47"/>
-      <c r="AI20" s="47"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="44"/>
       <c r="AK20" s="10" t="s">
         <v>178</v>
       </c>
@@ -2995,11 +2995,11 @@
       <c r="B21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
       <c r="G21" s="6">
         <v>0</v>
       </c>
@@ -3012,35 +3012,35 @@
       <c r="J21" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="K21" s="47" t="s">
+      <c r="K21" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47" t="s">
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="47"/>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="47"/>
-      <c r="AF21" s="47"/>
-      <c r="AG21" s="47"/>
-      <c r="AH21" s="47"/>
-      <c r="AI21" s="47"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="44"/>
+      <c r="AH21" s="44"/>
+      <c r="AI21" s="44"/>
       <c r="AK21" s="10" t="s">
         <v>200</v>
       </c>
@@ -3052,11 +3052,11 @@
       <c r="B22" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="6">
         <v>1</v>
       </c>
@@ -3069,35 +3069,35 @@
       <c r="J22" s="12">
         <v>0</v>
       </c>
-      <c r="K22" s="50" t="s">
+      <c r="K22" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="47" t="s">
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="47"/>
-      <c r="AH22" s="47"/>
-      <c r="AI22" s="47"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="44"/>
+      <c r="AI22" s="44"/>
       <c r="AK22" s="10" t="s">
         <v>192</v>
       </c>
@@ -3109,11 +3109,11 @@
       <c r="B23" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
       <c r="G23" s="24">
         <v>1</v>
       </c>
@@ -3126,11 +3126,11 @@
       <c r="J23" s="25">
         <v>1</v>
       </c>
-      <c r="K23" s="50" t="s">
+      <c r="K23" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
       <c r="N23" s="25">
         <v>0</v>
       </c>
@@ -3140,29 +3140,29 @@
       <c r="P23" s="25">
         <v>0</v>
       </c>
-      <c r="Q23" s="51" t="s">
+      <c r="Q23" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="47" t="s">
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="47"/>
-      <c r="AG23" s="47"/>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="47"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="44"/>
+      <c r="AI23" s="44"/>
       <c r="AK23" s="10" t="s">
         <v>253</v>
       </c>
@@ -3174,11 +3174,11 @@
       <c r="B24" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
       <c r="G24" s="24">
         <v>1</v>
       </c>
@@ -3191,11 +3191,11 @@
       <c r="J24" s="25">
         <v>1</v>
       </c>
-      <c r="K24" s="51" t="s">
+      <c r="K24" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
       <c r="N24" s="25">
         <v>0</v>
       </c>
@@ -3238,16 +3238,16 @@
       <c r="AA24" s="24">
         <v>0</v>
       </c>
-      <c r="AB24" s="47" t="s">
+      <c r="AB24" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="AC24" s="47"/>
-      <c r="AD24" s="47"/>
-      <c r="AE24" s="47"/>
-      <c r="AF24" s="47"/>
-      <c r="AG24" s="47"/>
-      <c r="AH24" s="47"/>
-      <c r="AI24" s="47"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="44"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="44"/>
+      <c r="AH24" s="44"/>
+      <c r="AI24" s="44"/>
       <c r="AK24" s="10" t="s">
         <v>254</v>
       </c>
@@ -3259,11 +3259,11 @@
       <c r="B25" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
       <c r="G25" s="6">
         <v>1</v>
       </c>
@@ -3276,11 +3276,11 @@
       <c r="J25" s="6">
         <v>1</v>
       </c>
-      <c r="K25" s="47" t="s">
+      <c r="K25" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
       <c r="N25" s="6">
         <v>0</v>
       </c>
@@ -3323,16 +3323,16 @@
       <c r="AA25" s="6">
         <v>0</v>
       </c>
-      <c r="AB25" s="47" t="s">
+      <c r="AB25" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AC25" s="47"/>
-      <c r="AD25" s="47"/>
-      <c r="AE25" s="47"/>
-      <c r="AF25" s="47"/>
-      <c r="AG25" s="47"/>
-      <c r="AH25" s="47"/>
-      <c r="AI25" s="47"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="44"/>
+      <c r="AH25" s="44"/>
+      <c r="AI25" s="44"/>
       <c r="AK25" s="10" t="s">
         <v>83</v>
       </c>
@@ -3344,11 +3344,11 @@
       <c r="B26" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
       <c r="G26" s="6">
         <v>1</v>
       </c>
@@ -3361,11 +3361,11 @@
       <c r="J26" s="6">
         <v>1</v>
       </c>
-      <c r="K26" s="47" t="s">
+      <c r="K26" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
       <c r="N26" s="6">
         <v>0</v>
       </c>
@@ -3408,16 +3408,16 @@
       <c r="AA26" s="6">
         <v>1</v>
       </c>
-      <c r="AB26" s="47" t="s">
+      <c r="AB26" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AC26" s="47"/>
-      <c r="AD26" s="47"/>
-      <c r="AE26" s="47"/>
-      <c r="AF26" s="47"/>
-      <c r="AG26" s="47"/>
-      <c r="AH26" s="47"/>
-      <c r="AI26" s="47"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="44"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="44"/>
+      <c r="AI26" s="44"/>
       <c r="AK26" s="10" t="s">
         <v>175</v>
       </c>
@@ -3429,11 +3429,11 @@
       <c r="B27" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
       <c r="G27" s="6">
         <v>1</v>
       </c>
@@ -3446,11 +3446,11 @@
       <c r="J27" s="6">
         <v>1</v>
       </c>
-      <c r="K27" s="47" t="s">
+      <c r="K27" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
       <c r="N27" s="6">
         <v>0</v>
       </c>
@@ -3526,11 +3526,11 @@
       <c r="B28" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
       <c r="G28" s="6">
         <v>1</v>
       </c>
@@ -3594,16 +3594,16 @@
       <c r="AA28" s="6">
         <v>1</v>
       </c>
-      <c r="AB28" s="47" t="s">
+      <c r="AB28" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="AC28" s="47"/>
-      <c r="AD28" s="47"/>
-      <c r="AE28" s="47"/>
-      <c r="AF28" s="47"/>
-      <c r="AG28" s="47"/>
-      <c r="AH28" s="47"/>
-      <c r="AI28" s="47"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="44"/>
+      <c r="AF28" s="44"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
     </row>
     <row r="35" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
@@ -4189,17 +4189,49 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="Q23:V23"/>
-    <mergeCell ref="W23:AI23"/>
-    <mergeCell ref="AB24:AI24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="AD13:AI13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="AD10:AI10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="AB28:AI28"/>
+    <mergeCell ref="N20:AI20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="N22:AI22"/>
+    <mergeCell ref="N21:AI21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="T19:AI19"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="AB26:AI26"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K16:M16"/>
     <mergeCell ref="AB25:AI25"/>
     <mergeCell ref="K11:M11"/>
     <mergeCell ref="N11:S11"/>
@@ -4216,50 +4248,18 @@
     <mergeCell ref="K12:M12"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="AB28:AI28"/>
-    <mergeCell ref="N20:AI20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="N22:AI22"/>
-    <mergeCell ref="N21:AI21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="T19:AI19"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="AB26:AI26"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="Q23:V23"/>
+    <mergeCell ref="W23:AI23"/>
+    <mergeCell ref="AB24:AI24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="A17:A20"/>
     <mergeCell ref="N19:P19"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="AD13:AI13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="AD10:AI10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4287,7 +4287,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4311,7 +4311,7 @@
     <row r="2" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4374,7 +4374,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4398,7 +4398,7 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -4489,25 +4489,25 @@
       <c r="F10" s="29">
         <v>0</v>
       </c>
-      <c r="G10" s="47" t="s">
-        <v>344</v>
-      </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47" t="s">
+      <c r="G10" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47" t="s">
+      <c r="M10" s="44"/>
+      <c r="N10" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47" t="s">
+      <c r="O10" s="44"/>
+      <c r="P10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="Q10" s="47"/>
+      <c r="Q10" s="44"/>
       <c r="R10" s="29">
         <v>0</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D11" s="32">
         <v>0</v>
@@ -4546,14 +4546,14 @@
       <c r="K11" s="32">
         <v>0</v>
       </c>
-      <c r="L11" s="47" t="s">
+      <c r="L11" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47" t="s">
+      <c r="M11" s="44"/>
+      <c r="N11" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="47"/>
+      <c r="O11" s="44"/>
       <c r="P11" s="29">
         <v>0</v>
       </c>
@@ -4599,14 +4599,14 @@
       <c r="K12" s="32">
         <v>0</v>
       </c>
-      <c r="L12" s="47" t="s">
+      <c r="L12" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47" t="s">
+      <c r="M12" s="44"/>
+      <c r="N12" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="47"/>
+      <c r="O12" s="44"/>
       <c r="P12" s="32">
         <v>1</v>
       </c>
@@ -4641,26 +4641,26 @@
       <c r="G13" s="32">
         <v>0</v>
       </c>
-      <c r="H13" s="51" t="s">
+      <c r="H13" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="51"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="32">
         <v>0</v>
       </c>
       <c r="K13" s="32">
         <v>1</v>
       </c>
-      <c r="L13" s="51" t="s">
+      <c r="L13" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
       <c r="U13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -4683,26 +4683,26 @@
       <c r="G14" s="32">
         <v>0</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="51"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="32">
         <v>1</v>
       </c>
       <c r="K14" s="32">
         <v>0</v>
       </c>
-      <c r="L14" s="51" t="s">
-        <v>308</v>
-      </c>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
+      <c r="L14" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
       <c r="U14" s="10"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -4725,26 +4725,26 @@
       <c r="G15" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="51" t="s">
+      <c r="H15" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="51"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="32">
         <v>0</v>
       </c>
       <c r="K15" s="32">
         <v>0</v>
       </c>
-      <c r="L15" s="51" t="s">
-        <v>308</v>
-      </c>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
+      <c r="L15" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
       <c r="U15" s="10"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -4774,26 +4774,26 @@
       <c r="K16" s="32">
         <v>1</v>
       </c>
-      <c r="L16" s="51" t="s">
-        <v>308</v>
-      </c>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
+      <c r="L16" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
       <c r="U16" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="52">
+      <c r="A17" s="45">
         <v>13</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D17" s="32">
         <v>1</v>
@@ -4807,14 +4807,14 @@
       <c r="G17" s="32">
         <v>0</v>
       </c>
-      <c r="H17" s="51" t="s">
-        <v>347</v>
-      </c>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51" t="s">
-        <v>350</v>
-      </c>
-      <c r="K17" s="51"/>
+      <c r="H17" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="K17" s="46"/>
       <c r="L17" s="32">
         <v>0</v>
       </c>
@@ -4840,13 +4840,13 @@
         <v>8</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D18" s="32">
         <v>1</v>
@@ -4860,14 +4860,14 @@
       <c r="G18" s="32">
         <v>0</v>
       </c>
-      <c r="H18" s="51" t="s">
-        <v>347</v>
-      </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51" t="s">
-        <v>350</v>
-      </c>
-      <c r="K18" s="51"/>
+      <c r="H18" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="K18" s="46"/>
       <c r="L18" s="32">
         <v>0</v>
       </c>
@@ -4893,13 +4893,13 @@
         <v>8</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D19" s="32">
         <v>1</v>
@@ -4913,12 +4913,12 @@
       <c r="G19" s="32">
         <v>0</v>
       </c>
-      <c r="H19" s="50" t="s">
-        <v>342</v>
-      </c>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
+      <c r="H19" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
       <c r="L19" s="32">
         <v>0</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -5143,18 +5143,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J18:K18"/>
@@ -5165,6 +5153,18 @@
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H15:I15"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="H14:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5175,8 +5175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7995,7 +7995,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8437,21 +8437,21 @@
         <v>271</v>
       </c>
       <c r="D30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F31" t="s">
         <v>232</v>
@@ -8462,21 +8462,21 @@
         <v>272</v>
       </c>
       <c r="D32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -8516,13 +8516,13 @@
         <v>274</v>
       </c>
       <c r="C36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F36" t="s">
         <v>232</v>
@@ -8533,13 +8533,13 @@
         <v>275</v>
       </c>
       <c r="C37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F37" t="s">
         <v>232</v>
@@ -8550,13 +8550,13 @@
         <v>276</v>
       </c>
       <c r="C38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F38" t="s">
         <v>232</v>
@@ -8567,13 +8567,13 @@
         <v>277</v>
       </c>
       <c r="C39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E39" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F39" t="s">
         <v>232</v>
@@ -8584,13 +8584,13 @@
         <v>278</v>
       </c>
       <c r="C40" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D40" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E40" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F40" t="s">
         <v>232</v>
@@ -8601,13 +8601,13 @@
         <v>279</v>
       </c>
       <c r="C41" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E41" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -8615,13 +8615,13 @@
         <v>280</v>
       </c>
       <c r="C42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9128,7 +9128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -9143,7 +9143,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -9284,7 +9284,7 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C4" s="41">
         <v>0</v>
@@ -9358,102 +9358,102 @@
       <c r="Z4" s="41">
         <v>0</v>
       </c>
-      <c r="AA4" s="43" t="s">
+      <c r="AA4" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
       <c r="AJ4" s="10"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" s="41">
+        <v>0</v>
+      </c>
+      <c r="D5" s="41">
+        <v>0</v>
+      </c>
+      <c r="E5" s="41">
+        <v>0</v>
+      </c>
+      <c r="F5" s="41">
+        <v>0</v>
+      </c>
+      <c r="G5" s="41">
+        <v>0</v>
+      </c>
+      <c r="H5" s="41">
+        <v>0</v>
+      </c>
+      <c r="I5" s="41">
+        <v>0</v>
+      </c>
+      <c r="J5" s="41">
+        <v>0</v>
+      </c>
+      <c r="K5" s="41">
+        <v>0</v>
+      </c>
+      <c r="L5" s="41">
+        <v>0</v>
+      </c>
+      <c r="M5" s="41">
+        <v>0</v>
+      </c>
+      <c r="N5" s="41">
+        <v>0</v>
+      </c>
+      <c r="O5" s="41">
+        <v>0</v>
+      </c>
+      <c r="P5" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="41">
+        <v>0</v>
+      </c>
+      <c r="R5" s="41">
+        <v>0</v>
+      </c>
+      <c r="S5" s="41">
+        <v>0</v>
+      </c>
+      <c r="T5" s="41">
+        <v>0</v>
+      </c>
+      <c r="U5" s="41">
+        <v>0</v>
+      </c>
+      <c r="V5" s="41">
+        <v>0</v>
+      </c>
+      <c r="W5" s="41">
+        <v>1</v>
+      </c>
+      <c r="X5" s="48" t="s">
         <v>363</v>
       </c>
-      <c r="C5" s="41">
-        <v>0</v>
-      </c>
-      <c r="D5" s="41">
-        <v>0</v>
-      </c>
-      <c r="E5" s="41">
-        <v>0</v>
-      </c>
-      <c r="F5" s="41">
-        <v>0</v>
-      </c>
-      <c r="G5" s="41">
-        <v>0</v>
-      </c>
-      <c r="H5" s="41">
-        <v>0</v>
-      </c>
-      <c r="I5" s="41">
-        <v>0</v>
-      </c>
-      <c r="J5" s="41">
-        <v>0</v>
-      </c>
-      <c r="K5" s="41">
-        <v>0</v>
-      </c>
-      <c r="L5" s="41">
-        <v>0</v>
-      </c>
-      <c r="M5" s="41">
-        <v>0</v>
-      </c>
-      <c r="N5" s="41">
-        <v>0</v>
-      </c>
-      <c r="O5" s="41">
-        <v>0</v>
-      </c>
-      <c r="P5" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="41">
-        <v>0</v>
-      </c>
-      <c r="R5" s="41">
-        <v>0</v>
-      </c>
-      <c r="S5" s="41">
-        <v>0</v>
-      </c>
-      <c r="T5" s="41">
-        <v>0</v>
-      </c>
-      <c r="U5" s="41">
-        <v>0</v>
-      </c>
-      <c r="V5" s="41">
-        <v>0</v>
-      </c>
-      <c r="W5" s="41">
-        <v>1</v>
-      </c>
-      <c r="X5" s="43" t="s">
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AJ5" s="10" t="s">
         <v>364</v>
-      </c>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AJ5" s="10" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -9484,32 +9484,32 @@
       <c r="J6" s="6">
         <v>1</v>
       </c>
-      <c r="K6" s="47" t="s">
+      <c r="K6" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44"/>
       <c r="AJ6" s="10"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -9540,36 +9540,36 @@
       <c r="J7" s="6">
         <v>0</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47" t="s">
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47" t="s">
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="47"/>
-      <c r="AG7" s="47"/>
-      <c r="AH7" s="47"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="10"/>
     </row>
@@ -10817,55 +10817,55 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="41">
+        <v>0</v>
+      </c>
+      <c r="D4" s="41">
+        <v>0</v>
+      </c>
+      <c r="E4" s="41">
+        <v>0</v>
+      </c>
+      <c r="F4" s="41">
+        <v>0</v>
+      </c>
+      <c r="G4" s="41">
+        <v>0</v>
+      </c>
+      <c r="H4" s="41">
+        <v>0</v>
+      </c>
+      <c r="I4" s="41">
+        <v>0</v>
+      </c>
+      <c r="J4" s="41">
+        <v>0</v>
+      </c>
+      <c r="K4" s="41">
+        <v>0</v>
+      </c>
+      <c r="L4" s="41">
+        <v>0</v>
+      </c>
+      <c r="M4" s="41">
+        <v>0</v>
+      </c>
+      <c r="N4" s="41">
+        <v>0</v>
+      </c>
+      <c r="O4" s="41">
+        <v>0</v>
+      </c>
+      <c r="P4" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="41">
+        <v>0</v>
+      </c>
+      <c r="R4" s="41" t="s">
         <v>313</v>
-      </c>
-      <c r="C4" s="41">
-        <v>0</v>
-      </c>
-      <c r="D4" s="41">
-        <v>0</v>
-      </c>
-      <c r="E4" s="41">
-        <v>0</v>
-      </c>
-      <c r="F4" s="41">
-        <v>0</v>
-      </c>
-      <c r="G4" s="41">
-        <v>0</v>
-      </c>
-      <c r="H4" s="41">
-        <v>0</v>
-      </c>
-      <c r="I4" s="41">
-        <v>0</v>
-      </c>
-      <c r="J4" s="41">
-        <v>0</v>
-      </c>
-      <c r="K4" s="41">
-        <v>0</v>
-      </c>
-      <c r="L4" s="41">
-        <v>0</v>
-      </c>
-      <c r="M4" s="41">
-        <v>0</v>
-      </c>
-      <c r="N4" s="41">
-        <v>0</v>
-      </c>
-      <c r="O4" s="41">
-        <v>0</v>
-      </c>
-      <c r="P4" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="41">
-        <v>0</v>
-      </c>
-      <c r="R4" s="41" t="s">
-        <v>314</v>
       </c>
       <c r="T4" s="10" t="s">
         <v>135</v>
@@ -10983,50 +10983,50 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="40">
+        <v>0</v>
+      </c>
+      <c r="D7" s="40">
+        <v>0</v>
+      </c>
+      <c r="E7" s="40">
+        <v>0</v>
+      </c>
+      <c r="F7" s="40">
+        <v>0</v>
+      </c>
+      <c r="G7" s="40">
+        <v>0</v>
+      </c>
+      <c r="H7" s="40">
+        <v>0</v>
+      </c>
+      <c r="I7" s="40">
+        <v>0</v>
+      </c>
+      <c r="J7" s="40">
+        <v>0</v>
+      </c>
+      <c r="K7" s="40">
+        <v>0</v>
+      </c>
+      <c r="L7" s="40">
+        <v>0</v>
+      </c>
+      <c r="M7" s="40">
+        <v>0</v>
+      </c>
+      <c r="N7" s="40">
+        <v>1</v>
+      </c>
+      <c r="O7" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="C7" s="40">
-        <v>0</v>
-      </c>
-      <c r="D7" s="40">
-        <v>0</v>
-      </c>
-      <c r="E7" s="40">
-        <v>0</v>
-      </c>
-      <c r="F7" s="40">
-        <v>0</v>
-      </c>
-      <c r="G7" s="40">
-        <v>0</v>
-      </c>
-      <c r="H7" s="40">
-        <v>0</v>
-      </c>
-      <c r="I7" s="40">
-        <v>0</v>
-      </c>
-      <c r="J7" s="40">
-        <v>0</v>
-      </c>
-      <c r="K7" s="40">
-        <v>0</v>
-      </c>
-      <c r="L7" s="40">
-        <v>0</v>
-      </c>
-      <c r="M7" s="40">
-        <v>0</v>
-      </c>
-      <c r="N7" s="40">
-        <v>1</v>
-      </c>
-      <c r="O7" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -11057,16 +11057,16 @@
       <c r="J8" s="40">
         <v>1</v>
       </c>
-      <c r="K8" s="47" t="s">
+      <c r="K8" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -11097,16 +11097,16 @@
       <c r="J9" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -11137,16 +11137,16 @@
       <c r="J10" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="K10" s="47" t="s">
+      <c r="K10" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -11177,56 +11177,56 @@
       <c r="J11" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="47" t="s">
+      <c r="K11" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
       <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="44" t="s">
         <v>309</v>
       </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c r="K12" s="47" t="s">
-        <v>310</v>
-      </c>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
       <c r="T12" s="10"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">

--- a/doc/RiscyInstSet32Bit.xlsx
+++ b/doc/RiscyInstSet32Bit.xlsx
@@ -14,11 +14,11 @@
   <sheets>
     <sheet name="Summary - Terra" sheetId="1" r:id="rId1"/>
     <sheet name="Summary - FlowerPot" sheetId="8" r:id="rId2"/>
-    <sheet name="Tera-Math" sheetId="2" r:id="rId3"/>
+    <sheet name="Terra-Math" sheetId="2" r:id="rId3"/>
     <sheet name="FlowerPot-TinyMath" sheetId="9" r:id="rId4"/>
-    <sheet name="Tera&amp;FlowerPot-Instructions" sheetId="6" r:id="rId5"/>
-    <sheet name="Feature ID" sheetId="7" r:id="rId6"/>
-    <sheet name="BIOS Call" sheetId="4" r:id="rId7"/>
+    <sheet name="Terra&amp;FlowerPot-Instructions" sheetId="6" r:id="rId5"/>
+    <sheet name="BIOS Call" sheetId="4" r:id="rId6"/>
+    <sheet name="Feature ID" sheetId="7" r:id="rId7"/>
     <sheet name="Graphics Adapter Call" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="411">
   <si>
     <t>Description</t>
   </si>
@@ -417,18 +417,6 @@
     <t>Standardised Graphics Adapter Call</t>
   </si>
   <si>
-    <t>Emit a character</t>
-  </si>
-  <si>
-    <t>Character</t>
-  </si>
-  <si>
-    <t>Foreground colour</t>
-  </si>
-  <si>
-    <t>Background colour</t>
-  </si>
-  <si>
     <t>Cursor blink</t>
   </si>
   <si>
@@ -1110,25 +1098,172 @@
     <t>32 bits</t>
   </si>
   <si>
-    <t>4 general, 4 special, 1 16-bit timer</t>
-  </si>
-  <si>
-    <t>BIOS Call (32-bit)</t>
-  </si>
-  <si>
     <t>Boot from device</t>
   </si>
   <si>
     <t>Retrieve file handle</t>
   </si>
   <si>
-    <t>rFileID</t>
-  </si>
-  <si>
-    <t>rFileID &lt;- File handle</t>
-  </si>
-  <si>
     <t>8 General, 4 Special, 1 'null' register (returns 0 upon read, throws error upon write)</t>
+  </si>
+  <si>
+    <t>4 general, 4 special, 1 interrupt, 1 16-bit timer</t>
+  </si>
+  <si>
+    <t>Interrupt register: Instead of interrupt handling, execution will halt with interrupt ID being written to this register.</t>
+  </si>
+  <si>
+    <t>File operations</t>
+  </si>
+  <si>
+    <t>File Operations</t>
+  </si>
+  <si>
+    <t>FileOp*</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>argument</t>
+  </si>
+  <si>
+    <t>register &lt;- file handle</t>
+  </si>
+  <si>
+    <t>Reset file pointer to zero (rewind)</t>
+  </si>
+  <si>
+    <t>Read one byte</t>
+  </si>
+  <si>
+    <t>register &lt;- byte</t>
+  </si>
+  <si>
+    <t>Write one byte</t>
+  </si>
+  <si>
+    <t>Skip (fast forward)</t>
+  </si>
+  <si>
+    <t>filePointer.incrementBy(argument)</t>
+  </si>
+  <si>
+    <t>file[filePointer++].write(register.toByte())</t>
+  </si>
+  <si>
+    <t>Time to ffwd depends on the device; almost instant if FDD, literally fast forwards if tape</t>
+  </si>
+  <si>
+    <t>Time to rewind depends on the device; almost instant if FDD, literally rewinds if tape</t>
+  </si>
+  <si>
+    <t>register &lt;- -1 if true, 0 if false</t>
+  </si>
+  <si>
+    <t>Delete file</t>
+  </si>
+  <si>
+    <t>register will become a dangling pointer (naturally!)</t>
+  </si>
+  <si>
+    <t>Is file exists?</t>
+  </si>
+  <si>
+    <t>Get name</t>
+  </si>
+  <si>
+    <t>Get parent file handler</t>
+  </si>
+  <si>
+    <t>Get file type</t>
+  </si>
+  <si>
+    <t>register &lt;- string pointer</t>
+  </si>
+  <si>
+    <t>Get length</t>
+  </si>
+  <si>
+    <t>register &lt;- size of the file in bytes (file), number of entries (dir)</t>
+  </si>
+  <si>
+    <t>Make new file in this directory</t>
+  </si>
+  <si>
+    <t>register &lt;- file handle for newly created file</t>
+  </si>
+  <si>
+    <t>Make new subdirectory in this directory</t>
+  </si>
+  <si>
+    <t>register &lt;- file handle for newly created directory</t>
+  </si>
+  <si>
+    <t>shortcut of several writes to the stdout</t>
+  </si>
+  <si>
+    <t>IRQ of 0xFF will result to read/write to stdin/stdout</t>
+  </si>
+  <si>
+    <t>ReferenceBIOS Call (32-bit)</t>
+  </si>
+  <si>
+    <t>Set name</t>
+  </si>
+  <si>
+    <t>file.name = register[argument]; argument is a register number that contains the string pointer</t>
+  </si>
+  <si>
+    <t>register &lt;- 1 if file, 2 if dir, 3 if symlink (please refer to TerranVirtualDisk's documentation)</t>
+  </si>
+  <si>
+    <t>Is readonly?</t>
+  </si>
+  <si>
+    <t>Update last modification date</t>
+  </si>
+  <si>
+    <t>Other BIOS implementations MUST BE fully compatible</t>
+  </si>
+  <si>
+    <t>Implementation specific</t>
+  </si>
+  <si>
+    <t>It's up to compatible BIOS, ReferenceBIOS won't do anything upon these commands</t>
+  </si>
+  <si>
+    <t>Read byte stream</t>
+  </si>
+  <si>
+    <t>Write byte stream</t>
+  </si>
+  <si>
+    <t>Useful on tapes</t>
+  </si>
+  <si>
+    <t>register: file handle, argument[3..5th bits]: register for length, argument[0..2nd bits]: register for DB</t>
+  </si>
+  <si>
+    <t>Read a key from keyboard</t>
+  </si>
+  <si>
+    <t>NOT necessarily a stdin</t>
+  </si>
+  <si>
+    <t>Write a char to primary screen</t>
+  </si>
+  <si>
+    <t>char immediate/register</t>
+  </si>
+  <si>
+    <t>Writes to stdout; P: 0 if writing an immediate, 1 if writing from register</t>
+  </si>
+  <si>
+    <t>IRQ of 0x00 and 0x02 is illegal (surprisingly 0x01 — keyboard — isn't)</t>
+  </si>
+  <si>
+    <t>Jump to Subroutine, immediate</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1325,9 +1460,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1336,43 +1567,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="79">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1391,20 +1622,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
@@ -1413,10 +1644,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1434,10 +1665,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1446,20 +1677,32 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1494,6 +1737,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Explanatory Text" xfId="7" builtinId="53" customBuiltin="1"/>
@@ -1501,7 +1792,7 @@
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
     <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="6" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="5" builtinId="11"/>
   </cellStyles>
@@ -1781,10 +2072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL51"/>
+  <dimension ref="A1:AL52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D21" sqref="D21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,7 +2091,7 @@
   <sheetData>
     <row r="1" spans="1:38" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1840,16 +2131,16 @@
     <row r="2" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1888,11 +2179,11 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" s="33" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1935,7 +2226,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="10" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1969,12 +2260,12 @@
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
       <c r="AK6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
@@ -2012,12 +2303,12 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
       <c r="AK7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>0</v>
@@ -2121,17 +2412,17 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="51">
+      <c r="A10" s="55">
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="11">
         <v>0</v>
       </c>
@@ -2144,21 +2435,21 @@
       <c r="J10" s="11">
         <v>0</v>
       </c>
-      <c r="K10" s="53" t="s">
+      <c r="K10" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53" t="s">
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53" t="s">
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
       <c r="T10" s="12">
         <v>0</v>
       </c>
@@ -2189,28 +2480,28 @@
       <c r="AC10" s="6">
         <v>0</v>
       </c>
-      <c r="AD10" s="53" t="s">
-        <v>342</v>
-      </c>
-      <c r="AE10" s="53"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="53"/>
+      <c r="AD10" s="57" t="s">
+        <v>338</v>
+      </c>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="57"/>
       <c r="AK10" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="D11" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="18">
         <v>0</v>
       </c>
@@ -2223,19 +2514,19 @@
       <c r="J11" s="18">
         <v>0</v>
       </c>
-      <c r="K11" s="46" t="s">
+      <c r="K11" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
       <c r="T11" s="12">
         <v>0</v>
       </c>
@@ -2285,19 +2576,19 @@
         <v>8</v>
       </c>
       <c r="AK11" s="10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
       <c r="G12" s="18">
         <v>0</v>
       </c>
@@ -2310,21 +2601,21 @@
       <c r="J12" s="18">
         <v>0</v>
       </c>
-      <c r="K12" s="48" t="s">
+      <c r="K12" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
       <c r="T12" s="12">
         <v>0</v>
       </c>
@@ -2374,86 +2665,86 @@
         <v>0</v>
       </c>
       <c r="AK12" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="31">
+        <v>0</v>
+      </c>
+      <c r="H13" s="31">
+        <v>0</v>
+      </c>
+      <c r="I13" s="31">
+        <v>0</v>
+      </c>
+      <c r="J13" s="31">
+        <v>0</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="32">
+        <v>0</v>
+      </c>
+      <c r="U13" s="29">
+        <v>0</v>
+      </c>
+      <c r="V13" s="29">
+        <v>0</v>
+      </c>
+      <c r="W13" s="29">
+        <v>0</v>
+      </c>
+      <c r="X13" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="29">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="52" t="s">
         <v>338</v>
       </c>
-      <c r="D13" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="31">
-        <v>0</v>
-      </c>
-      <c r="H13" s="31">
-        <v>0</v>
-      </c>
-      <c r="I13" s="31">
-        <v>0</v>
-      </c>
-      <c r="J13" s="31">
-        <v>0</v>
-      </c>
-      <c r="K13" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="32">
-        <v>0</v>
-      </c>
-      <c r="U13" s="29">
-        <v>0</v>
-      </c>
-      <c r="V13" s="29">
-        <v>0</v>
-      </c>
-      <c r="W13" s="29">
-        <v>0</v>
-      </c>
-      <c r="X13" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="29">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="29">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="48" t="s">
-        <v>342</v>
-      </c>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="48"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="52"/>
       <c r="AK13" s="10" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
@@ -2463,11 +2754,11 @@
       <c r="B14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="6">
         <v>0</v>
       </c>
@@ -2480,21 +2771,21 @@
       <c r="J14" s="12">
         <v>0</v>
       </c>
-      <c r="K14" s="44" t="s">
+      <c r="K14" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44" t="s">
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44" t="s">
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
       <c r="T14" s="6">
         <v>0</v>
       </c>
@@ -2534,18 +2825,18 @@
       <c r="AF14" s="6">
         <v>0</v>
       </c>
-      <c r="AG14" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH14" s="43"/>
+      <c r="AG14" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH14" s="51"/>
       <c r="AI14" s="22" t="s">
         <v>84</v>
       </c>
       <c r="AK14" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
@@ -2555,11 +2846,11 @@
       <c r="B15" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
       <c r="G15" s="6">
         <v>0</v>
       </c>
@@ -2572,31 +2863,31 @@
       <c r="J15" s="12">
         <v>0</v>
       </c>
-      <c r="K15" s="44" t="s">
+      <c r="K15" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44" t="s">
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44" t="s">
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
       <c r="Z15" s="6">
         <v>0</v>
       </c>
@@ -2628,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
@@ -2636,13 +2927,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
       <c r="G16" s="6">
         <v>0</v>
       </c>
@@ -2655,16 +2946,16 @@
       <c r="J16" s="12">
         <v>1</v>
       </c>
-      <c r="K16" s="44" t="s">
+      <c r="K16" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44" t="s">
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
       <c r="Q16" s="6">
         <v>0</v>
       </c>
@@ -2717,27 +3008,27 @@
         <v>0</v>
       </c>
       <c r="AH16" s="22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AI16" s="22" t="s">
         <v>97</v>
       </c>
       <c r="AK16" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
+      <c r="A17" s="47">
         <v>2</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
       <c r="G17" s="6">
         <v>0</v>
       </c>
@@ -2750,16 +3041,16 @@
       <c r="J17" s="12">
         <v>1</v>
       </c>
-      <c r="K17" s="44" t="s">
+      <c r="K17" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44" t="s">
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
       <c r="Q17" s="6">
         <v>0</v>
       </c>
@@ -2793,30 +3084,30 @@
       <c r="AA17" s="6">
         <v>0</v>
       </c>
-      <c r="AB17" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="44"/>
-      <c r="AF17" s="44"/>
-      <c r="AG17" s="44"/>
-      <c r="AH17" s="44"/>
-      <c r="AI17" s="44"/>
+      <c r="AB17" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="48"/>
+      <c r="AE17" s="48"/>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="48"/>
+      <c r="AH17" s="48"/>
+      <c r="AI17" s="48"/>
       <c r="AK17" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
       <c r="G18" s="6">
         <v>0</v>
       </c>
@@ -2829,16 +3120,16 @@
       <c r="J18" s="12">
         <v>1</v>
       </c>
-      <c r="K18" s="44" t="s">
+      <c r="K18" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44" t="s">
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
       <c r="Q18" s="6">
         <v>1</v>
       </c>
@@ -2848,38 +3139,38 @@
       <c r="S18" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="T18" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="44"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="44"/>
-      <c r="AF18" s="44"/>
-      <c r="AG18" s="44"/>
-      <c r="AH18" s="44"/>
-      <c r="AI18" s="44"/>
+      <c r="T18" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="48"/>
+      <c r="AE18" s="48"/>
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="48"/>
+      <c r="AI18" s="48"/>
       <c r="AK18" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" s="47"/>
+      <c r="B19" s="7" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="6">
         <v>0</v>
       </c>
@@ -2892,16 +3183,16 @@
       <c r="J19" s="12">
         <v>1</v>
       </c>
-      <c r="K19" s="44" t="s">
+      <c r="K19" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44" t="s">
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
       <c r="Q19" s="6">
         <v>1</v>
       </c>
@@ -2911,38 +3202,38 @@
       <c r="S19" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="T19" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="44"/>
-      <c r="AC19" s="44"/>
-      <c r="AD19" s="44"/>
-      <c r="AE19" s="44"/>
-      <c r="AF19" s="44"/>
-      <c r="AG19" s="44"/>
-      <c r="AH19" s="44"/>
-      <c r="AI19" s="44"/>
+      <c r="T19" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="48"/>
+      <c r="AE19" s="48"/>
+      <c r="AF19" s="48"/>
+      <c r="AG19" s="48"/>
+      <c r="AH19" s="48"/>
+      <c r="AI19" s="48"/>
       <c r="AK19" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
       <c r="G20" s="6">
         <v>0</v>
       </c>
@@ -2955,37 +3246,37 @@
       <c r="J20" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="K20" s="44" t="s">
+      <c r="K20" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44" t="s">
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="44"/>
-      <c r="AF20" s="44"/>
-      <c r="AG20" s="44"/>
-      <c r="AH20" s="44"/>
-      <c r="AI20" s="44"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="48"/>
+      <c r="AF20" s="48"/>
+      <c r="AG20" s="48"/>
+      <c r="AH20" s="48"/>
+      <c r="AI20" s="48"/>
       <c r="AK20" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
@@ -2995,11 +3286,11 @@
       <c r="B21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
       <c r="G21" s="6">
         <v>0</v>
       </c>
@@ -3012,51 +3303,51 @@
       <c r="J21" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="K21" s="44" t="s">
+      <c r="K21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="44"/>
-      <c r="AF21" s="44"/>
-      <c r="AG21" s="44"/>
-      <c r="AH21" s="44"/>
-      <c r="AI21" s="44"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="48"/>
       <c r="AK21" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="77">
         <v>6</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="D22" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="D22" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
       <c r="G22" s="6">
         <v>1</v>
       </c>
@@ -3069,116 +3360,104 @@
       <c r="J22" s="12">
         <v>0</v>
       </c>
-      <c r="K22" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="44" t="s">
+      <c r="K22" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="44"/>
-      <c r="AF22" s="44"/>
-      <c r="AG22" s="44"/>
-      <c r="AH22" s="44"/>
-      <c r="AI22" s="44"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="48"/>
+      <c r="AE22" s="48"/>
+      <c r="AF22" s="48"/>
+      <c r="AG22" s="48"/>
+      <c r="AH22" s="48"/>
+      <c r="AI22" s="48"/>
       <c r="AK22" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>7</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="D23" s="43" t="s">
+      <c r="A23" s="78"/>
+      <c r="B23" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="D23" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="24">
-        <v>1</v>
-      </c>
-      <c r="H23" s="25">
-        <v>0</v>
-      </c>
-      <c r="I23" s="25">
-        <v>0</v>
-      </c>
-      <c r="J23" s="25">
-        <v>1</v>
-      </c>
-      <c r="K23" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="25">
-        <v>0</v>
-      </c>
-      <c r="O23" s="25">
-        <v>0</v>
-      </c>
-      <c r="P23" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="44" t="s">
-        <v>249</v>
-      </c>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="44"/>
-      <c r="AH23" s="44"/>
-      <c r="AI23" s="44"/>
-      <c r="AK23" s="10" t="s">
-        <v>253</v>
-      </c>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="44">
+        <v>1</v>
+      </c>
+      <c r="H23" s="45">
+        <v>0</v>
+      </c>
+      <c r="I23" s="45">
+        <v>0</v>
+      </c>
+      <c r="J23" s="45">
+        <v>1</v>
+      </c>
+      <c r="K23" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="L23" s="67"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="48"/>
+      <c r="AE23" s="48"/>
+      <c r="AF23" s="48"/>
+      <c r="AG23" s="48"/>
+      <c r="AH23" s="48"/>
+      <c r="AI23" s="48"/>
+      <c r="AK23" s="10"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D24" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
       <c r="G24" s="24">
         <v>1</v>
       </c>
@@ -3186,16 +3465,16 @@
         <v>0</v>
       </c>
       <c r="I24" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="25">
-        <v>1</v>
-      </c>
-      <c r="K24" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
       <c r="N24" s="25">
         <v>0</v>
       </c>
@@ -3203,152 +3482,132 @@
         <v>0</v>
       </c>
       <c r="P24" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="25">
-        <v>0</v>
-      </c>
-      <c r="R24" s="25">
-        <v>0</v>
-      </c>
-      <c r="S24" s="24">
-        <v>0</v>
-      </c>
-      <c r="T24" s="24">
-        <v>0</v>
-      </c>
-      <c r="U24" s="24">
-        <v>0</v>
-      </c>
-      <c r="V24" s="24">
-        <v>0</v>
-      </c>
-      <c r="W24" s="24">
-        <v>0</v>
-      </c>
-      <c r="X24" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="44"/>
-      <c r="AF24" s="44"/>
-      <c r="AG24" s="44"/>
-      <c r="AH24" s="44"/>
-      <c r="AI24" s="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="48"/>
+      <c r="AD24" s="48"/>
+      <c r="AE24" s="48"/>
+      <c r="AF24" s="48"/>
+      <c r="AG24" s="48"/>
+      <c r="AH24" s="48"/>
+      <c r="AI24" s="48"/>
       <c r="AK24" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>9</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="D25" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="6">
-        <v>1</v>
-      </c>
-      <c r="H25" s="6">
-        <v>1</v>
-      </c>
-      <c r="I25" s="6">
-        <v>1</v>
-      </c>
-      <c r="J25" s="6">
-        <v>1</v>
-      </c>
-      <c r="K25" s="44" t="s">
+      <c r="E25" s="51"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="44">
+        <v>1</v>
+      </c>
+      <c r="H25" s="45">
+        <v>0</v>
+      </c>
+      <c r="I25" s="45">
+        <v>1</v>
+      </c>
+      <c r="J25" s="45">
+        <v>0</v>
+      </c>
+      <c r="K25" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="6">
-        <v>0</v>
-      </c>
-      <c r="O25" s="6">
-        <v>0</v>
-      </c>
-      <c r="P25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>0</v>
-      </c>
-      <c r="R25" s="6">
-        <v>0</v>
-      </c>
-      <c r="S25" s="6">
-        <v>0</v>
-      </c>
-      <c r="T25" s="6">
-        <v>0</v>
-      </c>
-      <c r="U25" s="6">
-        <v>0</v>
-      </c>
-      <c r="V25" s="6">
-        <v>0</v>
-      </c>
-      <c r="W25" s="6">
-        <v>0</v>
-      </c>
-      <c r="X25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="44"/>
-      <c r="AE25" s="44"/>
-      <c r="AF25" s="44"/>
-      <c r="AG25" s="44"/>
-      <c r="AH25" s="44"/>
-      <c r="AI25" s="44"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="45">
+        <v>0</v>
+      </c>
+      <c r="O25" s="45">
+        <v>0</v>
+      </c>
+      <c r="P25" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="45">
+        <v>0</v>
+      </c>
+      <c r="R25" s="45">
+        <v>0</v>
+      </c>
+      <c r="S25" s="44">
+        <v>0</v>
+      </c>
+      <c r="T25" s="44">
+        <v>0</v>
+      </c>
+      <c r="U25" s="44">
+        <v>0</v>
+      </c>
+      <c r="V25" s="44">
+        <v>0</v>
+      </c>
+      <c r="W25" s="44">
+        <v>0</v>
+      </c>
+      <c r="X25" s="44">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="44">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="44">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="44">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC25" s="70"/>
+      <c r="AD25" s="70"/>
+      <c r="AE25" s="70"/>
+      <c r="AF25" s="70"/>
+      <c r="AG25" s="70"/>
+      <c r="AH25" s="70"/>
+      <c r="AI25" s="71"/>
       <c r="AK25" s="10" t="s">
-        <v>83</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="6">
         <v>1</v>
       </c>
@@ -3361,11 +3620,11 @@
       <c r="J26" s="6">
         <v>1</v>
       </c>
-      <c r="K26" s="44" t="s">
+      <c r="K26" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
       <c r="N26" s="6">
         <v>0</v>
       </c>
@@ -3406,34 +3665,34 @@
         <v>0</v>
       </c>
       <c r="AA26" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="44"/>
-      <c r="AF26" s="44"/>
-      <c r="AG26" s="44"/>
-      <c r="AH26" s="44"/>
-      <c r="AI26" s="44"/>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="48"/>
+      <c r="AE26" s="48"/>
+      <c r="AF26" s="48"/>
+      <c r="AG26" s="48"/>
+      <c r="AH26" s="48"/>
+      <c r="AI26" s="48"/>
       <c r="AK26" s="10" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
       <c r="G27" s="6">
         <v>1</v>
       </c>
@@ -3446,11 +3705,11 @@
       <c r="J27" s="6">
         <v>1</v>
       </c>
-      <c r="K27" s="44" t="s">
+      <c r="K27" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
       <c r="N27" s="6">
         <v>0</v>
       </c>
@@ -3493,154 +3752,202 @@
       <c r="AA27" s="6">
         <v>1</v>
       </c>
-      <c r="AB27" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="6">
-        <v>1</v>
-      </c>
-      <c r="AF27" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG27" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH27" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI27" s="6">
-        <v>1</v>
-      </c>
-      <c r="AK27" s="10"/>
+      <c r="AB27" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC27" s="48"/>
+      <c r="AD27" s="48"/>
+      <c r="AE27" s="48"/>
+      <c r="AF27" s="48"/>
+      <c r="AG27" s="48"/>
+      <c r="AH27" s="48"/>
+      <c r="AI27" s="48"/>
+      <c r="AK27" s="10" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1</v>
+      </c>
+      <c r="J28" s="6">
+        <v>1</v>
+      </c>
+      <c r="K28" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="6">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
+      <c r="P28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>0</v>
+      </c>
+      <c r="R28" s="6">
+        <v>0</v>
+      </c>
+      <c r="S28" s="6">
+        <v>0</v>
+      </c>
+      <c r="T28" s="6">
+        <v>0</v>
+      </c>
+      <c r="U28" s="6">
+        <v>0</v>
+      </c>
+      <c r="V28" s="6">
+        <v>0</v>
+      </c>
+      <c r="W28" s="6">
+        <v>0</v>
+      </c>
+      <c r="X28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="10"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>12</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D29" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="6">
-        <v>1</v>
-      </c>
-      <c r="H28" s="6">
-        <v>1</v>
-      </c>
-      <c r="I28" s="6">
-        <v>1</v>
-      </c>
-      <c r="J28" s="6">
-        <v>1</v>
-      </c>
-      <c r="K28" s="6">
-        <v>1</v>
-      </c>
-      <c r="L28" s="6">
-        <v>1</v>
-      </c>
-      <c r="M28" s="6">
-        <v>1</v>
-      </c>
-      <c r="N28" s="6">
-        <v>1</v>
-      </c>
-      <c r="O28" s="6">
-        <v>1</v>
-      </c>
-      <c r="P28" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>1</v>
-      </c>
-      <c r="R28" s="6">
-        <v>1</v>
-      </c>
-      <c r="S28" s="6">
-        <v>1</v>
-      </c>
-      <c r="T28" s="6">
-        <v>1</v>
-      </c>
-      <c r="U28" s="6">
-        <v>1</v>
-      </c>
-      <c r="V28" s="6">
-        <v>1</v>
-      </c>
-      <c r="W28" s="6">
-        <v>1</v>
-      </c>
-      <c r="X28" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="44" t="s">
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1</v>
+      </c>
+      <c r="I29" s="6">
+        <v>1</v>
+      </c>
+      <c r="J29" s="6">
+        <v>1</v>
+      </c>
+      <c r="K29" s="6">
+        <v>1</v>
+      </c>
+      <c r="L29" s="6">
+        <v>1</v>
+      </c>
+      <c r="M29" s="6">
+        <v>1</v>
+      </c>
+      <c r="N29" s="6">
+        <v>1</v>
+      </c>
+      <c r="O29" s="6">
+        <v>1</v>
+      </c>
+      <c r="P29" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>1</v>
+      </c>
+      <c r="R29" s="6">
+        <v>1</v>
+      </c>
+      <c r="S29" s="6">
+        <v>1</v>
+      </c>
+      <c r="T29" s="6">
+        <v>1</v>
+      </c>
+      <c r="U29" s="6">
+        <v>1</v>
+      </c>
+      <c r="V29" s="6">
+        <v>1</v>
+      </c>
+      <c r="W29" s="6">
+        <v>1</v>
+      </c>
+      <c r="X29" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="AC28" s="44"/>
-      <c r="AD28" s="44"/>
-      <c r="AE28" s="44"/>
-      <c r="AF28" s="44"/>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-    </row>
-    <row r="35" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="6"/>
-      <c r="AE35" s="6"/>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
-      <c r="AH35" s="6"/>
-      <c r="AI35" s="6"/>
-      <c r="AK35" s="10"/>
+      <c r="AC29" s="48"/>
+      <c r="AD29" s="48"/>
+      <c r="AE29" s="48"/>
+      <c r="AF29" s="48"/>
+      <c r="AG29" s="48"/>
+      <c r="AH29" s="48"/>
+      <c r="AI29" s="48"/>
     </row>
     <row r="36" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
@@ -3755,6 +4062,7 @@
     </row>
     <row r="39" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -4183,13 +4491,55 @@
       <c r="AG50" s="6"/>
       <c r="AH50" s="6"/>
       <c r="AI50" s="6"/>
+      <c r="AK50" s="10"/>
     </row>
     <row r="51" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="6"/>
+      <c r="AF51" s="6"/>
+      <c r="AG51" s="6"/>
+      <c r="AH51" s="6"/>
+      <c r="AI51" s="6"/>
+    </row>
+    <row r="52" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="D27:F27"/>
+  <mergeCells count="75">
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:AI23"/>
+    <mergeCell ref="AB25:AI25"/>
+    <mergeCell ref="D28:F28"/>
     <mergeCell ref="AD13:AI13"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="D13:F13"/>
@@ -4200,7 +4550,12 @@
     <mergeCell ref="K10:M10"/>
     <mergeCell ref="N10:P10"/>
     <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="AB26:AI26"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:S11"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="D29:F29"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="D20:F20"/>
@@ -4212,11 +4567,11 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
     <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D25:F25"/>
     <mergeCell ref="D26:F26"/>
-    <mergeCell ref="AB28:AI28"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="AB29:AI29"/>
     <mergeCell ref="N20:AI20"/>
     <mergeCell ref="K20:M20"/>
     <mergeCell ref="K14:M14"/>
@@ -4225,41 +4580,34 @@
     <mergeCell ref="N22:AI22"/>
     <mergeCell ref="N21:AI21"/>
     <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K26:M26"/>
     <mergeCell ref="T19:AI19"/>
     <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="AB26:AI26"/>
     <mergeCell ref="K27:M27"/>
+    <mergeCell ref="AB27:AI27"/>
+    <mergeCell ref="K28:M28"/>
     <mergeCell ref="K16:M16"/>
-    <mergeCell ref="AB25:AI25"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:S11"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:S12"/>
     <mergeCell ref="AB17:AI17"/>
-    <mergeCell ref="K19:M19"/>
     <mergeCell ref="K15:M15"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="Q15:S15"/>
     <mergeCell ref="T15:V15"/>
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="T18:AI18"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="Q23:V23"/>
-    <mergeCell ref="W23:AI23"/>
-    <mergeCell ref="AB24:AI24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="N19:P19"/>
+    <mergeCell ref="W24:AI24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="Q24:V24"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4271,7 +4619,7 @@
   <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4287,7 +4635,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4311,16 +4659,16 @@
     <row r="2" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="33" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -4343,11 +4691,11 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" s="33" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4374,7 +4722,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4394,11 +4742,11 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -4415,10 +4763,13 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
+      <c r="U7" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>0</v>
@@ -4489,25 +4840,25 @@
       <c r="F10" s="29">
         <v>0</v>
       </c>
-      <c r="G10" s="44" t="s">
-        <v>343</v>
-      </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44" t="s">
+      <c r="G10" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44" t="s">
+      <c r="M10" s="48"/>
+      <c r="N10" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44" t="s">
+      <c r="O10" s="48"/>
+      <c r="P10" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="Q10" s="44"/>
+      <c r="Q10" s="48"/>
       <c r="R10" s="29">
         <v>0</v>
       </c>
@@ -4520,7 +4871,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D11" s="32">
         <v>0</v>
@@ -4546,14 +4897,14 @@
       <c r="K11" s="32">
         <v>0</v>
       </c>
-      <c r="L11" s="44" t="s">
+      <c r="L11" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44" t="s">
+      <c r="M11" s="48"/>
+      <c r="N11" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="44"/>
+      <c r="O11" s="48"/>
       <c r="P11" s="29">
         <v>0</v>
       </c>
@@ -4572,7 +4923,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="32">
@@ -4599,14 +4950,14 @@
       <c r="K12" s="32">
         <v>0</v>
       </c>
-      <c r="L12" s="44" t="s">
+      <c r="L12" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44" t="s">
+      <c r="M12" s="48"/>
+      <c r="N12" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="44"/>
+      <c r="O12" s="48"/>
       <c r="P12" s="32">
         <v>1</v>
       </c>
@@ -4626,7 +4977,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="32">
@@ -4641,26 +4992,26 @@
       <c r="G13" s="32">
         <v>0</v>
       </c>
-      <c r="H13" s="46" t="s">
+      <c r="H13" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="46"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="32">
         <v>0</v>
       </c>
       <c r="K13" s="32">
         <v>1</v>
       </c>
-      <c r="L13" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
+      <c r="L13" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
       <c r="U13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -4668,7 +5019,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="32">
@@ -4683,26 +5034,26 @@
       <c r="G14" s="32">
         <v>0</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="46"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="32">
         <v>1</v>
       </c>
       <c r="K14" s="32">
         <v>0</v>
       </c>
-      <c r="L14" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
+      <c r="L14" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
       <c r="U14" s="10"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -4725,26 +5076,26 @@
       <c r="G15" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="46"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="32">
         <v>0</v>
       </c>
       <c r="K15" s="32">
         <v>0</v>
       </c>
-      <c r="L15" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
+      <c r="L15" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
       <c r="U15" s="10"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -4752,7 +5103,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D16" s="32">
         <v>0</v>
@@ -4766,34 +5117,34 @@
       <c r="G16" s="32">
         <v>1</v>
       </c>
-      <c r="H16" s="54" t="s">
+      <c r="H16" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
       <c r="K16" s="32">
         <v>1</v>
       </c>
-      <c r="L16" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
+      <c r="L16" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
       <c r="U16" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
+      <c r="A17" s="47">
         <v>13</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D17" s="32">
         <v>1</v>
@@ -4807,14 +5158,14 @@
       <c r="G17" s="32">
         <v>0</v>
       </c>
-      <c r="H17" s="46" t="s">
-        <v>346</v>
-      </c>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46" t="s">
-        <v>349</v>
-      </c>
-      <c r="K17" s="46"/>
+      <c r="H17" s="49" t="s">
+        <v>342</v>
+      </c>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="K17" s="49"/>
       <c r="L17" s="32">
         <v>0</v>
       </c>
@@ -4840,13 +5191,13 @@
         <v>8</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="33" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D18" s="32">
         <v>1</v>
@@ -4860,14 +5211,14 @@
       <c r="G18" s="32">
         <v>0</v>
       </c>
-      <c r="H18" s="46" t="s">
-        <v>346</v>
-      </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46" t="s">
-        <v>349</v>
-      </c>
-      <c r="K18" s="46"/>
+      <c r="H18" s="49" t="s">
+        <v>342</v>
+      </c>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="K18" s="49"/>
       <c r="L18" s="32">
         <v>0</v>
       </c>
@@ -4893,13 +5244,13 @@
         <v>8</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="33" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D19" s="32">
         <v>1</v>
@@ -4913,12 +5264,12 @@
       <c r="G19" s="32">
         <v>0</v>
       </c>
-      <c r="H19" s="47" t="s">
-        <v>341</v>
-      </c>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
+      <c r="H19" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="32">
         <v>0</v>
       </c>
@@ -4944,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -5175,8 +5526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:N46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5194,35 +5545,35 @@
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B1" s="36">
         <v>1</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="57"/>
+      <c r="A2" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
       <c r="M2" s="20" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5249,10 +5600,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
@@ -5262,13 +5613,13 @@
         <v>93</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -5306,16 +5657,16 @@
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="N4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P4" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q4" t="s">
         <v>181</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -5356,13 +5707,13 @@
         <v>94</v>
       </c>
       <c r="N5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P5" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q5" t="s">
         <v>182</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -5403,13 +5754,13 @@
         <v>95</v>
       </c>
       <c r="N6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P6" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q6" t="s">
         <v>183</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -5450,13 +5801,13 @@
         <v>96</v>
       </c>
       <c r="N7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -5499,7 +5850,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6">
@@ -5529,21 +5880,21 @@
         <v>36h</v>
       </c>
       <c r="L9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6">
@@ -5573,21 +5924,21 @@
         <v>37h</v>
       </c>
       <c r="L10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6">
@@ -5617,13 +5968,13 @@
         <v>3Eh</v>
       </c>
       <c r="L11" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M11" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -5661,10 +6012,10 @@
         <v>77</v>
       </c>
       <c r="M12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -5705,7 +6056,7 @@
         <v>99</v>
       </c>
       <c r="N13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -5746,7 +6097,7 @@
         <v>100</v>
       </c>
       <c r="N14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -5787,7 +6138,7 @@
         <v>101</v>
       </c>
       <c r="N15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -5828,7 +6179,7 @@
         <v>102</v>
       </c>
       <c r="N16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -5869,7 +6220,7 @@
         <v>103</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -5910,7 +6261,7 @@
         <v>104</v>
       </c>
       <c r="N18" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -5954,7 +6305,7 @@
         <v>Rd = Rs + Rm</v>
       </c>
       <c r="N19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -5998,7 +6349,7 @@
         <v>Rd = Rs - Rm</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -6042,7 +6393,7 @@
         <v>Rd = Rs * Rm</v>
       </c>
       <c r="N21" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -6086,7 +6437,7 @@
         <v>Rd = Rs / Rm</v>
       </c>
       <c r="N22" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -6130,7 +6481,7 @@
         <v>Rd = Rs ^ Rm</v>
       </c>
       <c r="N23" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -6174,7 +6525,7 @@
         <v>Rd = Rs % Rm</v>
       </c>
       <c r="N24" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -6215,7 +6566,7 @@
         <v>105</v>
       </c>
       <c r="N25" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -6256,7 +6607,7 @@
         <v>106</v>
       </c>
       <c r="N26" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -6297,7 +6648,7 @@
         <v>107</v>
       </c>
       <c r="N27" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -6338,7 +6689,7 @@
         <v>108</v>
       </c>
       <c r="N28" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -6379,7 +6730,7 @@
         <v>109</v>
       </c>
       <c r="N29" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -6420,7 +6771,7 @@
         <v>110</v>
       </c>
       <c r="N30" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -6461,7 +6812,7 @@
         <v>121</v>
       </c>
       <c r="N31" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -6502,7 +6853,7 @@
         <v>122</v>
       </c>
       <c r="N32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -6543,7 +6894,7 @@
         <v>111</v>
       </c>
       <c r="N33" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -6584,7 +6935,7 @@
         <v>112</v>
       </c>
       <c r="N34" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -6625,7 +6976,7 @@
         <v>113</v>
       </c>
       <c r="N35" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -6666,7 +7017,7 @@
         <v>114</v>
       </c>
       <c r="N36" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -6707,7 +7058,7 @@
         <v>115</v>
       </c>
       <c r="N37" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -6748,12 +7099,12 @@
         <v>116</v>
       </c>
       <c r="N38" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6">
@@ -6783,13 +7134,13 @@
         <v>18h</v>
       </c>
       <c r="L39" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M39" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N39" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -6827,10 +7178,10 @@
         <v>65</v>
       </c>
       <c r="M40" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -6871,7 +7222,7 @@
         <v>117</v>
       </c>
       <c r="N41" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -6912,7 +7263,7 @@
         <v>118</v>
       </c>
       <c r="N42" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -6953,7 +7304,7 @@
         <v>119</v>
       </c>
       <c r="N43" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -6994,7 +7345,7 @@
         <v>124</v>
       </c>
       <c r="N44" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -7035,7 +7386,7 @@
         <v>120</v>
       </c>
       <c r="N45" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -7076,7 +7427,7 @@
         <v>123</v>
       </c>
       <c r="N46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -7157,7 +7508,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B1" s="36">
         <v>1</v>
@@ -7167,21 +7518,21 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="A2" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="20" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7205,10 +7556,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
@@ -7218,7 +7569,7 @@
         <v>93</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -7253,10 +7604,10 @@
         <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -7294,7 +7645,7 @@
         <v>94</v>
       </c>
       <c r="M5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -7332,7 +7683,7 @@
         <v>95</v>
       </c>
       <c r="M6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -7370,12 +7721,12 @@
         <v>96</v>
       </c>
       <c r="M7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29">
@@ -7402,10 +7753,10 @@
         <v>1Eh</v>
       </c>
       <c r="K8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -7440,7 +7791,7 @@
         <v>77</v>
       </c>
       <c r="L9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -7478,7 +7829,7 @@
         <v>99</v>
       </c>
       <c r="M10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -7516,7 +7867,7 @@
         <v>100</v>
       </c>
       <c r="M11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -7554,7 +7905,7 @@
         <v>101</v>
       </c>
       <c r="M12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -7592,7 +7943,7 @@
         <v>102</v>
       </c>
       <c r="M13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -7630,7 +7981,7 @@
         <v>103</v>
       </c>
       <c r="M14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -7668,7 +8019,7 @@
         <v>104</v>
       </c>
       <c r="M15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -7706,7 +8057,7 @@
         <v>105</v>
       </c>
       <c r="M16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -7744,7 +8095,7 @@
         <v>106</v>
       </c>
       <c r="M17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -7782,7 +8133,7 @@
         <v>107</v>
       </c>
       <c r="M18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -7820,7 +8171,7 @@
         <v>108</v>
       </c>
       <c r="M19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -7858,7 +8209,7 @@
         <v>109</v>
       </c>
       <c r="M20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -7896,7 +8247,7 @@
         <v>110</v>
       </c>
       <c r="M21" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -7934,7 +8285,7 @@
         <v>123</v>
       </c>
       <c r="M22" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -7994,7 +8345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -8010,13 +8361,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B1" s="36">
         <v>2</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -8024,7 +8375,7 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="28"/>
@@ -8034,129 +8385,129 @@
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="28"/>
@@ -8166,118 +8517,118 @@
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C13" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D13" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E13" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D14" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E14" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C15" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D15" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E15" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C17" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D17" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C18" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D18" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F18" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B19" s="36">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -8285,42 +8636,42 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B20" s="38"/>
       <c r="C20" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C21" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D21" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="35" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B22" s="36">
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -8328,81 +8679,81 @@
     </row>
     <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B23" s="38"/>
       <c r="C23" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C24" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D24" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E24" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C25" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D25" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E25" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C26" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D26" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E26" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C27" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D27" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E27" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B28" s="36">
         <v>5</v>
@@ -8416,78 +8767,78 @@
     </row>
     <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B29" s="38"/>
       <c r="C29" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D30" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E30" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D31" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E31" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F31" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D32" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E32" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="E33" t="s">
         <v>315</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="E33" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="35" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B34" s="36">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -8495,144 +8846,144 @@
     </row>
     <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B35" s="38"/>
       <c r="C35" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C36" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D36" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E36" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F36" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C37" t="s">
+        <v>322</v>
+      </c>
+      <c r="D37" t="s">
+        <v>317</v>
+      </c>
+      <c r="E37" t="s">
         <v>326</v>
       </c>
-      <c r="D37" t="s">
-        <v>321</v>
-      </c>
-      <c r="E37" t="s">
-        <v>330</v>
-      </c>
       <c r="F37" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C38" t="s">
+        <v>323</v>
+      </c>
+      <c r="D38" t="s">
+        <v>317</v>
+      </c>
+      <c r="E38" t="s">
         <v>327</v>
       </c>
-      <c r="D38" t="s">
-        <v>321</v>
-      </c>
-      <c r="E38" t="s">
-        <v>331</v>
-      </c>
       <c r="F38" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C39" t="s">
+        <v>324</v>
+      </c>
+      <c r="D39" t="s">
+        <v>317</v>
+      </c>
+      <c r="E39" t="s">
         <v>328</v>
       </c>
-      <c r="D39" t="s">
-        <v>321</v>
-      </c>
-      <c r="E39" t="s">
-        <v>332</v>
-      </c>
       <c r="F39" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C40" t="s">
+        <v>325</v>
+      </c>
+      <c r="D40" t="s">
+        <v>317</v>
+      </c>
+      <c r="E40" t="s">
         <v>329</v>
       </c>
-      <c r="D40" t="s">
-        <v>321</v>
-      </c>
-      <c r="E40" t="s">
-        <v>333</v>
-      </c>
       <c r="F40" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C41" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D41" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E41" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C42" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D42" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E42" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="35" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B43" s="36">
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -8640,31 +8991,31 @@
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B44" s="38"/>
       <c r="C44" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="35" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B46" s="36">
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -8672,31 +9023,31 @@
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B47" s="38"/>
       <c r="C47" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="35" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B49" s="36">
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -8704,31 +9055,31 @@
     </row>
     <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B50" s="38"/>
       <c r="C50" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="35" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B52" s="36">
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -8736,31 +9087,31 @@
     </row>
     <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B53" s="38"/>
       <c r="C53" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="35" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B55" s="36">
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -8768,25 +9119,25 @@
     </row>
     <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B56" s="38"/>
       <c r="C56" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="35" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B58" s="36">
         <v>12</v>
@@ -8800,20 +9151,20 @@
     </row>
     <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B59" s="38"/>
       <c r="C59" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -8823,313 +9174,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" customWidth="1"/>
-    <col min="3" max="10" width="2.85546875" style="25" customWidth="1"/>
-    <col min="11" max="12" width="6" style="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
-        <v>288</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="38">
-        <v>7</v>
-      </c>
-      <c r="D3" s="38">
-        <v>6</v>
-      </c>
-      <c r="E3" s="38">
-        <v>5</v>
-      </c>
-      <c r="F3" s="38">
-        <v>4</v>
-      </c>
-      <c r="G3" s="38">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38">
-        <v>1</v>
-      </c>
-      <c r="J3" s="38">
-        <v>0</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="C4" s="25">
-        <v>0</v>
-      </c>
-      <c r="D4" s="25">
-        <v>0</v>
-      </c>
-      <c r="E4" s="25">
-        <v>0</v>
-      </c>
-      <c r="F4" s="25">
-        <v>0</v>
-      </c>
-      <c r="G4" s="25">
-        <v>0</v>
-      </c>
-      <c r="H4" s="25">
-        <v>0</v>
-      </c>
-      <c r="I4" s="25">
-        <v>0</v>
-      </c>
-      <c r="J4" s="25">
-        <v>0</v>
-      </c>
-      <c r="K4" s="25">
-        <f>_xlfn.DECIMAL(CONCATENATE(C4,D4,E4,F4,G4,H4,I4,J4),2)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="25" t="str">
-        <f>DEC2HEX(K4,2)&amp;"h"</f>
-        <v>00h</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="C5" s="25">
-        <v>0</v>
-      </c>
-      <c r="D5" s="25">
-        <v>0</v>
-      </c>
-      <c r="E5" s="25">
-        <v>0</v>
-      </c>
-      <c r="F5" s="25">
-        <v>0</v>
-      </c>
-      <c r="G5" s="25">
-        <v>0</v>
-      </c>
-      <c r="H5" s="25">
-        <v>1</v>
-      </c>
-      <c r="I5" s="25">
-        <v>0</v>
-      </c>
-      <c r="J5" s="25">
-        <v>1</v>
-      </c>
-      <c r="K5" s="25">
-        <f t="shared" ref="K5:K7" si="0">_xlfn.DECIMAL(CONCATENATE(C5,D5,E5,F5,G5,H5,I5,J5),2)</f>
-        <v>5</v>
-      </c>
-      <c r="L5" s="25" t="str">
-        <f t="shared" ref="L5:L7" si="1">DEC2HEX(K5,2)&amp;"h"</f>
-        <v>05h</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="C6" s="25">
-        <v>0</v>
-      </c>
-      <c r="D6" s="25">
-        <v>0</v>
-      </c>
-      <c r="E6" s="25">
-        <v>0</v>
-      </c>
-      <c r="F6" s="25">
-        <v>0</v>
-      </c>
-      <c r="G6" s="25">
-        <v>0</v>
-      </c>
-      <c r="H6" s="25">
-        <v>1</v>
-      </c>
-      <c r="I6" s="25">
-        <v>1</v>
-      </c>
-      <c r="J6" s="25">
-        <v>0</v>
-      </c>
-      <c r="K6" s="25">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L6" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>06h</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="C7" s="25">
-        <v>0</v>
-      </c>
-      <c r="D7" s="25">
-        <v>0</v>
-      </c>
-      <c r="E7" s="25">
-        <v>0</v>
-      </c>
-      <c r="F7" s="25">
-        <v>0</v>
-      </c>
-      <c r="G7" s="25">
-        <v>0</v>
-      </c>
-      <c r="H7" s="25">
-        <v>1</v>
-      </c>
-      <c r="I7" s="25">
-        <v>1</v>
-      </c>
-      <c r="J7" s="25">
-        <v>1</v>
-      </c>
-      <c r="K7" s="25">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L7" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>07h</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9143,7 +9191,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -9179,471 +9227,506 @@
       <c r="AG1" s="8"/>
       <c r="AH1" s="8"/>
     </row>
-    <row r="2" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4">
+    <row r="2" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
         <v>31</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D4" s="4">
         <v>30</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E4" s="4">
         <v>29</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F4" s="4">
         <v>28</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G4" s="4">
         <v>27</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H4" s="4">
         <v>26</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I4" s="4">
         <v>25</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J4" s="4">
         <v>24</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K4" s="4">
         <v>23</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L4" s="4">
         <v>22</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M4" s="4">
         <v>21</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N4" s="4">
         <v>20</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O4" s="4">
         <v>19</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P4" s="4">
         <v>18</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q4" s="4">
         <v>17</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R4" s="4">
         <v>16</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S4" s="4">
         <v>15</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T4" s="4">
         <v>14</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U4" s="4">
         <v>13</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V4" s="4">
         <v>12</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W4" s="4">
         <v>11</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X4" s="4">
         <v>10</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y4" s="4">
         <v>9</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Z4" s="4">
         <v>8</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AA4" s="4">
         <v>7</v>
       </c>
-      <c r="AB3" s="4">
+      <c r="AB4" s="4">
         <v>6</v>
       </c>
-      <c r="AC3" s="4">
+      <c r="AC4" s="4">
         <v>5</v>
       </c>
-      <c r="AD3" s="4">
+      <c r="AD4" s="4">
         <v>4</v>
       </c>
-      <c r="AE3" s="4">
+      <c r="AE4" s="4">
         <v>3</v>
       </c>
-      <c r="AF3" s="4">
+      <c r="AF4" s="4">
         <v>2</v>
       </c>
-      <c r="AG3" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>361</v>
-      </c>
-      <c r="C4" s="41">
-        <v>0</v>
-      </c>
-      <c r="D4" s="41">
-        <v>0</v>
-      </c>
-      <c r="E4" s="41">
-        <v>0</v>
-      </c>
-      <c r="F4" s="41">
-        <v>0</v>
-      </c>
-      <c r="G4" s="41">
-        <v>0</v>
-      </c>
-      <c r="H4" s="41">
-        <v>0</v>
-      </c>
-      <c r="I4" s="41">
-        <v>0</v>
-      </c>
-      <c r="J4" s="41">
-        <v>0</v>
-      </c>
-      <c r="K4" s="41">
-        <v>0</v>
-      </c>
-      <c r="L4" s="41">
-        <v>0</v>
-      </c>
-      <c r="M4" s="41">
-        <v>0</v>
-      </c>
-      <c r="N4" s="41">
-        <v>0</v>
-      </c>
-      <c r="O4" s="41">
-        <v>0</v>
-      </c>
-      <c r="P4" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="41">
-        <v>0</v>
-      </c>
-      <c r="R4" s="41">
-        <v>0</v>
-      </c>
-      <c r="S4" s="41">
-        <v>0</v>
-      </c>
-      <c r="T4" s="41">
-        <v>0</v>
-      </c>
-      <c r="U4" s="41">
-        <v>0</v>
-      </c>
-      <c r="V4" s="41">
-        <v>0</v>
-      </c>
-      <c r="W4" s="41">
-        <v>0</v>
-      </c>
-      <c r="X4" s="41">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="41">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="41">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AJ4" s="10"/>
+      <c r="AG4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="41">
+        <v>0</v>
+      </c>
+      <c r="D5" s="41">
+        <v>0</v>
+      </c>
+      <c r="E5" s="41">
+        <v>0</v>
+      </c>
+      <c r="F5" s="41">
+        <v>0</v>
+      </c>
+      <c r="G5" s="41">
+        <v>0</v>
+      </c>
+      <c r="H5" s="41">
+        <v>0</v>
+      </c>
+      <c r="I5" s="41">
+        <v>0</v>
+      </c>
+      <c r="J5" s="41">
+        <v>0</v>
+      </c>
+      <c r="K5" s="41">
+        <v>0</v>
+      </c>
+      <c r="L5" s="41">
+        <v>0</v>
+      </c>
+      <c r="M5" s="41">
+        <v>0</v>
+      </c>
+      <c r="N5" s="41">
+        <v>0</v>
+      </c>
+      <c r="O5" s="41">
+        <v>0</v>
+      </c>
+      <c r="P5" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="41">
+        <v>0</v>
+      </c>
+      <c r="R5" s="41">
+        <v>0</v>
+      </c>
+      <c r="S5" s="41">
+        <v>0</v>
+      </c>
+      <c r="T5" s="41">
+        <v>0</v>
+      </c>
+      <c r="U5" s="41">
+        <v>0</v>
+      </c>
+      <c r="V5" s="41">
+        <v>0</v>
+      </c>
+      <c r="W5" s="41">
+        <v>0</v>
+      </c>
+      <c r="X5" s="41">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="41">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AJ5" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>404</v>
+      </c>
+      <c r="C6" s="43">
+        <v>0</v>
+      </c>
+      <c r="D6" s="43">
+        <v>0</v>
+      </c>
+      <c r="E6" s="43">
+        <v>0</v>
+      </c>
+      <c r="F6" s="43">
+        <v>0</v>
+      </c>
+      <c r="G6" s="43">
+        <v>0</v>
+      </c>
+      <c r="H6" s="43">
+        <v>0</v>
+      </c>
+      <c r="I6" s="43">
+        <v>0</v>
+      </c>
+      <c r="J6" s="43">
+        <v>0</v>
+      </c>
+      <c r="K6" s="43">
+        <v>0</v>
+      </c>
+      <c r="L6" s="43">
+        <v>0</v>
+      </c>
+      <c r="M6" s="43">
+        <v>0</v>
+      </c>
+      <c r="N6" s="43">
+        <v>0</v>
+      </c>
+      <c r="O6" s="43">
+        <v>0</v>
+      </c>
+      <c r="P6" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="43">
+        <v>0</v>
+      </c>
+      <c r="R6" s="43">
+        <v>0</v>
+      </c>
+      <c r="S6" s="43">
+        <v>0</v>
+      </c>
+      <c r="T6" s="43">
+        <v>0</v>
+      </c>
+      <c r="U6" s="43">
+        <v>0</v>
+      </c>
+      <c r="V6" s="43">
+        <v>0</v>
+      </c>
+      <c r="W6" s="43">
+        <v>0</v>
+      </c>
+      <c r="X6" s="43">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="43">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="43">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="AG6" s="52"/>
+      <c r="AH6" s="52"/>
+      <c r="AJ6" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="C7" s="43">
+        <v>0</v>
+      </c>
+      <c r="D7" s="43">
+        <v>0</v>
+      </c>
+      <c r="E7" s="43">
+        <v>0</v>
+      </c>
+      <c r="F7" s="43">
+        <v>0</v>
+      </c>
+      <c r="G7" s="43">
+        <v>0</v>
+      </c>
+      <c r="H7" s="43">
+        <v>0</v>
+      </c>
+      <c r="I7" s="43">
+        <v>0</v>
+      </c>
+      <c r="J7" s="43">
+        <v>0</v>
+      </c>
+      <c r="K7" s="43">
+        <v>0</v>
+      </c>
+      <c r="L7" s="43">
+        <v>0</v>
+      </c>
+      <c r="M7" s="43">
+        <v>0</v>
+      </c>
+      <c r="N7" s="43">
+        <v>0</v>
+      </c>
+      <c r="O7" s="43">
+        <v>0</v>
+      </c>
+      <c r="P7" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="43">
+        <v>0</v>
+      </c>
+      <c r="R7" s="43">
+        <v>0</v>
+      </c>
+      <c r="S7" s="43">
+        <v>0</v>
+      </c>
+      <c r="T7" s="43">
+        <v>0</v>
+      </c>
+      <c r="U7" s="43">
+        <v>0</v>
+      </c>
+      <c r="V7" s="43">
+        <v>0</v>
+      </c>
+      <c r="W7" s="43">
+        <v>0</v>
+      </c>
+      <c r="X7" s="43">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="43">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA7" s="63" t="s">
+        <v>407</v>
+      </c>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="64"/>
+      <c r="AD7" s="64"/>
+      <c r="AE7" s="64"/>
+      <c r="AF7" s="64"/>
+      <c r="AG7" s="64"/>
+      <c r="AH7" s="65"/>
+      <c r="AJ7" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="C8" s="41">
+        <v>0</v>
+      </c>
+      <c r="D8" s="41">
+        <v>0</v>
+      </c>
+      <c r="E8" s="41">
+        <v>0</v>
+      </c>
+      <c r="F8" s="41">
+        <v>0</v>
+      </c>
+      <c r="G8" s="41">
+        <v>0</v>
+      </c>
+      <c r="H8" s="41">
+        <v>0</v>
+      </c>
+      <c r="I8" s="41">
+        <v>0</v>
+      </c>
+      <c r="J8" s="41">
+        <v>1</v>
+      </c>
+      <c r="K8" s="52" t="s">
         <v>362</v>
       </c>
-      <c r="C5" s="41">
-        <v>0</v>
-      </c>
-      <c r="D5" s="41">
-        <v>0</v>
-      </c>
-      <c r="E5" s="41">
-        <v>0</v>
-      </c>
-      <c r="F5" s="41">
-        <v>0</v>
-      </c>
-      <c r="G5" s="41">
-        <v>0</v>
-      </c>
-      <c r="H5" s="41">
-        <v>0</v>
-      </c>
-      <c r="I5" s="41">
-        <v>0</v>
-      </c>
-      <c r="J5" s="41">
-        <v>0</v>
-      </c>
-      <c r="K5" s="41">
-        <v>0</v>
-      </c>
-      <c r="L5" s="41">
-        <v>0</v>
-      </c>
-      <c r="M5" s="41">
-        <v>0</v>
-      </c>
-      <c r="N5" s="41">
-        <v>0</v>
-      </c>
-      <c r="O5" s="41">
-        <v>0</v>
-      </c>
-      <c r="P5" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="41">
-        <v>0</v>
-      </c>
-      <c r="R5" s="41">
-        <v>0</v>
-      </c>
-      <c r="S5" s="41">
-        <v>0</v>
-      </c>
-      <c r="T5" s="41">
-        <v>0</v>
-      </c>
-      <c r="U5" s="41">
-        <v>0</v>
-      </c>
-      <c r="V5" s="41">
-        <v>0</v>
-      </c>
-      <c r="W5" s="41">
-        <v>1</v>
-      </c>
-      <c r="X5" s="48" t="s">
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52" t="s">
         <v>363</v>
       </c>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48" t="s">
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52" t="s">
+        <v>364</v>
+      </c>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="48"/>
-      <c r="AJ5" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="52"/>
+      <c r="AH8" s="52"/>
+      <c r="AJ8" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="44" t="s">
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="44"/>
-      <c r="AJ6" s="10"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="10"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AJ8" s="10"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AJ9" s="10"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="48"/>
+      <c r="AH9" s="48"/>
+      <c r="AJ9" s="10" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
@@ -9682,40 +9765,46 @@
       <c r="AJ10" s="10"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AJ11" s="10"/>
+      <c r="A11" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="48"/>
+      <c r="AG11" s="48"/>
+      <c r="AH11" s="48"/>
+      <c r="AJ11" s="10" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
@@ -9724,8 +9813,8 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="6"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -9763,30 +9852,30 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
       <c r="AJ13" s="10"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
@@ -9796,33 +9885,33 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
       <c r="AJ14" s="10"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
@@ -9831,12 +9920,12 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -9851,14 +9940,14 @@
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
       <c r="AJ15" s="10"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
@@ -9867,12 +9956,12 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -9887,14 +9976,14 @@
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
       <c r="AJ16" s="10"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
@@ -9923,14 +10012,14 @@
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
       <c r="AJ17" s="10"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
@@ -9943,8 +10032,8 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -9967,9 +10056,43 @@
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
+      <c r="AJ18" s="10"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
       <c r="J19" s="6"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AJ19" s="10"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
@@ -9997,22 +10120,20 @@
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AJ20" s="10"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -10048,41 +10169,7 @@
       <c r="AJ22" s="10"/>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
-      <c r="AJ23" s="10"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
@@ -10232,14 +10319,26 @@
       <c r="AH27" s="6"/>
       <c r="AJ27" s="10"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+    <row r="28" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4">
+        <v>4</v>
+      </c>
+      <c r="D28" s="4">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -10270,48 +10369,76 @@
       <c r="AJ28" s="10"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="A29" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="45">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
       <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="6"/>
-      <c r="AH29" s="6"/>
+      <c r="I29" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
       <c r="AJ29" s="10"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="A30" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="45">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
@@ -10339,17 +10466,33 @@
       <c r="AF30" s="6"/>
       <c r="AG30" s="6"/>
       <c r="AH30" s="6"/>
-      <c r="AJ30" s="10"/>
+      <c r="AJ30" s="10" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="A31" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C31" s="45">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
       <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="I31" s="10" t="s">
+        <v>368</v>
+      </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
@@ -10378,14 +10521,28 @@
       <c r="AJ31" s="10"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="A32" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C32" s="45">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1</v>
+      </c>
       <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="I32" s="10" t="s">
+        <v>372</v>
+      </c>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
@@ -10414,14 +10571,28 @@
       <c r="AJ32" s="10"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="A33" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C33" s="45">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
+      </c>
       <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="I33" s="10" t="s">
+        <v>371</v>
+      </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
@@ -10447,17 +10618,33 @@
       <c r="AF33" s="6"/>
       <c r="AG33" s="6"/>
       <c r="AH33" s="6"/>
-      <c r="AJ33" s="10"/>
+      <c r="AJ33" s="10" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="A34" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C34" s="45">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="I34" s="10" t="s">
+        <v>375</v>
+      </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
@@ -10486,50 +10673,78 @@
       <c r="AJ34" s="10"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="6"/>
-      <c r="AE35" s="6"/>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
-      <c r="AH35" s="6"/>
+      <c r="A35" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="C35" s="45">
+        <v>0</v>
+      </c>
+      <c r="D35" s="44">
+        <v>0</v>
+      </c>
+      <c r="E35" s="44">
+        <v>1</v>
+      </c>
+      <c r="F35" s="44">
+        <v>1</v>
+      </c>
+      <c r="G35" s="44">
+        <v>0</v>
+      </c>
+      <c r="H35" s="44"/>
+      <c r="I35" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="44"/>
+      <c r="Z35" s="44"/>
+      <c r="AA35" s="44"/>
+      <c r="AB35" s="44"/>
+      <c r="AC35" s="44"/>
+      <c r="AD35" s="44"/>
+      <c r="AE35" s="44"/>
+      <c r="AF35" s="44"/>
+      <c r="AG35" s="44"/>
+      <c r="AH35" s="44"/>
       <c r="AJ35" s="10"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="A36" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C36" s="45">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
       <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="I36" s="10" t="s">
+        <v>377</v>
+      </c>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
@@ -10558,14 +10773,28 @@
       <c r="AJ36" s="10"/>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="A37" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C37" s="45">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="44">
+        <v>0</v>
+      </c>
+      <c r="G37" s="44">
+        <v>0</v>
+      </c>
       <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="I37" s="5" t="s">
+        <v>365</v>
+      </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
@@ -10594,14 +10823,28 @@
       <c r="AJ37" s="10"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="A38" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C38" s="45">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <v>1</v>
+      </c>
       <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="I38" s="10" t="s">
+        <v>394</v>
+      </c>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
@@ -10630,14 +10873,28 @@
       <c r="AJ38" s="10"/>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="A39" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C39" s="45">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0</v>
+      </c>
       <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="I39" s="10" t="s">
+        <v>384</v>
+      </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
@@ -10666,14 +10923,28 @@
       <c r="AJ39" s="10"/>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="A40" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C40" s="45">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
+      <c r="G40" s="6">
+        <v>1</v>
+      </c>
       <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="I40" s="10" t="s">
+        <v>386</v>
+      </c>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
@@ -10701,20 +10972,492 @@
       <c r="AH40" s="6"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
+      <c r="A41" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C41" s="45">
+        <v>0</v>
+      </c>
+      <c r="D41" s="44">
+        <v>1</v>
+      </c>
+      <c r="E41" s="44">
+        <v>1</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A42" s="46" t="s">
+        <v>396</v>
+      </c>
+      <c r="C42" s="45">
+        <v>0</v>
+      </c>
+      <c r="D42" s="44">
+        <v>1</v>
+      </c>
+      <c r="E42" s="44">
+        <v>1</v>
+      </c>
+      <c r="F42" s="44">
+        <v>0</v>
+      </c>
+      <c r="G42" s="44">
+        <v>1</v>
+      </c>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C43" s="45">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
+      <c r="F43" s="44">
+        <v>1</v>
+      </c>
+      <c r="G43" s="44">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="6"/>
+      <c r="AH43" s="6"/>
+      <c r="AJ43" s="10"/>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A44" s="46" t="s">
+        <v>392</v>
+      </c>
+      <c r="C44" s="45">
+        <v>0</v>
+      </c>
+      <c r="D44" s="44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="44">
+        <v>1</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A45" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="C45" s="45">
+        <v>1</v>
+      </c>
+      <c r="D45" s="44">
+        <v>0</v>
+      </c>
+      <c r="E45" s="44">
+        <v>0</v>
+      </c>
+      <c r="F45" s="44">
+        <v>1</v>
+      </c>
+      <c r="G45" s="44">
+        <v>0</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A46" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="C46" s="45">
+        <v>1</v>
+      </c>
+      <c r="D46" s="44">
+        <v>0</v>
+      </c>
+      <c r="E46" s="44">
+        <v>0</v>
+      </c>
+      <c r="F46" s="44">
+        <v>1</v>
+      </c>
+      <c r="G46" s="44">
+        <v>1</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>402</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="K6:AH6"/>
+  <mergeCells count="10">
+    <mergeCell ref="D11:AH11"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="AA6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
     <mergeCell ref="AA7:AH7"/>
-    <mergeCell ref="S7:Z7"/>
-    <mergeCell ref="K7:R7"/>
-    <mergeCell ref="AA4:AH4"/>
-    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="K9:AH9"/>
     <mergeCell ref="AA5:AH5"/>
+    <mergeCell ref="AA8:AH8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:Z8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" customWidth="1"/>
+    <col min="3" max="10" width="2.85546875" style="25" customWidth="1"/>
+    <col min="11" max="12" width="6" style="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="38">
+        <v>7</v>
+      </c>
+      <c r="D3" s="38">
+        <v>6</v>
+      </c>
+      <c r="E3" s="38">
+        <v>5</v>
+      </c>
+      <c r="F3" s="38">
+        <v>4</v>
+      </c>
+      <c r="G3" s="38">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38">
+        <v>1</v>
+      </c>
+      <c r="J3" s="38">
+        <v>0</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0</v>
+      </c>
+      <c r="K4" s="25">
+        <f>_xlfn.DECIMAL(CONCATENATE(C4,D4,E4,F4,G4,H4,I4,J4),2)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="25" t="str">
+        <f>DEC2HEX(K4,2)&amp;"h"</f>
+        <v>00h</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0</v>
+      </c>
+      <c r="H5" s="25">
+        <v>1</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0</v>
+      </c>
+      <c r="J5" s="25">
+        <v>1</v>
+      </c>
+      <c r="K5" s="25">
+        <f t="shared" ref="K5:K7" si="0">_xlfn.DECIMAL(CONCATENATE(C5,D5,E5,F5,G5,H5,I5,J5),2)</f>
+        <v>5</v>
+      </c>
+      <c r="L5" s="25" t="str">
+        <f t="shared" ref="L5:L7" si="1">DEC2HEX(K5,2)&amp;"h"</f>
+        <v>05h</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
+        <v>1</v>
+      </c>
+      <c r="I6" s="25">
+        <v>1</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0</v>
+      </c>
+      <c r="K6" s="25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L6" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>06h</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
+        <v>1</v>
+      </c>
+      <c r="I7" s="25">
+        <v>1</v>
+      </c>
+      <c r="J7" s="25">
+        <v>1</v>
+      </c>
+      <c r="K7" s="25">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L7" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>07h</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10812,12 +11555,12 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C4" s="41">
         <v>0</v>
@@ -10865,15 +11608,15 @@
         <v>0</v>
       </c>
       <c r="R4" s="41" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C5" s="40">
         <v>0</v>
@@ -10921,15 +11664,15 @@
         <v>1</v>
       </c>
       <c r="R5" s="40" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C6" s="40">
         <v>0</v>
@@ -10977,13 +11720,13 @@
         <v>0</v>
       </c>
       <c r="R6" s="40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C7" s="40">
         <v>0</v>
@@ -11021,17 +11764,17 @@
       <c r="N7" s="40">
         <v>1</v>
       </c>
-      <c r="O7" s="44" t="s">
-        <v>311</v>
-      </c>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
+      <c r="O7" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C8" s="40">
         <v>0</v>
@@ -11057,21 +11800,21 @@
       <c r="J8" s="40">
         <v>1</v>
       </c>
-      <c r="K8" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
+      <c r="K8" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C9" s="40">
         <v>0</v>
@@ -11095,23 +11838,23 @@
         <v>1</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="K9" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
+        <v>133</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C10" s="40">
         <v>0</v>
@@ -11135,23 +11878,23 @@
         <v>0</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="K10" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
+        <v>133</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C11" s="40">
         <v>0</v>
@@ -11175,23 +11918,23 @@
         <v>1</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="K11" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
+        <v>133</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
       <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -11217,16 +11960,16 @@
       <c r="J12" s="6">
         <v>0</v>
       </c>
-      <c r="K12" s="44" t="s">
-        <v>309</v>
-      </c>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
+      <c r="K12" s="48" t="s">
+        <v>305</v>
+      </c>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
       <c r="T12" s="10"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">

--- a/doc/RiscyInstSet32Bit.xlsx
+++ b/doc/RiscyInstSet32Bit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="12690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="12690" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Terra" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="412">
   <si>
     <t>Description</t>
   </si>
@@ -309,9 +309,6 @@
     <t>Print string</t>
   </si>
   <si>
-    <t>Database address</t>
-  </si>
-  <si>
     <t>Expression</t>
   </si>
   <si>
@@ -1264,6 +1261,12 @@
   </si>
   <si>
     <t>Jump to Subroutine, immediate</t>
+  </si>
+  <si>
+    <t>Tips: You can get extra speed if you directly memcpy the texts instead of calling BIOS</t>
+  </si>
+  <si>
+    <t>Database address (offset)</t>
   </si>
 </sst>
 </file>
@@ -2074,8 +2077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:AI23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2091,7 +2094,7 @@
   <sheetData>
     <row r="1" spans="1:38" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2131,16 +2134,16 @@
     <row r="2" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2179,11 +2182,11 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2226,7 +2229,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2260,12 +2263,12 @@
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
       <c r="AK6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
@@ -2303,12 +2306,12 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
       <c r="AK7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>0</v>
@@ -2481,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="AD10" s="57" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AE10" s="57"/>
       <c r="AF10" s="57"/>
@@ -2489,13 +2492,13 @@
       <c r="AH10" s="57"/>
       <c r="AI10" s="57"/>
       <c r="AK10" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
       <c r="B11" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D11" s="51" t="s">
         <v>3</v>
@@ -2520,7 +2523,7 @@
       <c r="L11" s="49"/>
       <c r="M11" s="49"/>
       <c r="N11" s="50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O11" s="50"/>
       <c r="P11" s="50"/>
@@ -2576,7 +2579,7 @@
         <v>8</v>
       </c>
       <c r="AK11" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
@@ -2607,12 +2610,12 @@
       <c r="L12" s="52"/>
       <c r="M12" s="52"/>
       <c r="N12" s="52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O12" s="52"/>
       <c r="P12" s="52"/>
       <c r="Q12" s="53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R12" s="53"/>
       <c r="S12" s="53"/>
@@ -2665,13 +2668,13 @@
         <v>0</v>
       </c>
       <c r="AK12" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
       <c r="B13" s="33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D13" s="51" t="s">
         <v>3</v>
@@ -2696,12 +2699,12 @@
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O13" s="48"/>
       <c r="P13" s="48"/>
       <c r="Q13" s="53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R13" s="53"/>
       <c r="S13" s="53"/>
@@ -2736,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="AD13" s="52" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AE13" s="52"/>
       <c r="AF13" s="52"/>
@@ -2744,7 +2747,7 @@
       <c r="AH13" s="52"/>
       <c r="AI13" s="52"/>
       <c r="AK13" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
@@ -2752,7 +2755,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="51" t="s">
         <v>3</v>
@@ -2826,17 +2829,17 @@
         <v>0</v>
       </c>
       <c r="AG14" s="51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AH14" s="51"/>
       <c r="AI14" s="22" t="s">
         <v>84</v>
       </c>
       <c r="AK14" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
@@ -2874,17 +2877,17 @@
       <c r="O15" s="48"/>
       <c r="P15" s="48"/>
       <c r="Q15" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R15" s="48"/>
       <c r="S15" s="48"/>
       <c r="T15" s="48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U15" s="48"/>
       <c r="V15" s="48"/>
       <c r="W15" s="48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X15" s="48"/>
       <c r="Y15" s="48"/>
@@ -2919,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
@@ -2927,7 +2930,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D16" s="51" t="s">
         <v>3</v>
@@ -3008,13 +3011,13 @@
         <v>0</v>
       </c>
       <c r="AH16" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI16" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK16" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="AI16" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK16" s="10" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
@@ -3022,7 +3025,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D17" s="51" t="s">
         <v>3</v>
@@ -3085,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC17" s="48"/>
       <c r="AD17" s="48"/>
@@ -3095,13 +3098,13 @@
       <c r="AH17" s="48"/>
       <c r="AI17" s="48"/>
       <c r="AK17" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D18" s="51" t="s">
         <v>3</v>
@@ -3140,7 +3143,7 @@
         <v>8</v>
       </c>
       <c r="T18" s="48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U18" s="48"/>
       <c r="V18" s="48"/>
@@ -3158,13 +3161,13 @@
       <c r="AH18" s="48"/>
       <c r="AI18" s="48"/>
       <c r="AK18" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D19" s="51" t="s">
         <v>3</v>
@@ -3203,7 +3206,7 @@
         <v>8</v>
       </c>
       <c r="T19" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U19" s="48"/>
       <c r="V19" s="48"/>
@@ -3221,13 +3224,13 @@
       <c r="AH19" s="48"/>
       <c r="AI19" s="48"/>
       <c r="AK19" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D20" s="51" t="s">
         <v>3</v>
@@ -3276,7 +3279,7 @@
       <c r="AH20" s="48"/>
       <c r="AI20" s="48"/>
       <c r="AK20" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
@@ -3309,7 +3312,7 @@
       <c r="L21" s="48"/>
       <c r="M21" s="48"/>
       <c r="N21" s="48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O21" s="48"/>
       <c r="P21" s="48"/>
@@ -3333,7 +3336,7 @@
       <c r="AH21" s="48"/>
       <c r="AI21" s="48"/>
       <c r="AK21" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
@@ -3341,7 +3344,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D22" s="51" t="s">
         <v>3</v>
@@ -3361,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L22" s="50"/>
       <c r="M22" s="50"/>
@@ -3390,13 +3393,13 @@
       <c r="AH22" s="48"/>
       <c r="AI22" s="48"/>
       <c r="AK22" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
       <c r="B23" s="46" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D23" s="51" t="s">
         <v>3</v>
@@ -3416,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L23" s="67"/>
       <c r="M23" s="68"/>
@@ -3451,7 +3454,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D24" s="51" t="s">
         <v>3</v>
@@ -3471,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L24" s="50"/>
       <c r="M24" s="50"/>
@@ -3485,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="R24" s="49"/>
       <c r="S24" s="49"/>
@@ -3493,7 +3496,7 @@
       <c r="U24" s="49"/>
       <c r="V24" s="49"/>
       <c r="W24" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X24" s="48"/>
       <c r="Y24" s="48"/>
@@ -3508,7 +3511,7 @@
       <c r="AH24" s="48"/>
       <c r="AI24" s="48"/>
       <c r="AK24" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
@@ -3516,7 +3519,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D25" s="75" t="s">
         <v>3</v>
@@ -3583,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="AB25" s="69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AC25" s="70"/>
       <c r="AD25" s="70"/>
@@ -3593,7 +3596,7 @@
       <c r="AH25" s="70"/>
       <c r="AI25" s="71"/>
       <c r="AK25" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
@@ -3763,7 +3766,7 @@
       <c r="AH27" s="48"/>
       <c r="AI27" s="48"/>
       <c r="AK27" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
@@ -4635,7 +4638,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4659,16 +4662,16 @@
     <row r="2" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -4691,11 +4694,11 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4722,7 +4725,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4742,11 +4745,11 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -4764,12 +4767,12 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="U7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>0</v>
@@ -4841,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H10" s="48"/>
       <c r="I10" s="48"/>
@@ -4871,7 +4874,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D11" s="32">
         <v>0</v>
@@ -4923,7 +4926,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="32">
@@ -4977,7 +4980,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="32">
@@ -5003,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M13" s="49"/>
       <c r="N13" s="49"/>
@@ -5019,7 +5022,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="32">
@@ -5045,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M14" s="49"/>
       <c r="N14" s="49"/>
@@ -5087,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M15" s="49"/>
       <c r="N15" s="49"/>
@@ -5103,7 +5106,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D16" s="32">
         <v>0</v>
@@ -5126,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M16" s="49"/>
       <c r="N16" s="49"/>
@@ -5136,7 +5139,7 @@
       <c r="R16" s="49"/>
       <c r="S16" s="49"/>
       <c r="U16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -5144,7 +5147,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D17" s="32">
         <v>1</v>
@@ -5159,11 +5162,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I17" s="49"/>
       <c r="J17" s="49" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K17" s="49"/>
       <c r="L17" s="32">
@@ -5191,13 +5194,13 @@
         <v>8</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D18" s="32">
         <v>1</v>
@@ -5212,11 +5215,11 @@
         <v>0</v>
       </c>
       <c r="H18" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I18" s="49"/>
       <c r="J18" s="49" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K18" s="49"/>
       <c r="L18" s="32">
@@ -5244,13 +5247,13 @@
         <v>8</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D19" s="32">
         <v>1</v>
@@ -5265,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I19" s="50"/>
       <c r="J19" s="50"/>
@@ -5295,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -5527,7 +5530,7 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5545,13 +5548,13 @@
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B1" s="36">
         <v>1</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5559,7 +5562,7 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
@@ -5573,7 +5576,7 @@
       <c r="K2" s="60"/>
       <c r="L2" s="61"/>
       <c r="M2" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5600,26 +5603,26 @@
         <v>0</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q3" s="23" t="s">
         <v>175</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -5657,16 +5660,16 @@
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -5704,16 +5707,16 @@
         <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -5751,16 +5754,16 @@
         <v>74</v>
       </c>
       <c r="M6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -5798,16 +5801,16 @@
         <v>75</v>
       </c>
       <c r="M7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -5845,12 +5848,12 @@
         <v>88</v>
       </c>
       <c r="M8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6">
@@ -5880,21 +5883,21 @@
         <v>36h</v>
       </c>
       <c r="L9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6">
@@ -5924,21 +5927,21 @@
         <v>37h</v>
       </c>
       <c r="L10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6">
@@ -5968,13 +5971,13 @@
         <v>3Eh</v>
       </c>
       <c r="L11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -6012,10 +6015,10 @@
         <v>77</v>
       </c>
       <c r="M12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -6053,10 +6056,10 @@
         <v>45</v>
       </c>
       <c r="M13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -6094,10 +6097,10 @@
         <v>46</v>
       </c>
       <c r="M14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -6135,10 +6138,10 @@
         <v>47</v>
       </c>
       <c r="M15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -6176,10 +6179,10 @@
         <v>48</v>
       </c>
       <c r="M16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -6217,10 +6220,10 @@
         <v>49</v>
       </c>
       <c r="M17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -6258,10 +6261,10 @@
         <v>50</v>
       </c>
       <c r="M18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -6305,7 +6308,7 @@
         <v>Rd = Rs + Rm</v>
       </c>
       <c r="N19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -6349,7 +6352,7 @@
         <v>Rd = Rs - Rm</v>
       </c>
       <c r="N20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -6393,7 +6396,7 @@
         <v>Rd = Rs * Rm</v>
       </c>
       <c r="N21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -6437,7 +6440,7 @@
         <v>Rd = Rs / Rm</v>
       </c>
       <c r="N22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -6481,7 +6484,7 @@
         <v>Rd = Rs ^ Rm</v>
       </c>
       <c r="N23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -6525,7 +6528,7 @@
         <v>Rd = Rs % Rm</v>
       </c>
       <c r="N24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -6563,10 +6566,10 @@
         <v>51</v>
       </c>
       <c r="M25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -6604,10 +6607,10 @@
         <v>52</v>
       </c>
       <c r="M26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -6645,10 +6648,10 @@
         <v>53</v>
       </c>
       <c r="M27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -6686,10 +6689,10 @@
         <v>54</v>
       </c>
       <c r="M28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -6727,10 +6730,10 @@
         <v>55</v>
       </c>
       <c r="M29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -6768,10 +6771,10 @@
         <v>56</v>
       </c>
       <c r="M30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -6809,10 +6812,10 @@
         <v>57</v>
       </c>
       <c r="M31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -6850,10 +6853,10 @@
         <v>58</v>
       </c>
       <c r="M32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -6891,10 +6894,10 @@
         <v>59</v>
       </c>
       <c r="M33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -6932,10 +6935,10 @@
         <v>60</v>
       </c>
       <c r="M34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -6973,10 +6976,10 @@
         <v>61</v>
       </c>
       <c r="M35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -7014,10 +7017,10 @@
         <v>62</v>
       </c>
       <c r="M36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -7055,10 +7058,10 @@
         <v>63</v>
       </c>
       <c r="M37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -7096,15 +7099,15 @@
         <v>64</v>
       </c>
       <c r="M38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6">
@@ -7134,13 +7137,13 @@
         <v>18h</v>
       </c>
       <c r="L39" t="s">
+        <v>191</v>
+      </c>
+      <c r="M39" t="s">
         <v>192</v>
       </c>
-      <c r="M39" t="s">
-        <v>193</v>
-      </c>
       <c r="N39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -7178,10 +7181,10 @@
         <v>65</v>
       </c>
       <c r="M40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -7219,10 +7222,10 @@
         <v>66</v>
       </c>
       <c r="M41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -7260,10 +7263,10 @@
         <v>67</v>
       </c>
       <c r="M42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -7301,10 +7304,10 @@
         <v>68</v>
       </c>
       <c r="M43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -7342,10 +7345,10 @@
         <v>69</v>
       </c>
       <c r="M44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -7383,10 +7386,10 @@
         <v>70</v>
       </c>
       <c r="M45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -7424,10 +7427,10 @@
         <v>71</v>
       </c>
       <c r="M46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -7508,7 +7511,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B1" s="36">
         <v>1</v>
@@ -7519,7 +7522,7 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
@@ -7532,7 +7535,7 @@
       <c r="J2" s="60"/>
       <c r="K2" s="61"/>
       <c r="L2" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7556,20 +7559,20 @@
         <v>0</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -7604,10 +7607,10 @@
         <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -7642,10 +7645,10 @@
         <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -7680,10 +7683,10 @@
         <v>74</v>
       </c>
       <c r="L6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -7718,15 +7721,15 @@
         <v>75</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29">
@@ -7753,10 +7756,10 @@
         <v>1Eh</v>
       </c>
       <c r="K8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -7791,7 +7794,7 @@
         <v>77</v>
       </c>
       <c r="L9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -7826,10 +7829,10 @@
         <v>45</v>
       </c>
       <c r="L10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -7864,10 +7867,10 @@
         <v>46</v>
       </c>
       <c r="L11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -7902,10 +7905,10 @@
         <v>47</v>
       </c>
       <c r="L12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -7940,10 +7943,10 @@
         <v>48</v>
       </c>
       <c r="L13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -7978,10 +7981,10 @@
         <v>49</v>
       </c>
       <c r="L14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -8016,10 +8019,10 @@
         <v>50</v>
       </c>
       <c r="L15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -8054,10 +8057,10 @@
         <v>51</v>
       </c>
       <c r="L16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -8092,10 +8095,10 @@
         <v>52</v>
       </c>
       <c r="L17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -8130,10 +8133,10 @@
         <v>53</v>
       </c>
       <c r="L18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -8168,10 +8171,10 @@
         <v>54</v>
       </c>
       <c r="L19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -8206,10 +8209,10 @@
         <v>55</v>
       </c>
       <c r="L20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -8244,10 +8247,10 @@
         <v>56</v>
       </c>
       <c r="L21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -8282,10 +8285,10 @@
         <v>71</v>
       </c>
       <c r="L22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -8345,8 +8348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8361,13 +8364,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B1" s="36">
         <v>2</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -8375,7 +8378,7 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="28"/>
@@ -8385,129 +8388,129 @@
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E10" t="s">
+        <v>226</v>
+      </c>
+      <c r="F10" t="s">
         <v>227</v>
-      </c>
-      <c r="F10" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="28"/>
@@ -8517,118 +8520,118 @@
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B19" s="36">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -8636,42 +8639,42 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B20" s="38"/>
       <c r="C20" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" t="s">
+        <v>256</v>
+      </c>
+      <c r="D21" t="s">
         <v>255</v>
-      </c>
-      <c r="C21" t="s">
-        <v>257</v>
-      </c>
-      <c r="D21" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B22" s="36">
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -8679,81 +8682,81 @@
     </row>
     <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" s="38"/>
       <c r="C23" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" t="s">
         <v>258</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24" t="s">
         <v>259</v>
-      </c>
-      <c r="D24" t="s">
-        <v>290</v>
-      </c>
-      <c r="E24" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B28" s="36">
         <v>5</v>
@@ -8767,78 +8770,78 @@
     </row>
     <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" s="38"/>
       <c r="C29" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B34" s="36">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -8846,144 +8849,144 @@
     </row>
     <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B35" s="38"/>
       <c r="C35" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E38" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D39" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E39" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D40" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C41" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E41" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B43" s="36">
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -8991,31 +8994,31 @@
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B44" s="38"/>
       <c r="C44" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B46" s="36">
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -9023,31 +9026,31 @@
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B47" s="38"/>
       <c r="C47" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B49" s="36">
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -9055,31 +9058,31 @@
     </row>
     <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B50" s="38"/>
       <c r="C50" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B52" s="36">
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -9087,31 +9090,31 @@
     </row>
     <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B53" s="38"/>
       <c r="C53" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B55" s="36">
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -9119,25 +9122,25 @@
     </row>
     <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B56" s="38"/>
       <c r="C56" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B58" s="36">
         <v>12</v>
@@ -9151,20 +9154,20 @@
     </row>
     <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B59" s="38"/>
       <c r="C59" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -9176,8 +9179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ6" sqref="AJ6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9191,7 +9194,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -9229,7 +9232,7 @@
     </row>
     <row r="2" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9336,7 +9339,7 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C5" s="41">
         <v>0</v>
@@ -9421,12 +9424,12 @@
       <c r="AG5" s="52"/>
       <c r="AH5" s="52"/>
       <c r="AJ5" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C6" s="43">
         <v>0</v>
@@ -9501,99 +9504,99 @@
         <v>1</v>
       </c>
       <c r="AA6" s="53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB6" s="53"/>
       <c r="AC6" s="53"/>
       <c r="AD6" s="53"/>
       <c r="AE6" s="53"/>
       <c r="AF6" s="52" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG6" s="52"/>
       <c r="AH6" s="52"/>
       <c r="AJ6" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="43">
+        <v>0</v>
+      </c>
+      <c r="D7" s="43">
+        <v>0</v>
+      </c>
+      <c r="E7" s="43">
+        <v>0</v>
+      </c>
+      <c r="F7" s="43">
+        <v>0</v>
+      </c>
+      <c r="G7" s="43">
+        <v>0</v>
+      </c>
+      <c r="H7" s="43">
+        <v>0</v>
+      </c>
+      <c r="I7" s="43">
+        <v>0</v>
+      </c>
+      <c r="J7" s="43">
+        <v>0</v>
+      </c>
+      <c r="K7" s="43">
+        <v>0</v>
+      </c>
+      <c r="L7" s="43">
+        <v>0</v>
+      </c>
+      <c r="M7" s="43">
+        <v>0</v>
+      </c>
+      <c r="N7" s="43">
+        <v>0</v>
+      </c>
+      <c r="O7" s="43">
+        <v>0</v>
+      </c>
+      <c r="P7" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="43">
+        <v>0</v>
+      </c>
+      <c r="R7" s="43">
+        <v>0</v>
+      </c>
+      <c r="S7" s="43">
+        <v>0</v>
+      </c>
+      <c r="T7" s="43">
+        <v>0</v>
+      </c>
+      <c r="U7" s="43">
+        <v>0</v>
+      </c>
+      <c r="V7" s="43">
+        <v>0</v>
+      </c>
+      <c r="W7" s="43">
+        <v>0</v>
+      </c>
+      <c r="X7" s="43">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="43">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA7" s="63" t="s">
         <v>406</v>
-      </c>
-      <c r="C7" s="43">
-        <v>0</v>
-      </c>
-      <c r="D7" s="43">
-        <v>0</v>
-      </c>
-      <c r="E7" s="43">
-        <v>0</v>
-      </c>
-      <c r="F7" s="43">
-        <v>0</v>
-      </c>
-      <c r="G7" s="43">
-        <v>0</v>
-      </c>
-      <c r="H7" s="43">
-        <v>0</v>
-      </c>
-      <c r="I7" s="43">
-        <v>0</v>
-      </c>
-      <c r="J7" s="43">
-        <v>0</v>
-      </c>
-      <c r="K7" s="43">
-        <v>0</v>
-      </c>
-      <c r="L7" s="43">
-        <v>0</v>
-      </c>
-      <c r="M7" s="43">
-        <v>0</v>
-      </c>
-      <c r="N7" s="43">
-        <v>0</v>
-      </c>
-      <c r="O7" s="43">
-        <v>0</v>
-      </c>
-      <c r="P7" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="43">
-        <v>0</v>
-      </c>
-      <c r="R7" s="43">
-        <v>0</v>
-      </c>
-      <c r="S7" s="43">
-        <v>0</v>
-      </c>
-      <c r="T7" s="43">
-        <v>0</v>
-      </c>
-      <c r="U7" s="43">
-        <v>0</v>
-      </c>
-      <c r="V7" s="43">
-        <v>0</v>
-      </c>
-      <c r="W7" s="43">
-        <v>0</v>
-      </c>
-      <c r="X7" s="43">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="43">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA7" s="63" t="s">
-        <v>407</v>
       </c>
       <c r="AB7" s="64"/>
       <c r="AC7" s="64"/>
@@ -9603,12 +9606,12 @@
       <c r="AG7" s="64"/>
       <c r="AH7" s="65"/>
       <c r="AJ7" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C8" s="41">
         <v>0</v>
@@ -9635,19 +9638,19 @@
         <v>1</v>
       </c>
       <c r="K8" s="52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L8" s="52"/>
       <c r="M8" s="52"/>
       <c r="N8" s="52"/>
       <c r="O8" s="52"/>
       <c r="P8" s="52" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q8" s="52"/>
       <c r="R8" s="52"/>
       <c r="S8" s="52" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T8" s="52"/>
       <c r="U8" s="52"/>
@@ -9667,7 +9670,7 @@
       <c r="AG8" s="52"/>
       <c r="AH8" s="52"/>
       <c r="AJ8" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
@@ -9699,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="48" t="s">
-        <v>92</v>
+        <v>411</v>
       </c>
       <c r="L9" s="48"/>
       <c r="M9" s="48"/>
@@ -9725,7 +9728,7 @@
       <c r="AG9" s="48"/>
       <c r="AH9" s="48"/>
       <c r="AJ9" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
@@ -9766,7 +9769,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -9803,7 +9806,7 @@
       <c r="AG11" s="48"/>
       <c r="AH11" s="48"/>
       <c r="AJ11" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
@@ -9948,7 +9951,9 @@
       <c r="AF15" s="6"/>
       <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
-      <c r="AJ15" s="10"/>
+      <c r="AJ15" s="10" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -10321,7 +10326,7 @@
     </row>
     <row r="28" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -10370,7 +10375,7 @@
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="45">
@@ -10390,7 +10395,7 @@
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -10421,7 +10426,7 @@
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="45">
@@ -10467,12 +10472,12 @@
       <c r="AG30" s="6"/>
       <c r="AH30" s="6"/>
       <c r="AJ30" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C31" s="45">
         <v>0</v>
@@ -10491,7 +10496,7 @@
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -10522,7 +10527,7 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C32" s="45">
         <v>0</v>
@@ -10541,7 +10546,7 @@
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -10572,7 +10577,7 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C33" s="45">
         <v>0</v>
@@ -10591,7 +10596,7 @@
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -10619,12 +10624,12 @@
       <c r="AG33" s="6"/>
       <c r="AH33" s="6"/>
       <c r="AJ33" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C34" s="45">
         <v>0</v>
@@ -10643,7 +10648,7 @@
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -10674,7 +10679,7 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="46" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C35" s="45">
         <v>0</v>
@@ -10693,7 +10698,7 @@
       </c>
       <c r="H35" s="44"/>
       <c r="I35" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J35" s="44"/>
       <c r="K35" s="44"/>
@@ -10724,7 +10729,7 @@
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C36" s="45">
         <v>0</v>
@@ -10743,7 +10748,7 @@
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
@@ -10774,7 +10779,7 @@
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C37" s="45">
         <v>0</v>
@@ -10793,7 +10798,7 @@
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -10824,7 +10829,7 @@
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C38" s="45">
         <v>0</v>
@@ -10843,7 +10848,7 @@
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
@@ -10874,7 +10879,7 @@
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C39" s="45">
         <v>0</v>
@@ -10893,7 +10898,7 @@
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
@@ -10924,7 +10929,7 @@
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C40" s="45">
         <v>0</v>
@@ -10943,7 +10948,7 @@
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
@@ -10973,30 +10978,30 @@
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C41" s="45">
+        <v>0</v>
+      </c>
+      <c r="D41" s="44">
+        <v>1</v>
+      </c>
+      <c r="E41" s="44">
+        <v>1</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="10" t="s">
         <v>387</v>
-      </c>
-      <c r="C41" s="45">
-        <v>0</v>
-      </c>
-      <c r="D41" s="44">
-        <v>1</v>
-      </c>
-      <c r="E41" s="44">
-        <v>1</v>
-      </c>
-      <c r="F41" s="6">
-        <v>0</v>
-      </c>
-      <c r="G41" s="6">
-        <v>0</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="46" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C42" s="45">
         <v>0</v>
@@ -11017,7 +11022,7 @@
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C43" s="45">
         <v>0</v>
@@ -11036,7 +11041,7 @@
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
@@ -11067,30 +11072,30 @@
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="46" t="s">
+        <v>391</v>
+      </c>
+      <c r="C44" s="45">
+        <v>0</v>
+      </c>
+      <c r="D44" s="44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="44">
+        <v>1</v>
+      </c>
+      <c r="I44" s="10" t="s">
         <v>392</v>
-      </c>
-      <c r="C44" s="45">
-        <v>0</v>
-      </c>
-      <c r="D44" s="44">
-        <v>1</v>
-      </c>
-      <c r="E44" s="44">
-        <v>1</v>
-      </c>
-      <c r="F44" s="44">
-        <v>1</v>
-      </c>
-      <c r="G44" s="44">
-        <v>1</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C45" s="45">
         <v>1</v>
@@ -11108,36 +11113,36 @@
         <v>0</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AJ45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="C46" s="45">
+        <v>1</v>
+      </c>
+      <c r="D46" s="44">
+        <v>0</v>
+      </c>
+      <c r="E46" s="44">
+        <v>0</v>
+      </c>
+      <c r="F46" s="44">
+        <v>1</v>
+      </c>
+      <c r="G46" s="44">
+        <v>1</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="AJ46" t="s">
         <v>401</v>
-      </c>
-      <c r="C46" s="45">
-        <v>1</v>
-      </c>
-      <c r="D46" s="44">
-        <v>0</v>
-      </c>
-      <c r="E46" s="44">
-        <v>0</v>
-      </c>
-      <c r="F46" s="44">
-        <v>1</v>
-      </c>
-      <c r="G46" s="44">
-        <v>1</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -11176,7 +11181,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -11221,15 +11226,15 @@
         <v>0</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C4" s="25">
         <v>0</v>
@@ -11266,7 +11271,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" s="25">
         <v>0</v>
@@ -11303,7 +11308,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C6" s="25">
         <v>0</v>
@@ -11340,7 +11345,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C7" s="25">
         <v>0</v>
@@ -11480,7 +11485,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -11555,68 +11560,68 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="41">
+        <v>0</v>
+      </c>
+      <c r="D4" s="41">
+        <v>0</v>
+      </c>
+      <c r="E4" s="41">
+        <v>0</v>
+      </c>
+      <c r="F4" s="41">
+        <v>0</v>
+      </c>
+      <c r="G4" s="41">
+        <v>0</v>
+      </c>
+      <c r="H4" s="41">
+        <v>0</v>
+      </c>
+      <c r="I4" s="41">
+        <v>0</v>
+      </c>
+      <c r="J4" s="41">
+        <v>0</v>
+      </c>
+      <c r="K4" s="41">
+        <v>0</v>
+      </c>
+      <c r="L4" s="41">
+        <v>0</v>
+      </c>
+      <c r="M4" s="41">
+        <v>0</v>
+      </c>
+      <c r="N4" s="41">
+        <v>0</v>
+      </c>
+      <c r="O4" s="41">
+        <v>0</v>
+      </c>
+      <c r="P4" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="41">
+        <v>0</v>
+      </c>
+      <c r="R4" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="41">
-        <v>0</v>
-      </c>
-      <c r="D4" s="41">
-        <v>0</v>
-      </c>
-      <c r="E4" s="41">
-        <v>0</v>
-      </c>
-      <c r="F4" s="41">
-        <v>0</v>
-      </c>
-      <c r="G4" s="41">
-        <v>0</v>
-      </c>
-      <c r="H4" s="41">
-        <v>0</v>
-      </c>
-      <c r="I4" s="41">
-        <v>0</v>
-      </c>
-      <c r="J4" s="41">
-        <v>0</v>
-      </c>
-      <c r="K4" s="41">
-        <v>0</v>
-      </c>
-      <c r="L4" s="41">
-        <v>0</v>
-      </c>
-      <c r="M4" s="41">
-        <v>0</v>
-      </c>
-      <c r="N4" s="41">
-        <v>0</v>
-      </c>
-      <c r="O4" s="41">
-        <v>0</v>
-      </c>
-      <c r="P4" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="41">
-        <v>0</v>
-      </c>
-      <c r="R4" s="41" t="s">
-        <v>309</v>
-      </c>
       <c r="T4" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="40">
         <v>0</v>
@@ -11664,15 +11669,15 @@
         <v>1</v>
       </c>
       <c r="R5" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C6" s="40">
         <v>0</v>
@@ -11720,52 +11725,52 @@
         <v>0</v>
       </c>
       <c r="R6" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" s="40">
+        <v>0</v>
+      </c>
+      <c r="D7" s="40">
+        <v>0</v>
+      </c>
+      <c r="E7" s="40">
+        <v>0</v>
+      </c>
+      <c r="F7" s="40">
+        <v>0</v>
+      </c>
+      <c r="G7" s="40">
+        <v>0</v>
+      </c>
+      <c r="H7" s="40">
+        <v>0</v>
+      </c>
+      <c r="I7" s="40">
+        <v>0</v>
+      </c>
+      <c r="J7" s="40">
+        <v>0</v>
+      </c>
+      <c r="K7" s="40">
+        <v>0</v>
+      </c>
+      <c r="L7" s="40">
+        <v>0</v>
+      </c>
+      <c r="M7" s="40">
+        <v>0</v>
+      </c>
+      <c r="N7" s="40">
+        <v>1</v>
+      </c>
+      <c r="O7" s="48" t="s">
         <v>306</v>
-      </c>
-      <c r="C7" s="40">
-        <v>0</v>
-      </c>
-      <c r="D7" s="40">
-        <v>0</v>
-      </c>
-      <c r="E7" s="40">
-        <v>0</v>
-      </c>
-      <c r="F7" s="40">
-        <v>0</v>
-      </c>
-      <c r="G7" s="40">
-        <v>0</v>
-      </c>
-      <c r="H7" s="40">
-        <v>0</v>
-      </c>
-      <c r="I7" s="40">
-        <v>0</v>
-      </c>
-      <c r="J7" s="40">
-        <v>0</v>
-      </c>
-      <c r="K7" s="40">
-        <v>0</v>
-      </c>
-      <c r="L7" s="40">
-        <v>0</v>
-      </c>
-      <c r="M7" s="40">
-        <v>0</v>
-      </c>
-      <c r="N7" s="40">
-        <v>1</v>
-      </c>
-      <c r="O7" s="48" t="s">
-        <v>307</v>
       </c>
       <c r="P7" s="48"/>
       <c r="Q7" s="48"/>
@@ -11774,7 +11779,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="40">
         <v>0</v>
@@ -11801,7 +11806,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L8" s="48"/>
       <c r="M8" s="48"/>
@@ -11814,7 +11819,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="40">
         <v>0</v>
@@ -11838,10 +11843,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K9" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L9" s="48"/>
       <c r="M9" s="48"/>
@@ -11854,7 +11859,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="40">
         <v>0</v>
@@ -11878,10 +11883,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L10" s="48"/>
       <c r="M10" s="48"/>
@@ -11894,7 +11899,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="40">
         <v>0</v>
@@ -11918,10 +11923,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K11" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
@@ -11934,34 +11939,34 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="48" t="s">
         <v>304</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c r="K12" s="48" t="s">
-        <v>305</v>
       </c>
       <c r="L12" s="48"/>
       <c r="M12" s="48"/>

--- a/doc/RiscyInstSet32Bit.xlsx
+++ b/doc/RiscyInstSet32Bit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="12690" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="12690" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Terra" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="417">
   <si>
     <t>Description</t>
   </si>
@@ -693,9 +693,6 @@
     <t>destination, memory address offset</t>
   </si>
   <si>
-    <t>Loads destination register with a byte from address stored in source register, in the device (IRQ) stored in peripheral register</t>
-  </si>
-  <si>
     <t>Loads destination register with a halfword (two consecutive bytes) from address stored in source register, in the device (IRQ) stored in peripheral register</t>
   </si>
   <si>
@@ -717,24 +714,15 @@
     <t>You can only address xxx0h, xxx4h, xxx8h, xxxCh addresses; offset is a forementioned memory address divided by four</t>
   </si>
   <si>
-    <t>Stores a byte from destination register to address stored in source register, in the device (IRQ) stored in peripheral register</t>
-  </si>
-  <si>
     <t>Stores a halfword (two consecutive bytes) from destination register to address stored in source register, in the device (IRQ) stored in peripheral register</t>
   </si>
   <si>
     <t>Stores a full word (four consecutive bytes) from destination register to address stored in source register, in the device (IRQ) stored in peripheral register</t>
   </si>
   <si>
-    <t>Stores a byte immediate from address stored in destination register</t>
-  </si>
-  <si>
     <t>Stores a halfword immediate from address stored in destination register</t>
   </si>
   <si>
-    <t>Stores a full word from destination register to specified memory address</t>
-  </si>
-  <si>
     <t>rDest = dev[rPeri].mem[rSrc]</t>
   </si>
   <si>
@@ -1267,6 +1255,33 @@
   </si>
   <si>
     <t>Database address (offset)</t>
+  </si>
+  <si>
+    <t>Search for file by path</t>
+  </si>
+  <si>
+    <t>rDest</t>
+  </si>
+  <si>
+    <t>rDest must contain the IRQ of drive, and will be overwritten with file handle</t>
+  </si>
+  <si>
+    <t>Rd += 1h</t>
+  </si>
+  <si>
+    <t>Rd -= 1h</t>
+  </si>
+  <si>
+    <t>Stores a byte from destination register to address (NOT an offset) stored in source register, in the device (IRQ) stored in peripheral register</t>
+  </si>
+  <si>
+    <t>Loads destination register with a byte from address (NOT at offset) stored in source register, in the device (IRQ) stored in peripheral register</t>
+  </si>
+  <si>
+    <t>Stores a byte immediate from address (NOT an offset) stored in destination register</t>
+  </si>
+  <si>
+    <t>Stores a full word from destination register to specified memory address offset</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1559,6 +1574,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9"/>
@@ -1570,7 +1607,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="6" applyFont="1"/>
@@ -1787,6 +1824,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2078,7 +2121,7 @@
   <dimension ref="A1:AL52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:AI23"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2094,7 +2137,7 @@
   <sheetData>
     <row r="1" spans="1:38" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2134,7 +2177,7 @@
     <row r="2" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
@@ -2143,7 +2186,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2182,11 +2225,11 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" s="33" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2229,7 +2272,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="10" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2268,7 +2311,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
@@ -2311,7 +2354,7 @@
     </row>
     <row r="9" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>0</v>
@@ -2484,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="AD10" s="57" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AE10" s="57"/>
       <c r="AF10" s="57"/>
@@ -2498,7 +2541,7 @@
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
       <c r="B11" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D11" s="51" t="s">
         <v>3</v>
@@ -2579,7 +2622,7 @@
         <v>8</v>
       </c>
       <c r="AK11" s="10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
@@ -2674,7 +2717,7 @@
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
       <c r="B13" s="33" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D13" s="51" t="s">
         <v>3</v>
@@ -2699,7 +2742,7 @@
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="O13" s="48"/>
       <c r="P13" s="48"/>
@@ -2739,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="AD13" s="52" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AE13" s="52"/>
       <c r="AF13" s="52"/>
@@ -2747,7 +2790,7 @@
       <c r="AH13" s="52"/>
       <c r="AI13" s="52"/>
       <c r="AK13" s="10" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
@@ -3344,7 +3387,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D22" s="51" t="s">
         <v>3</v>
@@ -3399,7 +3442,7 @@
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
       <c r="B23" s="46" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D23" s="51" t="s">
         <v>3</v>
@@ -3454,7 +3497,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D24" s="51" t="s">
         <v>3</v>
@@ -3488,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="49" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="R24" s="49"/>
       <c r="S24" s="49"/>
@@ -3496,7 +3539,7 @@
       <c r="U24" s="49"/>
       <c r="V24" s="49"/>
       <c r="W24" s="48" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="X24" s="48"/>
       <c r="Y24" s="48"/>
@@ -3511,7 +3554,7 @@
       <c r="AH24" s="48"/>
       <c r="AI24" s="48"/>
       <c r="AK24" s="10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
@@ -3519,7 +3562,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D25" s="75" t="s">
         <v>3</v>
@@ -3586,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="AB25" s="69" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AC25" s="70"/>
       <c r="AD25" s="70"/>
@@ -3596,7 +3639,7 @@
       <c r="AH25" s="70"/>
       <c r="AI25" s="71"/>
       <c r="AK25" s="10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
@@ -4638,7 +4681,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4662,7 +4705,7 @@
     <row r="2" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -4671,7 +4714,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -4694,11 +4737,11 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" s="33" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4725,7 +4768,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4745,11 +4788,11 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -4767,12 +4810,12 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="U7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>0</v>
@@ -4844,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H10" s="48"/>
       <c r="I10" s="48"/>
@@ -4874,7 +4917,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D11" s="32">
         <v>0</v>
@@ -5048,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="49" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M14" s="49"/>
       <c r="N14" s="49"/>
@@ -5090,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="49" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M15" s="49"/>
       <c r="N15" s="49"/>
@@ -5106,7 +5149,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D16" s="32">
         <v>0</v>
@@ -5129,7 +5172,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="49" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M16" s="49"/>
       <c r="N16" s="49"/>
@@ -5147,7 +5190,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D17" s="32">
         <v>1</v>
@@ -5162,11 +5205,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="49" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I17" s="49"/>
       <c r="J17" s="49" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K17" s="49"/>
       <c r="L17" s="32">
@@ -5194,13 +5237,13 @@
         <v>8</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="33" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D18" s="32">
         <v>1</v>
@@ -5215,11 +5258,11 @@
         <v>0</v>
       </c>
       <c r="H18" s="49" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I18" s="49"/>
       <c r="J18" s="49" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K18" s="49"/>
       <c r="L18" s="32">
@@ -5247,13 +5290,13 @@
         <v>8</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="33" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D19" s="32">
         <v>1</v>
@@ -5268,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I19" s="50"/>
       <c r="J19" s="50"/>
@@ -5298,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -5530,7 +5573,7 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5548,13 +5591,13 @@
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B1" s="36">
         <v>1</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5603,10 +5646,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>284</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>288</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
@@ -5660,7 +5703,7 @@
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="N4" t="s">
         <v>155</v>
@@ -5754,7 +5797,7 @@
         <v>74</v>
       </c>
       <c r="M6" t="s">
-        <v>94</v>
+        <v>411</v>
       </c>
       <c r="N6" t="s">
         <v>155</v>
@@ -5801,7 +5844,7 @@
         <v>75</v>
       </c>
       <c r="M7" t="s">
-        <v>95</v>
+        <v>412</v>
       </c>
       <c r="N7" t="s">
         <v>155</v>
@@ -5936,12 +5979,12 @@
         <v>155</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6">
@@ -5971,10 +6014,10 @@
         <v>3Eh</v>
       </c>
       <c r="L11" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M11" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P11" s="19" t="s">
         <v>184</v>
@@ -6015,7 +6058,7 @@
         <v>77</v>
       </c>
       <c r="M12" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P12" s="19" t="s">
         <v>185</v>
@@ -7511,7 +7554,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B1" s="36">
         <v>1</v>
@@ -7559,10 +7602,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>284</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>288</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
@@ -7607,7 +7650,7 @@
         <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M4" t="s">
         <v>155</v>
@@ -7729,7 +7772,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29">
@@ -7756,10 +7799,10 @@
         <v>1Eh</v>
       </c>
       <c r="K8" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L8" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -7794,7 +7837,7 @@
         <v>77</v>
       </c>
       <c r="L9" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -8348,8 +8391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8364,13 +8407,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B1" s="36">
         <v>2</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -8409,13 +8452,13 @@
         <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
         <v>213</v>
       </c>
       <c r="E4" t="s">
-        <v>220</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8423,13 +8466,13 @@
         <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D5" t="s">
         <v>213</v>
       </c>
       <c r="E5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8437,13 +8480,13 @@
         <v>199</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D6" t="s">
         <v>213</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8451,13 +8494,13 @@
         <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D7" t="s">
         <v>214</v>
       </c>
       <c r="E7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8465,13 +8508,13 @@
         <v>202</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
         <v>215</v>
       </c>
       <c r="E8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8479,13 +8522,13 @@
         <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D9" t="s">
         <v>216</v>
       </c>
       <c r="E9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F9" t="s">
         <v>218</v>
@@ -8496,16 +8539,16 @@
         <v>211</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D10" t="s">
         <v>219</v>
       </c>
       <c r="E10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F10" t="s">
         <v>226</v>
-      </c>
-      <c r="F10" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -8541,13 +8584,13 @@
         <v>206</v>
       </c>
       <c r="C13" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D13" t="s">
         <v>213</v>
       </c>
       <c r="E13" t="s">
-        <v>228</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8555,13 +8598,13 @@
         <v>207</v>
       </c>
       <c r="C14" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D14" t="s">
         <v>213</v>
       </c>
       <c r="E14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8569,13 +8612,13 @@
         <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D15" t="s">
         <v>213</v>
       </c>
       <c r="E15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8583,13 +8626,13 @@
         <v>209</v>
       </c>
       <c r="C16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D16" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E16" t="s">
-        <v>231</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8597,13 +8640,13 @@
         <v>210</v>
       </c>
       <c r="C17" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D17" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8611,27 +8654,27 @@
         <v>212</v>
       </c>
       <c r="C18" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D18" t="s">
         <v>219</v>
       </c>
       <c r="E18" t="s">
-        <v>233</v>
+        <v>416</v>
       </c>
       <c r="F18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B19" s="36">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -8657,18 +8700,18 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C21" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D21" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B22" s="36">
         <v>4</v>
@@ -8700,63 +8743,63 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C24" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D24" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E24" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C25" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D25" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E25" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C26" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D26" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E26" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C27" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D27" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E27" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B28" s="36">
         <v>5</v>
@@ -8788,60 +8831,60 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D30" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E30" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D31" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E31" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D32" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E32" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="E33" t="s">
         <v>310</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="E33" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B34" s="36">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -8867,126 +8910,126 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C36" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D36" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E36" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C37" t="s">
+        <v>317</v>
+      </c>
+      <c r="D37" t="s">
+        <v>312</v>
+      </c>
+      <c r="E37" t="s">
         <v>321</v>
       </c>
-      <c r="D37" t="s">
-        <v>316</v>
-      </c>
-      <c r="E37" t="s">
-        <v>325</v>
-      </c>
       <c r="F37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C38" t="s">
+        <v>318</v>
+      </c>
+      <c r="D38" t="s">
+        <v>312</v>
+      </c>
+      <c r="E38" t="s">
         <v>322</v>
       </c>
-      <c r="D38" t="s">
-        <v>316</v>
-      </c>
-      <c r="E38" t="s">
-        <v>326</v>
-      </c>
       <c r="F38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C39" t="s">
+        <v>319</v>
+      </c>
+      <c r="D39" t="s">
+        <v>312</v>
+      </c>
+      <c r="E39" t="s">
         <v>323</v>
       </c>
-      <c r="D39" t="s">
-        <v>316</v>
-      </c>
-      <c r="E39" t="s">
-        <v>327</v>
-      </c>
       <c r="F39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C40" t="s">
+        <v>320</v>
+      </c>
+      <c r="D40" t="s">
+        <v>312</v>
+      </c>
+      <c r="E40" t="s">
         <v>324</v>
       </c>
-      <c r="D40" t="s">
-        <v>316</v>
-      </c>
-      <c r="E40" t="s">
-        <v>328</v>
-      </c>
       <c r="F40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C41" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D41" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E41" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C42" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D42" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E42" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B43" s="36">
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -9012,13 +9055,13 @@
     </row>
     <row r="46" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B46" s="36">
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -9044,13 +9087,13 @@
     </row>
     <row r="49" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B49" s="36">
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -9076,13 +9119,13 @@
     </row>
     <row r="52" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B52" s="36">
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -9108,13 +9151,13 @@
     </row>
     <row r="55" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B55" s="36">
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -9140,7 +9183,7 @@
     </row>
     <row r="58" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B58" s="36">
         <v>12</v>
@@ -9177,10 +9220,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AJ11" sqref="AJ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9194,7 +9237,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -9232,7 +9275,7 @@
     </row>
     <row r="2" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9339,7 +9382,7 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C5" s="41">
         <v>0</v>
@@ -9424,12 +9467,12 @@
       <c r="AG5" s="52"/>
       <c r="AH5" s="52"/>
       <c r="AJ5" s="10" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C6" s="43">
         <v>0</v>
@@ -9511,17 +9554,17 @@
       <c r="AD6" s="53"/>
       <c r="AE6" s="53"/>
       <c r="AF6" s="52" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AG6" s="52"/>
       <c r="AH6" s="52"/>
       <c r="AJ6" s="10" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C7" s="43">
         <v>0</v>
@@ -9596,7 +9639,7 @@
         <v>132</v>
       </c>
       <c r="AA7" s="63" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AB7" s="64"/>
       <c r="AC7" s="64"/>
@@ -9606,12 +9649,12 @@
       <c r="AG7" s="64"/>
       <c r="AH7" s="65"/>
       <c r="AJ7" s="10" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C8" s="41">
         <v>0</v>
@@ -9638,19 +9681,19 @@
         <v>1</v>
       </c>
       <c r="K8" s="52" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L8" s="52"/>
       <c r="M8" s="52"/>
       <c r="N8" s="52"/>
       <c r="O8" s="52"/>
       <c r="P8" s="52" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Q8" s="52"/>
       <c r="R8" s="52"/>
       <c r="S8" s="52" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="T8" s="52"/>
       <c r="U8" s="52"/>
@@ -9670,7 +9713,7 @@
       <c r="AG8" s="52"/>
       <c r="AH8" s="52"/>
       <c r="AJ8" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
@@ -9701,149 +9744,173 @@
       <c r="J9" s="6">
         <v>0</v>
       </c>
-      <c r="K9" s="48" t="s">
-        <v>411</v>
-      </c>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="48"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="48"/>
-      <c r="AH9" s="48"/>
+      <c r="K9" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="L9" s="80"/>
+      <c r="M9" s="69" t="s">
+        <v>407</v>
+      </c>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="70"/>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="70"/>
+      <c r="AH9" s="71"/>
       <c r="AJ9" s="10" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AJ10" s="10"/>
+      <c r="A10" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="C10" s="44">
+        <v>0</v>
+      </c>
+      <c r="D10" s="44">
+        <v>0</v>
+      </c>
+      <c r="E10" s="44">
+        <v>0</v>
+      </c>
+      <c r="F10" s="44">
+        <v>0</v>
+      </c>
+      <c r="G10" s="45">
+        <v>0</v>
+      </c>
+      <c r="H10" s="45">
+        <v>1</v>
+      </c>
+      <c r="I10" s="45">
+        <v>0</v>
+      </c>
+      <c r="J10" s="69" t="s">
+        <v>409</v>
+      </c>
+      <c r="K10" s="70"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="69" t="s">
+        <v>407</v>
+      </c>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="70"/>
+      <c r="AD10" s="70"/>
+      <c r="AE10" s="70"/>
+      <c r="AF10" s="70"/>
+      <c r="AG10" s="70"/>
+      <c r="AH10" s="71"/>
+      <c r="AJ10" s="10" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="48"/>
-      <c r="AJ11" s="10" t="s">
-        <v>398</v>
-      </c>
+      <c r="A11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AJ11" s="10"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AJ12" s="10"/>
+      <c r="A12" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="48"/>
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="48"/>
+      <c r="AH12" s="48"/>
+      <c r="AJ12" s="10" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -9857,12 +9924,12 @@
       <c r="J13" s="6"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -9888,17 +9955,17 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="6"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -9924,36 +9991,34 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
-      <c r="AJ15" s="10" t="s">
-        <v>410</v>
-      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AJ15" s="10"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -9989,7 +10054,9 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
-      <c r="AJ16" s="10"/>
+      <c r="AJ16" s="10" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -9997,12 +10064,12 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -10017,14 +10084,14 @@
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
       <c r="AJ17" s="10"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
@@ -10089,14 +10156,14 @@
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
       <c r="AJ19" s="10"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
@@ -10109,8 +10176,8 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -10125,93 +10192,92 @@
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AJ20" s="10"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
       <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AJ22" s="10"/>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
       <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AJ23" s="10"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
-      <c r="AH24" s="6"/>
-      <c r="AJ24" s="10"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
@@ -10324,26 +10390,14 @@
       <c r="AH27" s="6"/>
       <c r="AJ27" s="10"/>
     </row>
-    <row r="28" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4">
-        <v>4</v>
-      </c>
-      <c r="D28" s="4">
-        <v>3</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2</v>
-      </c>
-      <c r="F28" s="4">
-        <v>1</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0</v>
-      </c>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -10373,60 +10427,58 @@
       <c r="AH28" s="6"/>
       <c r="AJ28" s="10"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="45">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0</v>
-      </c>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6">
+    <row r="29" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4">
+        <v>4</v>
+      </c>
+      <c r="D29" s="4">
+        <v>3</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
         <v>0</v>
       </c>
       <c r="H29" s="6"/>
-      <c r="I29" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
       <c r="AJ29" s="10"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="45">
@@ -10442,43 +10494,44 @@
         <v>0</v>
       </c>
       <c r="G30" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
-      <c r="AH30" s="6"/>
-      <c r="AJ30" s="10" t="s">
-        <v>373</v>
-      </c>
+      <c r="I30" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AJ30" s="10"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>366</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="B31" s="6"/>
       <c r="C31" s="45">
         <v>0</v>
       </c>
@@ -10489,15 +10542,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="6"/>
-      <c r="I31" s="10" t="s">
-        <v>367</v>
-      </c>
+      <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
@@ -10523,11 +10574,13 @@
       <c r="AF31" s="6"/>
       <c r="AG31" s="6"/>
       <c r="AH31" s="6"/>
-      <c r="AJ31" s="10"/>
+      <c r="AJ31" s="10" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C32" s="45">
         <v>0</v>
@@ -10542,11 +10595,11 @@
         <v>1</v>
       </c>
       <c r="G32" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="10" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -10577,7 +10630,7 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C33" s="45">
         <v>0</v>
@@ -10586,17 +10639,17 @@
         <v>0</v>
       </c>
       <c r="E33" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -10623,13 +10676,11 @@
       <c r="AF33" s="6"/>
       <c r="AG33" s="6"/>
       <c r="AH33" s="6"/>
-      <c r="AJ33" s="10" t="s">
-        <v>372</v>
-      </c>
+      <c r="AJ33" s="10"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="C34" s="45">
         <v>0</v>
@@ -10644,11 +10695,11 @@
         <v>0</v>
       </c>
       <c r="G34" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="10" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -10675,130 +10726,132 @@
       <c r="AF34" s="6"/>
       <c r="AG34" s="6"/>
       <c r="AH34" s="6"/>
-      <c r="AJ34" s="10"/>
+      <c r="AJ34" s="10" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
-        <v>377</v>
+      <c r="A35" s="7" t="s">
+        <v>390</v>
       </c>
       <c r="C35" s="45">
         <v>0</v>
       </c>
-      <c r="D35" s="44">
-        <v>0</v>
-      </c>
-      <c r="E35" s="44">
-        <v>1</v>
-      </c>
-      <c r="F35" s="44">
-        <v>1</v>
-      </c>
-      <c r="G35" s="44">
-        <v>0</v>
-      </c>
-      <c r="H35" s="44"/>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+      <c r="H35" s="6"/>
       <c r="I35" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="44"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="44"/>
-      <c r="U35" s="44"/>
-      <c r="V35" s="44"/>
-      <c r="W35" s="44"/>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="44"/>
-      <c r="Z35" s="44"/>
-      <c r="AA35" s="44"/>
-      <c r="AB35" s="44"/>
-      <c r="AC35" s="44"/>
-      <c r="AD35" s="44"/>
-      <c r="AE35" s="44"/>
-      <c r="AF35" s="44"/>
-      <c r="AG35" s="44"/>
-      <c r="AH35" s="44"/>
+        <v>370</v>
+      </c>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
       <c r="AJ35" s="10"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>375</v>
+      <c r="A36" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="C36" s="45">
         <v>0</v>
       </c>
-      <c r="D36" s="6">
-        <v>0</v>
-      </c>
-      <c r="E36" s="6">
-        <v>1</v>
-      </c>
-      <c r="F36" s="6">
-        <v>1</v>
-      </c>
-      <c r="G36" s="6">
-        <v>1</v>
-      </c>
-      <c r="H36" s="6"/>
+      <c r="D36" s="44">
+        <v>0</v>
+      </c>
+      <c r="E36" s="44">
+        <v>1</v>
+      </c>
+      <c r="F36" s="44">
+        <v>1</v>
+      </c>
+      <c r="G36" s="44">
+        <v>0</v>
+      </c>
+      <c r="H36" s="44"/>
       <c r="I36" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="6"/>
+        <v>370</v>
+      </c>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="44"/>
+      <c r="AC36" s="44"/>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="44"/>
+      <c r="AG36" s="44"/>
+      <c r="AH36" s="44"/>
       <c r="AJ36" s="10"/>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C37" s="45">
         <v>0</v>
       </c>
       <c r="D37" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="44">
-        <v>0</v>
-      </c>
-      <c r="G37" s="44">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1</v>
       </c>
       <c r="H37" s="6"/>
-      <c r="I37" s="5" t="s">
-        <v>364</v>
+      <c r="I37" s="10" t="s">
+        <v>372</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -10829,7 +10882,7 @@
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C38" s="45">
         <v>0</v>
@@ -10840,15 +10893,15 @@
       <c r="E38" s="6">
         <v>0</v>
       </c>
-      <c r="F38" s="6">
-        <v>0</v>
-      </c>
-      <c r="G38" s="6">
-        <v>1</v>
+      <c r="F38" s="44">
+        <v>0</v>
+      </c>
+      <c r="G38" s="44">
+        <v>0</v>
       </c>
       <c r="H38" s="6"/>
-      <c r="I38" s="10" t="s">
-        <v>393</v>
+      <c r="I38" s="5" t="s">
+        <v>360</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
@@ -10879,7 +10932,7 @@
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C39" s="45">
         <v>0</v>
@@ -10891,14 +10944,14 @@
         <v>0</v>
       </c>
       <c r="F39" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="10" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
@@ -10929,7 +10982,7 @@
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C40" s="45">
         <v>0</v>
@@ -10944,11 +10997,11 @@
         <v>1</v>
       </c>
       <c r="G40" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="10" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
@@ -10975,33 +11028,60 @@
       <c r="AF40" s="6"/>
       <c r="AG40" s="6"/>
       <c r="AH40" s="6"/>
+      <c r="AJ40" s="10"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C41" s="45">
         <v>0</v>
       </c>
-      <c r="D41" s="44">
-        <v>1</v>
-      </c>
-      <c r="E41" s="44">
-        <v>1</v>
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
       </c>
       <c r="F41" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="6">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H41" s="6"/>
       <c r="I41" s="10" t="s">
-        <v>387</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A42" s="46" t="s">
-        <v>395</v>
+      <c r="A42" s="7" t="s">
+        <v>382</v>
       </c>
       <c r="C42" s="45">
         <v>0</v>
@@ -11012,116 +11092,113 @@
       <c r="E42" s="44">
         <v>1</v>
       </c>
-      <c r="F42" s="44">
-        <v>0</v>
-      </c>
-      <c r="G42" s="44">
-        <v>1</v>
-      </c>
-      <c r="I42" s="10"/>
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>378</v>
+      <c r="A43" s="46" t="s">
+        <v>391</v>
       </c>
       <c r="C43" s="45">
         <v>0</v>
       </c>
-      <c r="D43" s="6">
-        <v>1</v>
-      </c>
-      <c r="E43" s="6">
+      <c r="D43" s="44">
+        <v>1</v>
+      </c>
+      <c r="E43" s="44">
         <v>1</v>
       </c>
       <c r="F43" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" s="44">
-        <v>0</v>
-      </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6"/>
-      <c r="AB43" s="6"/>
-      <c r="AC43" s="6"/>
-      <c r="AD43" s="6"/>
-      <c r="AE43" s="6"/>
-      <c r="AF43" s="6"/>
-      <c r="AG43" s="6"/>
-      <c r="AH43" s="6"/>
-      <c r="AJ43" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I43" s="10"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A44" s="46" t="s">
-        <v>391</v>
+      <c r="A44" s="7" t="s">
+        <v>374</v>
       </c>
       <c r="C44" s="45">
         <v>0</v>
       </c>
-      <c r="D44" s="44">
-        <v>1</v>
-      </c>
-      <c r="E44" s="44">
+      <c r="D44" s="6">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6">
         <v>1</v>
       </c>
       <c r="F44" s="44">
         <v>1</v>
       </c>
       <c r="G44" s="44">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" s="6"/>
       <c r="I44" s="10" t="s">
-        <v>392</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="6"/>
+      <c r="AH44" s="6"/>
+      <c r="AJ44" s="10"/>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="46" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C45" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="44">
         <v>1</v>
       </c>
       <c r="G45" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="AJ45" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="46" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C46" s="45">
         <v>1</v>
@@ -11136,23 +11213,52 @@
         <v>1</v>
       </c>
       <c r="G46" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AJ46" t="s">
-        <v>401</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A47" s="46" t="s">
+        <v>396</v>
+      </c>
+      <c r="C47" s="45">
+        <v>1</v>
+      </c>
+      <c r="D47" s="44">
+        <v>0</v>
+      </c>
+      <c r="E47" s="44">
+        <v>0</v>
+      </c>
+      <c r="F47" s="44">
+        <v>1</v>
+      </c>
+      <c r="G47" s="44">
+        <v>1</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="D11:AH11"/>
+  <mergeCells count="13">
+    <mergeCell ref="D12:AH12"/>
     <mergeCell ref="K8:O8"/>
     <mergeCell ref="AA6:AE6"/>
     <mergeCell ref="AF6:AH6"/>
     <mergeCell ref="AA7:AH7"/>
-    <mergeCell ref="K9:AH9"/>
+    <mergeCell ref="M9:AH9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M10:AH10"/>
+    <mergeCell ref="J10:L10"/>
     <mergeCell ref="AA5:AH5"/>
     <mergeCell ref="AA8:AH8"/>
     <mergeCell ref="P8:R8"/>
@@ -11181,7 +11287,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="62" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -11226,15 +11332,15 @@
         <v>0</v>
       </c>
       <c r="K3" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="L3" s="38" t="s">
         <v>284</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C4" s="25">
         <v>0</v>
@@ -11271,7 +11377,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C5" s="25">
         <v>0</v>
@@ -11308,7 +11414,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C6" s="25">
         <v>0</v>
@@ -11345,7 +11451,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C7" s="25">
         <v>0</v>
@@ -11565,7 +11671,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C4" s="41">
         <v>0</v>
@@ -11613,7 +11719,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="41" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="T4" s="10" t="s">
         <v>130</v>
@@ -11677,7 +11783,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C6" s="40">
         <v>0</v>
@@ -11731,7 +11837,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C7" s="40">
         <v>0</v>
@@ -11770,7 +11876,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="48" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P7" s="48"/>
       <c r="Q7" s="48"/>
@@ -11939,7 +12045,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -11966,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="48" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L12" s="48"/>
       <c r="M12" s="48"/>

--- a/doc/RiscyInstSet32Bit.xlsx
+++ b/doc/RiscyInstSet32Bit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="12690" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="12690" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Terra" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="438">
   <si>
     <t>Description</t>
   </si>
@@ -1282,6 +1282,69 @@
   </si>
   <si>
     <t>Stores a full word from destination register to specified memory address offset</t>
+  </si>
+  <si>
+    <t>Int to String</t>
+  </si>
+  <si>
+    <t>String to Int</t>
+  </si>
+  <si>
+    <t>ITOS</t>
+  </si>
+  <si>
+    <t>STOI</t>
+  </si>
+  <si>
+    <t>Rd &lt;- (int) Rs</t>
+  </si>
+  <si>
+    <t>Float to String</t>
+  </si>
+  <si>
+    <t>String to Float</t>
+  </si>
+  <si>
+    <t>FTOS</t>
+  </si>
+  <si>
+    <t>STOF</t>
+  </si>
+  <si>
+    <t>Rd &lt;- (float) Rs</t>
+  </si>
+  <si>
+    <t>Rd &lt;- (string pointer) Rs.intToString()</t>
+  </si>
+  <si>
+    <t>Rd &lt;- (string pointer) Rs.floatToString()</t>
+  </si>
+  <si>
+    <t>Int to HexString</t>
+  </si>
+  <si>
+    <t>ITOX</t>
+  </si>
+  <si>
+    <t>ITOS except hexadecimal</t>
+  </si>
+  <si>
+    <t>HexString to Int</t>
+  </si>
+  <si>
+    <t>XTOI</t>
+  </si>
+  <si>
+    <t>STOI except hexadecimal</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>FREE</t>
+  </si>
+  <si>
+    <t>(TBA, likely be unimplemented, DO NOT USE!!!)</t>
   </si>
 </sst>
 </file>
@@ -1607,7 +1670,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="6" applyFont="1"/>
@@ -1735,22 +1798,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1759,8 +1846,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1774,9 +1882,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1786,51 +1891,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="7" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Explanatory Text" xfId="7" builtinId="53" customBuiltin="1"/>
@@ -2121,7 +2197,7 @@
   <dimension ref="A1:AL52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2458,17 +2534,17 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="55">
+      <c r="A10" s="63">
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="11">
         <v>0</v>
       </c>
@@ -2481,21 +2557,21 @@
       <c r="J10" s="11">
         <v>0</v>
       </c>
-      <c r="K10" s="57" t="s">
+      <c r="K10" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57" t="s">
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57" t="s">
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
       <c r="T10" s="12">
         <v>0</v>
       </c>
@@ -2526,28 +2602,28 @@
       <c r="AC10" s="6">
         <v>0</v>
       </c>
-      <c r="AD10" s="57" t="s">
+      <c r="AD10" s="66" t="s">
         <v>333</v>
       </c>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="57"/>
-      <c r="AH10" s="57"/>
-      <c r="AI10" s="57"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="66"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="66"/>
       <c r="AK10" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="18">
         <v>0</v>
       </c>
@@ -2560,19 +2636,19 @@
       <c r="J11" s="18">
         <v>0</v>
       </c>
-      <c r="K11" s="49" t="s">
+      <c r="K11" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="50" t="s">
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
       <c r="T11" s="12">
         <v>0</v>
       </c>
@@ -2626,15 +2702,15 @@
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="18">
         <v>0</v>
       </c>
@@ -2647,21 +2723,21 @@
       <c r="J12" s="18">
         <v>0</v>
       </c>
-      <c r="K12" s="52" t="s">
+      <c r="K12" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52" t="s">
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="53" t="s">
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
       <c r="T12" s="12">
         <v>0</v>
       </c>
@@ -2715,15 +2791,15 @@
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="31">
         <v>0</v>
       </c>
@@ -2736,21 +2812,21 @@
       <c r="J13" s="31">
         <v>0</v>
       </c>
-      <c r="K13" s="48" t="s">
+      <c r="K13" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48" t="s">
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58" t="s">
         <v>330</v>
       </c>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="53" t="s">
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
       <c r="T13" s="32">
         <v>0</v>
       </c>
@@ -2781,14 +2857,14 @@
       <c r="AC13" s="29">
         <v>0</v>
       </c>
-      <c r="AD13" s="52" t="s">
+      <c r="AD13" s="62" t="s">
         <v>333</v>
       </c>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="52"/>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="52"/>
+      <c r="AE13" s="62"/>
+      <c r="AF13" s="62"/>
+      <c r="AG13" s="62"/>
+      <c r="AH13" s="62"/>
+      <c r="AI13" s="62"/>
       <c r="AK13" s="10" t="s">
         <v>331</v>
       </c>
@@ -2800,11 +2876,11 @@
       <c r="B14" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
       <c r="G14" s="6">
         <v>0</v>
       </c>
@@ -2817,21 +2893,21 @@
       <c r="J14" s="12">
         <v>0</v>
       </c>
-      <c r="K14" s="48" t="s">
+      <c r="K14" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48" t="s">
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48" t="s">
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
       <c r="T14" s="6">
         <v>0</v>
       </c>
@@ -2871,10 +2947,10 @@
       <c r="AF14" s="6">
         <v>0</v>
       </c>
-      <c r="AG14" s="51" t="s">
+      <c r="AG14" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="AH14" s="51"/>
+      <c r="AH14" s="50"/>
       <c r="AI14" s="22" t="s">
         <v>84</v>
       </c>
@@ -2892,11 +2968,11 @@
       <c r="B15" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
       <c r="G15" s="6">
         <v>0</v>
       </c>
@@ -2909,31 +2985,31 @@
       <c r="J15" s="12">
         <v>0</v>
       </c>
-      <c r="K15" s="48" t="s">
+      <c r="K15" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48" t="s">
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48" t="s">
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48" t="s">
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48" t="s">
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
       <c r="Z15" s="6">
         <v>0</v>
       </c>
@@ -2975,11 +3051,11 @@
       <c r="B16" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
       <c r="G16" s="6">
         <v>0</v>
       </c>
@@ -2992,16 +3068,16 @@
       <c r="J16" s="12">
         <v>1</v>
       </c>
-      <c r="K16" s="48" t="s">
+      <c r="K16" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48" t="s">
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
       <c r="Q16" s="6">
         <v>0</v>
       </c>
@@ -3064,17 +3140,17 @@
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" s="47">
+      <c r="A17" s="70">
         <v>2</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
       <c r="G17" s="6">
         <v>0</v>
       </c>
@@ -3087,16 +3163,16 @@
       <c r="J17" s="12">
         <v>1</v>
       </c>
-      <c r="K17" s="48" t="s">
+      <c r="K17" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48" t="s">
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
       <c r="Q17" s="6">
         <v>0</v>
       </c>
@@ -3130,30 +3206,30 @@
       <c r="AA17" s="6">
         <v>0</v>
       </c>
-      <c r="AB17" s="48" t="s">
+      <c r="AB17" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="48"/>
-      <c r="AI17" s="48"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="58"/>
+      <c r="AH17" s="58"/>
+      <c r="AI17" s="58"/>
       <c r="AK17" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="6">
         <v>0</v>
       </c>
@@ -3166,16 +3242,16 @@
       <c r="J18" s="12">
         <v>1</v>
       </c>
-      <c r="K18" s="48" t="s">
+      <c r="K18" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48" t="s">
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
       <c r="Q18" s="6">
         <v>1</v>
       </c>
@@ -3185,38 +3261,38 @@
       <c r="S18" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="T18" s="48" t="s">
+      <c r="T18" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="48"/>
-      <c r="AI18" s="48"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="58"/>
+      <c r="AF18" s="58"/>
+      <c r="AG18" s="58"/>
+      <c r="AH18" s="58"/>
+      <c r="AI18" s="58"/>
       <c r="AK18" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
       <c r="G19" s="6">
         <v>0</v>
       </c>
@@ -3229,16 +3305,16 @@
       <c r="J19" s="12">
         <v>1</v>
       </c>
-      <c r="K19" s="48" t="s">
+      <c r="K19" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48" t="s">
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
       <c r="Q19" s="6">
         <v>1</v>
       </c>
@@ -3248,38 +3324,38 @@
       <c r="S19" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="T19" s="48" t="s">
+      <c r="T19" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="48"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="58"/>
+      <c r="AC19" s="58"/>
+      <c r="AD19" s="58"/>
+      <c r="AE19" s="58"/>
+      <c r="AF19" s="58"/>
+      <c r="AG19" s="58"/>
+      <c r="AH19" s="58"/>
+      <c r="AI19" s="58"/>
       <c r="AK19" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
       <c r="G20" s="6">
         <v>0</v>
       </c>
@@ -3292,35 +3368,35 @@
       <c r="J20" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="K20" s="48" t="s">
+      <c r="K20" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48" t="s">
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="48"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="48"/>
-      <c r="AI20" s="48"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="58"/>
+      <c r="AF20" s="58"/>
+      <c r="AG20" s="58"/>
+      <c r="AH20" s="58"/>
+      <c r="AI20" s="58"/>
       <c r="AK20" s="10" t="s">
         <v>173</v>
       </c>
@@ -3332,11 +3408,11 @@
       <c r="B21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
       <c r="G21" s="6">
         <v>0</v>
       </c>
@@ -3349,51 +3425,51 @@
       <c r="J21" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="K21" s="48" t="s">
+      <c r="K21" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48" t="s">
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="48"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="48"/>
-      <c r="AI21" s="48"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="58"/>
+      <c r="AF21" s="58"/>
+      <c r="AG21" s="58"/>
+      <c r="AH21" s="58"/>
+      <c r="AI21" s="58"/>
       <c r="AK21" s="10" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A22" s="77">
+      <c r="A22" s="71">
         <v>6</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
       <c r="G22" s="6">
         <v>1</v>
       </c>
@@ -3406,49 +3482,49 @@
       <c r="J22" s="12">
         <v>0</v>
       </c>
-      <c r="K22" s="50" t="s">
+      <c r="K22" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="48" t="s">
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="48"/>
-      <c r="AE22" s="48"/>
-      <c r="AF22" s="48"/>
-      <c r="AG22" s="48"/>
-      <c r="AH22" s="48"/>
-      <c r="AI22" s="48"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="58"/>
+      <c r="AE22" s="58"/>
+      <c r="AF22" s="58"/>
+      <c r="AG22" s="58"/>
+      <c r="AH22" s="58"/>
+      <c r="AI22" s="58"/>
       <c r="AK22" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A23" s="78"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="46" t="s">
         <v>405</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
       <c r="G23" s="44">
         <v>1</v>
       </c>
@@ -3461,35 +3537,35 @@
       <c r="J23" s="45">
         <v>1</v>
       </c>
-      <c r="K23" s="66" t="s">
+      <c r="K23" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="L23" s="67"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="48" t="s">
+      <c r="L23" s="56"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="48"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="48"/>
-      <c r="AD23" s="48"/>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="48"/>
-      <c r="AG23" s="48"/>
-      <c r="AH23" s="48"/>
-      <c r="AI23" s="48"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="58"/>
+      <c r="AD23" s="58"/>
+      <c r="AE23" s="58"/>
+      <c r="AF23" s="58"/>
+      <c r="AG23" s="58"/>
+      <c r="AH23" s="58"/>
+      <c r="AI23" s="58"/>
       <c r="AK23" s="10"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
@@ -3499,11 +3575,11 @@
       <c r="B24" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
       <c r="G24" s="24">
         <v>1</v>
       </c>
@@ -3516,11 +3592,11 @@
       <c r="J24" s="25">
         <v>0</v>
       </c>
-      <c r="K24" s="50" t="s">
+      <c r="K24" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
       <c r="N24" s="25">
         <v>0</v>
       </c>
@@ -3530,29 +3606,29 @@
       <c r="P24" s="25">
         <v>0</v>
       </c>
-      <c r="Q24" s="49" t="s">
+      <c r="Q24" s="67" t="s">
         <v>241</v>
       </c>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="48" t="s">
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="48"/>
-      <c r="AB24" s="48"/>
-      <c r="AC24" s="48"/>
-      <c r="AD24" s="48"/>
-      <c r="AE24" s="48"/>
-      <c r="AF24" s="48"/>
-      <c r="AG24" s="48"/>
-      <c r="AH24" s="48"/>
-      <c r="AI24" s="48"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="58"/>
+      <c r="AE24" s="58"/>
+      <c r="AF24" s="58"/>
+      <c r="AG24" s="58"/>
+      <c r="AH24" s="58"/>
+      <c r="AI24" s="58"/>
       <c r="AK24" s="10" t="s">
         <v>244</v>
       </c>
@@ -3564,11 +3640,11 @@
       <c r="B25" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="D25" s="75" t="s">
+      <c r="D25" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="76"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
       <c r="G25" s="44">
         <v>1</v>
       </c>
@@ -3581,11 +3657,11 @@
       <c r="J25" s="45">
         <v>0</v>
       </c>
-      <c r="K25" s="72" t="s">
+      <c r="K25" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="54"/>
       <c r="N25" s="45">
         <v>0</v>
       </c>
@@ -3628,16 +3704,16 @@
       <c r="AA25" s="44">
         <v>0</v>
       </c>
-      <c r="AB25" s="69" t="s">
+      <c r="AB25" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="AC25" s="70"/>
-      <c r="AD25" s="70"/>
-      <c r="AE25" s="70"/>
-      <c r="AF25" s="70"/>
-      <c r="AG25" s="70"/>
-      <c r="AH25" s="70"/>
-      <c r="AI25" s="71"/>
+      <c r="AC25" s="60"/>
+      <c r="AD25" s="60"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="60"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="60"/>
+      <c r="AI25" s="61"/>
       <c r="AK25" s="10" t="s">
         <v>245</v>
       </c>
@@ -3649,11 +3725,11 @@
       <c r="B26" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="6">
         <v>1</v>
       </c>
@@ -3666,11 +3742,11 @@
       <c r="J26" s="6">
         <v>1</v>
       </c>
-      <c r="K26" s="48" t="s">
+      <c r="K26" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
       <c r="N26" s="6">
         <v>0</v>
       </c>
@@ -3713,16 +3789,16 @@
       <c r="AA26" s="6">
         <v>0</v>
       </c>
-      <c r="AB26" s="48" t="s">
+      <c r="AB26" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC26" s="48"/>
-      <c r="AD26" s="48"/>
-      <c r="AE26" s="48"/>
-      <c r="AF26" s="48"/>
-      <c r="AG26" s="48"/>
-      <c r="AH26" s="48"/>
-      <c r="AI26" s="48"/>
+      <c r="AC26" s="58"/>
+      <c r="AD26" s="58"/>
+      <c r="AE26" s="58"/>
+      <c r="AF26" s="58"/>
+      <c r="AG26" s="58"/>
+      <c r="AH26" s="58"/>
+      <c r="AI26" s="58"/>
       <c r="AK26" s="10" t="s">
         <v>83</v>
       </c>
@@ -3734,11 +3810,11 @@
       <c r="B27" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="6">
         <v>1</v>
       </c>
@@ -3751,11 +3827,11 @@
       <c r="J27" s="6">
         <v>1</v>
       </c>
-      <c r="K27" s="48" t="s">
+      <c r="K27" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
       <c r="N27" s="6">
         <v>0</v>
       </c>
@@ -3798,16 +3874,16 @@
       <c r="AA27" s="6">
         <v>1</v>
       </c>
-      <c r="AB27" s="48" t="s">
+      <c r="AB27" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC27" s="48"/>
-      <c r="AD27" s="48"/>
-      <c r="AE27" s="48"/>
-      <c r="AF27" s="48"/>
-      <c r="AG27" s="48"/>
-      <c r="AH27" s="48"/>
-      <c r="AI27" s="48"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="58"/>
+      <c r="AF27" s="58"/>
+      <c r="AG27" s="58"/>
+      <c r="AH27" s="58"/>
+      <c r="AI27" s="58"/>
       <c r="AK27" s="10" t="s">
         <v>170</v>
       </c>
@@ -3819,11 +3895,11 @@
       <c r="B28" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="6">
         <v>1</v>
       </c>
@@ -3836,11 +3912,11 @@
       <c r="J28" s="6">
         <v>1</v>
       </c>
-      <c r="K28" s="48" t="s">
+      <c r="K28" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
       <c r="N28" s="6">
         <v>0</v>
       </c>
@@ -3916,11 +3992,11 @@
       <c r="B29" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
       <c r="G29" s="6">
         <v>1</v>
       </c>
@@ -3984,16 +4060,16 @@
       <c r="AA29" s="6">
         <v>1</v>
       </c>
-      <c r="AB29" s="48" t="s">
+      <c r="AB29" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="AC29" s="48"/>
-      <c r="AD29" s="48"/>
-      <c r="AE29" s="48"/>
-      <c r="AF29" s="48"/>
-      <c r="AG29" s="48"/>
-      <c r="AH29" s="48"/>
-      <c r="AI29" s="48"/>
+      <c r="AC29" s="58"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="58"/>
+      <c r="AF29" s="58"/>
+      <c r="AG29" s="58"/>
+      <c r="AH29" s="58"/>
+      <c r="AI29" s="58"/>
     </row>
     <row r="36" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
@@ -4579,12 +4655,59 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:AI23"/>
-    <mergeCell ref="AB25:AI25"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="W24:AI24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="Q24:V24"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="AB17:AI17"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="T18:AI18"/>
+    <mergeCell ref="AB29:AI29"/>
+    <mergeCell ref="N20:AI20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="N22:AI22"/>
+    <mergeCell ref="N21:AI21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="T19:AI19"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="AB27:AI27"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="AD13:AI13"/>
     <mergeCell ref="A10:A13"/>
@@ -4601,59 +4724,12 @@
     <mergeCell ref="N11:S11"/>
     <mergeCell ref="N16:P16"/>
     <mergeCell ref="K17:M17"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="AB29:AI29"/>
-    <mergeCell ref="N20:AI20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="N22:AI22"/>
-    <mergeCell ref="N21:AI21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="T19:AI19"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="AB27:AI27"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="AB17:AI17"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="T18:AI18"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="W24:AI24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="Q24:V24"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:AI23"/>
+    <mergeCell ref="AB25:AI25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4886,25 +4962,25 @@
       <c r="F10" s="29">
         <v>0</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="58" t="s">
         <v>334</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48" t="s">
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48" t="s">
+      <c r="M10" s="58"/>
+      <c r="N10" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48" t="s">
+      <c r="O10" s="58"/>
+      <c r="P10" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="Q10" s="48"/>
+      <c r="Q10" s="58"/>
       <c r="R10" s="29">
         <v>0</v>
       </c>
@@ -4943,14 +5019,14 @@
       <c r="K11" s="32">
         <v>0</v>
       </c>
-      <c r="L11" s="48" t="s">
+      <c r="L11" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48" t="s">
+      <c r="M11" s="58"/>
+      <c r="N11" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="48"/>
+      <c r="O11" s="58"/>
       <c r="P11" s="29">
         <v>0</v>
       </c>
@@ -4996,14 +5072,14 @@
       <c r="K12" s="32">
         <v>0</v>
       </c>
-      <c r="L12" s="48" t="s">
+      <c r="L12" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48" t="s">
+      <c r="M12" s="58"/>
+      <c r="N12" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="48"/>
+      <c r="O12" s="58"/>
       <c r="P12" s="32">
         <v>1</v>
       </c>
@@ -5038,26 +5114,26 @@
       <c r="G13" s="32">
         <v>0</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="49"/>
+      <c r="I13" s="67"/>
       <c r="J13" s="32">
         <v>0</v>
       </c>
       <c r="K13" s="32">
         <v>1</v>
       </c>
-      <c r="L13" s="49" t="s">
+      <c r="L13" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
       <c r="U13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -5080,26 +5156,26 @@
       <c r="G14" s="32">
         <v>0</v>
       </c>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="49"/>
+      <c r="I14" s="67"/>
       <c r="J14" s="32">
         <v>1</v>
       </c>
       <c r="K14" s="32">
         <v>0</v>
       </c>
-      <c r="L14" s="49" t="s">
+      <c r="L14" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
       <c r="U14" s="10"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -5122,26 +5198,26 @@
       <c r="G15" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="49"/>
+      <c r="I15" s="67"/>
       <c r="J15" s="32">
         <v>0</v>
       </c>
       <c r="K15" s="32">
         <v>0</v>
       </c>
-      <c r="L15" s="49" t="s">
+      <c r="L15" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
       <c r="U15" s="10"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -5163,30 +5239,30 @@
       <c r="G16" s="32">
         <v>1</v>
       </c>
-      <c r="H16" s="58" t="s">
+      <c r="H16" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
       <c r="K16" s="32">
         <v>1</v>
       </c>
-      <c r="L16" s="49" t="s">
+      <c r="L16" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
       <c r="U16" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="47">
+      <c r="A17" s="70">
         <v>13</v>
       </c>
       <c r="B17" s="33" t="s">
@@ -5204,14 +5280,14 @@
       <c r="G17" s="32">
         <v>0</v>
       </c>
-      <c r="H17" s="49" t="s">
+      <c r="H17" s="67" t="s">
         <v>337</v>
       </c>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49" t="s">
+      <c r="I17" s="67"/>
+      <c r="J17" s="67" t="s">
         <v>340</v>
       </c>
-      <c r="K17" s="49"/>
+      <c r="K17" s="67"/>
       <c r="L17" s="32">
         <v>0</v>
       </c>
@@ -5241,7 +5317,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="33" t="s">
         <v>343</v>
       </c>
@@ -5257,14 +5333,14 @@
       <c r="G18" s="32">
         <v>0</v>
       </c>
-      <c r="H18" s="49" t="s">
+      <c r="H18" s="67" t="s">
         <v>337</v>
       </c>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49" t="s">
+      <c r="I18" s="67"/>
+      <c r="J18" s="67" t="s">
         <v>340</v>
       </c>
-      <c r="K18" s="49"/>
+      <c r="K18" s="67"/>
       <c r="L18" s="32">
         <v>0</v>
       </c>
@@ -5294,7 +5370,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="33" t="s">
         <v>339</v>
       </c>
@@ -5310,12 +5386,12 @@
       <c r="G19" s="32">
         <v>0</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="68" t="s">
         <v>332</v>
       </c>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
       <c r="L19" s="32">
         <v>0</v>
       </c>
@@ -5540,6 +5616,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J18:K18"/>
@@ -5550,18 +5638,6 @@
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="H14:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5570,10 +5646,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5604,20 +5680,20 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="76"/>
       <c r="M2" s="20" t="s">
         <v>152</v>
       </c>
@@ -5739,11 +5815,11 @@
         <v>1</v>
       </c>
       <c r="I5" s="24">
-        <f t="shared" ref="I5:I47" si="0">_xlfn.DECIMAL(CONCATENATE(C5,D5,E5,F5,G5,H5),2)</f>
+        <f t="shared" ref="I5:I54" si="0">_xlfn.DECIMAL(CONCATENATE(C5,D5,E5,F5,G5,H5),2)</f>
         <v>49</v>
       </c>
       <c r="J5" s="24" t="str">
-        <f t="shared" ref="J5:J47" si="1">DEC2HEX(I5,2)&amp;"h"</f>
+        <f t="shared" ref="J5:J54" si="1">DEC2HEX(I5,2)&amp;"h"</f>
         <v>31h</v>
       </c>
       <c r="L5" t="s">
@@ -5895,1634 +5971,1911 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="83" t="s">
+        <v>435</v>
+      </c>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84">
+        <v>1</v>
+      </c>
+      <c r="D9" s="84">
+        <v>1</v>
+      </c>
+      <c r="E9" s="84">
+        <v>0</v>
+      </c>
+      <c r="F9" s="84">
+        <v>1</v>
+      </c>
+      <c r="G9" s="84">
+        <v>0</v>
+      </c>
+      <c r="H9" s="84">
+        <v>1</v>
+      </c>
+      <c r="I9" s="84">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="J9" s="84" t="str">
+        <f t="shared" si="1"/>
+        <v>35h</v>
+      </c>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85" t="s">
+        <v>436</v>
+      </c>
+      <c r="M9" s="85" t="s">
+        <v>437</v>
+      </c>
+      <c r="N9" s="85"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="24">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="24">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="J9" s="24" t="str">
+      <c r="J10" s="24" t="str">
         <f t="shared" si="1"/>
         <v>36h</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L10" t="s">
         <v>158</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M10" t="s">
         <v>189</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N10" t="s">
         <v>156</v>
       </c>
-      <c r="P9" s="19" t="s">
+      <c r="P10" s="19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="I10" s="24">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="24">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="J10" s="24" t="str">
+      <c r="J11" s="24" t="str">
         <f t="shared" si="1"/>
         <v>37h</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L11" t="s">
         <v>159</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M11" t="s">
         <v>190</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N11" t="s">
         <v>155</v>
       </c>
-      <c r="P10" s="19" t="s">
+      <c r="P11" s="19" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x1